--- a/DCIT 65 - CS 3B/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3B/LEC AND LAB.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="260">
   <si>
     <t>Subject:</t>
   </si>
@@ -1867,7 +1867,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2297,6 +2297,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2847,17 +2851,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3925,8 +3919,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3947,82 +3941,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="166" t="s">
+      <c r="A6" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="167"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4030,28 +4024,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="168" t="s">
+      <c r="J6" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="168"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="170" t="s">
+      <c r="A7" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="171"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="172" t="s">
+      <c r="E7" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="172"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4059,28 +4053,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="172" t="s">
+      <c r="J7" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="172"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="152" t="s">
+      <c r="A8" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="153"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="154" t="s">
+      <c r="E8" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4088,45 +4082,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="154" t="s">
+      <c r="J8" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="160" t="s">
+      <c r="C9" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161" t="s">
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="161" t="s">
+      <c r="G9" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="163"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="144" t="s">
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="144" t="s">
+      <c r="K9" s="146"/>
+      <c r="L9" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="145"/>
+      <c r="M9" s="146"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="157"/>
-      <c r="B10" s="159"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4136,14 +4130,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4164,19 +4158,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="149"/>
-      <c r="O11" s="136" t="s">
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="150"/>
+      <c r="O11" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4197,21 +4191,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="131" t="s">
+      <c r="P12" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4232,21 +4226,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="131" t="s">
+      <c r="P13" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4267,21 +4261,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="128" t="s">
+      <c r="P14" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4302,21 +4296,21 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="129"/>
-      <c r="R15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="131"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4335,21 +4329,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="139" t="s">
+      <c r="P16" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4370,21 +4364,21 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="128" t="s">
+      <c r="P17" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="129"/>
-      <c r="R17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="131"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4405,13 +4399,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4432,13 +4426,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4459,13 +4453,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4486,13 +4480,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4516,13 +4510,13 @@
       <c r="F22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4549,13 +4543,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4582,13 +4576,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4615,13 +4609,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4648,13 +4642,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4681,13 +4675,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4714,13 +4708,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="132"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4747,13 +4741,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4780,13 +4774,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4813,13 +4807,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="134"/>
-      <c r="M31" s="134"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4842,13 +4836,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="134"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4875,13 +4869,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="134"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4902,13 +4896,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="132"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="134"/>
-      <c r="M34" s="134"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4926,14 +4920,16 @@
       <c r="E35" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
+      <c r="F35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4944,13 +4940,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="134"/>
-      <c r="M36" s="134"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4961,13 +4957,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="133"/>
-      <c r="K37" s="133"/>
-      <c r="L37" s="134"/>
-      <c r="M37" s="134"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4978,13 +4974,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="133"/>
-      <c r="K38" s="133"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="135"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4995,13 +4991,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="132"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5012,13 +5008,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="133"/>
-      <c r="K40" s="133"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5029,13 +5025,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="132"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5046,13 +5042,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5063,13 +5059,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5080,13 +5076,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="133"/>
-      <c r="K44" s="133"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5097,13 +5093,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
-      <c r="J45" s="133"/>
-      <c r="K45" s="133"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5114,13 +5110,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5131,13 +5127,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="133"/>
-      <c r="K47" s="133"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5148,13 +5144,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="133"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5165,13 +5161,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="132"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="133"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5182,13 +5178,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5199,13 +5195,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5216,13 +5212,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5233,13 +5229,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="133"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5250,13 +5246,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="133"/>
-      <c r="K54" s="133"/>
-      <c r="L54" s="134"/>
-      <c r="M54" s="134"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="135"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5267,13 +5263,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="133"/>
-      <c r="K55" s="133"/>
-      <c r="L55" s="134"/>
-      <c r="M55" s="134"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5284,13 +5280,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="134"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5301,13 +5297,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="133"/>
-      <c r="K57" s="133"/>
-      <c r="L57" s="134"/>
-      <c r="M57" s="134"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5318,13 +5314,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5335,13 +5331,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="132"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5352,13 +5348,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5369,13 +5365,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5386,13 +5382,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5403,13 +5399,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
-      <c r="K63" s="133"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="133"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="135"/>
+      <c r="M63" s="135"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5420,13 +5416,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="133"/>
-      <c r="K64" s="133"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5437,13 +5433,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="133"/>
-      <c r="K65" s="133"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5454,13 +5450,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="133"/>
-      <c r="K66" s="133"/>
-      <c r="L66" s="134"/>
-      <c r="M66" s="134"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="135"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5471,13 +5467,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="132"/>
-      <c r="H67" s="132"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="133"/>
-      <c r="K67" s="133"/>
-      <c r="L67" s="134"/>
-      <c r="M67" s="134"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5488,13 +5484,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="132"/>
-      <c r="H68" s="132"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="133"/>
-      <c r="K68" s="133"/>
-      <c r="L68" s="134"/>
-      <c r="M68" s="134"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="135"/>
+      <c r="M68" s="135"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5505,13 +5501,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="132"/>
-      <c r="H69" s="132"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="133"/>
-      <c r="L69" s="134"/>
-      <c r="M69" s="134"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="134"/>
+      <c r="L69" s="135"/>
+      <c r="M69" s="135"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5522,13 +5518,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="132"/>
-      <c r="H70" s="132"/>
-      <c r="I70" s="132"/>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="134"/>
-      <c r="M70" s="134"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="135"/>
+      <c r="M70" s="135"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5539,13 +5535,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="133"/>
-      <c r="K71" s="133"/>
-      <c r="L71" s="134"/>
-      <c r="M71" s="134"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="133"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="135"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5768,322 +5764,322 @@
     <mergeCell ref="J68:K68"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
-    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B71">
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="72" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C71">
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C71">
-    <cfRule type="cellIs" dxfId="64" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D71">
-    <cfRule type="cellIs" dxfId="63" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D71">
-    <cfRule type="cellIs" dxfId="62" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="67" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E71">
-    <cfRule type="cellIs" dxfId="61" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E71">
-    <cfRule type="cellIs" dxfId="60" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="65" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29">
-    <cfRule type="cellIs" dxfId="59" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="55" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B29">
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C29">
-    <cfRule type="cellIs" dxfId="57" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C29">
-    <cfRule type="cellIs" dxfId="56" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D29">
-    <cfRule type="cellIs" dxfId="55" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D29">
-    <cfRule type="cellIs" dxfId="54" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="cellIs" dxfId="53" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="cellIs" dxfId="52" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="51" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="48" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="46" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E36">
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B35">
-    <cfRule type="cellIs" dxfId="47" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="44" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B35">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C35">
-    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C35">
-    <cfRule type="cellIs" dxfId="44" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D35">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D35">
-    <cfRule type="cellIs" dxfId="42" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="39" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E35">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E35">
-    <cfRule type="cellIs" dxfId="40" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B28">
-    <cfRule type="cellIs" dxfId="39" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="36" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B28">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C29">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C29">
-    <cfRule type="cellIs" dxfId="36" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D29">
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D29">
-    <cfRule type="cellIs" dxfId="34" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="cellIs" dxfId="32" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="31" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="27" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B35">
-    <cfRule type="cellIs" dxfId="25" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B35">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C35">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:C35">
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D35">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D35">
-    <cfRule type="cellIs" dxfId="20" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E35">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E35">
-    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B28">
-    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B28">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C29">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C29">
-    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D29">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D29">
-    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E29">
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="7" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:E35">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6106,9 +6102,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BL1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR33" sqref="BR33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="DD20" sqref="DD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6122,452 +6118,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="135"/>
-      <c r="AY2" s="135"/>
-      <c r="AZ2" s="135"/>
-      <c r="BA2" s="135"/>
-      <c r="BB2" s="135"/>
-      <c r="BC2" s="135"/>
-      <c r="BD2" s="135"/>
-      <c r="BE2" s="135"/>
-      <c r="BF2" s="135"/>
-      <c r="BG2" s="135"/>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="135"/>
-      <c r="BK2" s="135"/>
-      <c r="BL2" s="135"/>
-      <c r="BM2" s="135"/>
-      <c r="BN2" s="135"/>
-      <c r="BO2" s="135"/>
-      <c r="BP2" s="135"/>
-      <c r="BQ2" s="135"/>
-      <c r="BR2" s="135"/>
-      <c r="BS2" s="135"/>
-      <c r="BT2" s="135"/>
-      <c r="BU2" s="135"/>
-      <c r="BV2" s="135"/>
-      <c r="BW2" s="135"/>
-      <c r="BX2" s="135"/>
-      <c r="BY2" s="135"/>
-      <c r="BZ2" s="135"/>
-      <c r="CA2" s="135"/>
-      <c r="CB2" s="135"/>
-      <c r="CC2" s="135"/>
-      <c r="CD2" s="135"/>
-      <c r="CE2" s="135"/>
-      <c r="CF2" s="135"/>
-      <c r="CG2" s="135"/>
-      <c r="CH2" s="135"/>
-      <c r="CI2" s="135"/>
-      <c r="CJ2" s="135"/>
-      <c r="CK2" s="135"/>
-      <c r="CL2" s="135"/>
-      <c r="CM2" s="135"/>
-      <c r="CN2" s="135"/>
-      <c r="CO2" s="135"/>
-      <c r="CP2" s="135"/>
-      <c r="CQ2" s="135"/>
-      <c r="CR2" s="135"/>
-      <c r="CS2" s="135"/>
-      <c r="CT2" s="135"/>
-      <c r="CU2" s="135"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="136"/>
+      <c r="BR2" s="136"/>
+      <c r="BS2" s="136"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="136"/>
+      <c r="BV2" s="136"/>
+      <c r="BW2" s="136"/>
+      <c r="BX2" s="136"/>
+      <c r="BY2" s="136"/>
+      <c r="BZ2" s="136"/>
+      <c r="CA2" s="136"/>
+      <c r="CB2" s="136"/>
+      <c r="CC2" s="136"/>
+      <c r="CD2" s="136"/>
+      <c r="CE2" s="136"/>
+      <c r="CF2" s="136"/>
+      <c r="CG2" s="136"/>
+      <c r="CH2" s="136"/>
+      <c r="CI2" s="136"/>
+      <c r="CJ2" s="136"/>
+      <c r="CK2" s="136"/>
+      <c r="CL2" s="136"/>
+      <c r="CM2" s="136"/>
+      <c r="CN2" s="136"/>
+      <c r="CO2" s="136"/>
+      <c r="CP2" s="136"/>
+      <c r="CQ2" s="136"/>
+      <c r="CR2" s="136"/>
+      <c r="CS2" s="136"/>
+      <c r="CT2" s="136"/>
+      <c r="CU2" s="136"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="135"/>
-      <c r="AH3" s="135"/>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="135"/>
-      <c r="AL3" s="135"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="135"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="135"/>
-      <c r="AT3" s="135"/>
-      <c r="AU3" s="135"/>
-      <c r="AV3" s="135"/>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="135"/>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="135"/>
-      <c r="BB3" s="135"/>
-      <c r="BC3" s="135"/>
-      <c r="BD3" s="135"/>
-      <c r="BE3" s="135"/>
-      <c r="BF3" s="135"/>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="135"/>
-      <c r="BJ3" s="135"/>
-      <c r="BK3" s="135"/>
-      <c r="BL3" s="135"/>
-      <c r="BM3" s="135"/>
-      <c r="BN3" s="135"/>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="135"/>
-      <c r="BR3" s="135"/>
-      <c r="BS3" s="135"/>
-      <c r="BT3" s="135"/>
-      <c r="BU3" s="135"/>
-      <c r="BV3" s="135"/>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="135"/>
-      <c r="BZ3" s="135"/>
-      <c r="CA3" s="135"/>
-      <c r="CB3" s="135"/>
-      <c r="CC3" s="135"/>
-      <c r="CD3" s="135"/>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="135"/>
-      <c r="CH3" s="135"/>
-      <c r="CI3" s="135"/>
-      <c r="CJ3" s="135"/>
-      <c r="CK3" s="135"/>
-      <c r="CL3" s="135"/>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="135"/>
-      <c r="CP3" s="135"/>
-      <c r="CQ3" s="135"/>
-      <c r="CR3" s="135"/>
-      <c r="CS3" s="135"/>
-      <c r="CT3" s="135"/>
-      <c r="CU3" s="135"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="136"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="136"/>
+      <c r="BZ3" s="136"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="136"/>
+      <c r="CE3" s="136"/>
+      <c r="CF3" s="136"/>
+      <c r="CG3" s="136"/>
+      <c r="CH3" s="136"/>
+      <c r="CI3" s="136"/>
+      <c r="CJ3" s="136"/>
+      <c r="CK3" s="136"/>
+      <c r="CL3" s="136"/>
+      <c r="CM3" s="136"/>
+      <c r="CN3" s="136"/>
+      <c r="CO3" s="136"/>
+      <c r="CP3" s="136"/>
+      <c r="CQ3" s="136"/>
+      <c r="CR3" s="136"/>
+      <c r="CS3" s="136"/>
+      <c r="CT3" s="136"/>
+      <c r="CU3" s="136"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="200" t="s">
+      <c r="A5" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="203" t="s">
+      <c r="B5" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="203" t="s">
+      <c r="C5" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="204" t="s">
+      <c r="D5" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="205"/>
-      <c r="P5" s="205"/>
-      <c r="Q5" s="205"/>
-      <c r="R5" s="205"/>
-      <c r="S5" s="205"/>
-      <c r="T5" s="205"/>
-      <c r="U5" s="205"/>
-      <c r="V5" s="205"/>
-      <c r="W5" s="205"/>
-      <c r="X5" s="205"/>
-      <c r="Y5" s="205"/>
-      <c r="Z5" s="205"/>
-      <c r="AA5" s="205"/>
-      <c r="AB5" s="205"/>
-      <c r="AC5" s="205"/>
-      <c r="AD5" s="205"/>
-      <c r="AE5" s="205"/>
-      <c r="AF5" s="205"/>
-      <c r="AG5" s="205"/>
-      <c r="AH5" s="205"/>
-      <c r="AI5" s="205"/>
-      <c r="AJ5" s="205"/>
-      <c r="AK5" s="205"/>
-      <c r="AL5" s="205"/>
-      <c r="AM5" s="205"/>
-      <c r="AN5" s="205"/>
-      <c r="AO5" s="205"/>
-      <c r="AP5" s="205"/>
-      <c r="AQ5" s="205"/>
-      <c r="AR5" s="205"/>
-      <c r="AS5" s="205"/>
-      <c r="AT5" s="205"/>
-      <c r="AU5" s="205"/>
-      <c r="AV5" s="205"/>
-      <c r="AW5" s="205"/>
-      <c r="AX5" s="205"/>
-      <c r="AY5" s="205"/>
-      <c r="AZ5" s="205"/>
-      <c r="BA5" s="205"/>
-      <c r="BB5" s="205"/>
-      <c r="BC5" s="205"/>
-      <c r="BD5" s="206"/>
-      <c r="BE5" s="207" t="s">
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+      <c r="AK5" s="206"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="206"/>
+      <c r="AN5" s="206"/>
+      <c r="AO5" s="206"/>
+      <c r="AP5" s="206"/>
+      <c r="AQ5" s="206"/>
+      <c r="AR5" s="206"/>
+      <c r="AS5" s="206"/>
+      <c r="AT5" s="206"/>
+      <c r="AU5" s="206"/>
+      <c r="AV5" s="206"/>
+      <c r="AW5" s="206"/>
+      <c r="AX5" s="206"/>
+      <c r="AY5" s="206"/>
+      <c r="AZ5" s="206"/>
+      <c r="BA5" s="206"/>
+      <c r="BB5" s="206"/>
+      <c r="BC5" s="206"/>
+      <c r="BD5" s="207"/>
+      <c r="BE5" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="208"/>
-      <c r="BG5" s="208"/>
-      <c r="BH5" s="208"/>
-      <c r="BI5" s="208"/>
-      <c r="BJ5" s="208"/>
-      <c r="BK5" s="208"/>
-      <c r="BL5" s="208"/>
-      <c r="BM5" s="208"/>
-      <c r="BN5" s="208"/>
-      <c r="BO5" s="208"/>
-      <c r="BP5" s="208"/>
-      <c r="BQ5" s="208"/>
-      <c r="BR5" s="208"/>
-      <c r="BS5" s="208"/>
-      <c r="BT5" s="208"/>
-      <c r="BU5" s="208"/>
-      <c r="BV5" s="208"/>
-      <c r="BW5" s="208"/>
-      <c r="BX5" s="208"/>
-      <c r="BY5" s="208"/>
-      <c r="BZ5" s="208"/>
-      <c r="CA5" s="208"/>
-      <c r="CB5" s="208"/>
-      <c r="CC5" s="208"/>
-      <c r="CD5" s="208"/>
-      <c r="CE5" s="208"/>
-      <c r="CF5" s="208"/>
-      <c r="CG5" s="208"/>
-      <c r="CH5" s="208"/>
-      <c r="CI5" s="208"/>
-      <c r="CJ5" s="208"/>
-      <c r="CK5" s="208"/>
-      <c r="CL5" s="208"/>
-      <c r="CM5" s="208"/>
-      <c r="CN5" s="208"/>
-      <c r="CO5" s="208"/>
-      <c r="CP5" s="208"/>
-      <c r="CQ5" s="208"/>
-      <c r="CR5" s="209"/>
-      <c r="CS5" s="196" t="s">
+      <c r="BF5" s="209"/>
+      <c r="BG5" s="209"/>
+      <c r="BH5" s="209"/>
+      <c r="BI5" s="209"/>
+      <c r="BJ5" s="209"/>
+      <c r="BK5" s="209"/>
+      <c r="BL5" s="209"/>
+      <c r="BM5" s="209"/>
+      <c r="BN5" s="209"/>
+      <c r="BO5" s="209"/>
+      <c r="BP5" s="209"/>
+      <c r="BQ5" s="209"/>
+      <c r="BR5" s="209"/>
+      <c r="BS5" s="209"/>
+      <c r="BT5" s="209"/>
+      <c r="BU5" s="209"/>
+      <c r="BV5" s="209"/>
+      <c r="BW5" s="209"/>
+      <c r="BX5" s="209"/>
+      <c r="BY5" s="209"/>
+      <c r="BZ5" s="209"/>
+      <c r="CA5" s="209"/>
+      <c r="CB5" s="209"/>
+      <c r="CC5" s="209"/>
+      <c r="CD5" s="209"/>
+      <c r="CE5" s="209"/>
+      <c r="CF5" s="209"/>
+      <c r="CG5" s="209"/>
+      <c r="CH5" s="209"/>
+      <c r="CI5" s="209"/>
+      <c r="CJ5" s="209"/>
+      <c r="CK5" s="209"/>
+      <c r="CL5" s="209"/>
+      <c r="CM5" s="209"/>
+      <c r="CN5" s="209"/>
+      <c r="CO5" s="209"/>
+      <c r="CP5" s="209"/>
+      <c r="CQ5" s="209"/>
+      <c r="CR5" s="210"/>
+      <c r="CS5" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="197"/>
-      <c r="CU5" s="198"/>
+      <c r="CT5" s="198"/>
+      <c r="CU5" s="199"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="201"/>
-      <c r="B6" s="203"/>
-      <c r="C6" s="203"/>
-      <c r="D6" s="179" t="s">
+      <c r="A6" s="202"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="182" t="s">
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="182"/>
-      <c r="X6" s="182"/>
-      <c r="Y6" s="182"/>
-      <c r="Z6" s="182"/>
-      <c r="AA6" s="182"/>
-      <c r="AB6" s="182"/>
-      <c r="AC6" s="182"/>
-      <c r="AD6" s="182"/>
-      <c r="AE6" s="182"/>
-      <c r="AF6" s="182"/>
-      <c r="AG6" s="182"/>
-      <c r="AH6" s="182"/>
-      <c r="AI6" s="182"/>
-      <c r="AJ6" s="182"/>
-      <c r="AK6" s="182"/>
-      <c r="AL6" s="182"/>
-      <c r="AM6" s="182"/>
-      <c r="AN6" s="182"/>
-      <c r="AO6" s="182" t="s">
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="183"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="183"/>
+      <c r="AH6" s="183"/>
+      <c r="AI6" s="183"/>
+      <c r="AJ6" s="183"/>
+      <c r="AK6" s="183"/>
+      <c r="AL6" s="183"/>
+      <c r="AM6" s="183"/>
+      <c r="AN6" s="183"/>
+      <c r="AO6" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="182"/>
-      <c r="AQ6" s="182"/>
-      <c r="AR6" s="182"/>
-      <c r="AS6" s="182" t="s">
+      <c r="AP6" s="183"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="182"/>
-      <c r="AU6" s="182"/>
-      <c r="AV6" s="182" t="s">
+      <c r="AT6" s="183"/>
+      <c r="AU6" s="183"/>
+      <c r="AV6" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="182"/>
-      <c r="AX6" s="182"/>
-      <c r="AY6" s="182"/>
-      <c r="AZ6" s="182"/>
-      <c r="BA6" s="182"/>
-      <c r="BB6" s="182"/>
-      <c r="BC6" s="189" t="s">
+      <c r="AW6" s="183"/>
+      <c r="AX6" s="183"/>
+      <c r="AY6" s="183"/>
+      <c r="AZ6" s="183"/>
+      <c r="BA6" s="183"/>
+      <c r="BB6" s="183"/>
+      <c r="BC6" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="190"/>
-      <c r="BE6" s="191" t="s">
+      <c r="BD6" s="191"/>
+      <c r="BE6" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="192"/>
-      <c r="BG6" s="192"/>
-      <c r="BH6" s="192"/>
-      <c r="BI6" s="192"/>
-      <c r="BJ6" s="192"/>
-      <c r="BK6" s="193"/>
-      <c r="BL6" s="194" t="s">
+      <c r="BF6" s="193"/>
+      <c r="BG6" s="193"/>
+      <c r="BH6" s="193"/>
+      <c r="BI6" s="193"/>
+      <c r="BJ6" s="193"/>
+      <c r="BK6" s="194"/>
+      <c r="BL6" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="192"/>
-      <c r="BN6" s="192"/>
-      <c r="BO6" s="192"/>
-      <c r="BP6" s="192"/>
-      <c r="BQ6" s="192"/>
-      <c r="BR6" s="192"/>
-      <c r="BS6" s="192"/>
-      <c r="BT6" s="192"/>
-      <c r="BU6" s="192"/>
-      <c r="BV6" s="192"/>
-      <c r="BW6" s="192"/>
-      <c r="BX6" s="192"/>
-      <c r="BY6" s="192"/>
-      <c r="BZ6" s="192"/>
-      <c r="CA6" s="192"/>
-      <c r="CB6" s="192"/>
-      <c r="CC6" s="192"/>
-      <c r="CD6" s="192"/>
-      <c r="CE6" s="192"/>
-      <c r="CF6" s="192"/>
-      <c r="CG6" s="192"/>
-      <c r="CH6" s="192"/>
-      <c r="CI6" s="192"/>
-      <c r="CJ6" s="192"/>
-      <c r="CK6" s="192"/>
-      <c r="CL6" s="192"/>
-      <c r="CM6" s="192"/>
-      <c r="CN6" s="192"/>
-      <c r="CO6" s="192"/>
-      <c r="CP6" s="192"/>
-      <c r="CQ6" s="199" t="s">
+      <c r="BM6" s="193"/>
+      <c r="BN6" s="193"/>
+      <c r="BO6" s="193"/>
+      <c r="BP6" s="193"/>
+      <c r="BQ6" s="193"/>
+      <c r="BR6" s="193"/>
+      <c r="BS6" s="193"/>
+      <c r="BT6" s="193"/>
+      <c r="BU6" s="193"/>
+      <c r="BV6" s="193"/>
+      <c r="BW6" s="193"/>
+      <c r="BX6" s="193"/>
+      <c r="BY6" s="193"/>
+      <c r="BZ6" s="193"/>
+      <c r="CA6" s="193"/>
+      <c r="CB6" s="193"/>
+      <c r="CC6" s="193"/>
+      <c r="CD6" s="193"/>
+      <c r="CE6" s="193"/>
+      <c r="CF6" s="193"/>
+      <c r="CG6" s="193"/>
+      <c r="CH6" s="193"/>
+      <c r="CI6" s="193"/>
+      <c r="CJ6" s="193"/>
+      <c r="CK6" s="193"/>
+      <c r="CL6" s="193"/>
+      <c r="CM6" s="193"/>
+      <c r="CN6" s="193"/>
+      <c r="CO6" s="193"/>
+      <c r="CP6" s="193"/>
+      <c r="CQ6" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="199"/>
-      <c r="CS6" s="195" t="s">
+      <c r="CR6" s="200"/>
+      <c r="CS6" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="195" t="s">
+      <c r="CT6" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="186" t="s">
+      <c r="CU6" s="187" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="201"/>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6576,343 +6572,347 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="181">
+      <c r="J7" s="182">
         <v>42980</v>
       </c>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="181"/>
-      <c r="S7" s="181"/>
-      <c r="T7" s="185">
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="186">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="185"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="181"/>
-      <c r="AF7" s="181"/>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="181"/>
-      <c r="AI7" s="181"/>
-      <c r="AJ7" s="181"/>
-      <c r="AK7" s="181"/>
-      <c r="AL7" s="181"/>
-      <c r="AM7" s="181"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="182"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="182"/>
+      <c r="AJ7" s="182"/>
+      <c r="AK7" s="182"/>
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="181" t="s">
+      <c r="AO7" s="182" t="s">
         <v>254</v>
       </c>
-      <c r="AP7" s="181"/>
-      <c r="AQ7" s="181"/>
-      <c r="AR7" s="181"/>
-      <c r="AS7" s="185">
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="186">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="185"/>
+      <c r="AT7" s="186"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="181" t="s">
+      <c r="AV7" s="182" t="s">
         <v>255</v>
       </c>
-      <c r="AW7" s="181"/>
-      <c r="AX7" s="181"/>
-      <c r="AY7" s="181"/>
-      <c r="AZ7" s="185">
+      <c r="AW7" s="182"/>
+      <c r="AX7" s="182"/>
+      <c r="AY7" s="182"/>
+      <c r="AZ7" s="186">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="185"/>
+      <c r="BA7" s="186"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="189"/>
-      <c r="BD7" s="190"/>
-      <c r="BE7" s="181" t="s">
+      <c r="BC7" s="190"/>
+      <c r="BD7" s="191"/>
+      <c r="BE7" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="BF7" s="181"/>
-      <c r="BG7" s="181" t="s">
+      <c r="BF7" s="182"/>
+      <c r="BG7" s="182" t="s">
         <v>257</v>
       </c>
-      <c r="BH7" s="181"/>
-      <c r="BI7" s="185">
+      <c r="BH7" s="182"/>
+      <c r="BI7" s="186">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="185"/>
+      <c r="BJ7" s="186"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="181">
+      <c r="BL7" s="182">
         <v>42980</v>
       </c>
-      <c r="BM7" s="181"/>
-      <c r="BN7" s="181">
+      <c r="BM7" s="182"/>
+      <c r="BN7" s="182">
         <v>42980</v>
       </c>
-      <c r="BO7" s="181"/>
-      <c r="BP7" s="181">
+      <c r="BO7" s="182"/>
+      <c r="BP7" s="182">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="181"/>
-      <c r="BR7" s="181">
+      <c r="BQ7" s="182"/>
+      <c r="BR7" s="182">
         <v>42987</v>
       </c>
-      <c r="BS7" s="181"/>
-      <c r="BT7" s="181"/>
-      <c r="BU7" s="181"/>
-      <c r="BV7" s="181"/>
-      <c r="BW7" s="181"/>
-      <c r="BX7" s="181"/>
-      <c r="BY7" s="181"/>
-      <c r="BZ7" s="181"/>
-      <c r="CA7" s="181"/>
-      <c r="CB7" s="181"/>
-      <c r="CC7" s="181"/>
-      <c r="CD7" s="181"/>
-      <c r="CE7" s="181"/>
-      <c r="CF7" s="181"/>
-      <c r="CG7" s="181"/>
-      <c r="CH7" s="181"/>
-      <c r="CI7" s="181"/>
-      <c r="CJ7" s="181"/>
-      <c r="CK7" s="181"/>
-      <c r="CL7" s="181"/>
-      <c r="CM7" s="181"/>
-      <c r="CN7" s="185">
+      <c r="BS7" s="182"/>
+      <c r="BT7" s="182"/>
+      <c r="BU7" s="182"/>
+      <c r="BV7" s="182"/>
+      <c r="BW7" s="182"/>
+      <c r="BX7" s="182"/>
+      <c r="BY7" s="182"/>
+      <c r="BZ7" s="182"/>
+      <c r="CA7" s="182"/>
+      <c r="CB7" s="182"/>
+      <c r="CC7" s="182"/>
+      <c r="CD7" s="182"/>
+      <c r="CE7" s="182"/>
+      <c r="CF7" s="182"/>
+      <c r="CG7" s="182"/>
+      <c r="CH7" s="182"/>
+      <c r="CI7" s="182"/>
+      <c r="CJ7" s="182"/>
+      <c r="CK7" s="182"/>
+      <c r="CL7" s="182"/>
+      <c r="CM7" s="182"/>
+      <c r="CN7" s="186">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>4</v>
       </c>
-      <c r="CO7" s="185"/>
+      <c r="CO7" s="186"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="199"/>
-      <c r="CR7" s="199"/>
-      <c r="CS7" s="195"/>
-      <c r="CT7" s="195"/>
-      <c r="CU7" s="187"/>
+      <c r="CQ7" s="200"/>
+      <c r="CR7" s="200"/>
+      <c r="CS7" s="196"/>
+      <c r="CT7" s="196"/>
+      <c r="CU7" s="188"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="201"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="210" t="s">
+      <c r="A8" s="202"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210" t="s">
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="174" t="s">
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174" t="s">
+      <c r="K8" s="175"/>
+      <c r="L8" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174" t="s">
+      <c r="M8" s="175"/>
+      <c r="N8" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174" t="s">
+      <c r="O8" s="175"/>
+      <c r="P8" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="174" t="s">
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="174"/>
-      <c r="T8" s="174" t="s">
+      <c r="S8" s="175"/>
+      <c r="T8" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="174"/>
-      <c r="V8" s="174" t="s">
+      <c r="U8" s="175"/>
+      <c r="V8" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="174"/>
-      <c r="X8" s="174" t="s">
+      <c r="W8" s="175"/>
+      <c r="X8" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174" t="s">
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="174" t="s">
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="174"/>
-      <c r="AD8" s="174" t="s">
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="174" t="s">
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174" t="s">
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="174"/>
-      <c r="AJ8" s="174" t="s">
+      <c r="AI8" s="175"/>
+      <c r="AJ8" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="174"/>
-      <c r="AL8" s="174" t="s">
+      <c r="AK8" s="175"/>
+      <c r="AL8" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="174"/>
+      <c r="AM8" s="175"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="174" t="s">
+      <c r="AO8" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="174"/>
-      <c r="AQ8" s="174" t="s">
+      <c r="AP8" s="175"/>
+      <c r="AQ8" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="174"/>
-      <c r="AS8" s="174" t="s">
+      <c r="AR8" s="175"/>
+      <c r="AS8" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="174"/>
+      <c r="AT8" s="175"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="174" t="s">
+      <c r="AV8" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="174"/>
-      <c r="AX8" s="174" t="s">
+      <c r="AW8" s="175"/>
+      <c r="AX8" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="174"/>
-      <c r="AZ8" s="174" t="s">
+      <c r="AY8" s="175"/>
+      <c r="AZ8" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="174"/>
+      <c r="BA8" s="175"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="189"/>
-      <c r="BD8" s="190"/>
-      <c r="BE8" s="184" t="s">
+      <c r="BC8" s="190"/>
+      <c r="BD8" s="191"/>
+      <c r="BE8" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="183"/>
-      <c r="BG8" s="183" t="s">
+      <c r="BF8" s="184"/>
+      <c r="BG8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="183"/>
-      <c r="BI8" s="183" t="s">
+      <c r="BH8" s="184"/>
+      <c r="BI8" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="183"/>
+      <c r="BJ8" s="184"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="177" t="s">
+      <c r="BL8" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="178"/>
-      <c r="BN8" s="177" t="s">
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="178"/>
-      <c r="BP8" s="177" t="s">
+      <c r="BO8" s="179"/>
+      <c r="BP8" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="178"/>
-      <c r="BR8" s="177" t="s">
+      <c r="BQ8" s="179"/>
+      <c r="BR8" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="178"/>
-      <c r="BT8" s="177" t="s">
+      <c r="BS8" s="179"/>
+      <c r="BT8" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="178"/>
-      <c r="BV8" s="175" t="s">
+      <c r="BU8" s="179"/>
+      <c r="BV8" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="176"/>
-      <c r="BX8" s="175" t="s">
+      <c r="BW8" s="177"/>
+      <c r="BX8" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="176"/>
-      <c r="BZ8" s="175" t="s">
+      <c r="BY8" s="177"/>
+      <c r="BZ8" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="176"/>
-      <c r="CB8" s="175" t="s">
+      <c r="CA8" s="177"/>
+      <c r="CB8" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="176"/>
-      <c r="CD8" s="175" t="s">
+      <c r="CC8" s="177"/>
+      <c r="CD8" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="176"/>
-      <c r="CF8" s="175" t="s">
+      <c r="CE8" s="177"/>
+      <c r="CF8" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="176"/>
-      <c r="CH8" s="175" t="s">
+      <c r="CG8" s="177"/>
+      <c r="CH8" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="176"/>
-      <c r="CJ8" s="175" t="s">
+      <c r="CI8" s="177"/>
+      <c r="CJ8" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="176"/>
-      <c r="CL8" s="175" t="s">
+      <c r="CK8" s="177"/>
+      <c r="CL8" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="176"/>
-      <c r="CN8" s="175" t="s">
+      <c r="CM8" s="177"/>
+      <c r="CN8" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="176"/>
+      <c r="CO8" s="177"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="199"/>
-      <c r="CR8" s="199"/>
-      <c r="CS8" s="195"/>
-      <c r="CT8" s="195"/>
-      <c r="CU8" s="187"/>
+      <c r="CQ8" s="200"/>
+      <c r="CR8" s="200"/>
+      <c r="CS8" s="196"/>
+      <c r="CT8" s="196"/>
+      <c r="CU8" s="188"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="202"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="27"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="27">
+        <v>100</v>
+      </c>
       <c r="E9" s="91"/>
       <c r="F9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="27">
+        <v>100</v>
+      </c>
       <c r="H9" s="91"/>
       <c r="I9" s="96" t="s">
         <v>87</v>
@@ -7078,9 +7078,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="195"/>
-      <c r="CT9" s="195"/>
-      <c r="CU9" s="188"/>
+      <c r="CS9" s="196"/>
+      <c r="CT9" s="196"/>
+      <c r="CU9" s="189"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7095,27 +7095,27 @@
         <f>CONCATENATE(REGISTRATION!C11," ",REGISTRATION!D11," ",REGISTRATION!E11)</f>
         <v>Abad Jayson B</v>
       </c>
-      <c r="D10" s="107">
-        <v>0</v>
-      </c>
-      <c r="E10" s="92" t="e">
+      <c r="D10" s="126">
+        <v>80</v>
+      </c>
+      <c r="E10" s="92">
         <f>(D10/$D$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="95" t="str">
+        <v>80</v>
+      </c>
+      <c r="F10" s="95">
         <f t="shared" ref="F10:F41" si="0">IFERROR((E10*$F$7), " ")</f>
-        <v xml:space="preserve"> </v>
+        <v>24</v>
       </c>
       <c r="G10" s="107">
         <v>0</v>
       </c>
-      <c r="H10" s="92" t="e">
+      <c r="H10" s="92">
         <f>(G10/$G$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I10" s="95">
         <f t="shared" ref="I10:I41" si="1">IFERROR((H10*$I$7), "")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J10" s="107">
         <v>13</v>
@@ -7213,11 +7213,11 @@
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>21.5</v>
+        <v>45.5</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>21.5</v>
+        <v>45.5</v>
       </c>
       <c r="BE10" s="107"/>
       <c r="BF10" s="92">
@@ -7335,7 +7335,7 @@
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>38.6</v>
+        <v>48.2</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7359,27 +7359,27 @@
         <f>CONCATENATE(REGISTRATION!C12," ",REGISTRATION!D12," ",REGISTRATION!E12)</f>
         <v>Almendras Mark Anthony G</v>
       </c>
-      <c r="D11" s="107">
-        <v>0</v>
-      </c>
-      <c r="E11" s="92" t="e">
+      <c r="D11" s="126">
+        <v>67</v>
+      </c>
+      <c r="E11" s="92">
         <f>(D11/$D$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="95" t="str">
+        <v>67</v>
+      </c>
+      <c r="F11" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>20.099999999999998</v>
       </c>
       <c r="G11" s="107">
         <v>0</v>
       </c>
-      <c r="H11" s="92" t="e">
+      <c r="H11" s="92">
         <f t="shared" ref="H11:H70" si="2">(G11/$G$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I11" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J11" s="108">
         <v>11</v>
@@ -7477,11 +7477,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>21</v>
+        <v>41.099999999999994</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>21</v>
+        <v>41.1</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>38.4</v>
+        <v>46.44</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7623,27 +7623,27 @@
         <f>CONCATENATE(REGISTRATION!C13," ",REGISTRATION!D13," ",REGISTRATION!E13)</f>
         <v>Apon Jr. Rafael F</v>
       </c>
-      <c r="D12" s="107">
-        <v>0</v>
-      </c>
-      <c r="E12" s="92" t="e">
+      <c r="D12" s="126">
+        <v>36</v>
+      </c>
+      <c r="E12" s="92">
         <f t="shared" ref="E12:E70" si="43">(D12/$D$9)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="95" t="str">
+        <v>36</v>
+      </c>
+      <c r="F12" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>10.799999999999999</v>
       </c>
       <c r="G12" s="107">
         <v>0</v>
       </c>
-      <c r="H12" s="92" t="e">
+      <c r="H12" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I12" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J12" s="108">
         <v>11</v>
@@ -7741,11 +7741,11 @@
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>19.5</v>
+        <v>30.299999999999997</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>19.5</v>
+        <v>30.3</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>37.799999999999997</v>
+        <v>42.120000000000005</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7887,27 +7887,27 @@
         <f>CONCATENATE(REGISTRATION!C14," ",REGISTRATION!D14," ",REGISTRATION!E14)</f>
         <v>Binamera Maynel L</v>
       </c>
-      <c r="D13" s="107">
-        <v>0</v>
-      </c>
-      <c r="E13" s="92" t="e">
+      <c r="D13" s="126">
+        <v>78</v>
+      </c>
+      <c r="E13" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="95" t="str">
+        <v>78</v>
+      </c>
+      <c r="F13" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>23.4</v>
       </c>
       <c r="G13" s="107">
         <v>0</v>
       </c>
-      <c r="H13" s="92" t="e">
+      <c r="H13" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I13" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J13" s="108">
         <v>13</v>
@@ -8005,11 +8005,11 @@
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>22.5</v>
+        <v>45.9</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>22.5</v>
+        <v>45.9</v>
       </c>
       <c r="BE13" s="108"/>
       <c r="BF13" s="92">
@@ -8127,7 +8127,7 @@
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>39</v>
+        <v>48.36</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8151,27 +8151,27 @@
         <f>CONCATENATE(REGISTRATION!C15," ",REGISTRATION!D15," ",REGISTRATION!E15)</f>
         <v>Comiso Rommel A</v>
       </c>
-      <c r="D14" s="107">
-        <v>0</v>
-      </c>
-      <c r="E14" s="92" t="e">
+      <c r="D14" s="126">
+        <v>72</v>
+      </c>
+      <c r="E14" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="95" t="str">
+        <v>72</v>
+      </c>
+      <c r="F14" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>21.599999999999998</v>
       </c>
       <c r="G14" s="107">
         <v>0</v>
       </c>
-      <c r="H14" s="92" t="e">
+      <c r="H14" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I14" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J14" s="108">
         <v>14</v>
@@ -8227,12 +8227,10 @@
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="AO14" s="108">
-        <v>100</v>
-      </c>
+      <c r="AO14" s="108"/>
       <c r="AP14" s="92">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="108"/>
       <c r="AR14" s="92" t="str">
@@ -8246,7 +8244,7 @@
       </c>
       <c r="AU14" s="95">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="108">
         <v>90</v>
@@ -8271,11 +8269,11 @@
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>33</v>
+        <v>44.599999999999994</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>33</v>
+        <v>44.6</v>
       </c>
       <c r="BE14" s="108"/>
       <c r="BF14" s="92">
@@ -8393,7 +8391,7 @@
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>43.2</v>
+        <v>47.84</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8417,27 +8415,27 @@
         <f>CONCATENATE(REGISTRATION!C16," ",REGISTRATION!D16," ",REGISTRATION!E16)</f>
         <v>Calupad Roland Karl L</v>
       </c>
-      <c r="D15" s="107">
-        <v>0</v>
-      </c>
-      <c r="E15" s="92" t="e">
+      <c r="D15" s="126">
+        <v>0</v>
+      </c>
+      <c r="E15" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G15" s="107">
         <v>0</v>
       </c>
-      <c r="H15" s="92" t="e">
+      <c r="H15" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I15" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I15" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J15" s="108">
         <v>12</v>
@@ -8681,27 +8679,27 @@
         <f>CONCATENATE(REGISTRATION!C17," ",REGISTRATION!D17," ",REGISTRATION!E17)</f>
         <v>Dela Pieza Larslie Z</v>
       </c>
-      <c r="D16" s="107">
-        <v>0</v>
-      </c>
-      <c r="E16" s="92" t="e">
+      <c r="D16" s="126">
+        <v>69</v>
+      </c>
+      <c r="E16" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="95" t="str">
+        <v>69</v>
+      </c>
+      <c r="F16" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>20.7</v>
       </c>
       <c r="G16" s="107">
         <v>0</v>
       </c>
-      <c r="H16" s="92" t="e">
+      <c r="H16" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I16" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J16" s="108">
         <v>11</v>
@@ -8799,11 +8797,11 @@
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92">
@@ -8921,7 +8919,7 @@
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>38</v>
+        <v>46.28</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8945,27 +8943,27 @@
         <f>CONCATENATE(REGISTRATION!C18," ",REGISTRATION!D18," ",REGISTRATION!E18)</f>
         <v>Estrella Alleiza Allu  A</v>
       </c>
-      <c r="D17" s="107">
-        <v>0</v>
-      </c>
-      <c r="E17" s="92" t="e">
+      <c r="D17" s="126">
+        <v>65</v>
+      </c>
+      <c r="E17" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="95" t="str">
+        <v>65</v>
+      </c>
+      <c r="F17" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>19.5</v>
       </c>
       <c r="G17" s="107">
         <v>0</v>
       </c>
-      <c r="H17" s="92" t="e">
+      <c r="H17" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I17" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J17" s="108">
         <v>12</v>
@@ -9063,11 +9061,11 @@
       </c>
       <c r="BC17" s="98">
         <f t="shared" si="18"/>
-        <v>20.5</v>
+        <v>40</v>
       </c>
       <c r="BD17" s="98">
         <f t="shared" si="19"/>
-        <v>20.5</v>
+        <v>40</v>
       </c>
       <c r="BE17" s="108"/>
       <c r="BF17" s="92">
@@ -9185,7 +9183,7 @@
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>38.200000000000003</v>
+        <v>46</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9209,27 +9207,27 @@
         <f>CONCATENATE(REGISTRATION!C19," ",REGISTRATION!D19," ",REGISTRATION!E19)</f>
         <v>Gacos Mark Anthony S</v>
       </c>
-      <c r="D18" s="107">
-        <v>0</v>
-      </c>
-      <c r="E18" s="92" t="e">
+      <c r="D18" s="126">
+        <v>63</v>
+      </c>
+      <c r="E18" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="95" t="str">
+        <v>63</v>
+      </c>
+      <c r="F18" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G18" s="107">
         <v>0</v>
       </c>
-      <c r="H18" s="92" t="e">
+      <c r="H18" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I18" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J18" s="108">
         <v>14</v>
@@ -9327,11 +9325,11 @@
       </c>
       <c r="BC18" s="98">
         <f t="shared" si="18"/>
-        <v>23.5</v>
+        <v>42.4</v>
       </c>
       <c r="BD18" s="98">
         <f t="shared" si="19"/>
-        <v>23.5</v>
+        <v>42.4</v>
       </c>
       <c r="BE18" s="108"/>
       <c r="BF18" s="92">
@@ -9449,7 +9447,7 @@
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>39.4</v>
+        <v>46.96</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9473,27 +9471,27 @@
         <f>CONCATENATE(REGISTRATION!C20," ",REGISTRATION!D20," ",REGISTRATION!E20)</f>
         <v>Lemoncito Rey Kennedy C</v>
       </c>
-      <c r="D19" s="107">
-        <v>0</v>
-      </c>
-      <c r="E19" s="92" t="e">
+      <c r="D19" s="126">
+        <v>73</v>
+      </c>
+      <c r="E19" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="95" t="str">
+        <v>73</v>
+      </c>
+      <c r="F19" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>21.9</v>
       </c>
       <c r="G19" s="107">
         <v>0</v>
       </c>
-      <c r="H19" s="92" t="e">
+      <c r="H19" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I19" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J19" s="108">
         <v>13</v>
@@ -9591,11 +9589,11 @@
       </c>
       <c r="BC19" s="98">
         <f t="shared" si="18"/>
-        <v>23</v>
+        <v>44.9</v>
       </c>
       <c r="BD19" s="98">
         <f t="shared" si="19"/>
-        <v>23</v>
+        <v>44.9</v>
       </c>
       <c r="BE19" s="108"/>
       <c r="BF19" s="92">
@@ -9713,7 +9711,7 @@
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>39.200000000000003</v>
+        <v>47.96</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9737,27 +9735,27 @@
         <f>CONCATENATE(REGISTRATION!C21," ",REGISTRATION!D21," ",REGISTRATION!E21)</f>
         <v>Lunas Raymond M</v>
       </c>
-      <c r="D20" s="107">
-        <v>0</v>
-      </c>
-      <c r="E20" s="92" t="e">
+      <c r="D20" s="126">
+        <v>60</v>
+      </c>
+      <c r="E20" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="95" t="str">
+        <v>60</v>
+      </c>
+      <c r="F20" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>18</v>
       </c>
       <c r="G20" s="107">
         <v>0</v>
       </c>
-      <c r="H20" s="92" t="e">
+      <c r="H20" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I20" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J20" s="108">
         <v>9</v>
@@ -9855,11 +9853,11 @@
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>18.5</v>
+        <v>36.5</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>18.5</v>
+        <v>36.5</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92">
@@ -9977,7 +9975,7 @@
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>37.4</v>
+        <v>44.6</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10001,27 +9999,27 @@
         <f>CONCATENATE(REGISTRATION!C22," ",REGISTRATION!D22," ",REGISTRATION!E22)</f>
         <v>Mabburang Ma. Visitacion P</v>
       </c>
-      <c r="D21" s="107">
-        <v>0</v>
-      </c>
-      <c r="E21" s="92" t="e">
+      <c r="D21" s="126">
+        <v>66</v>
+      </c>
+      <c r="E21" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="95" t="str">
+        <v>66</v>
+      </c>
+      <c r="F21" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>19.8</v>
       </c>
       <c r="G21" s="107">
         <v>0</v>
       </c>
-      <c r="H21" s="92" t="e">
+      <c r="H21" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I21" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J21" s="108">
         <v>14</v>
@@ -10119,11 +10117,11 @@
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>23.5</v>
+        <v>43.3</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>23.5</v>
+        <v>43.3</v>
       </c>
       <c r="BE21" s="108"/>
       <c r="BF21" s="92">
@@ -10241,7 +10239,7 @@
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>39.4</v>
+        <v>47.32</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10265,27 +10263,27 @@
         <f>CONCATENATE(REGISTRATION!C23," ",REGISTRATION!D23," ",REGISTRATION!E23)</f>
         <v>Malate Melvin Chester G</v>
       </c>
-      <c r="D22" s="107">
-        <v>0</v>
-      </c>
-      <c r="E22" s="92" t="e">
+      <c r="D22" s="126">
+        <v>55</v>
+      </c>
+      <c r="E22" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="95" t="str">
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F22" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>16.5</v>
       </c>
       <c r="G22" s="107">
         <v>0</v>
       </c>
-      <c r="H22" s="92" t="e">
+      <c r="H22" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I22" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J22" s="108">
         <v>15</v>
@@ -10383,11 +10381,11 @@
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>24.5</v>
+        <v>41</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>24.5</v>
+        <v>41</v>
       </c>
       <c r="BE22" s="108"/>
       <c r="BF22" s="92">
@@ -10505,7 +10503,7 @@
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>39.799999999999997</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10529,27 +10527,27 @@
         <f>CONCATENATE(REGISTRATION!C24," ",REGISTRATION!D24," ",REGISTRATION!E24)</f>
         <v>Miano Heartman John M</v>
       </c>
-      <c r="D23" s="107">
-        <v>0</v>
-      </c>
-      <c r="E23" s="92" t="e">
+      <c r="D23" s="126">
+        <v>63</v>
+      </c>
+      <c r="E23" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F23" s="95" t="str">
+        <v>63</v>
+      </c>
+      <c r="F23" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G23" s="107">
         <v>0</v>
       </c>
-      <c r="H23" s="92" t="e">
+      <c r="H23" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I23" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J23" s="108">
         <v>15</v>
@@ -10605,12 +10603,10 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="AO23" s="108">
-        <v>100</v>
-      </c>
+      <c r="AO23" s="108"/>
       <c r="AP23" s="92">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="108"/>
       <c r="AR23" s="92" t="str">
@@ -10624,7 +10620,7 @@
       </c>
       <c r="AU23" s="95">
         <f t="shared" si="13"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="108">
         <v>90</v>
@@ -10649,11 +10645,11 @@
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>34</v>
+        <v>42.9</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>34</v>
+        <v>42.9</v>
       </c>
       <c r="BE23" s="108"/>
       <c r="BF23" s="92">
@@ -10771,7 +10767,7 @@
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>43.6</v>
+        <v>47.16</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10795,27 +10791,27 @@
         <f>CONCATENATE(REGISTRATION!C25," ",REGISTRATION!D25," ",REGISTRATION!E25)</f>
         <v>Murray Jake Alexander V</v>
       </c>
-      <c r="D24" s="107">
-        <v>0</v>
-      </c>
-      <c r="E24" s="92" t="e">
+      <c r="D24" s="126">
+        <v>81</v>
+      </c>
+      <c r="E24" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F24" s="95" t="str">
+        <v>81</v>
+      </c>
+      <c r="F24" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>24.3</v>
       </c>
       <c r="G24" s="107">
         <v>0</v>
       </c>
-      <c r="H24" s="92" t="e">
+      <c r="H24" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I24" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J24" s="108">
         <v>15</v>
@@ -10913,11 +10909,11 @@
       </c>
       <c r="BC24" s="98">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>48.3</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" si="19"/>
-        <v>24</v>
+        <v>48.3</v>
       </c>
       <c r="BE24" s="108"/>
       <c r="BF24" s="92">
@@ -11035,7 +11031,7 @@
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>39.6</v>
+        <v>49.32</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11059,27 +11055,27 @@
         <f>CONCATENATE(REGISTRATION!C26," ",REGISTRATION!D26," ",REGISTRATION!E26)</f>
         <v>Pallera Elvin Jay B</v>
       </c>
-      <c r="D25" s="107">
-        <v>0</v>
-      </c>
-      <c r="E25" s="92" t="e">
+      <c r="D25" s="126">
+        <v>60</v>
+      </c>
+      <c r="E25" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="95" t="str">
+        <v>60</v>
+      </c>
+      <c r="F25" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>18</v>
       </c>
       <c r="G25" s="107">
         <v>0</v>
       </c>
-      <c r="H25" s="92" t="e">
+      <c r="H25" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I25" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J25" s="108">
         <v>9</v>
@@ -11177,11 +11173,11 @@
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92">
@@ -11299,7 +11295,7 @@
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>37.200000000000003</v>
+        <v>44.4</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11323,27 +11319,27 @@
         <f>CONCATENATE(REGISTRATION!C27," ",REGISTRATION!D27," ",REGISTRATION!E27)</f>
         <v>Pineda Francis C</v>
       </c>
-      <c r="D26" s="107">
-        <v>0</v>
-      </c>
-      <c r="E26" s="92" t="e">
+      <c r="D26" s="126">
+        <v>72</v>
+      </c>
+      <c r="E26" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="95" t="str">
+        <v>72</v>
+      </c>
+      <c r="F26" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>21.599999999999998</v>
       </c>
       <c r="G26" s="107">
         <v>0</v>
       </c>
-      <c r="H26" s="92" t="e">
+      <c r="H26" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I26" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J26" s="108">
         <v>15</v>
@@ -11439,11 +11435,11 @@
       </c>
       <c r="BC26" s="98">
         <f t="shared" si="18"/>
-        <v>15</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="BD26" s="98">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>36.6</v>
       </c>
       <c r="BE26" s="108"/>
       <c r="BF26" s="92">
@@ -11561,7 +11557,7 @@
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>36</v>
+        <v>44.64</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11585,27 +11581,27 @@
         <f>CONCATENATE(REGISTRATION!C28," ",REGISTRATION!D28," ",REGISTRATION!E28)</f>
         <v>Rascal Hashim Jr S</v>
       </c>
-      <c r="D27" s="107">
-        <v>0</v>
-      </c>
-      <c r="E27" s="92" t="e">
+      <c r="D27" s="126">
+        <v>74</v>
+      </c>
+      <c r="E27" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="95" t="str">
+        <v>74</v>
+      </c>
+      <c r="F27" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>22.2</v>
       </c>
       <c r="G27" s="107">
         <v>0</v>
       </c>
-      <c r="H27" s="92" t="e">
+      <c r="H27" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I27" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J27" s="108">
         <v>11</v>
@@ -11703,11 +11699,11 @@
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>20</v>
+        <v>42.2</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>42.2</v>
       </c>
       <c r="BE27" s="108"/>
       <c r="BF27" s="92">
@@ -11825,7 +11821,7 @@
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>38</v>
+        <v>46.88</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11849,27 +11845,27 @@
         <f>CONCATENATE(REGISTRATION!C29," ",REGISTRATION!D29," ",REGISTRATION!E29)</f>
         <v>Santander Arvin M</v>
       </c>
-      <c r="D28" s="107">
-        <v>0</v>
-      </c>
-      <c r="E28" s="92" t="e">
+      <c r="D28" s="126">
+        <v>50</v>
+      </c>
+      <c r="E28" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="95" t="str">
+        <v>50</v>
+      </c>
+      <c r="F28" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>15</v>
       </c>
       <c r="G28" s="107">
         <v>0</v>
       </c>
-      <c r="H28" s="92" t="e">
+      <c r="H28" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I28" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J28" s="108">
         <v>10</v>
@@ -11967,11 +11963,11 @@
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BE28" s="108"/>
       <c r="BF28" s="92">
@@ -12089,7 +12085,7 @@
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>37.6</v>
+        <v>43.6</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12113,27 +12109,27 @@
         <f>CONCATENATE(REGISTRATION!C30," ",REGISTRATION!D30," ",REGISTRATION!E30)</f>
         <v>Silmete John Lloyd S</v>
       </c>
-      <c r="D29" s="107">
-        <v>0</v>
-      </c>
-      <c r="E29" s="92" t="e">
+      <c r="D29" s="126">
+        <v>72</v>
+      </c>
+      <c r="E29" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F29" s="95" t="str">
+        <v>72</v>
+      </c>
+      <c r="F29" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>21.599999999999998</v>
       </c>
       <c r="G29" s="107">
         <v>0</v>
       </c>
-      <c r="H29" s="92" t="e">
+      <c r="H29" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I29" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J29" s="108">
         <v>13</v>
@@ -12231,11 +12227,11 @@
       </c>
       <c r="BC29" s="98">
         <f t="shared" si="18"/>
-        <v>21.5</v>
+        <v>43.099999999999994</v>
       </c>
       <c r="BD29" s="98">
         <f t="shared" si="19"/>
-        <v>21.5</v>
+        <v>43.1</v>
       </c>
       <c r="BE29" s="108"/>
       <c r="BF29" s="92">
@@ -12353,7 +12349,7 @@
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>38.6</v>
+        <v>47.24</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12377,27 +12373,27 @@
         <f>CONCATENATE(REGISTRATION!C31," ",REGISTRATION!D31," ",REGISTRATION!E31)</f>
         <v>Surizaki Takeji G</v>
       </c>
-      <c r="D30" s="107">
-        <v>0</v>
-      </c>
-      <c r="E30" s="92" t="e">
+      <c r="D30" s="126">
+        <v>79</v>
+      </c>
+      <c r="E30" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F30" s="95" t="str">
+        <v>79</v>
+      </c>
+      <c r="F30" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>23.7</v>
       </c>
       <c r="G30" s="107">
         <v>0</v>
       </c>
-      <c r="H30" s="92" t="e">
+      <c r="H30" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I30" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J30" s="108"/>
       <c r="K30" s="92">
@@ -12491,11 +12487,11 @@
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="BE30" s="108"/>
       <c r="BF30" s="92">
@@ -12613,7 +12609,7 @@
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>30</v>
+        <v>39.480000000000004</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12637,27 +12633,27 @@
         <f>CONCATENATE(REGISTRATION!C32," ",REGISTRATION!D32," ",REGISTRATION!E32)</f>
         <v>Torrente Juan Papa T</v>
       </c>
-      <c r="D31" s="107">
-        <v>0</v>
-      </c>
-      <c r="E31" s="92" t="e">
+      <c r="D31" s="126">
+        <v>32</v>
+      </c>
+      <c r="E31" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="95" t="str">
+        <v>32</v>
+      </c>
+      <c r="F31" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>9.6</v>
       </c>
       <c r="G31" s="107">
         <v>0</v>
       </c>
-      <c r="H31" s="92" t="e">
+      <c r="H31" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I31" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J31" s="108">
         <v>12</v>
@@ -12755,11 +12751,11 @@
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>21</v>
+        <v>30.6</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>21</v>
+        <v>30.6</v>
       </c>
       <c r="BE31" s="108"/>
       <c r="BF31" s="92">
@@ -12877,7 +12873,7 @@
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>38.4</v>
+        <v>42.24</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12901,27 +12897,27 @@
         <f>CONCATENATE(REGISTRATION!C33," ",REGISTRATION!D33," ",REGISTRATION!E33)</f>
         <v>Tubis Heartlyn Micah A</v>
       </c>
-      <c r="D32" s="107">
-        <v>0</v>
-      </c>
-      <c r="E32" s="92" t="e">
+      <c r="D32" s="126">
+        <v>73</v>
+      </c>
+      <c r="E32" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="95" t="str">
+        <v>73</v>
+      </c>
+      <c r="F32" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>21.9</v>
       </c>
       <c r="G32" s="107">
         <v>0</v>
       </c>
-      <c r="H32" s="92" t="e">
+      <c r="H32" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I32" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J32" s="108">
         <v>17</v>
@@ -13019,11 +13015,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>26</v>
+        <v>47.9</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>47.9</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92">
@@ -13141,7 +13137,7 @@
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>40.4</v>
+        <v>49.16</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13165,27 +13161,27 @@
         <f>CONCATENATE(REGISTRATION!C34," ",REGISTRATION!D34," ",REGISTRATION!E34)</f>
         <v>Umbay Lorenz G</v>
       </c>
-      <c r="D33" s="107">
-        <v>0</v>
-      </c>
-      <c r="E33" s="92" t="e">
+      <c r="D33" s="126">
+        <v>68</v>
+      </c>
+      <c r="E33" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="95" t="str">
+        <v>68</v>
+      </c>
+      <c r="F33" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G33" s="107">
         <v>0</v>
       </c>
-      <c r="H33" s="92" t="e">
+      <c r="H33" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I33" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J33" s="108"/>
       <c r="K33" s="92">
@@ -13281,11 +13277,11 @@
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>9</v>
+        <v>29.4</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>29.4</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92">
@@ -13403,7 +13399,7 @@
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>33.6</v>
+        <v>41.76</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13427,23 +13423,27 @@
         <f>CONCATENATE(REGISTRATION!C35," ",REGISTRATION!D35," ",REGISTRATION!E35)</f>
         <v>Villanueva Ira O</v>
       </c>
-      <c r="D34" s="108"/>
-      <c r="E34" s="92" t="e">
+      <c r="D34" s="126">
+        <v>54</v>
+      </c>
+      <c r="E34" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="95" t="str">
+        <v>54</v>
+      </c>
+      <c r="F34" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G34" s="108"/>
-      <c r="H34" s="92" t="e">
+        <v>16.2</v>
+      </c>
+      <c r="G34" s="108">
+        <v>0</v>
+      </c>
+      <c r="H34" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I34" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I34" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J34" s="108">
         <v>14</v>
@@ -13539,11 +13539,11 @@
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>30.2</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>30.2</v>
       </c>
       <c r="BE34" s="108"/>
       <c r="BF34" s="92">
@@ -13661,7 +13661,7 @@
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>23.6</v>
+        <v>30.08</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13685,23 +13685,23 @@
         <f>CONCATENATE(REGISTRATION!C36," ",REGISTRATION!D36," ",REGISTRATION!E36)</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="D35" s="108"/>
-      <c r="E35" s="92" t="e">
+      <c r="D35" s="126"/>
+      <c r="E35" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F35" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G35" s="108"/>
-      <c r="H35" s="92" t="e">
+      <c r="H35" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I35" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J35" s="108"/>
       <c r="K35" s="92">
@@ -13934,22 +13934,22 @@
         <v/>
       </c>
       <c r="D36" s="108"/>
-      <c r="E36" s="92" t="e">
+      <c r="E36" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F36" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G36" s="108"/>
-      <c r="H36" s="92" t="e">
+      <c r="H36" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I36" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J36" s="108"/>
       <c r="K36" s="92">
@@ -14182,22 +14182,22 @@
         <v/>
       </c>
       <c r="D37" s="108"/>
-      <c r="E37" s="92" t="e">
+      <c r="E37" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F37" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G37" s="108"/>
-      <c r="H37" s="92" t="e">
+      <c r="H37" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I37" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J37" s="108"/>
       <c r="K37" s="92">
@@ -14430,22 +14430,22 @@
         <v/>
       </c>
       <c r="D38" s="108"/>
-      <c r="E38" s="92" t="e">
+      <c r="E38" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F38" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G38" s="108"/>
-      <c r="H38" s="92" t="e">
+      <c r="H38" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I38" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J38" s="108"/>
       <c r="K38" s="92">
@@ -14678,22 +14678,22 @@
         <v/>
       </c>
       <c r="D39" s="108"/>
-      <c r="E39" s="92" t="e">
+      <c r="E39" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F39" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F39" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G39" s="108"/>
-      <c r="H39" s="92" t="e">
+      <c r="H39" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I39" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J39" s="108"/>
       <c r="K39" s="92">
@@ -14926,22 +14926,22 @@
         <v/>
       </c>
       <c r="D40" s="108"/>
-      <c r="E40" s="92" t="e">
+      <c r="E40" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F40" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G40" s="108"/>
-      <c r="H40" s="92" t="e">
+      <c r="H40" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I40" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I40" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J40" s="108"/>
       <c r="K40" s="92">
@@ -15174,22 +15174,22 @@
         <v/>
       </c>
       <c r="D41" s="108"/>
-      <c r="E41" s="92" t="e">
+      <c r="E41" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F41" s="95">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G41" s="108"/>
-      <c r="H41" s="92" t="e">
+      <c r="H41" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I41" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I41" s="95">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J41" s="108"/>
       <c r="K41" s="92">
@@ -15422,22 +15422,22 @@
         <v/>
       </c>
       <c r="D42" s="108"/>
-      <c r="E42" s="92" t="e">
+      <c r="E42" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F42" s="95">
         <f t="shared" ref="F42:F70" si="46">IFERROR((E42*$F$7), " ")</f>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G42" s="108"/>
-      <c r="H42" s="92" t="e">
+      <c r="H42" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I42" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I42" s="95">
         <f t="shared" ref="I42:I70" si="47">IFERROR((H42*$I$7), "")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J42" s="108"/>
       <c r="K42" s="92">
@@ -15670,22 +15670,22 @@
         <v/>
       </c>
       <c r="D43" s="108"/>
-      <c r="E43" s="92" t="e">
+      <c r="E43" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F43" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G43" s="108"/>
-      <c r="H43" s="92" t="e">
+      <c r="H43" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I43" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I43" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J43" s="108"/>
       <c r="K43" s="92">
@@ -15918,22 +15918,22 @@
         <v/>
       </c>
       <c r="D44" s="108"/>
-      <c r="E44" s="92" t="e">
+      <c r="E44" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F44" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G44" s="108"/>
-      <c r="H44" s="92" t="e">
+      <c r="H44" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I44" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J44" s="108"/>
       <c r="K44" s="92">
@@ -16166,22 +16166,22 @@
         <v/>
       </c>
       <c r="D45" s="108"/>
-      <c r="E45" s="92" t="e">
+      <c r="E45" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F45" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G45" s="108"/>
-      <c r="H45" s="92" t="e">
+      <c r="H45" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I45" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J45" s="108"/>
       <c r="K45" s="92">
@@ -16414,22 +16414,22 @@
         <v/>
       </c>
       <c r="D46" s="108"/>
-      <c r="E46" s="92" t="e">
+      <c r="E46" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F46" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G46" s="108"/>
-      <c r="H46" s="92" t="e">
+      <c r="H46" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I46" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I46" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J46" s="108"/>
       <c r="K46" s="92">
@@ -16662,22 +16662,22 @@
         <v/>
       </c>
       <c r="D47" s="108"/>
-      <c r="E47" s="92" t="e">
+      <c r="E47" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F47" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F47" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G47" s="108"/>
-      <c r="H47" s="92" t="e">
+      <c r="H47" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I47" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I47" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J47" s="108"/>
       <c r="K47" s="92">
@@ -16910,22 +16910,22 @@
         <v/>
       </c>
       <c r="D48" s="108"/>
-      <c r="E48" s="92" t="e">
+      <c r="E48" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F48" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G48" s="108"/>
-      <c r="H48" s="92" t="e">
+      <c r="H48" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I48" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I48" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J48" s="108"/>
       <c r="K48" s="92">
@@ -17158,22 +17158,22 @@
         <v/>
       </c>
       <c r="D49" s="108"/>
-      <c r="E49" s="92" t="e">
+      <c r="E49" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F49" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G49" s="108"/>
-      <c r="H49" s="92" t="e">
+      <c r="H49" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I49" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J49" s="108"/>
       <c r="K49" s="92">
@@ -17406,22 +17406,22 @@
         <v/>
       </c>
       <c r="D50" s="108"/>
-      <c r="E50" s="92" t="e">
+      <c r="E50" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F50" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G50" s="108"/>
-      <c r="H50" s="92" t="e">
+      <c r="H50" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I50" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I50" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J50" s="108"/>
       <c r="K50" s="92">
@@ -17654,22 +17654,22 @@
         <v/>
       </c>
       <c r="D51" s="108"/>
-      <c r="E51" s="92" t="e">
+      <c r="E51" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F51" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G51" s="108"/>
-      <c r="H51" s="92" t="e">
+      <c r="H51" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I51" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I51" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J51" s="108"/>
       <c r="K51" s="92">
@@ -17902,22 +17902,22 @@
         <v/>
       </c>
       <c r="D52" s="108"/>
-      <c r="E52" s="92" t="e">
+      <c r="E52" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F52" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G52" s="108"/>
-      <c r="H52" s="92" t="e">
+      <c r="H52" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I52" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I52" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J52" s="108"/>
       <c r="K52" s="92">
@@ -18150,22 +18150,22 @@
         <v/>
       </c>
       <c r="D53" s="108"/>
-      <c r="E53" s="92" t="e">
+      <c r="E53" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F53" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G53" s="108"/>
-      <c r="H53" s="92" t="e">
+      <c r="H53" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I53" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I53" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J53" s="108"/>
       <c r="K53" s="92">
@@ -18398,22 +18398,22 @@
         <v/>
       </c>
       <c r="D54" s="108"/>
-      <c r="E54" s="92" t="e">
+      <c r="E54" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F54" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G54" s="108"/>
-      <c r="H54" s="92" t="e">
+      <c r="H54" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I54" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I54" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J54" s="108"/>
       <c r="K54" s="92">
@@ -18646,22 +18646,22 @@
         <v/>
       </c>
       <c r="D55" s="108"/>
-      <c r="E55" s="92" t="e">
+      <c r="E55" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F55" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G55" s="108"/>
-      <c r="H55" s="92" t="e">
+      <c r="H55" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I55" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I55" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J55" s="108"/>
       <c r="K55" s="92">
@@ -18894,22 +18894,22 @@
         <v/>
       </c>
       <c r="D56" s="108"/>
-      <c r="E56" s="92" t="e">
+      <c r="E56" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F56" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G56" s="108"/>
-      <c r="H56" s="92" t="e">
+      <c r="H56" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I56" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J56" s="108"/>
       <c r="K56" s="92">
@@ -19142,22 +19142,22 @@
         <v/>
       </c>
       <c r="D57" s="108"/>
-      <c r="E57" s="92" t="e">
+      <c r="E57" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F57" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G57" s="108"/>
-      <c r="H57" s="92" t="e">
+      <c r="H57" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I57" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J57" s="108"/>
       <c r="K57" s="92">
@@ -19390,22 +19390,22 @@
         <v/>
       </c>
       <c r="D58" s="108"/>
-      <c r="E58" s="92" t="e">
+      <c r="E58" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F58" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F58" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G58" s="108"/>
-      <c r="H58" s="92" t="e">
+      <c r="H58" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I58" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I58" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J58" s="108"/>
       <c r="K58" s="92">
@@ -19638,22 +19638,22 @@
         <v/>
       </c>
       <c r="D59" s="108"/>
-      <c r="E59" s="92" t="e">
+      <c r="E59" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F59" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G59" s="108"/>
-      <c r="H59" s="92" t="e">
+      <c r="H59" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I59" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I59" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J59" s="108"/>
       <c r="K59" s="92">
@@ -19886,22 +19886,22 @@
         <v/>
       </c>
       <c r="D60" s="108"/>
-      <c r="E60" s="92" t="e">
+      <c r="E60" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F60" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G60" s="108"/>
-      <c r="H60" s="92" t="e">
+      <c r="H60" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I60" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I60" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J60" s="108"/>
       <c r="K60" s="92">
@@ -20134,22 +20134,22 @@
         <v/>
       </c>
       <c r="D61" s="108"/>
-      <c r="E61" s="92" t="e">
+      <c r="E61" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F61" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F61" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G61" s="108"/>
-      <c r="H61" s="92" t="e">
+      <c r="H61" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I61" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I61" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J61" s="108"/>
       <c r="K61" s="92">
@@ -20382,22 +20382,22 @@
         <v/>
       </c>
       <c r="D62" s="108"/>
-      <c r="E62" s="92" t="e">
+      <c r="E62" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F62" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G62" s="108"/>
-      <c r="H62" s="92" t="e">
+      <c r="H62" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I62" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I62" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J62" s="108"/>
       <c r="K62" s="92">
@@ -20630,22 +20630,22 @@
         <v/>
       </c>
       <c r="D63" s="108"/>
-      <c r="E63" s="92" t="e">
+      <c r="E63" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F63" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G63" s="108"/>
-      <c r="H63" s="92" t="e">
+      <c r="H63" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I63" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I63" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J63" s="108"/>
       <c r="K63" s="92">
@@ -20878,22 +20878,22 @@
         <v/>
       </c>
       <c r="D64" s="108"/>
-      <c r="E64" s="92" t="e">
+      <c r="E64" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F64" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G64" s="108"/>
-      <c r="H64" s="92" t="e">
+      <c r="H64" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I64" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I64" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J64" s="108"/>
       <c r="K64" s="92">
@@ -21126,22 +21126,22 @@
         <v/>
       </c>
       <c r="D65" s="108"/>
-      <c r="E65" s="92" t="e">
+      <c r="E65" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F65" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G65" s="108"/>
-      <c r="H65" s="92" t="e">
+      <c r="H65" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I65" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I65" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J65" s="108"/>
       <c r="K65" s="92">
@@ -21374,22 +21374,22 @@
         <v/>
       </c>
       <c r="D66" s="108"/>
-      <c r="E66" s="92" t="e">
+      <c r="E66" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F66" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F66" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G66" s="108"/>
-      <c r="H66" s="92" t="e">
+      <c r="H66" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I66" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I66" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J66" s="108"/>
       <c r="K66" s="92">
@@ -21622,22 +21622,22 @@
         <v/>
       </c>
       <c r="D67" s="108"/>
-      <c r="E67" s="92" t="e">
+      <c r="E67" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F67" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F67" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G67" s="108"/>
-      <c r="H67" s="92" t="e">
+      <c r="H67" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I67" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I67" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J67" s="108"/>
       <c r="K67" s="92">
@@ -21870,22 +21870,22 @@
         <v/>
       </c>
       <c r="D68" s="108"/>
-      <c r="E68" s="92" t="e">
+      <c r="E68" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F68" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F68" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G68" s="108"/>
-      <c r="H68" s="92" t="e">
+      <c r="H68" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I68" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I68" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J68" s="108"/>
       <c r="K68" s="92">
@@ -22118,22 +22118,22 @@
         <v/>
       </c>
       <c r="D69" s="108"/>
-      <c r="E69" s="92" t="e">
+      <c r="E69" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F69" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G69" s="108"/>
-      <c r="H69" s="92" t="e">
+      <c r="H69" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I69" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I69" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J69" s="108"/>
       <c r="K69" s="92">
@@ -22366,22 +22366,22 @@
         <v/>
       </c>
       <c r="D70" s="108"/>
-      <c r="E70" s="92" t="e">
+      <c r="E70" s="92">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="F70" s="95">
         <f t="shared" si="46"/>
-        <v xml:space="preserve"> </v>
+        <v>0</v>
       </c>
       <c r="G70" s="108"/>
-      <c r="H70" s="92" t="e">
+      <c r="H70" s="92">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I70" s="95" t="str">
+        <v>0</v>
+      </c>
+      <c r="I70" s="95">
         <f t="shared" si="47"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J70" s="108"/>
       <c r="K70" s="92">
@@ -22703,7 +22703,7 @@
     <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22736,78 +22736,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="211" t="str">
+      <c r="A2" s="212" t="str">
         <f>UPPER(CONCATENATE("GRADING SHEET A.Y."," ",REGISTRATION!P12))</f>
         <v>GRADING SHEET A.Y. 2017-2018</v>
       </c>
-      <c r="B2" s="211"/>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="211"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="212"/>
+      <c r="P2" s="212"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="211"/>
-      <c r="B3" s="211"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
-      <c r="O3" s="211"/>
-      <c r="P3" s="211"/>
+      <c r="A3" s="212"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
+      <c r="M3" s="212"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="212"/>
+      <c r="P3" s="212"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="224" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="212" t="s">
+      <c r="C5" s="213" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="212"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212" t="s">
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="212"/>
-      <c r="L5" s="212"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="213" t="s">
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="214"/>
-      <c r="P5" s="217" t="s">
+      <c r="O5" s="215"/>
+      <c r="P5" s="218" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="224"/>
-      <c r="B6" s="220" t="s">
+      <c r="A6" s="225"/>
+      <c r="B6" s="221" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -22825,27 +22825,27 @@
       <c r="G6" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="222" t="s">
+      <c r="H6" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="222"/>
+      <c r="I6" s="223"/>
       <c r="J6" s="44" t="s">
         <v>101</v>
       </c>
       <c r="K6" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="222" t="s">
+      <c r="L6" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="222"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="216"/>
-      <c r="P6" s="218"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="216"/>
+      <c r="O6" s="217"/>
+      <c r="P6" s="219"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A7" s="225"/>
-      <c r="B7" s="221"/>
+      <c r="A7" s="226"/>
+      <c r="B7" s="222"/>
       <c r="C7" s="46">
         <f>'RAW GRADES'!F7</f>
         <v>0.3</v>
@@ -22892,7 +22892,7 @@
       <c r="O7" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="219"/>
+      <c r="P7" s="220"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="49">
@@ -22902,13 +22902,13 @@
         <f>'RAW GRADES'!C10</f>
         <v>Abad Jayson B</v>
       </c>
-      <c r="C8" s="51" t="str">
+      <c r="C8" s="51">
         <f>'RAW GRADES'!F10</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D8" s="89" t="str">
+        <v>24</v>
+      </c>
+      <c r="D8" s="89">
         <f>'RAW GRADES'!I10</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
@@ -22924,11 +22924,11 @@
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>21.5</v>
+        <v>45.5</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>21.5</v>
+        <v>45.5</v>
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
@@ -22948,7 +22948,7 @@
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>38.6</v>
+        <v>48.2</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -22967,13 +22967,13 @@
         <f>'RAW GRADES'!C11</f>
         <v>Almendras Mark Anthony G</v>
       </c>
-      <c r="C9" s="57" t="str">
+      <c r="C9" s="57">
         <f>'RAW GRADES'!F11</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D9" s="89" t="str">
+        <v>20.099999999999998</v>
+      </c>
+      <c r="D9" s="89">
         <f>'RAW GRADES'!I11</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
@@ -22989,11 +22989,11 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>21</v>
+        <v>41.099999999999994</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>21</v>
+        <v>41.1</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
@@ -23013,7 +23013,7 @@
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>38.4</v>
+        <v>46.44</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -23032,13 +23032,13 @@
         <f>'RAW GRADES'!C12</f>
         <v>Apon Jr. Rafael F</v>
       </c>
-      <c r="C10" s="57" t="str">
+      <c r="C10" s="57">
         <f>'RAW GRADES'!F12</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D10" s="89" t="str">
+        <v>10.799999999999999</v>
+      </c>
+      <c r="D10" s="89">
         <f>'RAW GRADES'!I12</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
@@ -23054,11 +23054,11 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>19.5</v>
+        <v>30.299999999999997</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>19.5</v>
+        <v>30.3</v>
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
@@ -23078,7 +23078,7 @@
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>37.799999999999997</v>
+        <v>42.120000000000005</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23097,13 +23097,13 @@
         <f>'RAW GRADES'!C13</f>
         <v>Binamera Maynel L</v>
       </c>
-      <c r="C11" s="57" t="str">
+      <c r="C11" s="57">
         <f>'RAW GRADES'!F13</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D11" s="89" t="str">
+        <v>23.4</v>
+      </c>
+      <c r="D11" s="89">
         <f>'RAW GRADES'!I13</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
@@ -23119,11 +23119,11 @@
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>22.5</v>
+        <v>45.9</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>22.5</v>
+        <v>45.9</v>
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>39</v>
+        <v>48.36</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23162,13 +23162,13 @@
         <f>'RAW GRADES'!C14</f>
         <v>Comiso Rommel A</v>
       </c>
-      <c r="C12" s="57" t="str">
+      <c r="C12" s="57">
         <f>'RAW GRADES'!F14</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D12" s="89" t="str">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="D12" s="89">
         <f>'RAW GRADES'!I14</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
@@ -23176,7 +23176,7 @@
       </c>
       <c r="F12" s="52">
         <f>'RAW GRADES'!AU14</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="52">
         <f>'RAW GRADES'!BB14</f>
@@ -23184,11 +23184,11 @@
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>33</v>
+        <v>44.599999999999994</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>33</v>
+        <v>44.6</v>
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>43.2</v>
+        <v>47.84</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23227,13 +23227,13 @@
         <f>'RAW GRADES'!C15</f>
         <v>Calupad Roland Karl L</v>
       </c>
-      <c r="C13" s="57" t="str">
+      <c r="C13" s="57">
         <f>'RAW GRADES'!F15</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D13" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D13" s="89">
         <f>'RAW GRADES'!I15</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E13" s="52">
         <f>'RAW GRADES'!AN15</f>
@@ -23292,13 +23292,13 @@
         <f>'RAW GRADES'!C16</f>
         <v>Dela Pieza Larslie Z</v>
       </c>
-      <c r="C14" s="57" t="str">
+      <c r="C14" s="57">
         <f>'RAW GRADES'!F16</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D14" s="89" t="str">
+        <v>20.7</v>
+      </c>
+      <c r="D14" s="89">
         <f>'RAW GRADES'!I16</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E14" s="52">
         <f>'RAW GRADES'!AN16</f>
@@ -23314,11 +23314,11 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>20</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>20</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
@@ -23338,7 +23338,7 @@
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>38</v>
+        <v>46.28</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23357,13 +23357,13 @@
         <f>'RAW GRADES'!C17</f>
         <v>Estrella Alleiza Allu  A</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="57">
         <f>'RAW GRADES'!F17</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D15" s="89" t="str">
+        <v>19.5</v>
+      </c>
+      <c r="D15" s="89">
         <f>'RAW GRADES'!I17</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E15" s="52">
         <f>'RAW GRADES'!AN17</f>
@@ -23379,11 +23379,11 @@
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>20.5</v>
+        <v>40</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>20.5</v>
+        <v>40</v>
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
@@ -23403,7 +23403,7 @@
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>38.200000000000003</v>
+        <v>46</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23422,13 +23422,13 @@
         <f>'RAW GRADES'!C18</f>
         <v>Gacos Mark Anthony S</v>
       </c>
-      <c r="C16" s="57" t="str">
+      <c r="C16" s="57">
         <f>'RAW GRADES'!F18</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D16" s="89" t="str">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D16" s="89">
         <f>'RAW GRADES'!I18</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E16" s="52">
         <f>'RAW GRADES'!AN18</f>
@@ -23444,11 +23444,11 @@
       </c>
       <c r="H16" s="53">
         <f>'RAW GRADES'!BC18</f>
-        <v>23.5</v>
+        <v>42.4</v>
       </c>
       <c r="I16" s="53">
         <f>'RAW GRADES'!BD18</f>
-        <v>23.5</v>
+        <v>42.4</v>
       </c>
       <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
@@ -23468,7 +23468,7 @@
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>39.4</v>
+        <v>46.96</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23487,13 +23487,13 @@
         <f>'RAW GRADES'!C19</f>
         <v>Lemoncito Rey Kennedy C</v>
       </c>
-      <c r="C17" s="57" t="str">
+      <c r="C17" s="57">
         <f>'RAW GRADES'!F19</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D17" s="89" t="str">
+        <v>21.9</v>
+      </c>
+      <c r="D17" s="89">
         <f>'RAW GRADES'!I19</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E17" s="52">
         <f>'RAW GRADES'!AN19</f>
@@ -23509,11 +23509,11 @@
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>23</v>
+        <v>44.9</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>23</v>
+        <v>44.9</v>
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
@@ -23533,7 +23533,7 @@
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>39.200000000000003</v>
+        <v>47.96</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23552,13 +23552,13 @@
         <f>'RAW GRADES'!C20</f>
         <v>Lunas Raymond M</v>
       </c>
-      <c r="C18" s="57" t="str">
+      <c r="C18" s="57">
         <f>'RAW GRADES'!F20</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D18" s="89" t="str">
+        <v>18</v>
+      </c>
+      <c r="D18" s="89">
         <f>'RAW GRADES'!I20</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
@@ -23574,11 +23574,11 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>18.5</v>
+        <v>36.5</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>18.5</v>
+        <v>36.5</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
@@ -23598,7 +23598,7 @@
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>37.4</v>
+        <v>44.6</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23617,13 +23617,13 @@
         <f>'RAW GRADES'!C21</f>
         <v>Mabburang Ma. Visitacion P</v>
       </c>
-      <c r="C19" s="57" t="str">
+      <c r="C19" s="57">
         <f>'RAW GRADES'!F21</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D19" s="89" t="str">
+        <v>19.8</v>
+      </c>
+      <c r="D19" s="89">
         <f>'RAW GRADES'!I21</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
@@ -23639,11 +23639,11 @@
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>23.5</v>
+        <v>43.3</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>23.5</v>
+        <v>43.3</v>
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
@@ -23663,7 +23663,7 @@
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>39.4</v>
+        <v>47.32</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23682,13 +23682,13 @@
         <f>'RAW GRADES'!C22</f>
         <v>Malate Melvin Chester G</v>
       </c>
-      <c r="C20" s="57" t="str">
+      <c r="C20" s="57">
         <f>'RAW GRADES'!F22</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D20" s="89" t="str">
+        <v>16.5</v>
+      </c>
+      <c r="D20" s="89">
         <f>'RAW GRADES'!I22</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
@@ -23704,11 +23704,11 @@
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>24.5</v>
+        <v>41</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>24.5</v>
+        <v>41</v>
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
@@ -23728,7 +23728,7 @@
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>39.799999999999997</v>
+        <v>46.400000000000006</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23747,13 +23747,13 @@
         <f>'RAW GRADES'!C23</f>
         <v>Miano Heartman John M</v>
       </c>
-      <c r="C21" s="57" t="str">
+      <c r="C21" s="57">
         <f>'RAW GRADES'!F23</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D21" s="89" t="str">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D21" s="89">
         <f>'RAW GRADES'!I23</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
@@ -23761,7 +23761,7 @@
       </c>
       <c r="F21" s="52">
         <f>'RAW GRADES'!AU23</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21" s="52">
         <f>'RAW GRADES'!BB23</f>
@@ -23769,11 +23769,11 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>34</v>
+        <v>42.9</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>34</v>
+        <v>42.9</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
@@ -23793,7 +23793,7 @@
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>43.6</v>
+        <v>47.16</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23812,13 +23812,13 @@
         <f>'RAW GRADES'!C24</f>
         <v>Murray Jake Alexander V</v>
       </c>
-      <c r="C22" s="57" t="str">
+      <c r="C22" s="57">
         <f>'RAW GRADES'!F24</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D22" s="89" t="str">
+        <v>24.3</v>
+      </c>
+      <c r="D22" s="89">
         <f>'RAW GRADES'!I24</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E22" s="52">
         <f>'RAW GRADES'!AN24</f>
@@ -23834,11 +23834,11 @@
       </c>
       <c r="H22" s="53">
         <f>'RAW GRADES'!BC24</f>
-        <v>24</v>
+        <v>48.3</v>
       </c>
       <c r="I22" s="53">
         <f>'RAW GRADES'!BD24</f>
-        <v>24</v>
+        <v>48.3</v>
       </c>
       <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
@@ -23858,7 +23858,7 @@
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>39.6</v>
+        <v>49.32</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -23877,13 +23877,13 @@
         <f>'RAW GRADES'!C25</f>
         <v>Pallera Elvin Jay B</v>
       </c>
-      <c r="C23" s="57" t="str">
+      <c r="C23" s="57">
         <f>'RAW GRADES'!F25</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D23" s="89" t="str">
+        <v>18</v>
+      </c>
+      <c r="D23" s="89">
         <f>'RAW GRADES'!I25</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
@@ -23899,11 +23899,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
@@ -23923,7 +23923,7 @@
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>37.200000000000003</v>
+        <v>44.4</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -23942,13 +23942,13 @@
         <f>'RAW GRADES'!C26</f>
         <v>Pineda Francis C</v>
       </c>
-      <c r="C24" s="57" t="str">
+      <c r="C24" s="57">
         <f>'RAW GRADES'!F26</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D24" s="89" t="str">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="D24" s="89">
         <f>'RAW GRADES'!I26</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
@@ -23964,11 +23964,11 @@
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>15</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>15</v>
+        <v>36.6</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
@@ -23988,7 +23988,7 @@
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>36</v>
+        <v>44.64</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24007,13 +24007,13 @@
         <f>'RAW GRADES'!C27</f>
         <v>Rascal Hashim Jr S</v>
       </c>
-      <c r="C25" s="57" t="str">
+      <c r="C25" s="57">
         <f>'RAW GRADES'!F27</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D25" s="89" t="str">
+        <v>22.2</v>
+      </c>
+      <c r="D25" s="89">
         <f>'RAW GRADES'!I27</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
@@ -24029,11 +24029,11 @@
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>20</v>
+        <v>42.2</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>20</v>
+        <v>42.2</v>
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
@@ -24053,7 +24053,7 @@
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>38</v>
+        <v>46.88</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24072,13 +24072,13 @@
         <f>'RAW GRADES'!C28</f>
         <v>Santander Arvin M</v>
       </c>
-      <c r="C26" s="57" t="str">
+      <c r="C26" s="57">
         <f>'RAW GRADES'!F28</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D26" s="89" t="str">
+        <v>15</v>
+      </c>
+      <c r="D26" s="89">
         <f>'RAW GRADES'!I28</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
@@ -24094,11 +24094,11 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
@@ -24118,7 +24118,7 @@
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>37.6</v>
+        <v>43.6</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24137,13 +24137,13 @@
         <f>'RAW GRADES'!C29</f>
         <v>Silmete John Lloyd S</v>
       </c>
-      <c r="C27" s="57" t="str">
+      <c r="C27" s="57">
         <f>'RAW GRADES'!F29</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D27" s="89" t="str">
+        <v>21.599999999999998</v>
+      </c>
+      <c r="D27" s="89">
         <f>'RAW GRADES'!I29</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
@@ -24159,11 +24159,11 @@
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>21.5</v>
+        <v>43.099999999999994</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>21.5</v>
+        <v>43.1</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>38.6</v>
+        <v>47.24</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24202,13 +24202,13 @@
         <f>'RAW GRADES'!C30</f>
         <v>Surizaki Takeji G</v>
       </c>
-      <c r="C28" s="57" t="str">
+      <c r="C28" s="57">
         <f>'RAW GRADES'!F30</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D28" s="89" t="str">
+        <v>23.7</v>
+      </c>
+      <c r="D28" s="89">
         <f>'RAW GRADES'!I30</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E28" s="52">
         <f>'RAW GRADES'!AN30</f>
@@ -24224,11 +24224,11 @@
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
@@ -24248,7 +24248,7 @@
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>30</v>
+        <v>39.480000000000004</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24267,13 +24267,13 @@
         <f>'RAW GRADES'!C31</f>
         <v>Torrente Juan Papa T</v>
       </c>
-      <c r="C29" s="57" t="str">
+      <c r="C29" s="57">
         <f>'RAW GRADES'!F31</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D29" s="89" t="str">
+        <v>9.6</v>
+      </c>
+      <c r="D29" s="89">
         <f>'RAW GRADES'!I31</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E29" s="52">
         <f>'RAW GRADES'!AN31</f>
@@ -24289,11 +24289,11 @@
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>21</v>
+        <v>30.6</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>21</v>
+        <v>30.6</v>
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
@@ -24313,7 +24313,7 @@
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>38.4</v>
+        <v>42.24</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -24332,13 +24332,13 @@
         <f>'RAW GRADES'!C32</f>
         <v>Tubis Heartlyn Micah A</v>
       </c>
-      <c r="C30" s="57" t="str">
+      <c r="C30" s="57">
         <f>'RAW GRADES'!F32</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D30" s="89" t="str">
+        <v>21.9</v>
+      </c>
+      <c r="D30" s="89">
         <f>'RAW GRADES'!I32</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
@@ -24354,11 +24354,11 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>26</v>
+        <v>47.9</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>26</v>
+        <v>47.9</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
@@ -24378,7 +24378,7 @@
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>40.4</v>
+        <v>49.16</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24397,13 +24397,13 @@
         <f>'RAW GRADES'!C33</f>
         <v>Umbay Lorenz G</v>
       </c>
-      <c r="C31" s="57" t="str">
+      <c r="C31" s="57">
         <f>'RAW GRADES'!F33</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D31" s="89" t="str">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D31" s="89">
         <f>'RAW GRADES'!I33</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
@@ -24419,11 +24419,11 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>9</v>
+        <v>29.4</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>9</v>
+        <v>29.4</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>33.6</v>
+        <v>41.76</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24462,13 +24462,13 @@
         <f>'RAW GRADES'!C34</f>
         <v>Villanueva Ira O</v>
       </c>
-      <c r="C32" s="57" t="str">
+      <c r="C32" s="57">
         <f>'RAW GRADES'!F34</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D32" s="89" t="str">
+        <v>16.2</v>
+      </c>
+      <c r="D32" s="89">
         <f>'RAW GRADES'!I34</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
@@ -24484,11 +24484,11 @@
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>14</v>
+        <v>30.2</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>14</v>
+        <v>30.2</v>
       </c>
       <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
@@ -24508,7 +24508,7 @@
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>23.6</v>
+        <v>30.08</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -24527,13 +24527,13 @@
         <f>'RAW GRADES'!C35</f>
         <v xml:space="preserve">  </v>
       </c>
-      <c r="C33" s="57" t="str">
+      <c r="C33" s="57">
         <f>'RAW GRADES'!F35</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D33" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D33" s="89">
         <f>'RAW GRADES'!I35</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E33" s="52">
         <f>'RAW GRADES'!AN35</f>
@@ -24592,13 +24592,13 @@
         <f>'RAW GRADES'!C36</f>
         <v/>
       </c>
-      <c r="C34" s="57" t="str">
+      <c r="C34" s="57">
         <f>'RAW GRADES'!F36</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D34" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D34" s="89">
         <f>'RAW GRADES'!I36</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E34" s="52">
         <f>'RAW GRADES'!AN36</f>
@@ -24657,13 +24657,13 @@
         <f>'RAW GRADES'!C37</f>
         <v/>
       </c>
-      <c r="C35" s="57" t="str">
+      <c r="C35" s="57">
         <f>'RAW GRADES'!F37</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D35" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D35" s="89">
         <f>'RAW GRADES'!I37</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E35" s="52">
         <f>'RAW GRADES'!AN37</f>
@@ -24722,13 +24722,13 @@
         <f>'RAW GRADES'!C38</f>
         <v/>
       </c>
-      <c r="C36" s="57" t="str">
+      <c r="C36" s="57">
         <f>'RAW GRADES'!F38</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D36" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D36" s="89">
         <f>'RAW GRADES'!I38</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E36" s="52">
         <f>'RAW GRADES'!AN38</f>
@@ -24787,13 +24787,13 @@
         <f>'RAW GRADES'!C39</f>
         <v/>
       </c>
-      <c r="C37" s="57" t="str">
+      <c r="C37" s="57">
         <f>'RAW GRADES'!F39</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D37" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D37" s="89">
         <f>'RAW GRADES'!I39</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E37" s="52">
         <f>'RAW GRADES'!AN39</f>
@@ -24852,13 +24852,13 @@
         <f>'RAW GRADES'!C40</f>
         <v/>
       </c>
-      <c r="C38" s="57" t="str">
+      <c r="C38" s="57">
         <f>'RAW GRADES'!F40</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D38" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D38" s="89">
         <f>'RAW GRADES'!I40</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E38" s="52">
         <f>'RAW GRADES'!AN40</f>
@@ -24917,13 +24917,13 @@
         <f>'RAW GRADES'!C41</f>
         <v/>
       </c>
-      <c r="C39" s="57" t="str">
+      <c r="C39" s="57">
         <f>'RAW GRADES'!F41</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D39" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D39" s="89">
         <f>'RAW GRADES'!I41</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E39" s="52">
         <f>'RAW GRADES'!AN41</f>
@@ -24982,13 +24982,13 @@
         <f>'RAW GRADES'!C42</f>
         <v/>
       </c>
-      <c r="C40" s="57" t="str">
+      <c r="C40" s="57">
         <f>'RAW GRADES'!F42</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D40" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D40" s="89">
         <f>'RAW GRADES'!I42</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E40" s="52">
         <f>'RAW GRADES'!AN42</f>
@@ -25047,13 +25047,13 @@
         <f>'RAW GRADES'!C43</f>
         <v/>
       </c>
-      <c r="C41" s="57" t="str">
+      <c r="C41" s="57">
         <f>'RAW GRADES'!F43</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D41" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D41" s="89">
         <f>'RAW GRADES'!I43</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E41" s="52">
         <f>'RAW GRADES'!AN43</f>
@@ -25112,13 +25112,13 @@
         <f>'RAW GRADES'!C44</f>
         <v/>
       </c>
-      <c r="C42" s="57" t="str">
+      <c r="C42" s="57">
         <f>'RAW GRADES'!F44</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D42" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D42" s="89">
         <f>'RAW GRADES'!I44</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E42" s="52">
         <f>'RAW GRADES'!AN44</f>
@@ -25177,13 +25177,13 @@
         <f>'RAW GRADES'!C45</f>
         <v/>
       </c>
-      <c r="C43" s="57" t="str">
+      <c r="C43" s="57">
         <f>'RAW GRADES'!F45</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D43" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D43" s="89">
         <f>'RAW GRADES'!I45</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E43" s="52">
         <f>'RAW GRADES'!AN45</f>
@@ -25242,13 +25242,13 @@
         <f>'RAW GRADES'!C46</f>
         <v/>
       </c>
-      <c r="C44" s="57" t="str">
+      <c r="C44" s="57">
         <f>'RAW GRADES'!F46</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D44" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D44" s="89">
         <f>'RAW GRADES'!I46</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E44" s="52">
         <f>'RAW GRADES'!AN46</f>
@@ -25307,13 +25307,13 @@
         <f>'RAW GRADES'!C47</f>
         <v/>
       </c>
-      <c r="C45" s="57" t="str">
+      <c r="C45" s="57">
         <f>'RAW GRADES'!F47</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D45" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D45" s="89">
         <f>'RAW GRADES'!I47</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E45" s="52">
         <f>'RAW GRADES'!AN47</f>
@@ -25372,13 +25372,13 @@
         <f>'RAW GRADES'!C48</f>
         <v/>
       </c>
-      <c r="C46" s="57" t="str">
+      <c r="C46" s="57">
         <f>'RAW GRADES'!F48</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D46" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D46" s="89">
         <f>'RAW GRADES'!I48</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E46" s="52">
         <f>'RAW GRADES'!AN48</f>
@@ -25437,13 +25437,13 @@
         <f>'RAW GRADES'!C49</f>
         <v/>
       </c>
-      <c r="C47" s="57" t="str">
+      <c r="C47" s="57">
         <f>'RAW GRADES'!F49</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D47" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D47" s="89">
         <f>'RAW GRADES'!I49</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E47" s="52">
         <f>'RAW GRADES'!AN49</f>
@@ -25502,13 +25502,13 @@
         <f>'RAW GRADES'!C50</f>
         <v/>
       </c>
-      <c r="C48" s="57" t="str">
+      <c r="C48" s="57">
         <f>'RAW GRADES'!F50</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D48" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D48" s="89">
         <f>'RAW GRADES'!I50</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E48" s="52">
         <f>'RAW GRADES'!AN50</f>
@@ -25567,13 +25567,13 @@
         <f>'RAW GRADES'!C51</f>
         <v/>
       </c>
-      <c r="C49" s="57" t="str">
+      <c r="C49" s="57">
         <f>'RAW GRADES'!F51</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D49" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D49" s="89">
         <f>'RAW GRADES'!I51</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E49" s="52">
         <f>'RAW GRADES'!AN51</f>
@@ -25632,13 +25632,13 @@
         <f>'RAW GRADES'!C52</f>
         <v/>
       </c>
-      <c r="C50" s="57" t="str">
+      <c r="C50" s="57">
         <f>'RAW GRADES'!F52</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D50" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D50" s="89">
         <f>'RAW GRADES'!I52</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E50" s="52">
         <f>'RAW GRADES'!AN52</f>
@@ -25697,13 +25697,13 @@
         <f>'RAW GRADES'!C53</f>
         <v/>
       </c>
-      <c r="C51" s="57" t="str">
+      <c r="C51" s="57">
         <f>'RAW GRADES'!F53</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D51" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D51" s="89">
         <f>'RAW GRADES'!I53</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E51" s="52">
         <f>'RAW GRADES'!AN53</f>
@@ -25762,13 +25762,13 @@
         <f>'RAW GRADES'!C54</f>
         <v/>
       </c>
-      <c r="C52" s="57" t="str">
+      <c r="C52" s="57">
         <f>'RAW GRADES'!F54</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D52" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D52" s="89">
         <f>'RAW GRADES'!I54</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E52" s="52">
         <f>'RAW GRADES'!AN54</f>
@@ -25827,13 +25827,13 @@
         <f>'RAW GRADES'!C55</f>
         <v/>
       </c>
-      <c r="C53" s="57" t="str">
+      <c r="C53" s="57">
         <f>'RAW GRADES'!F55</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D53" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D53" s="89">
         <f>'RAW GRADES'!I55</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E53" s="52">
         <f>'RAW GRADES'!AN55</f>
@@ -25892,13 +25892,13 @@
         <f>'RAW GRADES'!C56</f>
         <v/>
       </c>
-      <c r="C54" s="57" t="str">
+      <c r="C54" s="57">
         <f>'RAW GRADES'!F56</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D54" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D54" s="89">
         <f>'RAW GRADES'!I56</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E54" s="52">
         <f>'RAW GRADES'!AN56</f>
@@ -25957,13 +25957,13 @@
         <f>'RAW GRADES'!C57</f>
         <v/>
       </c>
-      <c r="C55" s="57" t="str">
+      <c r="C55" s="57">
         <f>'RAW GRADES'!F57</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D55" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D55" s="89">
         <f>'RAW GRADES'!I57</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E55" s="52">
         <f>'RAW GRADES'!AN57</f>
@@ -26022,13 +26022,13 @@
         <f>'RAW GRADES'!C58</f>
         <v/>
       </c>
-      <c r="C56" s="57" t="str">
+      <c r="C56" s="57">
         <f>'RAW GRADES'!F58</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D56" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D56" s="89">
         <f>'RAW GRADES'!I58</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E56" s="52">
         <f>'RAW GRADES'!AN58</f>
@@ -26087,13 +26087,13 @@
         <f>'RAW GRADES'!C59</f>
         <v/>
       </c>
-      <c r="C57" s="57" t="str">
+      <c r="C57" s="57">
         <f>'RAW GRADES'!F59</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D57" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D57" s="89">
         <f>'RAW GRADES'!I59</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E57" s="52">
         <f>'RAW GRADES'!AN59</f>
@@ -26152,13 +26152,13 @@
         <f>'RAW GRADES'!C60</f>
         <v/>
       </c>
-      <c r="C58" s="57" t="str">
+      <c r="C58" s="57">
         <f>'RAW GRADES'!F60</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D58" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D58" s="89">
         <f>'RAW GRADES'!I60</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E58" s="52">
         <f>'RAW GRADES'!AN60</f>
@@ -26217,13 +26217,13 @@
         <f>'RAW GRADES'!C61</f>
         <v/>
       </c>
-      <c r="C59" s="57" t="str">
+      <c r="C59" s="57">
         <f>'RAW GRADES'!F61</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D59" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D59" s="89">
         <f>'RAW GRADES'!I61</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E59" s="52">
         <f>'RAW GRADES'!AN61</f>
@@ -26282,13 +26282,13 @@
         <f>'RAW GRADES'!C62</f>
         <v/>
       </c>
-      <c r="C60" s="57" t="str">
+      <c r="C60" s="57">
         <f>'RAW GRADES'!F62</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D60" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D60" s="89">
         <f>'RAW GRADES'!I62</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E60" s="52">
         <f>'RAW GRADES'!AN62</f>
@@ -26347,13 +26347,13 @@
         <f>'RAW GRADES'!C63</f>
         <v/>
       </c>
-      <c r="C61" s="57" t="str">
+      <c r="C61" s="57">
         <f>'RAW GRADES'!F63</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D61" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D61" s="89">
         <f>'RAW GRADES'!I63</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E61" s="52">
         <f>'RAW GRADES'!AN63</f>
@@ -26412,13 +26412,13 @@
         <f>'RAW GRADES'!C64</f>
         <v/>
       </c>
-      <c r="C62" s="57" t="str">
+      <c r="C62" s="57">
         <f>'RAW GRADES'!F64</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D62" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D62" s="89">
         <f>'RAW GRADES'!I64</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E62" s="52">
         <f>'RAW GRADES'!AN64</f>
@@ -26477,13 +26477,13 @@
         <f>'RAW GRADES'!C65</f>
         <v/>
       </c>
-      <c r="C63" s="57" t="str">
+      <c r="C63" s="57">
         <f>'RAW GRADES'!F65</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D63" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D63" s="89">
         <f>'RAW GRADES'!I65</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E63" s="52">
         <f>'RAW GRADES'!AN65</f>
@@ -26542,13 +26542,13 @@
         <f>'RAW GRADES'!C66</f>
         <v/>
       </c>
-      <c r="C64" s="57" t="str">
+      <c r="C64" s="57">
         <f>'RAW GRADES'!F66</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D64" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D64" s="89">
         <f>'RAW GRADES'!I66</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E64" s="52">
         <f>'RAW GRADES'!AN66</f>
@@ -26607,13 +26607,13 @@
         <f>'RAW GRADES'!C67</f>
         <v/>
       </c>
-      <c r="C65" s="57" t="str">
+      <c r="C65" s="57">
         <f>'RAW GRADES'!F67</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D65" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D65" s="89">
         <f>'RAW GRADES'!I67</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E65" s="52">
         <f>'RAW GRADES'!AN67</f>
@@ -26672,13 +26672,13 @@
         <f>'RAW GRADES'!C68</f>
         <v/>
       </c>
-      <c r="C66" s="57" t="str">
+      <c r="C66" s="57">
         <f>'RAW GRADES'!F68</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D66" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D66" s="89">
         <f>'RAW GRADES'!I68</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E66" s="52">
         <f>'RAW GRADES'!AN68</f>
@@ -26737,13 +26737,13 @@
         <f>'RAW GRADES'!C69</f>
         <v/>
       </c>
-      <c r="C67" s="57" t="str">
+      <c r="C67" s="57">
         <f>'RAW GRADES'!F69</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D67" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D67" s="89">
         <f>'RAW GRADES'!I69</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E67" s="52">
         <f>'RAW GRADES'!AN69</f>
@@ -26802,13 +26802,13 @@
         <f>'RAW GRADES'!C70</f>
         <v/>
       </c>
-      <c r="C68" s="57" t="str">
+      <c r="C68" s="57">
         <f>'RAW GRADES'!F70</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D68" s="89" t="str">
+        <v>0</v>
+      </c>
+      <c r="D68" s="89">
         <f>'RAW GRADES'!I70</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E68" s="52">
         <f>'RAW GRADES'!AN70</f>
@@ -26873,7 +26873,7 @@
     <mergeCell ref="C5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P68">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26915,106 +26915,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="258"/>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="261" t="s">
+      <c r="A4" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
-      <c r="E4" s="261"/>
-      <c r="F4" s="261"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="262" t="s">
+      <c r="A5" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="263" t="s">
+      <c r="A7" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="263"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="264"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="258"/>
-      <c r="B9" s="258"/>
-      <c r="C9" s="258"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="258"/>
+      <c r="A9" s="259"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="265"/>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
+      <c r="A10" s="266"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="266" t="s">
+      <c r="A11" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="266"/>
-      <c r="C11" s="266"/>
-      <c r="D11" s="266"/>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="264"/>
-      <c r="B12" s="264"/>
-      <c r="C12" s="264"/>
-      <c r="D12" s="264"/>
-      <c r="E12" s="264"/>
-      <c r="F12" s="264"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="267" t="str">
+      <c r="C13" s="268" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="267"/>
-      <c r="E13" s="267"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27022,12 +27022,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="260" t="str">
+      <c r="C14" s="261" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27035,12 +27035,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="246" t="str">
+      <c r="C15" s="247" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27048,12 +27048,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="246" t="str">
+      <c r="C16" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27061,12 +27061,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="246" t="str">
+      <c r="C17" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27078,42 +27078,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="247" t="s">
+      <c r="A19" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="250" t="s">
+      <c r="B19" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="247" t="s">
+      <c r="C19" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="247" t="s">
+      <c r="D19" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="252" t="s">
+      <c r="E19" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="247" t="s">
+      <c r="F19" s="248" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="248"/>
-      <c r="B20" s="251"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="248"/>
-      <c r="E20" s="253"/>
-      <c r="F20" s="255"/>
+      <c r="A20" s="249"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="256"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="249"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="254"/>
-      <c r="F21" s="256"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="257"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28626,14 +28626,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="230" t="s">
+      <c r="A83" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="231"/>
-      <c r="C83" s="231"/>
-      <c r="D83" s="231"/>
-      <c r="E83" s="231"/>
-      <c r="F83" s="232"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="233"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28666,11 +28666,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="257">
+      <c r="E87" s="258">
         <f ca="1">NOW()</f>
-        <v>43003.63940821759</v>
-      </c>
-      <c r="F87" s="257"/>
+        <v>43019.525910300923</v>
+      </c>
+      <c r="F87" s="258"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28680,10 +28680,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="258" t="s">
+      <c r="E88" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="258"/>
+      <c r="F88" s="259"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28700,8 +28700,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="258"/>
-      <c r="F90" s="258"/>
+      <c r="E90" s="259"/>
+      <c r="F90" s="259"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28817,14 +28817,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="259" t="s">
+      <c r="A105" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="259"/>
-      <c r="C105" s="259"/>
-      <c r="D105" s="259"/>
-      <c r="E105" s="259"/>
-      <c r="F105" s="259"/>
+      <c r="B105" s="260"/>
+      <c r="C105" s="260"/>
+      <c r="D105" s="260"/>
+      <c r="E105" s="260"/>
+      <c r="F105" s="260"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28839,124 +28839,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="243" t="s">
+      <c r="C107" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="244"/>
-      <c r="E107" s="245" t="s">
+      <c r="D107" s="245"/>
+      <c r="E107" s="246" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="244"/>
+      <c r="F107" s="245"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="239">
+      <c r="C108" s="240">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="240"/>
-      <c r="E108" s="241">
+      <c r="D108" s="241"/>
+      <c r="E108" s="242">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="242"/>
+      <c r="F108" s="243"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="233">
+      <c r="C109" s="234">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="234"/>
-      <c r="E109" s="235">
+      <c r="D109" s="235"/>
+      <c r="E109" s="236">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="236"/>
+      <c r="F109" s="237"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="233">
+      <c r="C110" s="234">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="234"/>
-      <c r="E110" s="235">
+      <c r="D110" s="235"/>
+      <c r="E110" s="236">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="236"/>
+      <c r="F110" s="237"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="233">
+      <c r="C111" s="234">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="234"/>
-      <c r="E111" s="235">
+      <c r="D111" s="235"/>
+      <c r="E111" s="236">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="236"/>
+      <c r="F111" s="237"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="237">
-        <v>0</v>
-      </c>
-      <c r="D112" s="238"/>
-      <c r="E112" s="235">
+      <c r="C112" s="238">
+        <v>0</v>
+      </c>
+      <c r="D112" s="239"/>
+      <c r="E112" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="236"/>
+      <c r="F112" s="237"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="237">
-        <v>0</v>
-      </c>
-      <c r="D113" s="238"/>
-      <c r="E113" s="235">
+      <c r="C113" s="238">
+        <v>0</v>
+      </c>
+      <c r="D113" s="239"/>
+      <c r="E113" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="236"/>
+      <c r="F113" s="237"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="226">
+      <c r="C114" s="227">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="227"/>
-      <c r="E114" s="228">
+      <c r="D114" s="228"/>
+      <c r="E114" s="229">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="229"/>
+      <c r="F114" s="230"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -29168,7 +29168,7 @@
     <mergeCell ref="C107:D107"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29196,54 +29196,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="272" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="273"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="274"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="116"/>
       <c r="B2" s="41"/>
       <c r="C2" s="113"/>
-      <c r="D2" s="268" t="s">
+      <c r="D2" s="269" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="268" t="s">
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="269" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="268" t="s">
+      <c r="I2" s="270"/>
+      <c r="J2" s="270"/>
+      <c r="K2" s="271"/>
+      <c r="L2" s="269" t="s">
         <v>148</v>
       </c>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="270"/>
-      <c r="P2" s="268" t="s">
+      <c r="M2" s="270"/>
+      <c r="N2" s="270"/>
+      <c r="O2" s="271"/>
+      <c r="P2" s="269" t="s">
         <v>153</v>
       </c>
-      <c r="Q2" s="269"/>
-      <c r="R2" s="270"/>
+      <c r="Q2" s="270"/>
+      <c r="R2" s="271"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="116"/>

--- a/DCIT 65 - CS 3B/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3B/LEC AND LAB.xlsx
@@ -2303,99 +2303,37 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2435,129 +2373,104 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2598,6 +2511,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2656,6 +2656,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2731,102 +2827,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2859,14 +2859,14 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
@@ -3908,7 +3908,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3941,82 +3941,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="167" t="s">
+      <c r="A6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="168"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4024,28 +4024,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="169" t="s">
+      <c r="J6" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="169"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="172"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="173" t="s">
+      <c r="E7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="173"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4053,28 +4053,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="173" t="s">
+      <c r="J7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="154"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="155" t="s">
+      <c r="E8" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4082,45 +4082,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="155" t="s">
+      <c r="J8" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162" t="s">
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="162" t="s">
+      <c r="G9" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="145" t="s">
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="146"/>
-      <c r="L9" s="145" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="146"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="158"/>
-      <c r="B10" s="160"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4130,14 +4130,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4158,19 +4158,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="150"/>
-      <c r="O11" s="137" t="s">
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="158"/>
+      <c r="O11" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4191,21 +4191,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="132" t="s">
+      <c r="P12" s="167" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="167"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4226,21 +4226,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="132" t="s">
+      <c r="P13" s="167" t="s">
         <v>244</v>
       </c>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4261,21 +4261,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="129" t="s">
+      <c r="P14" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="166"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4296,21 +4296,21 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="129" t="s">
+      <c r="P15" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="131"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="166"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4329,21 +4329,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="140" t="s">
+      <c r="P16" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="142"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="174"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4364,21 +4364,21 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="166"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4399,13 +4399,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4426,13 +4426,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4453,13 +4453,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4480,13 +4480,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4510,13 +4510,13 @@
       <c r="F22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4543,13 +4543,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4576,13 +4576,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4609,13 +4609,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4642,13 +4642,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4675,13 +4675,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4708,13 +4708,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4741,13 +4741,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4774,13 +4774,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4807,13 +4807,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4836,13 +4836,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4869,13 +4869,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4896,13 +4896,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4923,13 +4923,13 @@
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4940,13 +4940,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4957,13 +4957,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4974,13 +4974,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="135"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4991,13 +4991,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5008,13 +5008,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5025,13 +5025,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5042,13 +5042,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5059,13 +5059,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5076,13 +5076,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5093,13 +5093,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5110,13 +5110,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5127,13 +5127,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="161"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5144,13 +5144,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="161"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5161,13 +5161,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="161"/>
+      <c r="K49" s="161"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5178,13 +5178,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5195,13 +5195,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="161"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5212,13 +5212,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="161"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5229,13 +5229,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5246,13 +5246,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="135"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="161"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5263,13 +5263,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="135"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5280,13 +5280,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5297,13 +5297,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5314,13 +5314,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="161"/>
+      <c r="K58" s="161"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5331,13 +5331,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="161"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5348,13 +5348,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="161"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5365,13 +5365,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="134"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="161"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5382,13 +5382,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5399,13 +5399,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="161"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5416,13 +5416,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="161"/>
+      <c r="K64" s="161"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5433,13 +5433,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="134"/>
-      <c r="K65" s="134"/>
-      <c r="L65" s="135"/>
-      <c r="M65" s="135"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="161"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5450,13 +5450,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="133"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="135"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="161"/>
+      <c r="K66" s="161"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5467,13 +5467,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="161"/>
+      <c r="K67" s="161"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5484,13 +5484,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="133"/>
-      <c r="J68" s="134"/>
-      <c r="K68" s="134"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="161"/>
+      <c r="K68" s="161"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5501,13 +5501,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="133"/>
-      <c r="J69" s="134"/>
-      <c r="K69" s="134"/>
-      <c r="L69" s="135"/>
-      <c r="M69" s="135"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="161"/>
+      <c r="K69" s="161"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5518,13 +5518,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="133"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="134"/>
-      <c r="L70" s="135"/>
-      <c r="M70" s="135"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="152"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="161"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5535,13 +5535,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="133"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="135"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="161"/>
+      <c r="K71" s="161"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5549,195 +5549,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5762,6 +5573,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
@@ -6102,9 +6102,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="DD20" sqref="DD20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6118,452 +6118,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="136"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="136"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
-      <c r="BR2" s="136"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="136"/>
-      <c r="BU2" s="136"/>
-      <c r="BV2" s="136"/>
-      <c r="BW2" s="136"/>
-      <c r="BX2" s="136"/>
-      <c r="BY2" s="136"/>
-      <c r="BZ2" s="136"/>
-      <c r="CA2" s="136"/>
-      <c r="CB2" s="136"/>
-      <c r="CC2" s="136"/>
-      <c r="CD2" s="136"/>
-      <c r="CE2" s="136"/>
-      <c r="CF2" s="136"/>
-      <c r="CG2" s="136"/>
-      <c r="CH2" s="136"/>
-      <c r="CI2" s="136"/>
-      <c r="CJ2" s="136"/>
-      <c r="CK2" s="136"/>
-      <c r="CL2" s="136"/>
-      <c r="CM2" s="136"/>
-      <c r="CN2" s="136"/>
-      <c r="CO2" s="136"/>
-      <c r="CP2" s="136"/>
-      <c r="CQ2" s="136"/>
-      <c r="CR2" s="136"/>
-      <c r="CS2" s="136"/>
-      <c r="CT2" s="136"/>
-      <c r="CU2" s="136"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="168"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="168"/>
+      <c r="AU2" s="168"/>
+      <c r="AV2" s="168"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="168"/>
+      <c r="BC2" s="168"/>
+      <c r="BD2" s="168"/>
+      <c r="BE2" s="168"/>
+      <c r="BF2" s="168"/>
+      <c r="BG2" s="168"/>
+      <c r="BH2" s="168"/>
+      <c r="BI2" s="168"/>
+      <c r="BJ2" s="168"/>
+      <c r="BK2" s="168"/>
+      <c r="BL2" s="168"/>
+      <c r="BM2" s="168"/>
+      <c r="BN2" s="168"/>
+      <c r="BO2" s="168"/>
+      <c r="BP2" s="168"/>
+      <c r="BQ2" s="168"/>
+      <c r="BR2" s="168"/>
+      <c r="BS2" s="168"/>
+      <c r="BT2" s="168"/>
+      <c r="BU2" s="168"/>
+      <c r="BV2" s="168"/>
+      <c r="BW2" s="168"/>
+      <c r="BX2" s="168"/>
+      <c r="BY2" s="168"/>
+      <c r="BZ2" s="168"/>
+      <c r="CA2" s="168"/>
+      <c r="CB2" s="168"/>
+      <c r="CC2" s="168"/>
+      <c r="CD2" s="168"/>
+      <c r="CE2" s="168"/>
+      <c r="CF2" s="168"/>
+      <c r="CG2" s="168"/>
+      <c r="CH2" s="168"/>
+      <c r="CI2" s="168"/>
+      <c r="CJ2" s="168"/>
+      <c r="CK2" s="168"/>
+      <c r="CL2" s="168"/>
+      <c r="CM2" s="168"/>
+      <c r="CN2" s="168"/>
+      <c r="CO2" s="168"/>
+      <c r="CP2" s="168"/>
+      <c r="CQ2" s="168"/>
+      <c r="CR2" s="168"/>
+      <c r="CS2" s="168"/>
+      <c r="CT2" s="168"/>
+      <c r="CU2" s="168"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-      <c r="BC3" s="136"/>
-      <c r="BD3" s="136"/>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="136"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="136"/>
-      <c r="BU3" s="136"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="136"/>
-      <c r="BZ3" s="136"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="136"/>
-      <c r="CE3" s="136"/>
-      <c r="CF3" s="136"/>
-      <c r="CG3" s="136"/>
-      <c r="CH3" s="136"/>
-      <c r="CI3" s="136"/>
-      <c r="CJ3" s="136"/>
-      <c r="CK3" s="136"/>
-      <c r="CL3" s="136"/>
-      <c r="CM3" s="136"/>
-      <c r="CN3" s="136"/>
-      <c r="CO3" s="136"/>
-      <c r="CP3" s="136"/>
-      <c r="CQ3" s="136"/>
-      <c r="CR3" s="136"/>
-      <c r="CS3" s="136"/>
-      <c r="CT3" s="136"/>
-      <c r="CU3" s="136"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
+      <c r="AT3" s="168"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="168"/>
+      <c r="AW3" s="168"/>
+      <c r="AX3" s="168"/>
+      <c r="AY3" s="168"/>
+      <c r="AZ3" s="168"/>
+      <c r="BA3" s="168"/>
+      <c r="BB3" s="168"/>
+      <c r="BC3" s="168"/>
+      <c r="BD3" s="168"/>
+      <c r="BE3" s="168"/>
+      <c r="BF3" s="168"/>
+      <c r="BG3" s="168"/>
+      <c r="BH3" s="168"/>
+      <c r="BI3" s="168"/>
+      <c r="BJ3" s="168"/>
+      <c r="BK3" s="168"/>
+      <c r="BL3" s="168"/>
+      <c r="BM3" s="168"/>
+      <c r="BN3" s="168"/>
+      <c r="BO3" s="168"/>
+      <c r="BP3" s="168"/>
+      <c r="BQ3" s="168"/>
+      <c r="BR3" s="168"/>
+      <c r="BS3" s="168"/>
+      <c r="BT3" s="168"/>
+      <c r="BU3" s="168"/>
+      <c r="BV3" s="168"/>
+      <c r="BW3" s="168"/>
+      <c r="BX3" s="168"/>
+      <c r="BY3" s="168"/>
+      <c r="BZ3" s="168"/>
+      <c r="CA3" s="168"/>
+      <c r="CB3" s="168"/>
+      <c r="CC3" s="168"/>
+      <c r="CD3" s="168"/>
+      <c r="CE3" s="168"/>
+      <c r="CF3" s="168"/>
+      <c r="CG3" s="168"/>
+      <c r="CH3" s="168"/>
+      <c r="CI3" s="168"/>
+      <c r="CJ3" s="168"/>
+      <c r="CK3" s="168"/>
+      <c r="CL3" s="168"/>
+      <c r="CM3" s="168"/>
+      <c r="CN3" s="168"/>
+      <c r="CO3" s="168"/>
+      <c r="CP3" s="168"/>
+      <c r="CQ3" s="168"/>
+      <c r="CR3" s="168"/>
+      <c r="CS3" s="168"/>
+      <c r="CT3" s="168"/>
+      <c r="CU3" s="168"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="206"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="206"/>
-      <c r="AF5" s="206"/>
-      <c r="AG5" s="206"/>
-      <c r="AH5" s="206"/>
-      <c r="AI5" s="206"/>
-      <c r="AJ5" s="206"/>
-      <c r="AK5" s="206"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="206"/>
-      <c r="AN5" s="206"/>
-      <c r="AO5" s="206"/>
-      <c r="AP5" s="206"/>
-      <c r="AQ5" s="206"/>
-      <c r="AR5" s="206"/>
-      <c r="AS5" s="206"/>
-      <c r="AT5" s="206"/>
-      <c r="AU5" s="206"/>
-      <c r="AV5" s="206"/>
-      <c r="AW5" s="206"/>
-      <c r="AX5" s="206"/>
-      <c r="AY5" s="206"/>
-      <c r="AZ5" s="206"/>
-      <c r="BA5" s="206"/>
-      <c r="BB5" s="206"/>
-      <c r="BC5" s="206"/>
-      <c r="BD5" s="207"/>
-      <c r="BE5" s="208" t="s">
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="181"/>
+      <c r="AM5" s="181"/>
+      <c r="AN5" s="181"/>
+      <c r="AO5" s="181"/>
+      <c r="AP5" s="181"/>
+      <c r="AQ5" s="181"/>
+      <c r="AR5" s="181"/>
+      <c r="AS5" s="181"/>
+      <c r="AT5" s="181"/>
+      <c r="AU5" s="181"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="181"/>
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="181"/>
+      <c r="BA5" s="181"/>
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="182"/>
+      <c r="BE5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="209"/>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="209"/>
-      <c r="BI5" s="209"/>
-      <c r="BJ5" s="209"/>
-      <c r="BK5" s="209"/>
-      <c r="BL5" s="209"/>
-      <c r="BM5" s="209"/>
-      <c r="BN5" s="209"/>
-      <c r="BO5" s="209"/>
-      <c r="BP5" s="209"/>
-      <c r="BQ5" s="209"/>
-      <c r="BR5" s="209"/>
-      <c r="BS5" s="209"/>
-      <c r="BT5" s="209"/>
-      <c r="BU5" s="209"/>
-      <c r="BV5" s="209"/>
-      <c r="BW5" s="209"/>
-      <c r="BX5" s="209"/>
-      <c r="BY5" s="209"/>
-      <c r="BZ5" s="209"/>
-      <c r="CA5" s="209"/>
-      <c r="CB5" s="209"/>
-      <c r="CC5" s="209"/>
-      <c r="CD5" s="209"/>
-      <c r="CE5" s="209"/>
-      <c r="CF5" s="209"/>
-      <c r="CG5" s="209"/>
-      <c r="CH5" s="209"/>
-      <c r="CI5" s="209"/>
-      <c r="CJ5" s="209"/>
-      <c r="CK5" s="209"/>
-      <c r="CL5" s="209"/>
-      <c r="CM5" s="209"/>
-      <c r="CN5" s="209"/>
-      <c r="CO5" s="209"/>
-      <c r="CP5" s="209"/>
-      <c r="CQ5" s="209"/>
-      <c r="CR5" s="210"/>
-      <c r="CS5" s="197" t="s">
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="184"/>
+      <c r="BH5" s="184"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="184"/>
+      <c r="BO5" s="184"/>
+      <c r="BP5" s="184"/>
+      <c r="BQ5" s="184"/>
+      <c r="BR5" s="184"/>
+      <c r="BS5" s="184"/>
+      <c r="BT5" s="184"/>
+      <c r="BU5" s="184"/>
+      <c r="BV5" s="184"/>
+      <c r="BW5" s="184"/>
+      <c r="BX5" s="184"/>
+      <c r="BY5" s="184"/>
+      <c r="BZ5" s="184"/>
+      <c r="CA5" s="184"/>
+      <c r="CB5" s="184"/>
+      <c r="CC5" s="184"/>
+      <c r="CD5" s="184"/>
+      <c r="CE5" s="184"/>
+      <c r="CF5" s="184"/>
+      <c r="CG5" s="184"/>
+      <c r="CH5" s="184"/>
+      <c r="CI5" s="184"/>
+      <c r="CJ5" s="184"/>
+      <c r="CK5" s="184"/>
+      <c r="CL5" s="184"/>
+      <c r="CM5" s="184"/>
+      <c r="CN5" s="184"/>
+      <c r="CO5" s="184"/>
+      <c r="CP5" s="184"/>
+      <c r="CQ5" s="184"/>
+      <c r="CR5" s="185"/>
+      <c r="CS5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="198"/>
-      <c r="CU5" s="199"/>
+      <c r="CT5" s="191"/>
+      <c r="CU5" s="192"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="202"/>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="180" t="s">
+      <c r="A6" s="177"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="183" t="s">
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="183"/>
-      <c r="R6" s="183"/>
-      <c r="S6" s="183"/>
-      <c r="T6" s="183"/>
-      <c r="U6" s="183"/>
-      <c r="V6" s="183"/>
-      <c r="W6" s="183"/>
-      <c r="X6" s="183"/>
-      <c r="Y6" s="183"/>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="183"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="183"/>
-      <c r="AD6" s="183"/>
-      <c r="AE6" s="183"/>
-      <c r="AF6" s="183"/>
-      <c r="AG6" s="183"/>
-      <c r="AH6" s="183"/>
-      <c r="AI6" s="183"/>
-      <c r="AJ6" s="183"/>
-      <c r="AK6" s="183"/>
-      <c r="AL6" s="183"/>
-      <c r="AM6" s="183"/>
-      <c r="AN6" s="183"/>
-      <c r="AO6" s="183" t="s">
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="196"/>
+      <c r="AG6" s="196"/>
+      <c r="AH6" s="196"/>
+      <c r="AI6" s="196"/>
+      <c r="AJ6" s="196"/>
+      <c r="AK6" s="196"/>
+      <c r="AL6" s="196"/>
+      <c r="AM6" s="196"/>
+      <c r="AN6" s="196"/>
+      <c r="AO6" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="183"/>
-      <c r="AQ6" s="183"/>
-      <c r="AR6" s="183"/>
-      <c r="AS6" s="183" t="s">
+      <c r="AP6" s="196"/>
+      <c r="AQ6" s="196"/>
+      <c r="AR6" s="196"/>
+      <c r="AS6" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="183"/>
-      <c r="AU6" s="183"/>
-      <c r="AV6" s="183" t="s">
+      <c r="AT6" s="196"/>
+      <c r="AU6" s="196"/>
+      <c r="AV6" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="183"/>
-      <c r="AX6" s="183"/>
-      <c r="AY6" s="183"/>
-      <c r="AZ6" s="183"/>
-      <c r="BA6" s="183"/>
-      <c r="BB6" s="183"/>
-      <c r="BC6" s="190" t="s">
+      <c r="AW6" s="196"/>
+      <c r="AX6" s="196"/>
+      <c r="AY6" s="196"/>
+      <c r="AZ6" s="196"/>
+      <c r="BA6" s="196"/>
+      <c r="BB6" s="196"/>
+      <c r="BC6" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="191"/>
-      <c r="BE6" s="192" t="s">
+      <c r="BD6" s="201"/>
+      <c r="BE6" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="193"/>
-      <c r="BG6" s="193"/>
-      <c r="BH6" s="193"/>
-      <c r="BI6" s="193"/>
-      <c r="BJ6" s="193"/>
-      <c r="BK6" s="194"/>
-      <c r="BL6" s="195" t="s">
+      <c r="BF6" s="203"/>
+      <c r="BG6" s="203"/>
+      <c r="BH6" s="203"/>
+      <c r="BI6" s="203"/>
+      <c r="BJ6" s="203"/>
+      <c r="BK6" s="204"/>
+      <c r="BL6" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="193"/>
-      <c r="BN6" s="193"/>
-      <c r="BO6" s="193"/>
-      <c r="BP6" s="193"/>
-      <c r="BQ6" s="193"/>
-      <c r="BR6" s="193"/>
-      <c r="BS6" s="193"/>
-      <c r="BT6" s="193"/>
-      <c r="BU6" s="193"/>
-      <c r="BV6" s="193"/>
-      <c r="BW6" s="193"/>
-      <c r="BX6" s="193"/>
-      <c r="BY6" s="193"/>
-      <c r="BZ6" s="193"/>
-      <c r="CA6" s="193"/>
-      <c r="CB6" s="193"/>
-      <c r="CC6" s="193"/>
-      <c r="CD6" s="193"/>
-      <c r="CE6" s="193"/>
-      <c r="CF6" s="193"/>
-      <c r="CG6" s="193"/>
-      <c r="CH6" s="193"/>
-      <c r="CI6" s="193"/>
-      <c r="CJ6" s="193"/>
-      <c r="CK6" s="193"/>
-      <c r="CL6" s="193"/>
-      <c r="CM6" s="193"/>
-      <c r="CN6" s="193"/>
-      <c r="CO6" s="193"/>
-      <c r="CP6" s="193"/>
-      <c r="CQ6" s="200" t="s">
+      <c r="BM6" s="203"/>
+      <c r="BN6" s="203"/>
+      <c r="BO6" s="203"/>
+      <c r="BP6" s="203"/>
+      <c r="BQ6" s="203"/>
+      <c r="BR6" s="203"/>
+      <c r="BS6" s="203"/>
+      <c r="BT6" s="203"/>
+      <c r="BU6" s="203"/>
+      <c r="BV6" s="203"/>
+      <c r="BW6" s="203"/>
+      <c r="BX6" s="203"/>
+      <c r="BY6" s="203"/>
+      <c r="BZ6" s="203"/>
+      <c r="CA6" s="203"/>
+      <c r="CB6" s="203"/>
+      <c r="CC6" s="203"/>
+      <c r="CD6" s="203"/>
+      <c r="CE6" s="203"/>
+      <c r="CF6" s="203"/>
+      <c r="CG6" s="203"/>
+      <c r="CH6" s="203"/>
+      <c r="CI6" s="203"/>
+      <c r="CJ6" s="203"/>
+      <c r="CK6" s="203"/>
+      <c r="CL6" s="203"/>
+      <c r="CM6" s="203"/>
+      <c r="CN6" s="203"/>
+      <c r="CO6" s="203"/>
+      <c r="CP6" s="203"/>
+      <c r="CQ6" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="200"/>
-      <c r="CS6" s="196" t="s">
+      <c r="CR6" s="193"/>
+      <c r="CS6" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="196" t="s">
+      <c r="CT6" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="187" t="s">
+      <c r="CU6" s="197" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6572,337 +6572,337 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="182">
+      <c r="J7" s="188">
         <v>42980</v>
       </c>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
-      <c r="T7" s="186">
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="189">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
-      <c r="U7" s="186"/>
-      <c r="V7" s="182"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="182"/>
-      <c r="Z7" s="182"/>
-      <c r="AA7" s="182"/>
-      <c r="AB7" s="182"/>
-      <c r="AC7" s="182"/>
-      <c r="AD7" s="182"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="182"/>
-      <c r="AH7" s="182"/>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="182"/>
-      <c r="AK7" s="182"/>
-      <c r="AL7" s="182"/>
-      <c r="AM7" s="182"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="188"/>
+      <c r="AG7" s="188"/>
+      <c r="AH7" s="188"/>
+      <c r="AI7" s="188"/>
+      <c r="AJ7" s="188"/>
+      <c r="AK7" s="188"/>
+      <c r="AL7" s="188"/>
+      <c r="AM7" s="188"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="182" t="s">
+      <c r="AO7" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AP7" s="182"/>
-      <c r="AQ7" s="182"/>
-      <c r="AR7" s="182"/>
-      <c r="AS7" s="186">
+      <c r="AP7" s="188"/>
+      <c r="AQ7" s="188"/>
+      <c r="AR7" s="188"/>
+      <c r="AS7" s="189">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="186"/>
+      <c r="AT7" s="189"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="182" t="s">
+      <c r="AV7" s="188" t="s">
         <v>255</v>
       </c>
-      <c r="AW7" s="182"/>
-      <c r="AX7" s="182"/>
-      <c r="AY7" s="182"/>
-      <c r="AZ7" s="186">
+      <c r="AW7" s="188"/>
+      <c r="AX7" s="188"/>
+      <c r="AY7" s="188"/>
+      <c r="AZ7" s="189">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="186"/>
+      <c r="BA7" s="189"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="190"/>
-      <c r="BD7" s="191"/>
-      <c r="BE7" s="182" t="s">
+      <c r="BC7" s="200"/>
+      <c r="BD7" s="201"/>
+      <c r="BE7" s="188" t="s">
         <v>256</v>
       </c>
-      <c r="BF7" s="182"/>
-      <c r="BG7" s="182" t="s">
+      <c r="BF7" s="188"/>
+      <c r="BG7" s="188" t="s">
         <v>257</v>
       </c>
-      <c r="BH7" s="182"/>
-      <c r="BI7" s="186">
+      <c r="BH7" s="188"/>
+      <c r="BI7" s="189">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="186"/>
+      <c r="BJ7" s="189"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="182">
+      <c r="BL7" s="188">
         <v>42980</v>
       </c>
-      <c r="BM7" s="182"/>
-      <c r="BN7" s="182">
+      <c r="BM7" s="188"/>
+      <c r="BN7" s="188">
         <v>42980</v>
       </c>
-      <c r="BO7" s="182"/>
-      <c r="BP7" s="182">
+      <c r="BO7" s="188"/>
+      <c r="BP7" s="188">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="182"/>
-      <c r="BR7" s="182">
+      <c r="BQ7" s="188"/>
+      <c r="BR7" s="188">
         <v>42987</v>
       </c>
-      <c r="BS7" s="182"/>
-      <c r="BT7" s="182"/>
-      <c r="BU7" s="182"/>
-      <c r="BV7" s="182"/>
-      <c r="BW7" s="182"/>
-      <c r="BX7" s="182"/>
-      <c r="BY7" s="182"/>
-      <c r="BZ7" s="182"/>
-      <c r="CA7" s="182"/>
-      <c r="CB7" s="182"/>
-      <c r="CC7" s="182"/>
-      <c r="CD7" s="182"/>
-      <c r="CE7" s="182"/>
-      <c r="CF7" s="182"/>
-      <c r="CG7" s="182"/>
-      <c r="CH7" s="182"/>
-      <c r="CI7" s="182"/>
-      <c r="CJ7" s="182"/>
-      <c r="CK7" s="182"/>
-      <c r="CL7" s="182"/>
-      <c r="CM7" s="182"/>
-      <c r="CN7" s="186">
+      <c r="BS7" s="188"/>
+      <c r="BT7" s="188"/>
+      <c r="BU7" s="188"/>
+      <c r="BV7" s="188"/>
+      <c r="BW7" s="188"/>
+      <c r="BX7" s="188"/>
+      <c r="BY7" s="188"/>
+      <c r="BZ7" s="188"/>
+      <c r="CA7" s="188"/>
+      <c r="CB7" s="188"/>
+      <c r="CC7" s="188"/>
+      <c r="CD7" s="188"/>
+      <c r="CE7" s="188"/>
+      <c r="CF7" s="188"/>
+      <c r="CG7" s="188"/>
+      <c r="CH7" s="188"/>
+      <c r="CI7" s="188"/>
+      <c r="CJ7" s="188"/>
+      <c r="CK7" s="188"/>
+      <c r="CL7" s="188"/>
+      <c r="CM7" s="188"/>
+      <c r="CN7" s="189">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>4</v>
-      </c>
-      <c r="CO7" s="186"/>
+        <v>6</v>
+      </c>
+      <c r="CO7" s="189"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="200"/>
-      <c r="CR7" s="200"/>
-      <c r="CS7" s="196"/>
-      <c r="CT7" s="196"/>
-      <c r="CU7" s="188"/>
+      <c r="CQ7" s="193"/>
+      <c r="CR7" s="193"/>
+      <c r="CS7" s="175"/>
+      <c r="CT7" s="175"/>
+      <c r="CU7" s="198"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="202"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="211" t="s">
+      <c r="A8" s="177"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211" t="s">
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="175" t="s">
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175" t="s">
+      <c r="K8" s="187"/>
+      <c r="L8" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="187"/>
+      <c r="N8" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175" t="s">
+      <c r="O8" s="187"/>
+      <c r="P8" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175" t="s">
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175" t="s">
+      <c r="S8" s="187"/>
+      <c r="T8" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175" t="s">
+      <c r="U8" s="187"/>
+      <c r="V8" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175" t="s">
+      <c r="W8" s="187"/>
+      <c r="X8" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175" t="s">
+      <c r="Y8" s="187"/>
+      <c r="Z8" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175" t="s">
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175" t="s">
+      <c r="AC8" s="187"/>
+      <c r="AD8" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175" t="s">
+      <c r="AE8" s="187"/>
+      <c r="AF8" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175" t="s">
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="175" t="s">
+      <c r="AI8" s="187"/>
+      <c r="AJ8" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175" t="s">
+      <c r="AK8" s="187"/>
+      <c r="AL8" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="175"/>
+      <c r="AM8" s="187"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="175" t="s">
+      <c r="AO8" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175" t="s">
+      <c r="AP8" s="187"/>
+      <c r="AQ8" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175" t="s">
+      <c r="AR8" s="187"/>
+      <c r="AS8" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="175"/>
+      <c r="AT8" s="187"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="175" t="s">
+      <c r="AV8" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175" t="s">
+      <c r="AW8" s="187"/>
+      <c r="AX8" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175" t="s">
+      <c r="AY8" s="187"/>
+      <c r="AZ8" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="175"/>
+      <c r="BA8" s="187"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="190"/>
-      <c r="BD8" s="191"/>
-      <c r="BE8" s="185" t="s">
+      <c r="BC8" s="200"/>
+      <c r="BD8" s="201"/>
+      <c r="BE8" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="184"/>
-      <c r="BG8" s="184" t="s">
+      <c r="BF8" s="206"/>
+      <c r="BG8" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="184"/>
-      <c r="BI8" s="184" t="s">
+      <c r="BH8" s="206"/>
+      <c r="BI8" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="184"/>
+      <c r="BJ8" s="206"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="178" t="s">
+      <c r="BL8" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="179"/>
-      <c r="BN8" s="178" t="s">
+      <c r="BM8" s="208"/>
+      <c r="BN8" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="179"/>
-      <c r="BP8" s="178" t="s">
+      <c r="BO8" s="208"/>
+      <c r="BP8" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="179"/>
-      <c r="BR8" s="178" t="s">
+      <c r="BQ8" s="208"/>
+      <c r="BR8" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="179"/>
-      <c r="BT8" s="178" t="s">
+      <c r="BS8" s="208"/>
+      <c r="BT8" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="179"/>
-      <c r="BV8" s="176" t="s">
+      <c r="BU8" s="208"/>
+      <c r="BV8" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="177"/>
-      <c r="BX8" s="176" t="s">
+      <c r="BW8" s="195"/>
+      <c r="BX8" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="177"/>
-      <c r="BZ8" s="176" t="s">
+      <c r="BY8" s="195"/>
+      <c r="BZ8" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="177"/>
-      <c r="CB8" s="176" t="s">
+      <c r="CA8" s="195"/>
+      <c r="CB8" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="177"/>
-      <c r="CD8" s="176" t="s">
+      <c r="CC8" s="195"/>
+      <c r="CD8" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="177"/>
-      <c r="CF8" s="176" t="s">
+      <c r="CE8" s="195"/>
+      <c r="CF8" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="177"/>
-      <c r="CH8" s="176" t="s">
+      <c r="CG8" s="195"/>
+      <c r="CH8" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="177"/>
-      <c r="CJ8" s="176" t="s">
+      <c r="CI8" s="195"/>
+      <c r="CJ8" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="177"/>
-      <c r="CL8" s="176" t="s">
+      <c r="CK8" s="195"/>
+      <c r="CL8" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="177"/>
-      <c r="CN8" s="176" t="s">
+      <c r="CM8" s="195"/>
+      <c r="CN8" s="194" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="177"/>
+      <c r="CO8" s="195"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="200"/>
-      <c r="CR8" s="200"/>
-      <c r="CS8" s="196"/>
-      <c r="CT8" s="196"/>
-      <c r="CU8" s="188"/>
+      <c r="CQ8" s="193"/>
+      <c r="CR8" s="193"/>
+      <c r="CS8" s="175"/>
+      <c r="CT8" s="175"/>
+      <c r="CU8" s="198"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -7025,11 +7025,15 @@
       <c r="BS9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BT9" s="27"/>
+      <c r="BT9" s="27">
+        <v>100</v>
+      </c>
       <c r="BU9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BV9" s="27"/>
+      <c r="BV9" s="27">
+        <v>100</v>
+      </c>
       <c r="BW9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7078,9 +7082,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="196"/>
-      <c r="CT9" s="196"/>
-      <c r="CU9" s="189"/>
+      <c r="CS9" s="175"/>
+      <c r="CT9" s="175"/>
+      <c r="CU9" s="199"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7267,14 +7271,14 @@
         <v>100</v>
       </c>
       <c r="BT10" s="107"/>
-      <c r="BU10" s="92" t="str">
+      <c r="BU10" s="92">
         <f>IFERROR(((BT10/$BT$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV10" s="107"/>
-      <c r="BW10" s="92" t="str">
+      <c r="BW10" s="92">
         <f>IFERROR(((BV10/$BV$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX10" s="107"/>
       <c r="BY10" s="92" t="str">
@@ -7323,19 +7327,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>48.2</v>
+        <v>38.197999999999993</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7531,14 +7535,14 @@
         <v>100</v>
       </c>
       <c r="BT11" s="108"/>
-      <c r="BU11" s="92" t="str">
+      <c r="BU11" s="92">
         <f t="shared" ref="BU11:BU70" si="27">IFERROR(((BT11/$BT$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV11" s="107"/>
-      <c r="BW11" s="92" t="str">
+      <c r="BW11" s="92">
         <f t="shared" ref="BW11:BW70" si="28">IFERROR(((BV11/$BV$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX11" s="107"/>
       <c r="BY11" s="92" t="str">
@@ -7587,19 +7591,19 @@
       </c>
       <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>46.44</v>
+        <v>36.438000000000002</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7795,14 +7799,14 @@
         <v>100</v>
       </c>
       <c r="BT12" s="108"/>
-      <c r="BU12" s="92" t="str">
+      <c r="BU12" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV12" s="107"/>
-      <c r="BW12" s="92" t="str">
+      <c r="BW12" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX12" s="107"/>
       <c r="BY12" s="92" t="str">
@@ -7851,19 +7855,19 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>42.120000000000005</v>
+        <v>32.117999999999995</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8059,14 +8063,14 @@
         <v>100</v>
       </c>
       <c r="BT13" s="108"/>
-      <c r="BU13" s="92" t="str">
+      <c r="BU13" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV13" s="107"/>
-      <c r="BW13" s="92" t="str">
+      <c r="BW13" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX13" s="107"/>
       <c r="BY13" s="92" t="str">
@@ -8115,19 +8119,19 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>48.36</v>
+        <v>38.357999999999997</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8323,14 +8327,14 @@
         <v>100</v>
       </c>
       <c r="BT14" s="108"/>
-      <c r="BU14" s="92" t="str">
+      <c r="BU14" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV14" s="107"/>
-      <c r="BW14" s="92" t="str">
+      <c r="BW14" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX14" s="107"/>
       <c r="BY14" s="92" t="str">
@@ -8379,19 +8383,19 @@
       </c>
       <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR14" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>47.84</v>
+        <v>37.837999999999994</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8587,14 +8591,14 @@
         <v>60</v>
       </c>
       <c r="BT15" s="108"/>
-      <c r="BU15" s="92" t="str">
+      <c r="BU15" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV15" s="107"/>
-      <c r="BW15" s="92" t="str">
+      <c r="BW15" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX15" s="107"/>
       <c r="BY15" s="92" t="str">
@@ -8643,19 +8647,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>26.6</v>
+        <v>20.6</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8851,14 +8855,14 @@
         <v>100</v>
       </c>
       <c r="BT16" s="108"/>
-      <c r="BU16" s="92" t="str">
+      <c r="BU16" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV16" s="107"/>
-      <c r="BW16" s="92" t="str">
+      <c r="BW16" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX16" s="107"/>
       <c r="BY16" s="92" t="str">
@@ -8907,19 +8911,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>46.28</v>
+        <v>36.277999999999999</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9115,14 +9119,14 @@
         <v>100</v>
       </c>
       <c r="BT17" s="108"/>
-      <c r="BU17" s="92" t="str">
+      <c r="BU17" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV17" s="107"/>
-      <c r="BW17" s="92" t="str">
+      <c r="BW17" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX17" s="107"/>
       <c r="BY17" s="92" t="str">
@@ -9171,19 +9175,19 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>46</v>
+        <v>35.997999999999998</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9379,14 +9383,14 @@
         <v>100</v>
       </c>
       <c r="BT18" s="108"/>
-      <c r="BU18" s="92" t="str">
+      <c r="BU18" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV18" s="107"/>
-      <c r="BW18" s="92" t="str">
+      <c r="BW18" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX18" s="107"/>
       <c r="BY18" s="92" t="str">
@@ -9435,19 +9439,19 @@
       </c>
       <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>46.96</v>
+        <v>36.957999999999998</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9643,14 +9647,14 @@
         <v>100</v>
       </c>
       <c r="BT19" s="108"/>
-      <c r="BU19" s="92" t="str">
+      <c r="BU19" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV19" s="107"/>
-      <c r="BW19" s="92" t="str">
+      <c r="BW19" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX19" s="107"/>
       <c r="BY19" s="92" t="str">
@@ -9699,19 +9703,19 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>47.96</v>
+        <v>37.957999999999998</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9907,14 +9911,14 @@
         <v>100</v>
       </c>
       <c r="BT20" s="108"/>
-      <c r="BU20" s="92" t="str">
+      <c r="BU20" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV20" s="107"/>
-      <c r="BW20" s="92" t="str">
+      <c r="BW20" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX20" s="107"/>
       <c r="BY20" s="92" t="str">
@@ -9963,19 +9967,19 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>44.6</v>
+        <v>34.597999999999999</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10171,14 +10175,14 @@
         <v>100</v>
       </c>
       <c r="BT21" s="108"/>
-      <c r="BU21" s="92" t="str">
+      <c r="BU21" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV21" s="107"/>
-      <c r="BW21" s="92" t="str">
+      <c r="BW21" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX21" s="107"/>
       <c r="BY21" s="92" t="str">
@@ -10227,19 +10231,19 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>47.32</v>
+        <v>37.317999999999998</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10435,14 +10439,14 @@
         <v>100</v>
       </c>
       <c r="BT22" s="108"/>
-      <c r="BU22" s="92" t="str">
+      <c r="BU22" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV22" s="107"/>
-      <c r="BW22" s="92" t="str">
+      <c r="BW22" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX22" s="107"/>
       <c r="BY22" s="92" t="str">
@@ -10491,19 +10495,19 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>46.400000000000006</v>
+        <v>36.397999999999996</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10699,14 +10703,14 @@
         <v>100</v>
       </c>
       <c r="BT23" s="108"/>
-      <c r="BU23" s="92" t="str">
+      <c r="BU23" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV23" s="107"/>
-      <c r="BW23" s="92" t="str">
+      <c r="BW23" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX23" s="107"/>
       <c r="BY23" s="92" t="str">
@@ -10755,19 +10759,19 @@
       </c>
       <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR23" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>47.16</v>
+        <v>37.158000000000001</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10962,15 +10966,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT24" s="108"/>
-      <c r="BU24" s="92" t="str">
+      <c r="BT24" s="108">
+        <v>100</v>
+      </c>
+      <c r="BU24" s="92">
         <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="BV24" s="107"/>
-      <c r="BW24" s="92" t="str">
+        <v>100</v>
+      </c>
+      <c r="BV24" s="107">
+        <v>100</v>
+      </c>
+      <c r="BW24" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="BX24" s="107"/>
       <c r="BY24" s="92" t="str">
@@ -11227,14 +11235,14 @@
         <v>100</v>
       </c>
       <c r="BT25" s="108"/>
-      <c r="BU25" s="92" t="str">
+      <c r="BU25" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV25" s="107"/>
-      <c r="BW25" s="92" t="str">
+      <c r="BW25" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX25" s="107"/>
       <c r="BY25" s="92" t="str">
@@ -11283,19 +11291,19 @@
       </c>
       <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR25" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>44.4</v>
+        <v>34.397999999999996</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11414,10 +11422,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AV26" s="108"/>
+      <c r="AV26" s="108">
+        <v>90</v>
+      </c>
       <c r="AW26" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AX26" s="108"/>
       <c r="AY26" s="92" t="str">
@@ -11431,15 +11441,15 @@
       </c>
       <c r="BB26" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC26" s="98">
         <f t="shared" si="18"/>
-        <v>36.599999999999994</v>
+        <v>45.599999999999994</v>
       </c>
       <c r="BD26" s="98">
         <f t="shared" si="19"/>
-        <v>36.6</v>
+        <v>45.6</v>
       </c>
       <c r="BE26" s="108"/>
       <c r="BF26" s="92">
@@ -11489,14 +11499,14 @@
         <v>100</v>
       </c>
       <c r="BT26" s="108"/>
-      <c r="BU26" s="92" t="str">
+      <c r="BU26" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV26" s="107"/>
-      <c r="BW26" s="92" t="str">
+      <c r="BW26" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX26" s="107"/>
       <c r="BY26" s="92" t="str">
@@ -11545,19 +11555,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>44.64</v>
+        <v>38.238</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11753,14 +11763,14 @@
         <v>100</v>
       </c>
       <c r="BT27" s="108"/>
-      <c r="BU27" s="92" t="str">
+      <c r="BU27" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV27" s="107"/>
-      <c r="BW27" s="92" t="str">
+      <c r="BW27" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX27" s="107"/>
       <c r="BY27" s="92" t="str">
@@ -11809,19 +11819,19 @@
       </c>
       <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR27" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>46.88</v>
+        <v>36.878</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12017,14 +12027,14 @@
         <v>100</v>
       </c>
       <c r="BT28" s="108"/>
-      <c r="BU28" s="92" t="str">
+      <c r="BU28" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV28" s="107"/>
-      <c r="BW28" s="92" t="str">
+      <c r="BW28" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX28" s="107"/>
       <c r="BY28" s="92" t="str">
@@ -12073,19 +12083,19 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>43.6</v>
+        <v>33.597999999999999</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12281,14 +12291,14 @@
         <v>100</v>
       </c>
       <c r="BT29" s="108"/>
-      <c r="BU29" s="92" t="str">
+      <c r="BU29" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV29" s="107"/>
-      <c r="BW29" s="92" t="str">
+      <c r="BW29" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX29" s="107"/>
       <c r="BY29" s="92" t="str">
@@ -12337,19 +12347,19 @@
       </c>
       <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR29" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>47.24</v>
+        <v>37.238</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12466,10 +12476,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AV30" s="108"/>
+      <c r="AV30" s="108">
+        <v>90</v>
+      </c>
       <c r="AW30" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AX30" s="108"/>
       <c r="AY30" s="92" t="str">
@@ -12483,15 +12495,15 @@
       </c>
       <c r="BB30" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>23.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>23.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="BE30" s="108"/>
       <c r="BF30" s="92">
@@ -12541,14 +12553,14 @@
         <v>100</v>
       </c>
       <c r="BT30" s="108"/>
-      <c r="BU30" s="92" t="str">
+      <c r="BU30" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV30" s="107"/>
-      <c r="BW30" s="92" t="str">
+      <c r="BW30" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX30" s="107"/>
       <c r="BY30" s="92" t="str">
@@ -12597,19 +12609,19 @@
       </c>
       <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR30" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>39.480000000000004</v>
+        <v>33.078000000000003</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12805,14 +12817,14 @@
         <v>100</v>
       </c>
       <c r="BT31" s="108"/>
-      <c r="BU31" s="92" t="str">
+      <c r="BU31" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV31" s="107"/>
-      <c r="BW31" s="92" t="str">
+      <c r="BW31" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX31" s="107"/>
       <c r="BY31" s="92" t="str">
@@ -12861,19 +12873,19 @@
       </c>
       <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR31" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>42.24</v>
+        <v>32.238</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12919,12 +12931,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="108">
-        <v>17</v>
-      </c>
+      <c r="J32" s="108"/>
       <c r="K32" s="92">
-        <f t="shared" si="3"/>
-        <v>85</v>
+        <f>IFERROR(((J32/$J$9)*100), "")</f>
+        <v>0</v>
       </c>
       <c r="L32" s="108"/>
       <c r="M32" s="92" t="str">
@@ -12971,7 +12981,7 @@
       <c r="AM32" s="94"/>
       <c r="AN32" s="95">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AO32" s="108"/>
       <c r="AP32" s="92">
@@ -13015,11 +13025,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>47.9</v>
+        <v>30.9</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>47.9</v>
+        <v>30.9</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92">
@@ -13069,14 +13079,14 @@
         <v>100</v>
       </c>
       <c r="BT32" s="108"/>
-      <c r="BU32" s="92" t="str">
+      <c r="BU32" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV32" s="107"/>
-      <c r="BW32" s="92" t="str">
+      <c r="BW32" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX32" s="107"/>
       <c r="BY32" s="92" t="str">
@@ -13125,19 +13135,19 @@
       </c>
       <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR32" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>49.16</v>
+        <v>32.357999999999997</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13183,10 +13193,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33" s="108"/>
+      <c r="J33" s="108">
+        <v>17</v>
+      </c>
       <c r="K33" s="92">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IFERROR(((J33/$J$9)*100), "")</f>
+        <v>85</v>
       </c>
       <c r="L33" s="108"/>
       <c r="M33" s="92" t="str">
@@ -13233,7 +13245,7 @@
       <c r="AM33" s="94"/>
       <c r="AN33" s="95">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AO33" s="108"/>
       <c r="AP33" s="92">
@@ -13277,11 +13289,11 @@
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>29.4</v>
+        <v>46.4</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>29.4</v>
+        <v>46.4</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92">
@@ -13331,14 +13343,14 @@
         <v>100</v>
       </c>
       <c r="BT33" s="108"/>
-      <c r="BU33" s="92" t="str">
+      <c r="BU33" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV33" s="107"/>
-      <c r="BW33" s="92" t="str">
+      <c r="BW33" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX33" s="107"/>
       <c r="BY33" s="92" t="str">
@@ -13387,19 +13399,19 @@
       </c>
       <c r="CP33" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ33" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR33" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>41.76</v>
+        <v>38.557999999999993</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13518,10 +13530,12 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AV34" s="108"/>
+      <c r="AV34" s="108">
+        <v>90</v>
+      </c>
       <c r="AW34" s="92">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AX34" s="108"/>
       <c r="AY34" s="92" t="str">
@@ -13535,15 +13549,15 @@
       </c>
       <c r="BB34" s="95">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>30.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>30.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="BE34" s="108"/>
       <c r="BF34" s="92">
@@ -13593,14 +13607,14 @@
         <v>60</v>
       </c>
       <c r="BT34" s="108"/>
-      <c r="BU34" s="92" t="str">
+      <c r="BU34" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV34" s="107"/>
-      <c r="BW34" s="92" t="str">
+      <c r="BW34" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX34" s="107"/>
       <c r="BY34" s="92" t="str">
@@ -13649,19 +13663,19 @@
       </c>
       <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>30.08</v>
+        <v>27.68</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13841,14 +13855,14 @@
         <v>0</v>
       </c>
       <c r="BT35" s="108"/>
-      <c r="BU35" s="92" t="str">
+      <c r="BU35" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV35" s="107"/>
-      <c r="BW35" s="92" t="str">
+      <c r="BW35" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX35" s="107"/>
       <c r="BY35" s="92" t="str">
@@ -13931,7 +13945,7 @@
       </c>
       <c r="C36" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C37," ",REGISTRATION!D37," ",REGISTRATION!E37)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D36" s="108"/>
       <c r="E36" s="92">
@@ -14089,14 +14103,14 @@
         <v>0</v>
       </c>
       <c r="BT36" s="108"/>
-      <c r="BU36" s="92" t="str">
+      <c r="BU36" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV36" s="107"/>
-      <c r="BW36" s="92" t="str">
+      <c r="BW36" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX36" s="107"/>
       <c r="BY36" s="92" t="str">
@@ -14179,7 +14193,7 @@
       </c>
       <c r="C37" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C38," ",REGISTRATION!D38," ",REGISTRATION!E38)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D37" s="108"/>
       <c r="E37" s="92">
@@ -14337,14 +14351,14 @@
         <v>0</v>
       </c>
       <c r="BT37" s="108"/>
-      <c r="BU37" s="92" t="str">
+      <c r="BU37" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV37" s="107"/>
-      <c r="BW37" s="92" t="str">
+      <c r="BW37" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX37" s="107"/>
       <c r="BY37" s="92" t="str">
@@ -14427,7 +14441,7 @@
       </c>
       <c r="C38" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C39," ",REGISTRATION!D39," ",REGISTRATION!E39)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D38" s="108"/>
       <c r="E38" s="92">
@@ -14585,14 +14599,14 @@
         <v>0</v>
       </c>
       <c r="BT38" s="108"/>
-      <c r="BU38" s="92" t="str">
+      <c r="BU38" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV38" s="107"/>
-      <c r="BW38" s="92" t="str">
+      <c r="BW38" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX38" s="107"/>
       <c r="BY38" s="92" t="str">
@@ -14675,7 +14689,7 @@
       </c>
       <c r="C39" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C40," ",REGISTRATION!D40," ",REGISTRATION!E40)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D39" s="108"/>
       <c r="E39" s="92">
@@ -14833,14 +14847,14 @@
         <v>0</v>
       </c>
       <c r="BT39" s="108"/>
-      <c r="BU39" s="92" t="str">
+      <c r="BU39" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV39" s="107"/>
-      <c r="BW39" s="92" t="str">
+      <c r="BW39" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX39" s="107"/>
       <c r="BY39" s="92" t="str">
@@ -14923,7 +14937,7 @@
       </c>
       <c r="C40" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C41," ",REGISTRATION!D41," ",REGISTRATION!E41)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D40" s="108"/>
       <c r="E40" s="92">
@@ -15081,14 +15095,14 @@
         <v>0</v>
       </c>
       <c r="BT40" s="108"/>
-      <c r="BU40" s="92" t="str">
+      <c r="BU40" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV40" s="107"/>
-      <c r="BW40" s="92" t="str">
+      <c r="BW40" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX40" s="107"/>
       <c r="BY40" s="92" t="str">
@@ -15171,7 +15185,7 @@
       </c>
       <c r="C41" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C42," ",REGISTRATION!D42," ",REGISTRATION!E42)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D41" s="108"/>
       <c r="E41" s="92">
@@ -15329,14 +15343,14 @@
         <v>0</v>
       </c>
       <c r="BT41" s="108"/>
-      <c r="BU41" s="92" t="str">
+      <c r="BU41" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV41" s="107"/>
-      <c r="BW41" s="92" t="str">
+      <c r="BW41" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX41" s="107"/>
       <c r="BY41" s="92" t="str">
@@ -15419,7 +15433,7 @@
       </c>
       <c r="C42" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C43," ",REGISTRATION!D43," ",REGISTRATION!E43)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D42" s="108"/>
       <c r="E42" s="92">
@@ -15577,14 +15591,14 @@
         <v>0</v>
       </c>
       <c r="BT42" s="108"/>
-      <c r="BU42" s="92" t="str">
+      <c r="BU42" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV42" s="107"/>
-      <c r="BW42" s="92" t="str">
+      <c r="BW42" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX42" s="107"/>
       <c r="BY42" s="92" t="str">
@@ -15667,7 +15681,7 @@
       </c>
       <c r="C43" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C44," ",REGISTRATION!D44," ",REGISTRATION!E44)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D43" s="108"/>
       <c r="E43" s="92">
@@ -15825,14 +15839,14 @@
         <v>0</v>
       </c>
       <c r="BT43" s="108"/>
-      <c r="BU43" s="92" t="str">
+      <c r="BU43" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV43" s="107"/>
-      <c r="BW43" s="92" t="str">
+      <c r="BW43" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX43" s="107"/>
       <c r="BY43" s="92" t="str">
@@ -15915,7 +15929,7 @@
       </c>
       <c r="C44" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C45," ",REGISTRATION!D45," ",REGISTRATION!E45)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D44" s="108"/>
       <c r="E44" s="92">
@@ -16073,14 +16087,14 @@
         <v>0</v>
       </c>
       <c r="BT44" s="108"/>
-      <c r="BU44" s="92" t="str">
+      <c r="BU44" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV44" s="107"/>
-      <c r="BW44" s="92" t="str">
+      <c r="BW44" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX44" s="107"/>
       <c r="BY44" s="92" t="str">
@@ -16163,7 +16177,7 @@
       </c>
       <c r="C45" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C46," ",REGISTRATION!D46," ",REGISTRATION!E46)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D45" s="108"/>
       <c r="E45" s="92">
@@ -16321,14 +16335,14 @@
         <v>0</v>
       </c>
       <c r="BT45" s="108"/>
-      <c r="BU45" s="92" t="str">
+      <c r="BU45" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV45" s="107"/>
-      <c r="BW45" s="92" t="str">
+      <c r="BW45" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX45" s="107"/>
       <c r="BY45" s="92" t="str">
@@ -16411,7 +16425,7 @@
       </c>
       <c r="C46" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C47," ",REGISTRATION!D47," ",REGISTRATION!E47)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D46" s="108"/>
       <c r="E46" s="92">
@@ -16569,14 +16583,14 @@
         <v>0</v>
       </c>
       <c r="BT46" s="108"/>
-      <c r="BU46" s="92" t="str">
+      <c r="BU46" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV46" s="107"/>
-      <c r="BW46" s="92" t="str">
+      <c r="BW46" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX46" s="107"/>
       <c r="BY46" s="92" t="str">
@@ -16659,7 +16673,7 @@
       </c>
       <c r="C47" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C48," ",REGISTRATION!D48," ",REGISTRATION!E48)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D47" s="108"/>
       <c r="E47" s="92">
@@ -16817,14 +16831,14 @@
         <v>0</v>
       </c>
       <c r="BT47" s="108"/>
-      <c r="BU47" s="92" t="str">
+      <c r="BU47" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV47" s="107"/>
-      <c r="BW47" s="92" t="str">
+      <c r="BW47" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX47" s="107"/>
       <c r="BY47" s="92" t="str">
@@ -16907,7 +16921,7 @@
       </c>
       <c r="C48" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C49," ",REGISTRATION!D49," ",REGISTRATION!E49)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D48" s="108"/>
       <c r="E48" s="92">
@@ -17065,14 +17079,14 @@
         <v>0</v>
       </c>
       <c r="BT48" s="108"/>
-      <c r="BU48" s="92" t="str">
+      <c r="BU48" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV48" s="107"/>
-      <c r="BW48" s="92" t="str">
+      <c r="BW48" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX48" s="107"/>
       <c r="BY48" s="92" t="str">
@@ -17155,7 +17169,7 @@
       </c>
       <c r="C49" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C50," ",REGISTRATION!D50," ",REGISTRATION!E50)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D49" s="108"/>
       <c r="E49" s="92">
@@ -17313,14 +17327,14 @@
         <v>0</v>
       </c>
       <c r="BT49" s="108"/>
-      <c r="BU49" s="92" t="str">
+      <c r="BU49" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV49" s="107"/>
-      <c r="BW49" s="92" t="str">
+      <c r="BW49" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX49" s="107"/>
       <c r="BY49" s="92" t="str">
@@ -17403,7 +17417,7 @@
       </c>
       <c r="C50" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C51," ",REGISTRATION!D51," ",REGISTRATION!E51)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D50" s="108"/>
       <c r="E50" s="92">
@@ -17561,14 +17575,14 @@
         <v>0</v>
       </c>
       <c r="BT50" s="108"/>
-      <c r="BU50" s="92" t="str">
+      <c r="BU50" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV50" s="107"/>
-      <c r="BW50" s="92" t="str">
+      <c r="BW50" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX50" s="107"/>
       <c r="BY50" s="92" t="str">
@@ -17651,7 +17665,7 @@
       </c>
       <c r="C51" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C52," ",REGISTRATION!D52," ",REGISTRATION!E52)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D51" s="108"/>
       <c r="E51" s="92">
@@ -17809,14 +17823,14 @@
         <v>0</v>
       </c>
       <c r="BT51" s="108"/>
-      <c r="BU51" s="92" t="str">
+      <c r="BU51" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV51" s="107"/>
-      <c r="BW51" s="92" t="str">
+      <c r="BW51" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX51" s="107"/>
       <c r="BY51" s="92" t="str">
@@ -17899,7 +17913,7 @@
       </c>
       <c r="C52" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C53," ",REGISTRATION!D53," ",REGISTRATION!E53)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D52" s="108"/>
       <c r="E52" s="92">
@@ -18057,14 +18071,14 @@
         <v>0</v>
       </c>
       <c r="BT52" s="108"/>
-      <c r="BU52" s="92" t="str">
+      <c r="BU52" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV52" s="107"/>
-      <c r="BW52" s="92" t="str">
+      <c r="BW52" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX52" s="107"/>
       <c r="BY52" s="92" t="str">
@@ -18147,7 +18161,7 @@
       </c>
       <c r="C53" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C54," ",REGISTRATION!D54," ",REGISTRATION!E54)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D53" s="108"/>
       <c r="E53" s="92">
@@ -18305,14 +18319,14 @@
         <v>0</v>
       </c>
       <c r="BT53" s="108"/>
-      <c r="BU53" s="92" t="str">
+      <c r="BU53" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV53" s="107"/>
-      <c r="BW53" s="92" t="str">
+      <c r="BW53" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX53" s="107"/>
       <c r="BY53" s="92" t="str">
@@ -18395,7 +18409,7 @@
       </c>
       <c r="C54" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C55," ",REGISTRATION!D55," ",REGISTRATION!E55)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D54" s="108"/>
       <c r="E54" s="92">
@@ -18553,14 +18567,14 @@
         <v>0</v>
       </c>
       <c r="BT54" s="108"/>
-      <c r="BU54" s="92" t="str">
+      <c r="BU54" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV54" s="107"/>
-      <c r="BW54" s="92" t="str">
+      <c r="BW54" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX54" s="107"/>
       <c r="BY54" s="92" t="str">
@@ -18643,7 +18657,7 @@
       </c>
       <c r="C55" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C56," ",REGISTRATION!D56," ",REGISTRATION!E56)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D55" s="108"/>
       <c r="E55" s="92">
@@ -18801,14 +18815,14 @@
         <v>0</v>
       </c>
       <c r="BT55" s="108"/>
-      <c r="BU55" s="92" t="str">
+      <c r="BU55" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV55" s="107"/>
-      <c r="BW55" s="92" t="str">
+      <c r="BW55" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX55" s="107"/>
       <c r="BY55" s="92" t="str">
@@ -18891,7 +18905,7 @@
       </c>
       <c r="C56" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C57," ",REGISTRATION!D57," ",REGISTRATION!E57)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D56" s="108"/>
       <c r="E56" s="92">
@@ -19049,14 +19063,14 @@
         <v>0</v>
       </c>
       <c r="BT56" s="108"/>
-      <c r="BU56" s="92" t="str">
+      <c r="BU56" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV56" s="107"/>
-      <c r="BW56" s="92" t="str">
+      <c r="BW56" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX56" s="107"/>
       <c r="BY56" s="92" t="str">
@@ -19139,7 +19153,7 @@
       </c>
       <c r="C57" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C58," ",REGISTRATION!D58," ",REGISTRATION!E58)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D57" s="108"/>
       <c r="E57" s="92">
@@ -19297,14 +19311,14 @@
         <v>0</v>
       </c>
       <c r="BT57" s="108"/>
-      <c r="BU57" s="92" t="str">
+      <c r="BU57" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV57" s="107"/>
-      <c r="BW57" s="92" t="str">
+      <c r="BW57" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX57" s="107"/>
       <c r="BY57" s="92" t="str">
@@ -19387,7 +19401,7 @@
       </c>
       <c r="C58" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C59," ",REGISTRATION!D59," ",REGISTRATION!E59)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D58" s="108"/>
       <c r="E58" s="92">
@@ -19545,14 +19559,14 @@
         <v>0</v>
       </c>
       <c r="BT58" s="108"/>
-      <c r="BU58" s="92" t="str">
+      <c r="BU58" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV58" s="107"/>
-      <c r="BW58" s="92" t="str">
+      <c r="BW58" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX58" s="107"/>
       <c r="BY58" s="92" t="str">
@@ -19635,7 +19649,7 @@
       </c>
       <c r="C59" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C60," ",REGISTRATION!D60," ",REGISTRATION!E60)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D59" s="108"/>
       <c r="E59" s="92">
@@ -19793,14 +19807,14 @@
         <v>0</v>
       </c>
       <c r="BT59" s="108"/>
-      <c r="BU59" s="92" t="str">
+      <c r="BU59" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV59" s="107"/>
-      <c r="BW59" s="92" t="str">
+      <c r="BW59" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX59" s="107"/>
       <c r="BY59" s="92" t="str">
@@ -19883,7 +19897,7 @@
       </c>
       <c r="C60" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C61," ",REGISTRATION!D61," ",REGISTRATION!E61)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D60" s="108"/>
       <c r="E60" s="92">
@@ -20041,14 +20055,14 @@
         <v>0</v>
       </c>
       <c r="BT60" s="108"/>
-      <c r="BU60" s="92" t="str">
+      <c r="BU60" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV60" s="107"/>
-      <c r="BW60" s="92" t="str">
+      <c r="BW60" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX60" s="107"/>
       <c r="BY60" s="92" t="str">
@@ -20131,7 +20145,7 @@
       </c>
       <c r="C61" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C62," ",REGISTRATION!D62," ",REGISTRATION!E62)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D61" s="108"/>
       <c r="E61" s="92">
@@ -20289,14 +20303,14 @@
         <v>0</v>
       </c>
       <c r="BT61" s="108"/>
-      <c r="BU61" s="92" t="str">
+      <c r="BU61" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV61" s="107"/>
-      <c r="BW61" s="92" t="str">
+      <c r="BW61" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX61" s="107"/>
       <c r="BY61" s="92" t="str">
@@ -20379,7 +20393,7 @@
       </c>
       <c r="C62" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C63," ",REGISTRATION!D63," ",REGISTRATION!E63)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D62" s="108"/>
       <c r="E62" s="92">
@@ -20537,14 +20551,14 @@
         <v>0</v>
       </c>
       <c r="BT62" s="108"/>
-      <c r="BU62" s="92" t="str">
+      <c r="BU62" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV62" s="107"/>
-      <c r="BW62" s="92" t="str">
+      <c r="BW62" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX62" s="107"/>
       <c r="BY62" s="92" t="str">
@@ -20627,7 +20641,7 @@
       </c>
       <c r="C63" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C64," ",REGISTRATION!D64," ",REGISTRATION!E64)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D63" s="108"/>
       <c r="E63" s="92">
@@ -20785,14 +20799,14 @@
         <v>0</v>
       </c>
       <c r="BT63" s="108"/>
-      <c r="BU63" s="92" t="str">
+      <c r="BU63" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV63" s="107"/>
-      <c r="BW63" s="92" t="str">
+      <c r="BW63" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX63" s="107"/>
       <c r="BY63" s="92" t="str">
@@ -20875,7 +20889,7 @@
       </c>
       <c r="C64" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C65," ",REGISTRATION!D65," ",REGISTRATION!E65)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D64" s="108"/>
       <c r="E64" s="92">
@@ -21033,14 +21047,14 @@
         <v>0</v>
       </c>
       <c r="BT64" s="108"/>
-      <c r="BU64" s="92" t="str">
+      <c r="BU64" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV64" s="107"/>
-      <c r="BW64" s="92" t="str">
+      <c r="BW64" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX64" s="107"/>
       <c r="BY64" s="92" t="str">
@@ -21123,7 +21137,7 @@
       </c>
       <c r="C65" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C66," ",REGISTRATION!D66," ",REGISTRATION!E66)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D65" s="108"/>
       <c r="E65" s="92">
@@ -21281,14 +21295,14 @@
         <v>0</v>
       </c>
       <c r="BT65" s="108"/>
-      <c r="BU65" s="92" t="str">
+      <c r="BU65" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV65" s="107"/>
-      <c r="BW65" s="92" t="str">
+      <c r="BW65" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX65" s="107"/>
       <c r="BY65" s="92" t="str">
@@ -21371,7 +21385,7 @@
       </c>
       <c r="C66" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C67," ",REGISTRATION!D67," ",REGISTRATION!E67)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D66" s="108"/>
       <c r="E66" s="92">
@@ -21529,14 +21543,14 @@
         <v>0</v>
       </c>
       <c r="BT66" s="108"/>
-      <c r="BU66" s="92" t="str">
+      <c r="BU66" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV66" s="107"/>
-      <c r="BW66" s="92" t="str">
+      <c r="BW66" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX66" s="107"/>
       <c r="BY66" s="92" t="str">
@@ -21619,7 +21633,7 @@
       </c>
       <c r="C67" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C68," ",REGISTRATION!D68," ",REGISTRATION!E68)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D67" s="108"/>
       <c r="E67" s="92">
@@ -21777,14 +21791,14 @@
         <v>0</v>
       </c>
       <c r="BT67" s="108"/>
-      <c r="BU67" s="92" t="str">
+      <c r="BU67" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV67" s="107"/>
-      <c r="BW67" s="92" t="str">
+      <c r="BW67" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX67" s="107"/>
       <c r="BY67" s="92" t="str">
@@ -21867,7 +21881,7 @@
       </c>
       <c r="C68" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C69," ",REGISTRATION!D69," ",REGISTRATION!E69)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D68" s="108"/>
       <c r="E68" s="92">
@@ -22025,14 +22039,14 @@
         <v>0</v>
       </c>
       <c r="BT68" s="108"/>
-      <c r="BU68" s="92" t="str">
+      <c r="BU68" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV68" s="107"/>
-      <c r="BW68" s="92" t="str">
+      <c r="BW68" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX68" s="107"/>
       <c r="BY68" s="92" t="str">
@@ -22115,7 +22129,7 @@
       </c>
       <c r="C69" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C70," ",REGISTRATION!D70," ",REGISTRATION!E70)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D69" s="108"/>
       <c r="E69" s="92">
@@ -22273,14 +22287,14 @@
         <v>0</v>
       </c>
       <c r="BT69" s="108"/>
-      <c r="BU69" s="92" t="str">
+      <c r="BU69" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV69" s="107"/>
-      <c r="BW69" s="92" t="str">
+      <c r="BW69" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX69" s="107"/>
       <c r="BY69" s="92" t="str">
@@ -22363,7 +22377,7 @@
       </c>
       <c r="C70" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C71," ",REGISTRATION!D71," ",REGISTRATION!E71)</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D70" s="108"/>
       <c r="E70" s="92">
@@ -22521,14 +22535,14 @@
         <v>0</v>
       </c>
       <c r="BT70" s="108"/>
-      <c r="BU70" s="92" t="str">
+      <c r="BU70" s="92">
         <f t="shared" si="27"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BV70" s="107"/>
-      <c r="BW70" s="92" t="str">
+      <c r="BW70" s="92">
         <f t="shared" si="28"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BX70" s="107"/>
       <c r="BY70" s="92" t="str">
@@ -22603,6 +22617,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22619,91 +22715,9 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22936,19 +22950,19 @@
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>48.2</v>
+        <v>38.197999999999993</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -23001,19 +23015,19 @@
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>46.44</v>
+        <v>36.438000000000002</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -23066,19 +23080,19 @@
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>42.120000000000005</v>
+        <v>32.117999999999995</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23131,19 +23145,19 @@
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>48.36</v>
+        <v>38.357999999999997</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23196,19 +23210,19 @@
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>47.84</v>
+        <v>37.837999999999994</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23261,19 +23275,19 @@
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>26.6</v>
+        <v>20.6</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23326,19 +23340,19 @@
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>46.28</v>
+        <v>36.277999999999999</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23391,19 +23405,19 @@
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>46</v>
+        <v>35.997999999999998</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23456,19 +23470,19 @@
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>46.96</v>
+        <v>36.957999999999998</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23521,19 +23535,19 @@
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>47.96</v>
+        <v>37.957999999999998</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23586,19 +23600,19 @@
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>44.6</v>
+        <v>34.597999999999999</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23651,19 +23665,19 @@
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>47.32</v>
+        <v>37.317999999999998</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23716,19 +23730,19 @@
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>46.400000000000006</v>
+        <v>36.397999999999996</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23781,19 +23795,19 @@
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>47.16</v>
+        <v>37.158000000000001</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23911,19 +23925,19 @@
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>44.4</v>
+        <v>34.397999999999996</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -23960,15 +23974,15 @@
       </c>
       <c r="G24" s="52">
         <f>'RAW GRADES'!BB26</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>36.599999999999994</v>
+        <v>45.599999999999994</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>36.6</v>
+        <v>45.6</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
@@ -23976,19 +23990,19 @@
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>44.64</v>
+        <v>38.238</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24041,19 +24055,19 @@
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>46.88</v>
+        <v>36.878</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24106,19 +24120,19 @@
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>43.6</v>
+        <v>33.597999999999999</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24171,19 +24185,19 @@
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>47.24</v>
+        <v>37.238</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24220,15 +24234,15 @@
       </c>
       <c r="G28" s="52">
         <f>'RAW GRADES'!BB30</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>23.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>23.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
@@ -24236,19 +24250,19 @@
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>39.480000000000004</v>
+        <v>33.078000000000003</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24301,19 +24315,19 @@
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>42.24</v>
+        <v>32.238</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -24342,7 +24356,7 @@
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F30" s="52">
         <f>'RAW GRADES'!AU32</f>
@@ -24354,11 +24368,11 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>47.9</v>
+        <v>30.9</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>47.9</v>
+        <v>30.9</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
@@ -24366,19 +24380,19 @@
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>49.16</v>
+        <v>32.357999999999997</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24407,7 +24421,7 @@
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F31" s="52">
         <f>'RAW GRADES'!AU33</f>
@@ -24419,11 +24433,11 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>29.4</v>
+        <v>46.4</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>29.4</v>
+        <v>46.4</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
@@ -24431,19 +24445,19 @@
       </c>
       <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M31" s="54">
         <f>'RAW GRADES'!CR33</f>
-        <v>50</v>
+        <v>33.33</v>
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>41.76</v>
+        <v>38.557999999999993</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24480,15 +24494,15 @@
       </c>
       <c r="G32" s="52">
         <f>'RAW GRADES'!BB34</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>30.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>30.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
@@ -24496,19 +24510,19 @@
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>30.08</v>
+        <v>27.68</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -24590,7 +24604,7 @@
       </c>
       <c r="B34" s="50" t="str">
         <f>'RAW GRADES'!C36</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C34" s="57">
         <f>'RAW GRADES'!F36</f>
@@ -24655,7 +24669,7 @@
       </c>
       <c r="B35" s="50" t="str">
         <f>'RAW GRADES'!C37</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C35" s="57">
         <f>'RAW GRADES'!F37</f>
@@ -24720,7 +24734,7 @@
       </c>
       <c r="B36" s="50" t="str">
         <f>'RAW GRADES'!C38</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C36" s="57">
         <f>'RAW GRADES'!F38</f>
@@ -24785,7 +24799,7 @@
       </c>
       <c r="B37" s="50" t="str">
         <f>'RAW GRADES'!C39</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C37" s="57">
         <f>'RAW GRADES'!F39</f>
@@ -24850,7 +24864,7 @@
       </c>
       <c r="B38" s="50" t="str">
         <f>'RAW GRADES'!C40</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C38" s="57">
         <f>'RAW GRADES'!F40</f>
@@ -24915,7 +24929,7 @@
       </c>
       <c r="B39" s="50" t="str">
         <f>'RAW GRADES'!C41</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C39" s="57">
         <f>'RAW GRADES'!F41</f>
@@ -24980,7 +24994,7 @@
       </c>
       <c r="B40" s="50" t="str">
         <f>'RAW GRADES'!C42</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C40" s="57">
         <f>'RAW GRADES'!F42</f>
@@ -25045,7 +25059,7 @@
       </c>
       <c r="B41" s="50" t="str">
         <f>'RAW GRADES'!C43</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C41" s="57">
         <f>'RAW GRADES'!F43</f>
@@ -25110,7 +25124,7 @@
       </c>
       <c r="B42" s="50" t="str">
         <f>'RAW GRADES'!C44</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C42" s="57">
         <f>'RAW GRADES'!F44</f>
@@ -25175,7 +25189,7 @@
       </c>
       <c r="B43" s="50" t="str">
         <f>'RAW GRADES'!C45</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C43" s="57">
         <f>'RAW GRADES'!F45</f>
@@ -25240,7 +25254,7 @@
       </c>
       <c r="B44" s="50" t="str">
         <f>'RAW GRADES'!C46</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C44" s="57">
         <f>'RAW GRADES'!F46</f>
@@ -25305,7 +25319,7 @@
       </c>
       <c r="B45" s="50" t="str">
         <f>'RAW GRADES'!C47</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C45" s="57">
         <f>'RAW GRADES'!F47</f>
@@ -25370,7 +25384,7 @@
       </c>
       <c r="B46" s="50" t="str">
         <f>'RAW GRADES'!C48</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C46" s="57">
         <f>'RAW GRADES'!F48</f>
@@ -25435,7 +25449,7 @@
       </c>
       <c r="B47" s="50" t="str">
         <f>'RAW GRADES'!C49</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C47" s="57">
         <f>'RAW GRADES'!F49</f>
@@ -25500,7 +25514,7 @@
       </c>
       <c r="B48" s="50" t="str">
         <f>'RAW GRADES'!C50</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C48" s="57">
         <f>'RAW GRADES'!F50</f>
@@ -25565,7 +25579,7 @@
       </c>
       <c r="B49" s="50" t="str">
         <f>'RAW GRADES'!C51</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C49" s="57">
         <f>'RAW GRADES'!F51</f>
@@ -25630,7 +25644,7 @@
       </c>
       <c r="B50" s="50" t="str">
         <f>'RAW GRADES'!C52</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C50" s="57">
         <f>'RAW GRADES'!F52</f>
@@ -25695,7 +25709,7 @@
       </c>
       <c r="B51" s="50" t="str">
         <f>'RAW GRADES'!C53</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C51" s="57">
         <f>'RAW GRADES'!F53</f>
@@ -25760,7 +25774,7 @@
       </c>
       <c r="B52" s="50" t="str">
         <f>'RAW GRADES'!C54</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C52" s="57">
         <f>'RAW GRADES'!F54</f>
@@ -25825,7 +25839,7 @@
       </c>
       <c r="B53" s="50" t="str">
         <f>'RAW GRADES'!C55</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C53" s="57">
         <f>'RAW GRADES'!F55</f>
@@ -25890,7 +25904,7 @@
       </c>
       <c r="B54" s="50" t="str">
         <f>'RAW GRADES'!C56</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C54" s="57">
         <f>'RAW GRADES'!F56</f>
@@ -25955,7 +25969,7 @@
       </c>
       <c r="B55" s="50" t="str">
         <f>'RAW GRADES'!C57</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C55" s="57">
         <f>'RAW GRADES'!F57</f>
@@ -26020,7 +26034,7 @@
       </c>
       <c r="B56" s="50" t="str">
         <f>'RAW GRADES'!C58</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C56" s="57">
         <f>'RAW GRADES'!F58</f>
@@ -26085,7 +26099,7 @@
       </c>
       <c r="B57" s="50" t="str">
         <f>'RAW GRADES'!C59</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C57" s="57">
         <f>'RAW GRADES'!F59</f>
@@ -26150,7 +26164,7 @@
       </c>
       <c r="B58" s="50" t="str">
         <f>'RAW GRADES'!C60</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C58" s="57">
         <f>'RAW GRADES'!F60</f>
@@ -26215,7 +26229,7 @@
       </c>
       <c r="B59" s="50" t="str">
         <f>'RAW GRADES'!C61</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C59" s="57">
         <f>'RAW GRADES'!F61</f>
@@ -26280,7 +26294,7 @@
       </c>
       <c r="B60" s="50" t="str">
         <f>'RAW GRADES'!C62</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C60" s="57">
         <f>'RAW GRADES'!F62</f>
@@ -26345,7 +26359,7 @@
       </c>
       <c r="B61" s="50" t="str">
         <f>'RAW GRADES'!C63</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C61" s="57">
         <f>'RAW GRADES'!F63</f>
@@ -26410,7 +26424,7 @@
       </c>
       <c r="B62" s="50" t="str">
         <f>'RAW GRADES'!C64</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C62" s="57">
         <f>'RAW GRADES'!F64</f>
@@ -26475,7 +26489,7 @@
       </c>
       <c r="B63" s="50" t="str">
         <f>'RAW GRADES'!C65</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C63" s="57">
         <f>'RAW GRADES'!F65</f>
@@ -26540,7 +26554,7 @@
       </c>
       <c r="B64" s="50" t="str">
         <f>'RAW GRADES'!C66</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C64" s="57">
         <f>'RAW GRADES'!F66</f>
@@ -26605,7 +26619,7 @@
       </c>
       <c r="B65" s="50" t="str">
         <f>'RAW GRADES'!C67</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C65" s="57">
         <f>'RAW GRADES'!F67</f>
@@ -26670,7 +26684,7 @@
       </c>
       <c r="B66" s="50" t="str">
         <f>'RAW GRADES'!C68</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C66" s="57">
         <f>'RAW GRADES'!F68</f>
@@ -26735,7 +26749,7 @@
       </c>
       <c r="B67" s="50" t="str">
         <f>'RAW GRADES'!C69</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C67" s="57">
         <f>'RAW GRADES'!F69</f>
@@ -26800,7 +26814,7 @@
       </c>
       <c r="B68" s="50" t="str">
         <f>'RAW GRADES'!C70</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C68" s="57">
         <f>'RAW GRADES'!F70</f>
@@ -26873,7 +26887,7 @@
     <mergeCell ref="C5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P68">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26915,106 +26929,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="259"/>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="229" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="262"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="265"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="259"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="266"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="A10" s="233"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="267" t="s">
+      <c r="A11" s="234" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="265"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="265"/>
-      <c r="E12" s="265"/>
-      <c r="F12" s="265"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="232"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="268" t="str">
+      <c r="C13" s="235" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27022,12 +27036,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="261" t="str">
+      <c r="C14" s="227" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="227"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27035,12 +27049,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="247" t="str">
+      <c r="C15" s="238" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27048,12 +27062,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="247" t="str">
+      <c r="C16" s="238" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="247"/>
-      <c r="E16" s="247"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27061,12 +27075,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="247" t="str">
+      <c r="C17" s="238" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="247"/>
-      <c r="E17" s="247"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27078,42 +27092,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="251" t="s">
+      <c r="B19" s="242" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="248" t="s">
+      <c r="C19" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="248" t="s">
+      <c r="D19" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="253" t="s">
+      <c r="E19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="248" t="s">
+      <c r="F19" s="239" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="249"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="249"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="256"/>
+      <c r="A20" s="240"/>
+      <c r="B20" s="243"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="247"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="250"/>
+      <c r="A21" s="241"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="257"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="248"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -27771,7 +27785,7 @@
       </c>
       <c r="B48" s="66" t="str">
         <f>'DEPT CHAIR'!B34</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C48" s="67">
         <f>REGISTRATION!B37</f>
@@ -27796,7 +27810,7 @@
       </c>
       <c r="B49" s="66" t="str">
         <f>'DEPT CHAIR'!B35</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C49" s="67">
         <f>REGISTRATION!B38</f>
@@ -27821,7 +27835,7 @@
       </c>
       <c r="B50" s="66" t="str">
         <f>'DEPT CHAIR'!B36</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C50" s="67">
         <f>REGISTRATION!B39</f>
@@ -27846,7 +27860,7 @@
       </c>
       <c r="B51" s="66" t="str">
         <f>'DEPT CHAIR'!B37</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C51" s="67">
         <f>REGISTRATION!B40</f>
@@ -27871,7 +27885,7 @@
       </c>
       <c r="B52" s="66" t="str">
         <f>'DEPT CHAIR'!B38</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C52" s="67">
         <f>REGISTRATION!B41</f>
@@ -27896,7 +27910,7 @@
       </c>
       <c r="B53" s="66" t="str">
         <f>'DEPT CHAIR'!B39</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C53" s="67">
         <f>REGISTRATION!B42</f>
@@ -27921,7 +27935,7 @@
       </c>
       <c r="B54" s="66" t="str">
         <f>'DEPT CHAIR'!B40</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C54" s="67">
         <f>REGISTRATION!B43</f>
@@ -27946,7 +27960,7 @@
       </c>
       <c r="B55" s="66" t="str">
         <f>'DEPT CHAIR'!B41</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C55" s="67">
         <f>REGISTRATION!B44</f>
@@ -27971,7 +27985,7 @@
       </c>
       <c r="B56" s="66" t="str">
         <f>'DEPT CHAIR'!B42</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C56" s="67">
         <f>REGISTRATION!B45</f>
@@ -27996,7 +28010,7 @@
       </c>
       <c r="B57" s="66" t="str">
         <f>'DEPT CHAIR'!B43</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C57" s="67">
         <f>REGISTRATION!B46</f>
@@ -28021,7 +28035,7 @@
       </c>
       <c r="B58" s="66" t="str">
         <f>'DEPT CHAIR'!B44</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C58" s="67">
         <f>REGISTRATION!B47</f>
@@ -28046,7 +28060,7 @@
       </c>
       <c r="B59" s="66" t="str">
         <f>'DEPT CHAIR'!B45</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C59" s="67">
         <f>REGISTRATION!B48</f>
@@ -28071,7 +28085,7 @@
       </c>
       <c r="B60" s="66" t="str">
         <f>'DEPT CHAIR'!B46</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C60" s="67">
         <f>REGISTRATION!B49</f>
@@ -28096,7 +28110,7 @@
       </c>
       <c r="B61" s="66" t="str">
         <f>'DEPT CHAIR'!B47</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C61" s="67">
         <f>REGISTRATION!B50</f>
@@ -28121,7 +28135,7 @@
       </c>
       <c r="B62" s="66" t="str">
         <f>'DEPT CHAIR'!B48</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C62" s="67">
         <f>REGISTRATION!B51</f>
@@ -28146,7 +28160,7 @@
       </c>
       <c r="B63" s="66" t="str">
         <f>'DEPT CHAIR'!B49</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C63" s="67">
         <f>REGISTRATION!B52</f>
@@ -28171,7 +28185,7 @@
       </c>
       <c r="B64" s="66" t="str">
         <f>'DEPT CHAIR'!B50</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C64" s="67">
         <f>REGISTRATION!B53</f>
@@ -28196,7 +28210,7 @@
       </c>
       <c r="B65" s="66" t="str">
         <f>'DEPT CHAIR'!B51</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C65" s="67">
         <f>REGISTRATION!B54</f>
@@ -28221,7 +28235,7 @@
       </c>
       <c r="B66" s="66" t="str">
         <f>'DEPT CHAIR'!B52</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C66" s="67">
         <f>REGISTRATION!B55</f>
@@ -28246,7 +28260,7 @@
       </c>
       <c r="B67" s="66" t="str">
         <f>'DEPT CHAIR'!B53</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C67" s="67">
         <f>REGISTRATION!B56</f>
@@ -28271,7 +28285,7 @@
       </c>
       <c r="B68" s="66" t="str">
         <f>'DEPT CHAIR'!B54</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C68" s="67">
         <f>REGISTRATION!B57</f>
@@ -28296,7 +28310,7 @@
       </c>
       <c r="B69" s="66" t="str">
         <f>'DEPT CHAIR'!B55</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C69" s="67">
         <f>REGISTRATION!B58</f>
@@ -28321,7 +28335,7 @@
       </c>
       <c r="B70" s="66" t="str">
         <f>'DEPT CHAIR'!B56</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C70" s="67">
         <f>REGISTRATION!B59</f>
@@ -28346,7 +28360,7 @@
       </c>
       <c r="B71" s="66" t="str">
         <f>'DEPT CHAIR'!B57</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C71" s="67">
         <f>REGISTRATION!B60</f>
@@ -28371,7 +28385,7 @@
       </c>
       <c r="B72" s="66" t="str">
         <f>'DEPT CHAIR'!B58</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C72" s="67">
         <f>REGISTRATION!B61</f>
@@ -28396,7 +28410,7 @@
       </c>
       <c r="B73" s="66" t="str">
         <f>'DEPT CHAIR'!B59</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C73" s="67">
         <f>REGISTRATION!B62</f>
@@ -28421,7 +28435,7 @@
       </c>
       <c r="B74" s="66" t="str">
         <f>'DEPT CHAIR'!B60</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C74" s="67">
         <f>REGISTRATION!B63</f>
@@ -28446,7 +28460,7 @@
       </c>
       <c r="B75" s="66" t="str">
         <f>'DEPT CHAIR'!B61</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C75" s="67">
         <f>REGISTRATION!B64</f>
@@ -28471,7 +28485,7 @@
       </c>
       <c r="B76" s="66" t="str">
         <f>'DEPT CHAIR'!B62</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C76" s="67">
         <f>REGISTRATION!B65</f>
@@ -28496,7 +28510,7 @@
       </c>
       <c r="B77" s="66" t="str">
         <f>'DEPT CHAIR'!B63</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C77" s="67">
         <f>REGISTRATION!B66</f>
@@ -28521,7 +28535,7 @@
       </c>
       <c r="B78" s="66" t="str">
         <f>'DEPT CHAIR'!B64</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C78" s="67">
         <f>REGISTRATION!B67</f>
@@ -28546,7 +28560,7 @@
       </c>
       <c r="B79" s="66" t="str">
         <f>'DEPT CHAIR'!B65</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C79" s="67">
         <f>REGISTRATION!B68</f>
@@ -28571,7 +28585,7 @@
       </c>
       <c r="B80" s="66" t="str">
         <f>'DEPT CHAIR'!B66</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C80" s="67">
         <f>REGISTRATION!B69</f>
@@ -28596,7 +28610,7 @@
       </c>
       <c r="B81" s="66" t="str">
         <f>'DEPT CHAIR'!B67</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="C81" s="67">
         <f>REGISTRATION!B70</f>
@@ -28626,14 +28640,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="231" t="s">
+      <c r="A83" s="255" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="232"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="232"/>
-      <c r="E83" s="232"/>
-      <c r="F83" s="233"/>
+      <c r="B83" s="256"/>
+      <c r="C83" s="256"/>
+      <c r="D83" s="256"/>
+      <c r="E83" s="256"/>
+      <c r="F83" s="257"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28666,11 +28680,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="258">
+      <c r="E87" s="249">
         <f ca="1">NOW()</f>
-        <v>43019.525910300923</v>
-      </c>
-      <c r="F87" s="258"/>
+        <v>43029.60331215278</v>
+      </c>
+      <c r="F87" s="249"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28680,10 +28694,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="259" t="s">
+      <c r="E88" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="259"/>
+      <c r="F88" s="228"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28700,8 +28714,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="259"/>
-      <c r="F90" s="259"/>
+      <c r="E90" s="228"/>
+      <c r="F90" s="228"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28817,14 +28831,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="260" t="s">
+      <c r="A105" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="260"/>
-      <c r="C105" s="260"/>
-      <c r="D105" s="260"/>
-      <c r="E105" s="260"/>
-      <c r="F105" s="260"/>
+      <c r="B105" s="250"/>
+      <c r="C105" s="250"/>
+      <c r="D105" s="250"/>
+      <c r="E105" s="250"/>
+      <c r="F105" s="250"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28839,124 +28853,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="244" t="s">
+      <c r="C107" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="245"/>
-      <c r="E107" s="246" t="s">
+      <c r="D107" s="237"/>
+      <c r="E107" s="236" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="245"/>
+      <c r="F107" s="237"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="240">
+      <c r="C108" s="264">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="241"/>
-      <c r="E108" s="242">
+      <c r="D108" s="265"/>
+      <c r="E108" s="266">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="243"/>
+      <c r="F108" s="267"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="234">
+      <c r="C109" s="258">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="235"/>
-      <c r="E109" s="236">
+      <c r="D109" s="259"/>
+      <c r="E109" s="260">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="237"/>
+      <c r="F109" s="261"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="234">
+      <c r="C110" s="258">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="235"/>
-      <c r="E110" s="236">
+      <c r="D110" s="259"/>
+      <c r="E110" s="260">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="237"/>
+      <c r="F110" s="261"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="234">
+      <c r="C111" s="258">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="235"/>
-      <c r="E111" s="236">
+      <c r="D111" s="259"/>
+      <c r="E111" s="260">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="237"/>
+      <c r="F111" s="261"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="238">
-        <v>0</v>
-      </c>
-      <c r="D112" s="239"/>
-      <c r="E112" s="236">
+      <c r="C112" s="262">
+        <v>0</v>
+      </c>
+      <c r="D112" s="263"/>
+      <c r="E112" s="260">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="237"/>
+      <c r="F112" s="261"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="238">
-        <v>0</v>
-      </c>
-      <c r="D113" s="239"/>
-      <c r="E113" s="236">
+      <c r="C113" s="262">
+        <v>0</v>
+      </c>
+      <c r="D113" s="263"/>
+      <c r="E113" s="260">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="237"/>
+      <c r="F113" s="261"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="227">
+      <c r="C114" s="251">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="228"/>
-      <c r="E114" s="229">
+      <c r="D114" s="252"/>
+      <c r="E114" s="253">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="230"/>
+      <c r="F114" s="254"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -29124,32 +29138,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -29166,9 +29154,35 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30037,7 +30051,7 @@
       </c>
       <c r="C30" s="113" t="str">
         <f>'SEMESTRAL GRADE'!B48</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D30" s="116"/>
       <c r="E30" s="41"/>
@@ -30065,7 +30079,7 @@
       </c>
       <c r="C31" s="113" t="str">
         <f>'SEMESTRAL GRADE'!B49</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D31" s="116"/>
       <c r="E31" s="41"/>
@@ -30093,7 +30107,7 @@
       </c>
       <c r="C32" s="113" t="str">
         <f>'SEMESTRAL GRADE'!B50</f>
-        <v/>
+        <v xml:space="preserve">  </v>
       </c>
       <c r="D32" s="116"/>
       <c r="E32" s="41"/>

--- a/DCIT 65 - CS 3B/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3B/LEC AND LAB.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="261">
   <si>
     <t>Subject:</t>
   </si>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>Roland Karl</t>
+  </si>
+  <si>
+    <t>2015-01-758</t>
   </si>
 </sst>
 </file>
@@ -2859,14 +2862,14 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
@@ -3920,7 +3923,7 @@
   <dimension ref="A2:R71"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4316,7 +4319,9 @@
       <c r="A16" s="14">
         <v>6</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>260</v>
+      </c>
       <c r="C16" s="15" t="s">
         <v>258</v>
       </c>
@@ -6102,9 +6107,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CS24" sqref="CS24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7270,15 +7275,19 @@
         <f>IFERROR(((BR10/$BR$9)*100),"")</f>
         <v>100</v>
       </c>
-      <c r="BT10" s="107"/>
+      <c r="BT10" s="107">
+        <v>80</v>
+      </c>
       <c r="BU10" s="92">
         <f>IFERROR(((BT10/$BT$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BV10" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV10" s="107">
+        <v>80</v>
+      </c>
       <c r="BW10" s="92">
         <f>IFERROR(((BV10/$BV$9)*100),"")</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX10" s="107"/>
       <c r="BY10" s="92" t="str">
@@ -7327,19 +7336,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>38.197999999999993</v>
+        <v>46.201999999999998</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7364,15 +7373,15 @@
         <v>Almendras Mark Anthony G</v>
       </c>
       <c r="D11" s="126">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" s="92">
         <f>(D11/$D$9)*100</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="95">
         <f t="shared" si="0"/>
-        <v>20.099999999999998</v>
+        <v>20.7</v>
       </c>
       <c r="G11" s="107">
         <v>0</v>
@@ -7481,11 +7490,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>41.099999999999994</v>
+        <v>41.7</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>41.1</v>
+        <v>41.7</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92">
@@ -7534,15 +7543,19 @@
         <f t="shared" ref="BS11:BS70" si="26">IFERROR(((BR11/$BR$9)*100),"")</f>
         <v>100</v>
       </c>
-      <c r="BT11" s="108"/>
+      <c r="BT11" s="108">
+        <v>80</v>
+      </c>
       <c r="BU11" s="92">
         <f t="shared" ref="BU11:BU70" si="27">IFERROR(((BT11/$BT$9)*100),"")</f>
-        <v>0</v>
-      </c>
-      <c r="BV11" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV11" s="107">
+        <v>80</v>
+      </c>
       <c r="BW11" s="92">
         <f t="shared" ref="BW11:BW70" si="28">IFERROR(((BV11/$BV$9)*100),"")</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX11" s="107"/>
       <c r="BY11" s="92" t="str">
@@ -7591,19 +7604,19 @@
       </c>
       <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>36.438000000000002</v>
+        <v>44.682000000000002</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7798,15 +7811,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT12" s="108"/>
+      <c r="BT12" s="108">
+        <v>80</v>
+      </c>
       <c r="BU12" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV12" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV12" s="107">
+        <v>80</v>
+      </c>
       <c r="BW12" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX12" s="107"/>
       <c r="BY12" s="92" t="str">
@@ -7855,19 +7872,19 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>32.117999999999995</v>
+        <v>40.122</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8062,15 +8079,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT13" s="108"/>
+      <c r="BT13" s="108">
+        <v>80</v>
+      </c>
       <c r="BU13" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV13" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV13" s="107">
+        <v>80</v>
+      </c>
       <c r="BW13" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX13" s="107"/>
       <c r="BY13" s="92" t="str">
@@ -8119,19 +8140,19 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>38.357999999999997</v>
+        <v>46.361999999999995</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8326,15 +8347,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT14" s="108"/>
+      <c r="BT14" s="108">
+        <v>80</v>
+      </c>
       <c r="BU14" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV14" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV14" s="107">
+        <v>100</v>
+      </c>
       <c r="BW14" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BX14" s="107"/>
       <c r="BY14" s="92" t="str">
@@ -8383,19 +8408,19 @@
       </c>
       <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="CR14" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>48.33</v>
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>37.837999999999994</v>
+        <v>46.837999999999994</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8411,9 +8436,9 @@
         <f>REGISTRATION!A16</f>
         <v>6</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="41" t="str">
         <f>REGISTRATION!B16</f>
-        <v>0</v>
+        <v>2015-01-758</v>
       </c>
       <c r="C15" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C16," ",REGISTRATION!D16," ",REGISTRATION!E16)</f>
@@ -8590,15 +8615,19 @@
         <f t="shared" si="26"/>
         <v>60</v>
       </c>
-      <c r="BT15" s="108"/>
+      <c r="BT15" s="108">
+        <v>80</v>
+      </c>
       <c r="BU15" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV15" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV15" s="107">
+        <v>80</v>
+      </c>
       <c r="BW15" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX15" s="107"/>
       <c r="BY15" s="92" t="str">
@@ -8647,19 +8676,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>20</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>20</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>20.6</v>
+        <v>28.597999999999999</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8684,15 +8713,15 @@
         <v>Dela Pieza Larslie Z</v>
       </c>
       <c r="D16" s="126">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E16" s="92">
         <f t="shared" si="43"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="95">
         <f t="shared" si="0"/>
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="G16" s="107">
         <v>0</v>
@@ -8801,11 +8830,11 @@
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>40.700000000000003</v>
+        <v>41</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>40.700000000000003</v>
+        <v>41</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92">
@@ -8854,15 +8883,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT16" s="108"/>
+      <c r="BT16" s="108">
+        <v>80</v>
+      </c>
       <c r="BU16" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV16" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV16" s="107">
+        <v>80</v>
+      </c>
       <c r="BW16" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX16" s="107"/>
       <c r="BY16" s="92" t="str">
@@ -8911,19 +8944,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>36.277999999999999</v>
+        <v>44.402000000000001</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9118,15 +9151,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT17" s="108"/>
+      <c r="BT17" s="108">
+        <v>80</v>
+      </c>
       <c r="BU17" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV17" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV17" s="107">
+        <v>80</v>
+      </c>
       <c r="BW17" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX17" s="107"/>
       <c r="BY17" s="92" t="str">
@@ -9175,19 +9212,19 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>35.997999999999998</v>
+        <v>44.001999999999995</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9382,15 +9419,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT18" s="108"/>
+      <c r="BT18" s="108">
+        <v>95</v>
+      </c>
       <c r="BU18" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV18" s="107"/>
+        <v>95</v>
+      </c>
+      <c r="BV18" s="107">
+        <v>80</v>
+      </c>
       <c r="BW18" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX18" s="107"/>
       <c r="BY18" s="92" t="str">
@@ -9439,19 +9480,19 @@
       </c>
       <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>47.92</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>36.957999999999998</v>
+        <v>45.712000000000003</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9646,15 +9687,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT19" s="108"/>
+      <c r="BT19" s="108">
+        <v>80</v>
+      </c>
       <c r="BU19" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV19" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV19" s="107">
+        <v>80</v>
+      </c>
       <c r="BW19" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX19" s="107"/>
       <c r="BY19" s="92" t="str">
@@ -9703,19 +9748,19 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>37.957999999999998</v>
+        <v>45.962000000000003</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9910,15 +9955,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT20" s="108"/>
+      <c r="BT20" s="108">
+        <v>80</v>
+      </c>
       <c r="BU20" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV20" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV20" s="107">
+        <v>80</v>
+      </c>
       <c r="BW20" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX20" s="107"/>
       <c r="BY20" s="92" t="str">
@@ -9967,19 +10016,19 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>34.597999999999999</v>
+        <v>42.602000000000004</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10174,15 +10223,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT21" s="108"/>
+      <c r="BT21" s="108">
+        <v>80</v>
+      </c>
       <c r="BU21" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV21" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV21" s="107">
+        <v>80</v>
+      </c>
       <c r="BW21" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX21" s="107"/>
       <c r="BY21" s="92" t="str">
@@ -10231,19 +10284,19 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>37.317999999999998</v>
+        <v>45.322000000000003</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10438,15 +10491,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT22" s="108"/>
+      <c r="BT22" s="108">
+        <v>80</v>
+      </c>
       <c r="BU22" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV22" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV22" s="107">
+        <v>80</v>
+      </c>
       <c r="BW22" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX22" s="107"/>
       <c r="BY22" s="92" t="str">
@@ -10495,19 +10552,19 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>36.397999999999996</v>
+        <v>44.402000000000001</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10702,15 +10759,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT23" s="108"/>
+      <c r="BT23" s="108">
+        <v>80</v>
+      </c>
       <c r="BU23" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV23" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV23" s="107">
+        <v>80</v>
+      </c>
       <c r="BW23" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX23" s="107"/>
       <c r="BY23" s="92" t="str">
@@ -10759,19 +10820,19 @@
       </c>
       <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR23" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>37.158000000000001</v>
+        <v>45.161999999999999</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11234,15 +11295,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT25" s="108"/>
+      <c r="BT25" s="108">
+        <v>80</v>
+      </c>
       <c r="BU25" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV25" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV25" s="107">
+        <v>80</v>
+      </c>
       <c r="BW25" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX25" s="107"/>
       <c r="BY25" s="92" t="str">
@@ -11291,19 +11356,19 @@
       </c>
       <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR25" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>34.397999999999996</v>
+        <v>42.402000000000001</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11498,15 +11563,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT26" s="108"/>
+      <c r="BT26" s="108">
+        <v>80</v>
+      </c>
       <c r="BU26" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV26" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV26" s="107">
+        <v>80</v>
+      </c>
       <c r="BW26" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX26" s="107"/>
       <c r="BY26" s="92" t="str">
@@ -11555,19 +11624,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>38.238</v>
+        <v>46.242000000000004</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11762,15 +11831,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT27" s="108"/>
+      <c r="BT27" s="108">
+        <v>80</v>
+      </c>
       <c r="BU27" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV27" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV27" s="107">
+        <v>80</v>
+      </c>
       <c r="BW27" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX27" s="107"/>
       <c r="BY27" s="92" t="str">
@@ -11819,19 +11892,19 @@
       </c>
       <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR27" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>36.878</v>
+        <v>44.882000000000005</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12026,15 +12099,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT28" s="108"/>
+      <c r="BT28" s="108">
+        <v>80</v>
+      </c>
       <c r="BU28" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV28" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV28" s="107">
+        <v>80</v>
+      </c>
       <c r="BW28" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX28" s="107"/>
       <c r="BY28" s="92" t="str">
@@ -12083,19 +12160,19 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>33.597999999999999</v>
+        <v>41.602000000000004</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12290,15 +12367,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT29" s="108"/>
+      <c r="BT29" s="108">
+        <v>80</v>
+      </c>
       <c r="BU29" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV29" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV29" s="107">
+        <v>80</v>
+      </c>
       <c r="BW29" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX29" s="107"/>
       <c r="BY29" s="92" t="str">
@@ -12347,19 +12428,19 @@
       </c>
       <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR29" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>37.238</v>
+        <v>45.242000000000004</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12405,10 +12486,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="108"/>
+      <c r="J30" s="108">
+        <v>13</v>
+      </c>
       <c r="K30" s="92">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="L30" s="108"/>
       <c r="M30" s="92" t="str">
@@ -12455,7 +12538,7 @@
       <c r="AM30" s="94"/>
       <c r="AN30" s="95">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO30" s="108"/>
       <c r="AP30" s="92">
@@ -12499,11 +12582,11 @@
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>32.700000000000003</v>
+        <v>45.7</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>32.700000000000003</v>
+        <v>45.7</v>
       </c>
       <c r="BE30" s="108"/>
       <c r="BF30" s="92">
@@ -12552,15 +12635,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT30" s="108"/>
+      <c r="BT30" s="108">
+        <v>80</v>
+      </c>
       <c r="BU30" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV30" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV30" s="107">
+        <v>80</v>
+      </c>
       <c r="BW30" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX30" s="107"/>
       <c r="BY30" s="92" t="str">
@@ -12609,19 +12696,19 @@
       </c>
       <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR30" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>33.078000000000003</v>
+        <v>46.281999999999996</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12668,11 +12755,11 @@
         <v>0</v>
       </c>
       <c r="J31" s="108">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K31" s="92">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L31" s="108"/>
       <c r="M31" s="92" t="str">
@@ -12719,7 +12806,7 @@
       <c r="AM31" s="94"/>
       <c r="AN31" s="95">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AO31" s="108"/>
       <c r="AP31" s="92">
@@ -12763,11 +12850,11 @@
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>30.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>30.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="BE31" s="108"/>
       <c r="BF31" s="92">
@@ -12816,15 +12903,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT31" s="108"/>
+      <c r="BT31" s="108">
+        <v>80</v>
+      </c>
       <c r="BU31" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV31" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV31" s="107">
+        <v>80</v>
+      </c>
       <c r="BW31" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX31" s="107"/>
       <c r="BY31" s="92" t="str">
@@ -12873,19 +12964,19 @@
       </c>
       <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR31" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>32.238</v>
+        <v>35.442</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12931,10 +13022,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="108"/>
+      <c r="J32" s="108">
+        <v>12</v>
+      </c>
       <c r="K32" s="92">
         <f>IFERROR(((J32/$J$9)*100), "")</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L32" s="108"/>
       <c r="M32" s="92" t="str">
@@ -12981,7 +13074,7 @@
       <c r="AM32" s="94"/>
       <c r="AN32" s="95">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO32" s="108"/>
       <c r="AP32" s="92">
@@ -13025,11 +13118,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>30.9</v>
+        <v>42.9</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>30.9</v>
+        <v>42.9</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92">
@@ -13078,15 +13171,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT32" s="108"/>
+      <c r="BT32" s="108">
+        <v>80</v>
+      </c>
       <c r="BU32" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV32" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV32" s="107">
+        <v>80</v>
+      </c>
       <c r="BW32" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX32" s="107"/>
       <c r="BY32" s="92" t="str">
@@ -13135,19 +13232,19 @@
       </c>
       <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR32" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>32.357999999999997</v>
+        <v>45.161999999999999</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13172,15 +13269,15 @@
         <v>Umbay Lorenz G</v>
       </c>
       <c r="D33" s="126">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="92">
         <f t="shared" si="43"/>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F33" s="95">
         <f t="shared" si="0"/>
-        <v>20.399999999999999</v>
+        <v>21</v>
       </c>
       <c r="G33" s="107">
         <v>0</v>
@@ -13289,11 +13386,11 @@
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>46.4</v>
+        <v>47</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>46.4</v>
+        <v>47</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92">
@@ -13342,15 +13439,19 @@
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="BT33" s="108"/>
+      <c r="BT33" s="108">
+        <v>80</v>
+      </c>
       <c r="BU33" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV33" s="107"/>
+        <v>80</v>
+      </c>
+      <c r="BV33" s="107">
+        <v>80</v>
+      </c>
       <c r="BW33" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX33" s="107"/>
       <c r="BY33" s="92" t="str">
@@ -13399,19 +13500,19 @@
       </c>
       <c r="CP33" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CQ33" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="CR33" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>38.557999999999993</v>
+        <v>46.802</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13579,42 +13680,46 @@
         <v>0</v>
       </c>
       <c r="BL34" s="108">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BM34" s="92">
         <f t="shared" si="23"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BN34" s="108">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BO34" s="92">
         <f t="shared" si="24"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BP34" s="108">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BQ34" s="92">
         <f t="shared" si="25"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BR34" s="108">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BS34" s="92">
         <f t="shared" si="26"/>
-        <v>60</v>
-      </c>
-      <c r="BT34" s="108"/>
+        <v>85</v>
+      </c>
+      <c r="BT34" s="108">
+        <v>100</v>
+      </c>
       <c r="BU34" s="92">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BV34" s="107"/>
+        <v>100</v>
+      </c>
+      <c r="BV34" s="107">
+        <v>80</v>
+      </c>
       <c r="BW34" s="92">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BX34" s="107"/>
       <c r="BY34" s="92" t="str">
@@ -13663,19 +13768,19 @@
       </c>
       <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v>20</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>20</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>20</v>
+        <v>42.92</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>27.68</v>
+        <v>41.432000000000002</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22717,7 +22822,7 @@
     <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22950,19 +23055,19 @@
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>38.197999999999993</v>
+        <v>46.201999999999998</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -22983,7 +23088,7 @@
       </c>
       <c r="C9" s="57">
         <f>'RAW GRADES'!F11</f>
-        <v>20.099999999999998</v>
+        <v>20.7</v>
       </c>
       <c r="D9" s="89">
         <f>'RAW GRADES'!I11</f>
@@ -23003,11 +23108,11 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>41.099999999999994</v>
+        <v>41.7</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>41.1</v>
+        <v>41.7</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
@@ -23015,19 +23120,19 @@
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>36.438000000000002</v>
+        <v>44.682000000000002</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -23080,19 +23185,19 @@
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>32.117999999999995</v>
+        <v>40.122</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23145,19 +23250,19 @@
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>38.357999999999997</v>
+        <v>46.361999999999995</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23210,19 +23315,19 @@
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v>33.333333333333336</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>33.333333333333336</v>
+        <v>48.333333333333336</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>33.33</v>
+        <v>48.33</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>37.837999999999994</v>
+        <v>46.837999999999994</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23275,19 +23380,19 @@
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>20</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>20</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>20</v>
+        <v>33.33</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>20.6</v>
+        <v>28.597999999999999</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23308,7 +23413,7 @@
       </c>
       <c r="C14" s="57">
         <f>'RAW GRADES'!F16</f>
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="D14" s="89">
         <f>'RAW GRADES'!I16</f>
@@ -23328,11 +23433,11 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>40.700000000000003</v>
+        <v>41</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>40.700000000000003</v>
+        <v>41</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
@@ -23340,19 +23445,19 @@
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>36.277999999999999</v>
+        <v>44.402000000000001</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23405,19 +23510,19 @@
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>35.997999999999998</v>
+        <v>44.001999999999995</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23470,19 +23575,19 @@
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v>33.333333333333336</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>33.333333333333336</v>
+        <v>47.916666666666664</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>33.33</v>
+        <v>47.92</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>36.957999999999998</v>
+        <v>45.712000000000003</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23535,19 +23640,19 @@
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>37.957999999999998</v>
+        <v>45.962000000000003</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23600,19 +23705,19 @@
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>34.597999999999999</v>
+        <v>42.602000000000004</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23665,19 +23770,19 @@
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>37.317999999999998</v>
+        <v>45.322000000000003</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23730,19 +23835,19 @@
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>36.397999999999996</v>
+        <v>44.402000000000001</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23795,19 +23900,19 @@
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>37.158000000000001</v>
+        <v>45.161999999999999</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23925,19 +24030,19 @@
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>34.397999999999996</v>
+        <v>42.402000000000001</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -23990,19 +24095,19 @@
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>38.238</v>
+        <v>46.242000000000004</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24055,19 +24160,19 @@
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>36.878</v>
+        <v>44.882000000000005</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24120,19 +24225,19 @@
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>33.597999999999999</v>
+        <v>41.602000000000004</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24185,19 +24290,19 @@
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>37.238</v>
+        <v>45.242000000000004</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24226,7 +24331,7 @@
       </c>
       <c r="E28" s="52">
         <f>'RAW GRADES'!AN30</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F28" s="52">
         <f>'RAW GRADES'!AU30</f>
@@ -24238,11 +24343,11 @@
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>32.700000000000003</v>
+        <v>45.7</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>32.700000000000003</v>
+        <v>45.7</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
@@ -24250,19 +24355,19 @@
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>33.078000000000003</v>
+        <v>46.281999999999996</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24291,7 +24396,7 @@
       </c>
       <c r="E29" s="52">
         <f>'RAW GRADES'!AN31</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F29" s="52">
         <f>'RAW GRADES'!AU31</f>
@@ -24303,11 +24408,11 @@
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>30.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>30.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
@@ -24315,19 +24420,19 @@
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>32.238</v>
+        <v>35.442</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -24356,7 +24461,7 @@
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F30" s="52">
         <f>'RAW GRADES'!AU32</f>
@@ -24368,11 +24473,11 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>30.9</v>
+        <v>42.9</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>30.9</v>
+        <v>42.9</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
@@ -24380,19 +24485,19 @@
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>32.357999999999997</v>
+        <v>45.161999999999999</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24413,7 +24518,7 @@
       </c>
       <c r="C31" s="57">
         <f>'RAW GRADES'!F33</f>
-        <v>20.399999999999999</v>
+        <v>21</v>
       </c>
       <c r="D31" s="89">
         <f>'RAW GRADES'!I33</f>
@@ -24433,11 +24538,11 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>46.4</v>
+        <v>47</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>46.4</v>
+        <v>47</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
@@ -24445,19 +24550,19 @@
       </c>
       <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
-        <v>33.333333333333336</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="M31" s="54">
         <f>'RAW GRADES'!CR33</f>
-        <v>33.33</v>
+        <v>46.67</v>
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>38.557999999999993</v>
+        <v>46.802</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24510,19 +24615,19 @@
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v>20</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>20</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>20</v>
+        <v>42.92</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>27.68</v>
+        <v>41.432000000000002</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -26887,7 +26992,7 @@
     <mergeCell ref="C5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="P8:P68">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27262,9 +27367,9 @@
         <f>'DEPT CHAIR'!B13</f>
         <v>Calupad Roland Karl L</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="67" t="str">
         <f>REGISTRATION!B16</f>
-        <v>0</v>
+        <v>2015-01-758</v>
       </c>
       <c r="D27" s="68">
         <f>'DEPT CHAIR'!O13</f>
@@ -28682,7 +28787,7 @@
       <c r="D87" s="60"/>
       <c r="E87" s="249">
         <f ca="1">NOW()</f>
-        <v>43029.60331215278</v>
+        <v>43035.384285416665</v>
       </c>
       <c r="F87" s="249"/>
     </row>
@@ -29182,7 +29287,7 @@
     <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FAILED"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29457,9 +29562,9 @@
       <c r="A9" s="116">
         <v>6</v>
       </c>
-      <c r="B9" s="111">
+      <c r="B9" s="111" t="str">
         <f>'SEMESTRAL GRADE'!C27</f>
-        <v>0</v>
+        <v>2015-01-758</v>
       </c>
       <c r="C9" s="113" t="str">
         <f>'SEMESTRAL GRADE'!B27</f>

--- a/DCIT 65 - CS 3B/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3B/LEC AND LAB.xlsx
@@ -2306,37 +2306,99 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2376,104 +2438,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2514,93 +2601,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2659,102 +2659,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2828,6 +2732,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3911,7 +3911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3944,82 +3944,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129" t="s">
+      <c r="A6" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="130"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4027,28 +4027,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="131" t="s">
+      <c r="J6" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="134"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4056,28 +4056,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="135"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="138"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4085,45 +4085,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="139" t="s">
+      <c r="J8" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146" t="s">
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="146" t="s">
+      <c r="G9" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="149" t="s">
+      <c r="K9" s="146"/>
+      <c r="L9" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="150"/>
+      <c r="M9" s="146"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="142"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4133,14 +4133,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4161,19 +4161,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="158"/>
-      <c r="O11" s="169" t="s">
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="150"/>
+      <c r="O11" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="171"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4194,21 +4194,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="167" t="s">
+      <c r="P12" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="167"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4229,21 +4229,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="167" t="s">
+      <c r="P13" s="132" t="s">
         <v>244</v>
       </c>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="167"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="164" t="s">
+      <c r="P14" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4299,21 +4299,21 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="164" t="s">
+      <c r="P15" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="131"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4334,21 +4334,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="172" t="s">
+      <c r="P16" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4369,21 +4369,21 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="164" t="s">
+      <c r="P17" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="166"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="131"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4404,13 +4404,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4431,13 +4431,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4458,13 +4458,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4485,13 +4485,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4515,13 +4515,13 @@
       <c r="F22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4548,13 +4548,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4581,13 +4581,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4614,13 +4614,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4647,13 +4647,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4680,13 +4680,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4713,13 +4713,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4746,13 +4746,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4779,13 +4779,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4812,13 +4812,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4841,13 +4841,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4874,13 +4874,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4901,13 +4901,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4928,13 +4928,13 @@
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4945,13 +4945,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4962,13 +4962,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4979,13 +4979,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="135"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4996,13 +4996,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5013,13 +5013,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5030,13 +5030,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5047,13 +5047,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5064,13 +5064,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5081,13 +5081,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="155"/>
-      <c r="M44" s="155"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5098,13 +5098,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="161"/>
-      <c r="K45" s="161"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5115,13 +5115,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="161"/>
-      <c r="K46" s="161"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5132,13 +5132,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="161"/>
-      <c r="K47" s="161"/>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5149,13 +5149,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="161"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5166,13 +5166,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5183,13 +5183,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5200,13 +5200,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="161"/>
-      <c r="K51" s="161"/>
-      <c r="L51" s="155"/>
-      <c r="M51" s="155"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5217,13 +5217,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5234,13 +5234,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5251,13 +5251,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="161"/>
-      <c r="L54" s="155"/>
-      <c r="M54" s="155"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="135"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5268,13 +5268,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="155"/>
-      <c r="M55" s="155"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5285,13 +5285,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5302,13 +5302,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="161"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="155"/>
-      <c r="M57" s="155"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5319,13 +5319,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="161"/>
-      <c r="K58" s="161"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5336,13 +5336,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="152"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="161"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5353,13 +5353,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5370,13 +5370,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="161"/>
-      <c r="K61" s="161"/>
-      <c r="L61" s="155"/>
-      <c r="M61" s="155"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5387,13 +5387,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="155"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5404,13 +5404,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
-      <c r="I63" s="152"/>
-      <c r="J63" s="161"/>
-      <c r="K63" s="161"/>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="133"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="135"/>
+      <c r="M63" s="135"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5421,13 +5421,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="161"/>
-      <c r="K64" s="161"/>
-      <c r="L64" s="155"/>
-      <c r="M64" s="155"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5438,13 +5438,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="161"/>
-      <c r="K65" s="161"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5455,13 +5455,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="152"/>
-      <c r="I66" s="152"/>
-      <c r="J66" s="161"/>
-      <c r="K66" s="161"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="135"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5472,13 +5472,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="152"/>
-      <c r="I67" s="152"/>
-      <c r="J67" s="161"/>
-      <c r="K67" s="161"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5489,13 +5489,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="152"/>
-      <c r="I68" s="152"/>
-      <c r="J68" s="161"/>
-      <c r="K68" s="161"/>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="135"/>
+      <c r="M68" s="135"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5506,13 +5506,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="152"/>
-      <c r="I69" s="152"/>
-      <c r="J69" s="161"/>
-      <c r="K69" s="161"/>
-      <c r="L69" s="155"/>
-      <c r="M69" s="155"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="134"/>
+      <c r="L69" s="135"/>
+      <c r="M69" s="135"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5523,13 +5523,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="161"/>
-      <c r="K70" s="161"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="135"/>
+      <c r="M70" s="135"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5540,13 +5540,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="152"/>
-      <c r="H71" s="152"/>
-      <c r="I71" s="152"/>
-      <c r="J71" s="161"/>
-      <c r="K71" s="161"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="133"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="135"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5554,6 +5554,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5578,195 +5767,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
@@ -6107,9 +6107,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CS24" sqref="CS24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6123,452 +6123,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="168"/>
-      <c r="AO2" s="168"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="168"/>
-      <c r="AV2" s="168"/>
-      <c r="AW2" s="168"/>
-      <c r="AX2" s="168"/>
-      <c r="AY2" s="168"/>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="168"/>
-      <c r="BB2" s="168"/>
-      <c r="BC2" s="168"/>
-      <c r="BD2" s="168"/>
-      <c r="BE2" s="168"/>
-      <c r="BF2" s="168"/>
-      <c r="BG2" s="168"/>
-      <c r="BH2" s="168"/>
-      <c r="BI2" s="168"/>
-      <c r="BJ2" s="168"/>
-      <c r="BK2" s="168"/>
-      <c r="BL2" s="168"/>
-      <c r="BM2" s="168"/>
-      <c r="BN2" s="168"/>
-      <c r="BO2" s="168"/>
-      <c r="BP2" s="168"/>
-      <c r="BQ2" s="168"/>
-      <c r="BR2" s="168"/>
-      <c r="BS2" s="168"/>
-      <c r="BT2" s="168"/>
-      <c r="BU2" s="168"/>
-      <c r="BV2" s="168"/>
-      <c r="BW2" s="168"/>
-      <c r="BX2" s="168"/>
-      <c r="BY2" s="168"/>
-      <c r="BZ2" s="168"/>
-      <c r="CA2" s="168"/>
-      <c r="CB2" s="168"/>
-      <c r="CC2" s="168"/>
-      <c r="CD2" s="168"/>
-      <c r="CE2" s="168"/>
-      <c r="CF2" s="168"/>
-      <c r="CG2" s="168"/>
-      <c r="CH2" s="168"/>
-      <c r="CI2" s="168"/>
-      <c r="CJ2" s="168"/>
-      <c r="CK2" s="168"/>
-      <c r="CL2" s="168"/>
-      <c r="CM2" s="168"/>
-      <c r="CN2" s="168"/>
-      <c r="CO2" s="168"/>
-      <c r="CP2" s="168"/>
-      <c r="CQ2" s="168"/>
-      <c r="CR2" s="168"/>
-      <c r="CS2" s="168"/>
-      <c r="CT2" s="168"/>
-      <c r="CU2" s="168"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="136"/>
+      <c r="BR2" s="136"/>
+      <c r="BS2" s="136"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="136"/>
+      <c r="BV2" s="136"/>
+      <c r="BW2" s="136"/>
+      <c r="BX2" s="136"/>
+      <c r="BY2" s="136"/>
+      <c r="BZ2" s="136"/>
+      <c r="CA2" s="136"/>
+      <c r="CB2" s="136"/>
+      <c r="CC2" s="136"/>
+      <c r="CD2" s="136"/>
+      <c r="CE2" s="136"/>
+      <c r="CF2" s="136"/>
+      <c r="CG2" s="136"/>
+      <c r="CH2" s="136"/>
+      <c r="CI2" s="136"/>
+      <c r="CJ2" s="136"/>
+      <c r="CK2" s="136"/>
+      <c r="CL2" s="136"/>
+      <c r="CM2" s="136"/>
+      <c r="CN2" s="136"/>
+      <c r="CO2" s="136"/>
+      <c r="CP2" s="136"/>
+      <c r="CQ2" s="136"/>
+      <c r="CR2" s="136"/>
+      <c r="CS2" s="136"/>
+      <c r="CT2" s="136"/>
+      <c r="CU2" s="136"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="168"/>
-      <c r="AM3" s="168"/>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="168"/>
-      <c r="AX3" s="168"/>
-      <c r="AY3" s="168"/>
-      <c r="AZ3" s="168"/>
-      <c r="BA3" s="168"/>
-      <c r="BB3" s="168"/>
-      <c r="BC3" s="168"/>
-      <c r="BD3" s="168"/>
-      <c r="BE3" s="168"/>
-      <c r="BF3" s="168"/>
-      <c r="BG3" s="168"/>
-      <c r="BH3" s="168"/>
-      <c r="BI3" s="168"/>
-      <c r="BJ3" s="168"/>
-      <c r="BK3" s="168"/>
-      <c r="BL3" s="168"/>
-      <c r="BM3" s="168"/>
-      <c r="BN3" s="168"/>
-      <c r="BO3" s="168"/>
-      <c r="BP3" s="168"/>
-      <c r="BQ3" s="168"/>
-      <c r="BR3" s="168"/>
-      <c r="BS3" s="168"/>
-      <c r="BT3" s="168"/>
-      <c r="BU3" s="168"/>
-      <c r="BV3" s="168"/>
-      <c r="BW3" s="168"/>
-      <c r="BX3" s="168"/>
-      <c r="BY3" s="168"/>
-      <c r="BZ3" s="168"/>
-      <c r="CA3" s="168"/>
-      <c r="CB3" s="168"/>
-      <c r="CC3" s="168"/>
-      <c r="CD3" s="168"/>
-      <c r="CE3" s="168"/>
-      <c r="CF3" s="168"/>
-      <c r="CG3" s="168"/>
-      <c r="CH3" s="168"/>
-      <c r="CI3" s="168"/>
-      <c r="CJ3" s="168"/>
-      <c r="CK3" s="168"/>
-      <c r="CL3" s="168"/>
-      <c r="CM3" s="168"/>
-      <c r="CN3" s="168"/>
-      <c r="CO3" s="168"/>
-      <c r="CP3" s="168"/>
-      <c r="CQ3" s="168"/>
-      <c r="CR3" s="168"/>
-      <c r="CS3" s="168"/>
-      <c r="CT3" s="168"/>
-      <c r="CU3" s="168"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="136"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="136"/>
+      <c r="BZ3" s="136"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="136"/>
+      <c r="CE3" s="136"/>
+      <c r="CF3" s="136"/>
+      <c r="CG3" s="136"/>
+      <c r="CH3" s="136"/>
+      <c r="CI3" s="136"/>
+      <c r="CJ3" s="136"/>
+      <c r="CK3" s="136"/>
+      <c r="CL3" s="136"/>
+      <c r="CM3" s="136"/>
+      <c r="CN3" s="136"/>
+      <c r="CO3" s="136"/>
+      <c r="CP3" s="136"/>
+      <c r="CQ3" s="136"/>
+      <c r="CR3" s="136"/>
+      <c r="CS3" s="136"/>
+      <c r="CT3" s="136"/>
+      <c r="CU3" s="136"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="181"/>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="181"/>
-      <c r="AT5" s="181"/>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="181"/>
-      <c r="BA5" s="181"/>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="182"/>
-      <c r="BE5" s="183" t="s">
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+      <c r="AK5" s="206"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="206"/>
+      <c r="AN5" s="206"/>
+      <c r="AO5" s="206"/>
+      <c r="AP5" s="206"/>
+      <c r="AQ5" s="206"/>
+      <c r="AR5" s="206"/>
+      <c r="AS5" s="206"/>
+      <c r="AT5" s="206"/>
+      <c r="AU5" s="206"/>
+      <c r="AV5" s="206"/>
+      <c r="AW5" s="206"/>
+      <c r="AX5" s="206"/>
+      <c r="AY5" s="206"/>
+      <c r="AZ5" s="206"/>
+      <c r="BA5" s="206"/>
+      <c r="BB5" s="206"/>
+      <c r="BC5" s="206"/>
+      <c r="BD5" s="207"/>
+      <c r="BE5" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="184"/>
-      <c r="BG5" s="184"/>
-      <c r="BH5" s="184"/>
-      <c r="BI5" s="184"/>
-      <c r="BJ5" s="184"/>
-      <c r="BK5" s="184"/>
-      <c r="BL5" s="184"/>
-      <c r="BM5" s="184"/>
-      <c r="BN5" s="184"/>
-      <c r="BO5" s="184"/>
-      <c r="BP5" s="184"/>
-      <c r="BQ5" s="184"/>
-      <c r="BR5" s="184"/>
-      <c r="BS5" s="184"/>
-      <c r="BT5" s="184"/>
-      <c r="BU5" s="184"/>
-      <c r="BV5" s="184"/>
-      <c r="BW5" s="184"/>
-      <c r="BX5" s="184"/>
-      <c r="BY5" s="184"/>
-      <c r="BZ5" s="184"/>
-      <c r="CA5" s="184"/>
-      <c r="CB5" s="184"/>
-      <c r="CC5" s="184"/>
-      <c r="CD5" s="184"/>
-      <c r="CE5" s="184"/>
-      <c r="CF5" s="184"/>
-      <c r="CG5" s="184"/>
-      <c r="CH5" s="184"/>
-      <c r="CI5" s="184"/>
-      <c r="CJ5" s="184"/>
-      <c r="CK5" s="184"/>
-      <c r="CL5" s="184"/>
-      <c r="CM5" s="184"/>
-      <c r="CN5" s="184"/>
-      <c r="CO5" s="184"/>
-      <c r="CP5" s="184"/>
-      <c r="CQ5" s="184"/>
-      <c r="CR5" s="185"/>
-      <c r="CS5" s="190" t="s">
+      <c r="BF5" s="209"/>
+      <c r="BG5" s="209"/>
+      <c r="BH5" s="209"/>
+      <c r="BI5" s="209"/>
+      <c r="BJ5" s="209"/>
+      <c r="BK5" s="209"/>
+      <c r="BL5" s="209"/>
+      <c r="BM5" s="209"/>
+      <c r="BN5" s="209"/>
+      <c r="BO5" s="209"/>
+      <c r="BP5" s="209"/>
+      <c r="BQ5" s="209"/>
+      <c r="BR5" s="209"/>
+      <c r="BS5" s="209"/>
+      <c r="BT5" s="209"/>
+      <c r="BU5" s="209"/>
+      <c r="BV5" s="209"/>
+      <c r="BW5" s="209"/>
+      <c r="BX5" s="209"/>
+      <c r="BY5" s="209"/>
+      <c r="BZ5" s="209"/>
+      <c r="CA5" s="209"/>
+      <c r="CB5" s="209"/>
+      <c r="CC5" s="209"/>
+      <c r="CD5" s="209"/>
+      <c r="CE5" s="209"/>
+      <c r="CF5" s="209"/>
+      <c r="CG5" s="209"/>
+      <c r="CH5" s="209"/>
+      <c r="CI5" s="209"/>
+      <c r="CJ5" s="209"/>
+      <c r="CK5" s="209"/>
+      <c r="CL5" s="209"/>
+      <c r="CM5" s="209"/>
+      <c r="CN5" s="209"/>
+      <c r="CO5" s="209"/>
+      <c r="CP5" s="209"/>
+      <c r="CQ5" s="209"/>
+      <c r="CR5" s="210"/>
+      <c r="CS5" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="191"/>
-      <c r="CU5" s="192"/>
+      <c r="CT5" s="198"/>
+      <c r="CU5" s="199"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="177"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="210" t="s">
+      <c r="A6" s="202"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="196" t="s">
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="196"/>
-      <c r="AF6" s="196"/>
-      <c r="AG6" s="196"/>
-      <c r="AH6" s="196"/>
-      <c r="AI6" s="196"/>
-      <c r="AJ6" s="196"/>
-      <c r="AK6" s="196"/>
-      <c r="AL6" s="196"/>
-      <c r="AM6" s="196"/>
-      <c r="AN6" s="196"/>
-      <c r="AO6" s="196" t="s">
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="183"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="183"/>
+      <c r="AH6" s="183"/>
+      <c r="AI6" s="183"/>
+      <c r="AJ6" s="183"/>
+      <c r="AK6" s="183"/>
+      <c r="AL6" s="183"/>
+      <c r="AM6" s="183"/>
+      <c r="AN6" s="183"/>
+      <c r="AO6" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="196"/>
-      <c r="AQ6" s="196"/>
-      <c r="AR6" s="196"/>
-      <c r="AS6" s="196" t="s">
+      <c r="AP6" s="183"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="196"/>
-      <c r="AU6" s="196"/>
-      <c r="AV6" s="196" t="s">
+      <c r="AT6" s="183"/>
+      <c r="AU6" s="183"/>
+      <c r="AV6" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="196"/>
-      <c r="AX6" s="196"/>
-      <c r="AY6" s="196"/>
-      <c r="AZ6" s="196"/>
-      <c r="BA6" s="196"/>
-      <c r="BB6" s="196"/>
-      <c r="BC6" s="200" t="s">
+      <c r="AW6" s="183"/>
+      <c r="AX6" s="183"/>
+      <c r="AY6" s="183"/>
+      <c r="AZ6" s="183"/>
+      <c r="BA6" s="183"/>
+      <c r="BB6" s="183"/>
+      <c r="BC6" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="201"/>
-      <c r="BE6" s="202" t="s">
+      <c r="BD6" s="191"/>
+      <c r="BE6" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="203"/>
-      <c r="BG6" s="203"/>
-      <c r="BH6" s="203"/>
-      <c r="BI6" s="203"/>
-      <c r="BJ6" s="203"/>
-      <c r="BK6" s="204"/>
-      <c r="BL6" s="205" t="s">
+      <c r="BF6" s="193"/>
+      <c r="BG6" s="193"/>
+      <c r="BH6" s="193"/>
+      <c r="BI6" s="193"/>
+      <c r="BJ6" s="193"/>
+      <c r="BK6" s="194"/>
+      <c r="BL6" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="203"/>
-      <c r="BN6" s="203"/>
-      <c r="BO6" s="203"/>
-      <c r="BP6" s="203"/>
-      <c r="BQ6" s="203"/>
-      <c r="BR6" s="203"/>
-      <c r="BS6" s="203"/>
-      <c r="BT6" s="203"/>
-      <c r="BU6" s="203"/>
-      <c r="BV6" s="203"/>
-      <c r="BW6" s="203"/>
-      <c r="BX6" s="203"/>
-      <c r="BY6" s="203"/>
-      <c r="BZ6" s="203"/>
-      <c r="CA6" s="203"/>
-      <c r="CB6" s="203"/>
-      <c r="CC6" s="203"/>
-      <c r="CD6" s="203"/>
-      <c r="CE6" s="203"/>
-      <c r="CF6" s="203"/>
-      <c r="CG6" s="203"/>
-      <c r="CH6" s="203"/>
-      <c r="CI6" s="203"/>
-      <c r="CJ6" s="203"/>
-      <c r="CK6" s="203"/>
-      <c r="CL6" s="203"/>
-      <c r="CM6" s="203"/>
-      <c r="CN6" s="203"/>
-      <c r="CO6" s="203"/>
-      <c r="CP6" s="203"/>
-      <c r="CQ6" s="193" t="s">
+      <c r="BM6" s="193"/>
+      <c r="BN6" s="193"/>
+      <c r="BO6" s="193"/>
+      <c r="BP6" s="193"/>
+      <c r="BQ6" s="193"/>
+      <c r="BR6" s="193"/>
+      <c r="BS6" s="193"/>
+      <c r="BT6" s="193"/>
+      <c r="BU6" s="193"/>
+      <c r="BV6" s="193"/>
+      <c r="BW6" s="193"/>
+      <c r="BX6" s="193"/>
+      <c r="BY6" s="193"/>
+      <c r="BZ6" s="193"/>
+      <c r="CA6" s="193"/>
+      <c r="CB6" s="193"/>
+      <c r="CC6" s="193"/>
+      <c r="CD6" s="193"/>
+      <c r="CE6" s="193"/>
+      <c r="CF6" s="193"/>
+      <c r="CG6" s="193"/>
+      <c r="CH6" s="193"/>
+      <c r="CI6" s="193"/>
+      <c r="CJ6" s="193"/>
+      <c r="CK6" s="193"/>
+      <c r="CL6" s="193"/>
+      <c r="CM6" s="193"/>
+      <c r="CN6" s="193"/>
+      <c r="CO6" s="193"/>
+      <c r="CP6" s="193"/>
+      <c r="CQ6" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="193"/>
-      <c r="CS6" s="175" t="s">
+      <c r="CR6" s="200"/>
+      <c r="CS6" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="175" t="s">
+      <c r="CT6" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="197" t="s">
+      <c r="CU6" s="187" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6577,337 +6577,339 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="188">
+      <c r="J7" s="182">
         <v>42980</v>
       </c>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="189">
+      <c r="K7" s="182"/>
+      <c r="L7" s="182">
+        <v>43035</v>
+      </c>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="186">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
-        <v>1</v>
-      </c>
-      <c r="U7" s="189"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="188"/>
-      <c r="AC7" s="188"/>
-      <c r="AD7" s="188"/>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="188"/>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="188"/>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="188"/>
-      <c r="AK7" s="188"/>
-      <c r="AL7" s="188"/>
-      <c r="AM7" s="188"/>
+        <v>2</v>
+      </c>
+      <c r="U7" s="186"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="182"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="182"/>
+      <c r="AJ7" s="182"/>
+      <c r="AK7" s="182"/>
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="188" t="s">
+      <c r="AO7" s="182" t="s">
         <v>254</v>
       </c>
-      <c r="AP7" s="188"/>
-      <c r="AQ7" s="188"/>
-      <c r="AR7" s="188"/>
-      <c r="AS7" s="189">
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="186">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="189"/>
+      <c r="AT7" s="186"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="188" t="s">
+      <c r="AV7" s="182" t="s">
         <v>255</v>
       </c>
-      <c r="AW7" s="188"/>
-      <c r="AX7" s="188"/>
-      <c r="AY7" s="188"/>
-      <c r="AZ7" s="189">
+      <c r="AW7" s="182"/>
+      <c r="AX7" s="182"/>
+      <c r="AY7" s="182"/>
+      <c r="AZ7" s="186">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="189"/>
+      <c r="BA7" s="186"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="200"/>
-      <c r="BD7" s="201"/>
-      <c r="BE7" s="188" t="s">
+      <c r="BC7" s="190"/>
+      <c r="BD7" s="191"/>
+      <c r="BE7" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="BF7" s="188"/>
-      <c r="BG7" s="188" t="s">
+      <c r="BF7" s="182"/>
+      <c r="BG7" s="182" t="s">
         <v>257</v>
       </c>
-      <c r="BH7" s="188"/>
-      <c r="BI7" s="189">
+      <c r="BH7" s="182"/>
+      <c r="BI7" s="186">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="189"/>
+      <c r="BJ7" s="186"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="188">
+      <c r="BL7" s="182">
         <v>42980</v>
       </c>
-      <c r="BM7" s="188"/>
-      <c r="BN7" s="188">
+      <c r="BM7" s="182"/>
+      <c r="BN7" s="182">
         <v>42980</v>
       </c>
-      <c r="BO7" s="188"/>
-      <c r="BP7" s="188">
+      <c r="BO7" s="182"/>
+      <c r="BP7" s="182">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="188"/>
-      <c r="BR7" s="188">
+      <c r="BQ7" s="182"/>
+      <c r="BR7" s="182">
         <v>42987</v>
       </c>
-      <c r="BS7" s="188"/>
-      <c r="BT7" s="188"/>
-      <c r="BU7" s="188"/>
-      <c r="BV7" s="188"/>
-      <c r="BW7" s="188"/>
-      <c r="BX7" s="188"/>
-      <c r="BY7" s="188"/>
-      <c r="BZ7" s="188"/>
-      <c r="CA7" s="188"/>
-      <c r="CB7" s="188"/>
-      <c r="CC7" s="188"/>
-      <c r="CD7" s="188"/>
-      <c r="CE7" s="188"/>
-      <c r="CF7" s="188"/>
-      <c r="CG7" s="188"/>
-      <c r="CH7" s="188"/>
-      <c r="CI7" s="188"/>
-      <c r="CJ7" s="188"/>
-      <c r="CK7" s="188"/>
-      <c r="CL7" s="188"/>
-      <c r="CM7" s="188"/>
-      <c r="CN7" s="189">
+      <c r="BS7" s="182"/>
+      <c r="BT7" s="182"/>
+      <c r="BU7" s="182"/>
+      <c r="BV7" s="182"/>
+      <c r="BW7" s="182"/>
+      <c r="BX7" s="182"/>
+      <c r="BY7" s="182"/>
+      <c r="BZ7" s="182"/>
+      <c r="CA7" s="182"/>
+      <c r="CB7" s="182"/>
+      <c r="CC7" s="182"/>
+      <c r="CD7" s="182"/>
+      <c r="CE7" s="182"/>
+      <c r="CF7" s="182"/>
+      <c r="CG7" s="182"/>
+      <c r="CH7" s="182"/>
+      <c r="CI7" s="182"/>
+      <c r="CJ7" s="182"/>
+      <c r="CK7" s="182"/>
+      <c r="CL7" s="182"/>
+      <c r="CM7" s="182"/>
+      <c r="CN7" s="186">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>6</v>
       </c>
-      <c r="CO7" s="189"/>
+      <c r="CO7" s="186"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="193"/>
-      <c r="CR7" s="193"/>
-      <c r="CS7" s="175"/>
-      <c r="CT7" s="175"/>
-      <c r="CU7" s="198"/>
+      <c r="CQ7" s="200"/>
+      <c r="CR7" s="200"/>
+      <c r="CS7" s="196"/>
+      <c r="CT7" s="196"/>
+      <c r="CU7" s="188"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="186" t="s">
+      <c r="A8" s="202"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186" t="s">
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187" t="s">
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187" t="s">
+      <c r="K8" s="175"/>
+      <c r="L8" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187" t="s">
+      <c r="M8" s="175"/>
+      <c r="N8" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="187"/>
-      <c r="P8" s="187" t="s">
+      <c r="O8" s="175"/>
+      <c r="P8" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="187" t="s">
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="187"/>
-      <c r="T8" s="187" t="s">
+      <c r="S8" s="175"/>
+      <c r="T8" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="187"/>
-      <c r="V8" s="187" t="s">
+      <c r="U8" s="175"/>
+      <c r="V8" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="187"/>
-      <c r="X8" s="187" t="s">
+      <c r="W8" s="175"/>
+      <c r="X8" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="187"/>
-      <c r="Z8" s="187" t="s">
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="187"/>
-      <c r="AB8" s="187" t="s">
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="187"/>
-      <c r="AD8" s="187" t="s">
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="187"/>
-      <c r="AF8" s="187" t="s">
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="187"/>
-      <c r="AH8" s="187" t="s">
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="187"/>
-      <c r="AJ8" s="187" t="s">
+      <c r="AI8" s="175"/>
+      <c r="AJ8" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="187"/>
-      <c r="AL8" s="187" t="s">
+      <c r="AK8" s="175"/>
+      <c r="AL8" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="187"/>
+      <c r="AM8" s="175"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="187" t="s">
+      <c r="AO8" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="187"/>
-      <c r="AQ8" s="187" t="s">
+      <c r="AP8" s="175"/>
+      <c r="AQ8" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="187"/>
-      <c r="AS8" s="187" t="s">
+      <c r="AR8" s="175"/>
+      <c r="AS8" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="187"/>
+      <c r="AT8" s="175"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="187" t="s">
+      <c r="AV8" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="187"/>
-      <c r="AX8" s="187" t="s">
+      <c r="AW8" s="175"/>
+      <c r="AX8" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="187"/>
-      <c r="AZ8" s="187" t="s">
+      <c r="AY8" s="175"/>
+      <c r="AZ8" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="187"/>
+      <c r="BA8" s="175"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="200"/>
-      <c r="BD8" s="201"/>
-      <c r="BE8" s="209" t="s">
+      <c r="BC8" s="190"/>
+      <c r="BD8" s="191"/>
+      <c r="BE8" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="206"/>
-      <c r="BG8" s="206" t="s">
+      <c r="BF8" s="184"/>
+      <c r="BG8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="206"/>
-      <c r="BI8" s="206" t="s">
+      <c r="BH8" s="184"/>
+      <c r="BI8" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="206"/>
+      <c r="BJ8" s="184"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="207" t="s">
+      <c r="BL8" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="208"/>
-      <c r="BN8" s="207" t="s">
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="208"/>
-      <c r="BP8" s="207" t="s">
+      <c r="BO8" s="179"/>
+      <c r="BP8" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="208"/>
-      <c r="BR8" s="207" t="s">
+      <c r="BQ8" s="179"/>
+      <c r="BR8" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="208"/>
-      <c r="BT8" s="207" t="s">
+      <c r="BS8" s="179"/>
+      <c r="BT8" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="208"/>
-      <c r="BV8" s="194" t="s">
+      <c r="BU8" s="179"/>
+      <c r="BV8" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="195"/>
-      <c r="BX8" s="194" t="s">
+      <c r="BW8" s="177"/>
+      <c r="BX8" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="195"/>
-      <c r="BZ8" s="194" t="s">
+      <c r="BY8" s="177"/>
+      <c r="BZ8" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="195"/>
-      <c r="CB8" s="194" t="s">
+      <c r="CA8" s="177"/>
+      <c r="CB8" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="195"/>
-      <c r="CD8" s="194" t="s">
+      <c r="CC8" s="177"/>
+      <c r="CD8" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="195"/>
-      <c r="CF8" s="194" t="s">
+      <c r="CE8" s="177"/>
+      <c r="CF8" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="195"/>
-      <c r="CH8" s="194" t="s">
+      <c r="CG8" s="177"/>
+      <c r="CH8" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="195"/>
-      <c r="CJ8" s="194" t="s">
+      <c r="CI8" s="177"/>
+      <c r="CJ8" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="195"/>
-      <c r="CL8" s="194" t="s">
+      <c r="CK8" s="177"/>
+      <c r="CL8" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="195"/>
-      <c r="CN8" s="194" t="s">
+      <c r="CM8" s="177"/>
+      <c r="CN8" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="195"/>
+      <c r="CO8" s="177"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="193"/>
-      <c r="CR8" s="193"/>
-      <c r="CS8" s="175"/>
-      <c r="CT8" s="175"/>
-      <c r="CU8" s="198"/>
+      <c r="CQ8" s="200"/>
+      <c r="CR8" s="200"/>
+      <c r="CS8" s="196"/>
+      <c r="CT8" s="196"/>
+      <c r="CU8" s="188"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="178"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6926,7 +6928,9 @@
         <v>20</v>
       </c>
       <c r="K9" s="29"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>30</v>
+      </c>
       <c r="M9" s="29"/>
       <c r="N9" s="27"/>
       <c r="O9" s="29"/>
@@ -7087,9 +7091,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="175"/>
-      <c r="CT9" s="175"/>
-      <c r="CU9" s="199"/>
+      <c r="CS9" s="196"/>
+      <c r="CT9" s="196"/>
+      <c r="CU9" s="189"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7134,9 +7138,9 @@
         <v>65</v>
       </c>
       <c r="L10" s="107"/>
-      <c r="M10" s="92" t="str">
+      <c r="M10" s="92">
         <f>IFERROR(((L10/$L$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N10" s="107"/>
       <c r="O10" s="92" t="str">
@@ -7178,7 +7182,7 @@
       <c r="AM10" s="93"/>
       <c r="AN10" s="95">
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" s="107"/>
       <c r="AP10" s="92">
@@ -7222,11 +7226,11 @@
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="BE10" s="107"/>
       <c r="BF10" s="92">
@@ -7348,7 +7352,7 @@
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>46.201999999999998</v>
+        <v>43.602000000000004</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7402,9 +7406,9 @@
         <v>55.000000000000007</v>
       </c>
       <c r="L11" s="108"/>
-      <c r="M11" s="92" t="str">
+      <c r="M11" s="92">
         <f t="shared" ref="M11:M70" si="4">IFERROR(((L11/$L$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N11" s="108"/>
       <c r="O11" s="92" t="str">
@@ -7446,7 +7450,7 @@
       <c r="AM11" s="94"/>
       <c r="AN11" s="95">
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
-        <v>11.000000000000002</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="AO11" s="108"/>
       <c r="AP11" s="92">
@@ -7490,11 +7494,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>41.7</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>41.7</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92">
@@ -7616,7 +7620,7 @@
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>44.682000000000002</v>
+        <v>42.481999999999999</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7670,9 +7674,9 @@
         <v>55.000000000000007</v>
       </c>
       <c r="L12" s="108"/>
-      <c r="M12" s="92" t="str">
+      <c r="M12" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N12" s="108"/>
       <c r="O12" s="92" t="str">
@@ -7714,7 +7718,7 @@
       <c r="AM12" s="94"/>
       <c r="AN12" s="95">
         <f t="shared" si="9"/>
-        <v>11.000000000000002</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="AO12" s="108"/>
       <c r="AP12" s="92">
@@ -7758,11 +7762,11 @@
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>30.299999999999997</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>30.3</v>
+        <v>24.8</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92">
@@ -7884,7 +7888,7 @@
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>40.122</v>
+        <v>37.921999999999997</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7938,9 +7942,9 @@
         <v>65</v>
       </c>
       <c r="L13" s="108"/>
-      <c r="M13" s="92" t="str">
+      <c r="M13" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N13" s="108"/>
       <c r="O13" s="92" t="str">
@@ -7982,7 +7986,7 @@
       <c r="AM13" s="94"/>
       <c r="AN13" s="95">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" s="108"/>
       <c r="AP13" s="92">
@@ -8026,11 +8030,11 @@
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>45.9</v>
+        <v>39.4</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>45.9</v>
+        <v>39.4</v>
       </c>
       <c r="BE13" s="108"/>
       <c r="BF13" s="92">
@@ -8152,7 +8156,7 @@
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>46.361999999999995</v>
+        <v>43.762</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8206,9 +8210,9 @@
         <v>70</v>
       </c>
       <c r="L14" s="108"/>
-      <c r="M14" s="92" t="str">
+      <c r="M14" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N14" s="108"/>
       <c r="O14" s="92" t="str">
@@ -8250,7 +8254,7 @@
       <c r="AM14" s="94"/>
       <c r="AN14" s="95">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AO14" s="108"/>
       <c r="AP14" s="92">
@@ -8294,11 +8298,11 @@
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>44.599999999999994</v>
+        <v>37.599999999999994</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>44.6</v>
+        <v>37.6</v>
       </c>
       <c r="BE14" s="108"/>
       <c r="BF14" s="92">
@@ -8420,7 +8424,7 @@
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>46.837999999999994</v>
+        <v>44.037999999999997</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8474,9 +8478,9 @@
         <v>60</v>
       </c>
       <c r="L15" s="108"/>
-      <c r="M15" s="92" t="str">
+      <c r="M15" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N15" s="108"/>
       <c r="O15" s="92" t="str">
@@ -8518,7 +8522,7 @@
       <c r="AM15" s="94"/>
       <c r="AN15" s="95">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AO15" s="108"/>
       <c r="AP15" s="92">
@@ -8562,11 +8566,11 @@
       </c>
       <c r="BC15" s="98">
         <f t="shared" si="18"/>
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="BD15" s="98">
         <f t="shared" si="19"/>
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="BE15" s="108"/>
       <c r="BF15" s="92">
@@ -8588,32 +8592,32 @@
         <v>0</v>
       </c>
       <c r="BL15" s="108">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BM15" s="92">
         <f t="shared" si="23"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BN15" s="108">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BO15" s="92">
         <f t="shared" si="24"/>
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BP15" s="108">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BQ15" s="92">
         <f t="shared" si="25"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BR15" s="108">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BS15" s="92">
         <f t="shared" si="26"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BT15" s="108">
         <v>80</v>
@@ -8676,19 +8680,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>33.333333333333336</v>
+        <v>41.25</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>33.333333333333336</v>
+        <v>41.25</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>33.33</v>
+        <v>41.25</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>28.597999999999999</v>
+        <v>30.95</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8742,9 +8746,9 @@
         <v>55.000000000000007</v>
       </c>
       <c r="L16" s="108"/>
-      <c r="M16" s="92" t="str">
+      <c r="M16" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N16" s="108"/>
       <c r="O16" s="92" t="str">
@@ -8786,7 +8790,7 @@
       <c r="AM16" s="94"/>
       <c r="AN16" s="95">
         <f t="shared" si="9"/>
-        <v>11.000000000000002</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="AO16" s="108"/>
       <c r="AP16" s="92">
@@ -8830,11 +8834,11 @@
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>41</v>
+        <v>35.5</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>41</v>
+        <v>35.5</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92">
@@ -8956,7 +8960,7 @@
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>44.402000000000001</v>
+        <v>42.201999999999998</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9010,9 +9014,9 @@
         <v>60</v>
       </c>
       <c r="L17" s="108"/>
-      <c r="M17" s="92" t="str">
+      <c r="M17" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N17" s="108"/>
       <c r="O17" s="92" t="str">
@@ -9054,7 +9058,7 @@
       <c r="AM17" s="94"/>
       <c r="AN17" s="95">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AO17" s="108"/>
       <c r="AP17" s="92">
@@ -9098,11 +9102,11 @@
       </c>
       <c r="BC17" s="98">
         <f t="shared" si="18"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BD17" s="98">
         <f t="shared" si="19"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="BE17" s="108"/>
       <c r="BF17" s="92">
@@ -9224,7 +9228,7 @@
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>44.001999999999995</v>
+        <v>41.602000000000004</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9278,9 +9282,9 @@
         <v>70</v>
       </c>
       <c r="L18" s="108"/>
-      <c r="M18" s="92" t="str">
+      <c r="M18" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N18" s="108"/>
       <c r="O18" s="92" t="str">
@@ -9322,7 +9326,7 @@
       <c r="AM18" s="94"/>
       <c r="AN18" s="95">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AO18" s="108"/>
       <c r="AP18" s="92">
@@ -9366,11 +9370,11 @@
       </c>
       <c r="BC18" s="98">
         <f t="shared" si="18"/>
-        <v>42.4</v>
+        <v>35.4</v>
       </c>
       <c r="BD18" s="98">
         <f t="shared" si="19"/>
-        <v>42.4</v>
+        <v>35.4</v>
       </c>
       <c r="BE18" s="108"/>
       <c r="BF18" s="92">
@@ -9492,7 +9496,7 @@
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>45.712000000000003</v>
+        <v>42.911999999999999</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9546,9 +9550,9 @@
         <v>65</v>
       </c>
       <c r="L19" s="108"/>
-      <c r="M19" s="92" t="str">
+      <c r="M19" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N19" s="108"/>
       <c r="O19" s="92" t="str">
@@ -9590,7 +9594,7 @@
       <c r="AM19" s="94"/>
       <c r="AN19" s="95">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AO19" s="108"/>
       <c r="AP19" s="92">
@@ -9634,11 +9638,11 @@
       </c>
       <c r="BC19" s="98">
         <f t="shared" si="18"/>
-        <v>44.9</v>
+        <v>38.4</v>
       </c>
       <c r="BD19" s="98">
         <f t="shared" si="19"/>
-        <v>44.9</v>
+        <v>38.4</v>
       </c>
       <c r="BE19" s="108"/>
       <c r="BF19" s="92">
@@ -9760,7 +9764,7 @@
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>45.962000000000003</v>
+        <v>43.361999999999995</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9814,9 +9818,9 @@
         <v>45</v>
       </c>
       <c r="L20" s="108"/>
-      <c r="M20" s="92" t="str">
+      <c r="M20" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N20" s="108"/>
       <c r="O20" s="92" t="str">
@@ -9858,7 +9862,7 @@
       <c r="AM20" s="94"/>
       <c r="AN20" s="95">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AO20" s="108"/>
       <c r="AP20" s="92">
@@ -9902,11 +9906,11 @@
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>36.5</v>
+        <v>32</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>36.5</v>
+        <v>32</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92">
@@ -10028,7 +10032,7 @@
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>42.602000000000004</v>
+        <v>40.802</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10082,9 +10086,9 @@
         <v>70</v>
       </c>
       <c r="L21" s="108"/>
-      <c r="M21" s="92" t="str">
+      <c r="M21" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N21" s="108"/>
       <c r="O21" s="92" t="str">
@@ -10126,7 +10130,7 @@
       <c r="AM21" s="94"/>
       <c r="AN21" s="95">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AO21" s="108"/>
       <c r="AP21" s="92">
@@ -10170,11 +10174,11 @@
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>43.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>43.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="BE21" s="108"/>
       <c r="BF21" s="92">
@@ -10296,7 +10300,7 @@
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>45.322000000000003</v>
+        <v>42.521999999999998</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10350,9 +10354,9 @@
         <v>75</v>
       </c>
       <c r="L22" s="108"/>
-      <c r="M22" s="92" t="str">
+      <c r="M22" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N22" s="108"/>
       <c r="O22" s="92" t="str">
@@ -10394,7 +10398,7 @@
       <c r="AM22" s="94"/>
       <c r="AN22" s="95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AO22" s="108"/>
       <c r="AP22" s="92">
@@ -10438,11 +10442,11 @@
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>41</v>
+        <v>33.5</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>41</v>
+        <v>33.5</v>
       </c>
       <c r="BE22" s="108"/>
       <c r="BF22" s="92">
@@ -10564,7 +10568,7 @@
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>44.402000000000001</v>
+        <v>41.402000000000001</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10618,9 +10622,9 @@
         <v>75</v>
       </c>
       <c r="L23" s="108"/>
-      <c r="M23" s="92" t="str">
+      <c r="M23" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N23" s="108"/>
       <c r="O23" s="92" t="str">
@@ -10662,7 +10666,7 @@
       <c r="AM23" s="94"/>
       <c r="AN23" s="95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AO23" s="108"/>
       <c r="AP23" s="92">
@@ -10706,11 +10710,11 @@
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>42.9</v>
+        <v>35.4</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>42.9</v>
+        <v>35.4</v>
       </c>
       <c r="BE23" s="108"/>
       <c r="BF23" s="92">
@@ -10832,7 +10836,7 @@
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>45.161999999999999</v>
+        <v>42.161999999999999</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10886,9 +10890,9 @@
         <v>75</v>
       </c>
       <c r="L24" s="108"/>
-      <c r="M24" s="92" t="str">
+      <c r="M24" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N24" s="108"/>
       <c r="O24" s="92" t="str">
@@ -10930,7 +10934,7 @@
       <c r="AM24" s="94"/>
       <c r="AN24" s="95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AO24" s="108"/>
       <c r="AP24" s="92">
@@ -10974,11 +10978,11 @@
       </c>
       <c r="BC24" s="98">
         <f t="shared" si="18"/>
-        <v>48.3</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" si="19"/>
-        <v>48.3</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="BE24" s="108"/>
       <c r="BF24" s="92">
@@ -11100,7 +11104,7 @@
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>49.32</v>
+        <v>46.32</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11154,9 +11158,9 @@
         <v>45</v>
       </c>
       <c r="L25" s="108"/>
-      <c r="M25" s="92" t="str">
+      <c r="M25" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N25" s="108"/>
       <c r="O25" s="92" t="str">
@@ -11198,7 +11202,7 @@
       <c r="AM25" s="94"/>
       <c r="AN25" s="95">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AO25" s="108"/>
       <c r="AP25" s="92">
@@ -11242,11 +11246,11 @@
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92">
@@ -11368,7 +11372,7 @@
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>42.402000000000001</v>
+        <v>40.602000000000004</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11422,9 +11426,9 @@
         <v>75</v>
       </c>
       <c r="L26" s="108"/>
-      <c r="M26" s="92" t="str">
+      <c r="M26" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N26" s="108"/>
       <c r="O26" s="92" t="str">
@@ -11466,7 +11470,7 @@
       <c r="AM26" s="94"/>
       <c r="AN26" s="95">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AO26" s="108"/>
       <c r="AP26" s="92">
@@ -11510,11 +11514,11 @@
       </c>
       <c r="BC26" s="98">
         <f t="shared" si="18"/>
-        <v>45.599999999999994</v>
+        <v>38.099999999999994</v>
       </c>
       <c r="BD26" s="98">
         <f t="shared" si="19"/>
-        <v>45.6</v>
+        <v>38.1</v>
       </c>
       <c r="BE26" s="108"/>
       <c r="BF26" s="92">
@@ -11636,7 +11640,7 @@
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>46.242000000000004</v>
+        <v>43.242000000000004</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11690,9 +11694,9 @@
         <v>55.000000000000007</v>
       </c>
       <c r="L27" s="108"/>
-      <c r="M27" s="92" t="str">
+      <c r="M27" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N27" s="108"/>
       <c r="O27" s="92" t="str">
@@ -11734,7 +11738,7 @@
       <c r="AM27" s="94"/>
       <c r="AN27" s="95">
         <f t="shared" si="9"/>
-        <v>11.000000000000002</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="AO27" s="108"/>
       <c r="AP27" s="92">
@@ -11778,11 +11782,11 @@
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>42.2</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>42.2</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="BE27" s="108"/>
       <c r="BF27" s="92">
@@ -11904,7 +11908,7 @@
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>44.882000000000005</v>
+        <v>42.682000000000002</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11958,9 +11962,9 @@
         <v>50</v>
       </c>
       <c r="L28" s="108"/>
-      <c r="M28" s="92" t="str">
+      <c r="M28" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N28" s="108"/>
       <c r="O28" s="92" t="str">
@@ -12002,7 +12006,7 @@
       <c r="AM28" s="94"/>
       <c r="AN28" s="95">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AO28" s="108"/>
       <c r="AP28" s="92">
@@ -12046,11 +12050,11 @@
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BE28" s="108"/>
       <c r="BF28" s="92">
@@ -12172,7 +12176,7 @@
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>41.602000000000004</v>
+        <v>39.602000000000004</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12226,9 +12230,9 @@
         <v>65</v>
       </c>
       <c r="L29" s="108"/>
-      <c r="M29" s="92" t="str">
+      <c r="M29" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N29" s="108"/>
       <c r="O29" s="92" t="str">
@@ -12270,7 +12274,7 @@
       <c r="AM29" s="94"/>
       <c r="AN29" s="95">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AO29" s="108"/>
       <c r="AP29" s="92">
@@ -12314,11 +12318,11 @@
       </c>
       <c r="BC29" s="98">
         <f t="shared" si="18"/>
-        <v>43.099999999999994</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="BD29" s="98">
         <f t="shared" si="19"/>
-        <v>43.1</v>
+        <v>36.6</v>
       </c>
       <c r="BE29" s="108"/>
       <c r="BF29" s="92">
@@ -12440,7 +12444,7 @@
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>45.242000000000004</v>
+        <v>42.641999999999996</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12494,9 +12498,9 @@
         <v>65</v>
       </c>
       <c r="L30" s="108"/>
-      <c r="M30" s="92" t="str">
+      <c r="M30" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N30" s="108"/>
       <c r="O30" s="92" t="str">
@@ -12538,7 +12542,7 @@
       <c r="AM30" s="94"/>
       <c r="AN30" s="95">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AO30" s="108"/>
       <c r="AP30" s="92">
@@ -12582,11 +12586,11 @@
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>45.7</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>45.7</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="BE30" s="108"/>
       <c r="BF30" s="92">
@@ -12708,7 +12712,7 @@
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>46.281999999999996</v>
+        <v>43.682000000000002</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12762,9 +12766,9 @@
         <v>0</v>
       </c>
       <c r="L31" s="108"/>
-      <c r="M31" s="92" t="str">
+      <c r="M31" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N31" s="108"/>
       <c r="O31" s="92" t="str">
@@ -13030,9 +13034,9 @@
         <v>60</v>
       </c>
       <c r="L32" s="108"/>
-      <c r="M32" s="92" t="str">
+      <c r="M32" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N32" s="108"/>
       <c r="O32" s="92" t="str">
@@ -13074,7 +13078,7 @@
       <c r="AM32" s="94"/>
       <c r="AN32" s="95">
         <f t="shared" si="9"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AO32" s="108"/>
       <c r="AP32" s="92">
@@ -13118,11 +13122,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>42.9</v>
+        <v>36.9</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>42.9</v>
+        <v>36.9</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92">
@@ -13244,7 +13248,7 @@
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>45.161999999999999</v>
+        <v>42.762</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13298,9 +13302,9 @@
         <v>85</v>
       </c>
       <c r="L33" s="108"/>
-      <c r="M33" s="92" t="str">
+      <c r="M33" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N33" s="108"/>
       <c r="O33" s="92" t="str">
@@ -13342,7 +13346,7 @@
       <c r="AM33" s="94"/>
       <c r="AN33" s="95">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AO33" s="108"/>
       <c r="AP33" s="92">
@@ -13386,11 +13390,11 @@
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>47</v>
+        <v>38.5</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>47</v>
+        <v>38.5</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92">
@@ -13512,7 +13516,7 @@
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>46.802</v>
+        <v>43.402000000000001</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13566,9 +13570,9 @@
         <v>70</v>
       </c>
       <c r="L34" s="108"/>
-      <c r="M34" s="92" t="str">
+      <c r="M34" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N34" s="108"/>
       <c r="O34" s="92" t="str">
@@ -13610,7 +13614,7 @@
       <c r="AM34" s="94"/>
       <c r="AN34" s="95">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AO34" s="108"/>
       <c r="AP34" s="92">
@@ -13654,11 +13658,11 @@
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>39.200000000000003</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>39.200000000000003</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="BE34" s="108"/>
       <c r="BF34" s="92">
@@ -13780,7 +13784,7 @@
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>41.432000000000002</v>
+        <v>38.632000000000005</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13828,9 +13832,9 @@
         <v>0</v>
       </c>
       <c r="L35" s="108"/>
-      <c r="M35" s="92" t="str">
+      <c r="M35" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N35" s="108"/>
       <c r="O35" s="92" t="str">
@@ -14076,9 +14080,9 @@
         <v>0</v>
       </c>
       <c r="L36" s="108"/>
-      <c r="M36" s="92" t="str">
+      <c r="M36" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N36" s="108"/>
       <c r="O36" s="92" t="str">
@@ -14324,9 +14328,9 @@
         <v>0</v>
       </c>
       <c r="L37" s="108"/>
-      <c r="M37" s="92" t="str">
+      <c r="M37" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N37" s="108"/>
       <c r="O37" s="92" t="str">
@@ -14572,9 +14576,9 @@
         <v>0</v>
       </c>
       <c r="L38" s="108"/>
-      <c r="M38" s="92" t="str">
+      <c r="M38" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N38" s="108"/>
       <c r="O38" s="92" t="str">
@@ -14820,9 +14824,9 @@
         <v>0</v>
       </c>
       <c r="L39" s="108"/>
-      <c r="M39" s="92" t="str">
+      <c r="M39" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N39" s="108"/>
       <c r="O39" s="92" t="str">
@@ -15068,9 +15072,9 @@
         <v>0</v>
       </c>
       <c r="L40" s="108"/>
-      <c r="M40" s="92" t="str">
+      <c r="M40" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N40" s="108"/>
       <c r="O40" s="92" t="str">
@@ -15316,9 +15320,9 @@
         <v>0</v>
       </c>
       <c r="L41" s="108"/>
-      <c r="M41" s="92" t="str">
+      <c r="M41" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N41" s="108"/>
       <c r="O41" s="92" t="str">
@@ -15564,9 +15568,9 @@
         <v>0</v>
       </c>
       <c r="L42" s="108"/>
-      <c r="M42" s="92" t="str">
+      <c r="M42" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N42" s="108"/>
       <c r="O42" s="92" t="str">
@@ -15812,9 +15816,9 @@
         <v>0</v>
       </c>
       <c r="L43" s="108"/>
-      <c r="M43" s="92" t="str">
+      <c r="M43" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N43" s="108"/>
       <c r="O43" s="92" t="str">
@@ -16060,9 +16064,9 @@
         <v>0</v>
       </c>
       <c r="L44" s="108"/>
-      <c r="M44" s="92" t="str">
+      <c r="M44" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N44" s="108"/>
       <c r="O44" s="92" t="str">
@@ -16308,9 +16312,9 @@
         <v>0</v>
       </c>
       <c r="L45" s="108"/>
-      <c r="M45" s="92" t="str">
+      <c r="M45" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N45" s="108"/>
       <c r="O45" s="92" t="str">
@@ -16556,9 +16560,9 @@
         <v>0</v>
       </c>
       <c r="L46" s="108"/>
-      <c r="M46" s="92" t="str">
+      <c r="M46" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N46" s="108"/>
       <c r="O46" s="92" t="str">
@@ -16804,9 +16808,9 @@
         <v>0</v>
       </c>
       <c r="L47" s="108"/>
-      <c r="M47" s="92" t="str">
+      <c r="M47" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N47" s="108"/>
       <c r="O47" s="92" t="str">
@@ -17052,9 +17056,9 @@
         <v>0</v>
       </c>
       <c r="L48" s="108"/>
-      <c r="M48" s="92" t="str">
+      <c r="M48" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N48" s="108"/>
       <c r="O48" s="92" t="str">
@@ -17300,9 +17304,9 @@
         <v>0</v>
       </c>
       <c r="L49" s="108"/>
-      <c r="M49" s="92" t="str">
+      <c r="M49" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N49" s="108"/>
       <c r="O49" s="92" t="str">
@@ -17548,9 +17552,9 @@
         <v>0</v>
       </c>
       <c r="L50" s="108"/>
-      <c r="M50" s="92" t="str">
+      <c r="M50" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N50" s="108"/>
       <c r="O50" s="92" t="str">
@@ -17796,9 +17800,9 @@
         <v>0</v>
       </c>
       <c r="L51" s="108"/>
-      <c r="M51" s="92" t="str">
+      <c r="M51" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N51" s="108"/>
       <c r="O51" s="92" t="str">
@@ -18044,9 +18048,9 @@
         <v>0</v>
       </c>
       <c r="L52" s="108"/>
-      <c r="M52" s="92" t="str">
+      <c r="M52" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N52" s="108"/>
       <c r="O52" s="92" t="str">
@@ -18292,9 +18296,9 @@
         <v>0</v>
       </c>
       <c r="L53" s="108"/>
-      <c r="M53" s="92" t="str">
+      <c r="M53" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N53" s="108"/>
       <c r="O53" s="92" t="str">
@@ -18540,9 +18544,9 @@
         <v>0</v>
       </c>
       <c r="L54" s="108"/>
-      <c r="M54" s="92" t="str">
+      <c r="M54" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N54" s="108"/>
       <c r="O54" s="92" t="str">
@@ -18788,9 +18792,9 @@
         <v>0</v>
       </c>
       <c r="L55" s="108"/>
-      <c r="M55" s="92" t="str">
+      <c r="M55" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N55" s="108"/>
       <c r="O55" s="92" t="str">
@@ -19036,9 +19040,9 @@
         <v>0</v>
       </c>
       <c r="L56" s="108"/>
-      <c r="M56" s="92" t="str">
+      <c r="M56" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N56" s="108"/>
       <c r="O56" s="92" t="str">
@@ -19284,9 +19288,9 @@
         <v>0</v>
       </c>
       <c r="L57" s="108"/>
-      <c r="M57" s="92" t="str">
+      <c r="M57" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N57" s="108"/>
       <c r="O57" s="92" t="str">
@@ -19532,9 +19536,9 @@
         <v>0</v>
       </c>
       <c r="L58" s="108"/>
-      <c r="M58" s="92" t="str">
+      <c r="M58" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N58" s="108"/>
       <c r="O58" s="92" t="str">
@@ -19780,9 +19784,9 @@
         <v>0</v>
       </c>
       <c r="L59" s="108"/>
-      <c r="M59" s="92" t="str">
+      <c r="M59" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N59" s="108"/>
       <c r="O59" s="92" t="str">
@@ -20028,9 +20032,9 @@
         <v>0</v>
       </c>
       <c r="L60" s="108"/>
-      <c r="M60" s="92" t="str">
+      <c r="M60" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N60" s="108"/>
       <c r="O60" s="92" t="str">
@@ -20276,9 +20280,9 @@
         <v>0</v>
       </c>
       <c r="L61" s="108"/>
-      <c r="M61" s="92" t="str">
+      <c r="M61" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N61" s="108"/>
       <c r="O61" s="92" t="str">
@@ -20524,9 +20528,9 @@
         <v>0</v>
       </c>
       <c r="L62" s="108"/>
-      <c r="M62" s="92" t="str">
+      <c r="M62" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N62" s="108"/>
       <c r="O62" s="92" t="str">
@@ -20772,9 +20776,9 @@
         <v>0</v>
       </c>
       <c r="L63" s="108"/>
-      <c r="M63" s="92" t="str">
+      <c r="M63" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N63" s="108"/>
       <c r="O63" s="92" t="str">
@@ -21020,9 +21024,9 @@
         <v>0</v>
       </c>
       <c r="L64" s="108"/>
-      <c r="M64" s="92" t="str">
+      <c r="M64" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N64" s="108"/>
       <c r="O64" s="92" t="str">
@@ -21268,9 +21272,9 @@
         <v>0</v>
       </c>
       <c r="L65" s="108"/>
-      <c r="M65" s="92" t="str">
+      <c r="M65" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N65" s="108"/>
       <c r="O65" s="92" t="str">
@@ -21516,9 +21520,9 @@
         <v>0</v>
       </c>
       <c r="L66" s="108"/>
-      <c r="M66" s="92" t="str">
+      <c r="M66" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N66" s="108"/>
       <c r="O66" s="92" t="str">
@@ -21764,9 +21768,9 @@
         <v>0</v>
       </c>
       <c r="L67" s="108"/>
-      <c r="M67" s="92" t="str">
+      <c r="M67" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N67" s="108"/>
       <c r="O67" s="92" t="str">
@@ -22012,9 +22016,9 @@
         <v>0</v>
       </c>
       <c r="L68" s="108"/>
-      <c r="M68" s="92" t="str">
+      <c r="M68" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N68" s="108"/>
       <c r="O68" s="92" t="str">
@@ -22260,9 +22264,9 @@
         <v>0</v>
       </c>
       <c r="L69" s="108"/>
-      <c r="M69" s="92" t="str">
+      <c r="M69" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N69" s="108"/>
       <c r="O69" s="92" t="str">
@@ -22508,9 +22512,9 @@
         <v>0</v>
       </c>
       <c r="L70" s="108"/>
-      <c r="M70" s="92" t="str">
+      <c r="M70" s="92">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="N70" s="108"/>
       <c r="O70" s="92" t="str">
@@ -22722,6 +22726,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22738,88 +22824,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23031,7 +23035,7 @@
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="52">
         <f>'RAW GRADES'!AU10</f>
@@ -23043,11 +23047,11 @@
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>45.5</v>
+        <v>39</v>
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
@@ -23067,7 +23071,7 @@
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>46.201999999999998</v>
+        <v>43.602000000000004</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -23096,7 +23100,7 @@
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
-        <v>11.000000000000002</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="F9" s="52">
         <f>'RAW GRADES'!AU11</f>
@@ -23108,11 +23112,11 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>41.7</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>41.7</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
@@ -23132,7 +23136,7 @@
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>44.682000000000002</v>
+        <v>42.481999999999999</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -23161,7 +23165,7 @@
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
-        <v>11.000000000000002</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="F10" s="52">
         <f>'RAW GRADES'!AU12</f>
@@ -23173,11 +23177,11 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>30.299999999999997</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>30.3</v>
+        <v>24.8</v>
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
@@ -23197,7 +23201,7 @@
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>40.122</v>
+        <v>37.921999999999997</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23226,7 +23230,7 @@
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="F11" s="52">
         <f>'RAW GRADES'!AU13</f>
@@ -23238,11 +23242,11 @@
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>45.9</v>
+        <v>39.4</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>45.9</v>
+        <v>39.4</v>
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
@@ -23262,7 +23266,7 @@
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>46.361999999999995</v>
+        <v>43.762</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23291,7 +23295,7 @@
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F12" s="52">
         <f>'RAW GRADES'!AU14</f>
@@ -23303,11 +23307,11 @@
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>44.599999999999994</v>
+        <v>37.599999999999994</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>44.6</v>
+        <v>37.6</v>
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
@@ -23327,7 +23331,7 @@
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>46.837999999999994</v>
+        <v>44.037999999999997</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23356,7 +23360,7 @@
       </c>
       <c r="E13" s="52">
         <f>'RAW GRADES'!AN15</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F13" s="52">
         <f>'RAW GRADES'!AU15</f>
@@ -23368,11 +23372,11 @@
       </c>
       <c r="H13" s="53">
         <f>'RAW GRADES'!BC15</f>
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="I13" s="53">
         <f>'RAW GRADES'!BD15</f>
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="J13" s="52">
         <f>'RAW GRADES'!BK15</f>
@@ -23380,19 +23384,19 @@
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>33.333333333333336</v>
+        <v>41.25</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>33.333333333333336</v>
+        <v>41.25</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>33.33</v>
+        <v>41.25</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>28.597999999999999</v>
+        <v>30.95</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23421,7 +23425,7 @@
       </c>
       <c r="E14" s="52">
         <f>'RAW GRADES'!AN16</f>
-        <v>11.000000000000002</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="F14" s="52">
         <f>'RAW GRADES'!AU16</f>
@@ -23433,11 +23437,11 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>41</v>
+        <v>35.5</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>41</v>
+        <v>35.5</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
@@ -23457,7 +23461,7 @@
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>44.402000000000001</v>
+        <v>42.201999999999998</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23486,7 +23490,7 @@
       </c>
       <c r="E15" s="52">
         <f>'RAW GRADES'!AN17</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F15" s="52">
         <f>'RAW GRADES'!AU17</f>
@@ -23498,11 +23502,11 @@
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
@@ -23522,7 +23526,7 @@
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>44.001999999999995</v>
+        <v>41.602000000000004</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23551,7 +23555,7 @@
       </c>
       <c r="E16" s="52">
         <f>'RAW GRADES'!AN18</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F16" s="52">
         <f>'RAW GRADES'!AU18</f>
@@ -23563,11 +23567,11 @@
       </c>
       <c r="H16" s="53">
         <f>'RAW GRADES'!BC18</f>
-        <v>42.4</v>
+        <v>35.4</v>
       </c>
       <c r="I16" s="53">
         <f>'RAW GRADES'!BD18</f>
-        <v>42.4</v>
+        <v>35.4</v>
       </c>
       <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
@@ -23587,7 +23591,7 @@
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>45.712000000000003</v>
+        <v>42.911999999999999</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23616,7 +23620,7 @@
       </c>
       <c r="E17" s="52">
         <f>'RAW GRADES'!AN19</f>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="F17" s="52">
         <f>'RAW GRADES'!AU19</f>
@@ -23628,11 +23632,11 @@
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>44.9</v>
+        <v>38.4</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>44.9</v>
+        <v>38.4</v>
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
@@ -23652,7 +23656,7 @@
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>45.962000000000003</v>
+        <v>43.361999999999995</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23681,7 +23685,7 @@
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="F18" s="52">
         <f>'RAW GRADES'!AU20</f>
@@ -23693,11 +23697,11 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>36.5</v>
+        <v>32</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>36.5</v>
+        <v>32</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
@@ -23717,7 +23721,7 @@
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>42.602000000000004</v>
+        <v>40.802</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23746,7 +23750,7 @@
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F19" s="52">
         <f>'RAW GRADES'!AU21</f>
@@ -23758,11 +23762,11 @@
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>43.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>43.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
@@ -23782,7 +23786,7 @@
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>45.322000000000003</v>
+        <v>42.521999999999998</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23811,7 +23815,7 @@
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F20" s="52">
         <f>'RAW GRADES'!AU22</f>
@@ -23823,11 +23827,11 @@
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>41</v>
+        <v>33.5</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>41</v>
+        <v>33.5</v>
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
@@ -23847,7 +23851,7 @@
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>44.402000000000001</v>
+        <v>41.402000000000001</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23876,7 +23880,7 @@
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F21" s="52">
         <f>'RAW GRADES'!AU23</f>
@@ -23888,11 +23892,11 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>42.9</v>
+        <v>35.4</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>42.9</v>
+        <v>35.4</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
@@ -23912,7 +23916,7 @@
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>45.161999999999999</v>
+        <v>42.161999999999999</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23941,7 +23945,7 @@
       </c>
       <c r="E22" s="52">
         <f>'RAW GRADES'!AN24</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F22" s="52">
         <f>'RAW GRADES'!AU24</f>
@@ -23953,11 +23957,11 @@
       </c>
       <c r="H22" s="53">
         <f>'RAW GRADES'!BC24</f>
-        <v>48.3</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="I22" s="53">
         <f>'RAW GRADES'!BD24</f>
-        <v>48.3</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
@@ -23977,7 +23981,7 @@
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>49.32</v>
+        <v>46.32</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -24006,7 +24010,7 @@
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="F23" s="52">
         <f>'RAW GRADES'!AU25</f>
@@ -24018,11 +24022,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>36</v>
+        <v>31.5</v>
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
@@ -24042,7 +24046,7 @@
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>42.402000000000001</v>
+        <v>40.602000000000004</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -24071,7 +24075,7 @@
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="F24" s="52">
         <f>'RAW GRADES'!AU26</f>
@@ -24083,11 +24087,11 @@
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>45.599999999999994</v>
+        <v>38.099999999999994</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>45.6</v>
+        <v>38.1</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
@@ -24107,7 +24111,7 @@
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>46.242000000000004</v>
+        <v>43.242000000000004</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24136,7 +24140,7 @@
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
-        <v>11.000000000000002</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="F25" s="52">
         <f>'RAW GRADES'!AU27</f>
@@ -24148,11 +24152,11 @@
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>42.2</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>42.2</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
@@ -24172,7 +24176,7 @@
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>44.882000000000005</v>
+        <v>42.682000000000002</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24201,7 +24205,7 @@
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F26" s="52">
         <f>'RAW GRADES'!AU28</f>
@@ -24213,11 +24217,11 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
@@ -24237,7 +24241,7 @@
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>41.602000000000004</v>
+        <v>39.602000000000004</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24266,7 +24270,7 @@
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="F27" s="52">
         <f>'RAW GRADES'!AU29</f>
@@ -24278,11 +24282,11 @@
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>43.099999999999994</v>
+        <v>36.599999999999994</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>43.1</v>
+        <v>36.6</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
@@ -24302,7 +24306,7 @@
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>45.242000000000004</v>
+        <v>42.641999999999996</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24331,7 +24335,7 @@
       </c>
       <c r="E28" s="52">
         <f>'RAW GRADES'!AN30</f>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="F28" s="52">
         <f>'RAW GRADES'!AU30</f>
@@ -24343,11 +24347,11 @@
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>45.7</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>45.7</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
@@ -24367,7 +24371,7 @@
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>46.281999999999996</v>
+        <v>43.682000000000002</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24461,7 +24465,7 @@
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F30" s="52">
         <f>'RAW GRADES'!AU32</f>
@@ -24473,11 +24477,11 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>42.9</v>
+        <v>36.9</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>42.9</v>
+        <v>36.9</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
@@ -24497,7 +24501,7 @@
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>45.161999999999999</v>
+        <v>42.762</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24526,7 +24530,7 @@
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="F31" s="52">
         <f>'RAW GRADES'!AU33</f>
@@ -24538,11 +24542,11 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>47</v>
+        <v>38.5</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>47</v>
+        <v>38.5</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
@@ -24562,7 +24566,7 @@
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>46.802</v>
+        <v>43.402000000000001</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24591,7 +24595,7 @@
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F32" s="52">
         <f>'RAW GRADES'!AU34</f>
@@ -24603,11 +24607,11 @@
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>39.200000000000003</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>39.200000000000003</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
@@ -24627,7 +24631,7 @@
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>41.432000000000002</v>
+        <v>38.632000000000005</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -27034,106 +27038,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="228"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
+      <c r="A9" s="259"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="233"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="A10" s="266"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="232"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="235" t="str">
+      <c r="C13" s="268" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27141,12 +27145,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="227" t="str">
+      <c r="C14" s="261" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27154,12 +27158,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="238" t="str">
+      <c r="C15" s="247" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27167,12 +27171,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="238" t="str">
+      <c r="C16" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27180,12 +27184,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="238" t="str">
+      <c r="C17" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27197,42 +27201,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="239" t="s">
+      <c r="A19" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="239" t="s">
+      <c r="D19" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="244" t="s">
+      <c r="E19" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="239" t="s">
+      <c r="F19" s="248" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="240"/>
-      <c r="B20" s="243"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="247"/>
+      <c r="A20" s="249"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="256"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="241"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="248"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="257"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28745,14 +28749,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="255" t="s">
+      <c r="A83" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="256"/>
-      <c r="C83" s="256"/>
-      <c r="D83" s="256"/>
-      <c r="E83" s="256"/>
-      <c r="F83" s="257"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="233"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28785,11 +28789,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="249">
+      <c r="E87" s="258">
         <f ca="1">NOW()</f>
-        <v>43035.384285416665</v>
-      </c>
-      <c r="F87" s="249"/>
+        <v>43040.816120254633</v>
+      </c>
+      <c r="F87" s="258"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28799,10 +28803,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="228" t="s">
+      <c r="E88" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="228"/>
+      <c r="F88" s="259"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28819,8 +28823,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="228"/>
-      <c r="F90" s="228"/>
+      <c r="E90" s="259"/>
+      <c r="F90" s="259"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28936,14 +28940,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="250" t="s">
+      <c r="A105" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="250"/>
-      <c r="C105" s="250"/>
-      <c r="D105" s="250"/>
-      <c r="E105" s="250"/>
-      <c r="F105" s="250"/>
+      <c r="B105" s="260"/>
+      <c r="C105" s="260"/>
+      <c r="D105" s="260"/>
+      <c r="E105" s="260"/>
+      <c r="F105" s="260"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28958,124 +28962,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="268" t="s">
+      <c r="C107" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="237"/>
-      <c r="E107" s="236" t="s">
+      <c r="D107" s="245"/>
+      <c r="E107" s="246" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="237"/>
+      <c r="F107" s="245"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="264">
+      <c r="C108" s="240">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="265"/>
-      <c r="E108" s="266">
+      <c r="D108" s="241"/>
+      <c r="E108" s="242">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="267"/>
+      <c r="F108" s="243"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="258">
+      <c r="C109" s="234">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="259"/>
-      <c r="E109" s="260">
+      <c r="D109" s="235"/>
+      <c r="E109" s="236">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="261"/>
+      <c r="F109" s="237"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="258">
+      <c r="C110" s="234">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="259"/>
-      <c r="E110" s="260">
+      <c r="D110" s="235"/>
+      <c r="E110" s="236">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="261"/>
+      <c r="F110" s="237"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="258">
+      <c r="C111" s="234">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="259"/>
-      <c r="E111" s="260">
+      <c r="D111" s="235"/>
+      <c r="E111" s="236">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="261"/>
+      <c r="F111" s="237"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="262">
-        <v>0</v>
-      </c>
-      <c r="D112" s="263"/>
-      <c r="E112" s="260">
+      <c r="C112" s="238">
+        <v>0</v>
+      </c>
+      <c r="D112" s="239"/>
+      <c r="E112" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="261"/>
+      <c r="F112" s="237"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="262">
-        <v>0</v>
-      </c>
-      <c r="D113" s="263"/>
-      <c r="E113" s="260">
+      <c r="C113" s="238">
+        <v>0</v>
+      </c>
+      <c r="D113" s="239"/>
+      <c r="E113" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="261"/>
+      <c r="F113" s="237"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="251">
+      <c r="C114" s="227">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="252"/>
-      <c r="E114" s="253">
+      <c r="D114" s="228"/>
+      <c r="E114" s="229">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="254"/>
+      <c r="F114" s="230"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -29243,6 +29247,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -29259,32 +29289,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 65 - CS 3B/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3B/LEC AND LAB.xlsx
@@ -642,9 +642,6 @@
     <t>2015-01-1571</t>
   </si>
   <si>
-    <t>Dela Pieza</t>
-  </si>
-  <si>
     <t>Larslie</t>
   </si>
   <si>
@@ -868,6 +865,9 @@
   </si>
   <si>
     <t>2015-01-758</t>
+  </si>
+  <si>
+    <t>dela Pieza</t>
   </si>
 </sst>
 </file>
@@ -2306,99 +2306,37 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2438,129 +2376,104 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2601,6 +2514,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2659,6 +2659,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2732,102 +2828,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3911,7 +3911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3922,8 +3922,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:R71"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3944,82 +3944,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="167" t="s">
+      <c r="A6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="168"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4027,28 +4027,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="169" t="s">
+      <c r="J6" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="169"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="172"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="173" t="s">
+      <c r="E7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="173"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4056,28 +4056,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="173" t="s">
+      <c r="J7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="154"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E8" s="155" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4085,45 +4085,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="155" t="s">
+      <c r="J8" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162" t="s">
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="162" t="s">
+      <c r="G9" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="145" t="s">
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="146"/>
-      <c r="L9" s="145" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="146"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="158"/>
-      <c r="B10" s="160"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4133,14 +4133,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4161,19 +4161,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="150"/>
-      <c r="O11" s="137" t="s">
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="158"/>
+      <c r="O11" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4194,56 +4194,56 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="132" t="s">
+      <c r="P12" s="167" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="167"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
         <v>3</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C13" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>252</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="132" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
+      <c r="P13" s="167" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="129" t="s">
+      <c r="P14" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="166"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4299,34 +4299,34 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="129" t="s">
+      <c r="P15" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="131"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="166"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
         <v>6</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>259</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>179</v>
@@ -4334,21 +4334,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="140" t="s">
+      <c r="P16" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="142"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="174"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4358,45 +4358,45 @@
         <v>184</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>187</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="166"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>183</v>
@@ -4404,94 +4404,94 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
         <v>9</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>192</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>174</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
         <v>10</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
         <v>11</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4501,27 +4501,27 @@
         <v>12</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4534,13 +4534,13 @@
         <v>13</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>175</v>
@@ -4548,13 +4548,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4567,27 +4567,27 @@
         <v>14</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>211</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4600,27 +4600,27 @@
         <v>15</v>
       </c>
       <c r="B25" s="125" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4633,13 +4633,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>171</v>
@@ -4647,13 +4647,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4666,27 +4666,27 @@
         <v>17</v>
       </c>
       <c r="B27" s="125" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>221</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4699,27 +4699,27 @@
         <v>18</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C28" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4732,27 +4732,27 @@
         <v>19</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>226</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4765,27 +4765,27 @@
         <v>20</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>229</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4798,13 +4798,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>175</v>
@@ -4812,13 +4812,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4827,27 +4827,27 @@
         <v>22</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="E32" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>236</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4860,13 +4860,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>238</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>239</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>183</v>
@@ -4874,26 +4874,26 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
         <v>24</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="D34" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>175</v>
@@ -4901,40 +4901,40 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
         <v>25</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="D35" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="E35" s="15" t="s">
         <v>248</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4945,13 +4945,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4962,13 +4962,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4979,13 +4979,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="135"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4996,13 +4996,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5013,13 +5013,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5030,13 +5030,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5047,13 +5047,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5064,13 +5064,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5081,13 +5081,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5098,13 +5098,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5115,13 +5115,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5132,13 +5132,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="161"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5149,13 +5149,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="161"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5166,13 +5166,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="161"/>
+      <c r="K49" s="161"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5183,13 +5183,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5200,13 +5200,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="161"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5217,13 +5217,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="161"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5234,13 +5234,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5251,13 +5251,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="135"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="161"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5268,13 +5268,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="135"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5285,13 +5285,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5302,13 +5302,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5319,13 +5319,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="161"/>
+      <c r="K58" s="161"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5336,13 +5336,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="161"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5353,13 +5353,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="161"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5370,13 +5370,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="134"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="161"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5387,13 +5387,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5404,13 +5404,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="161"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5421,13 +5421,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="161"/>
+      <c r="K64" s="161"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5438,13 +5438,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="134"/>
-      <c r="K65" s="134"/>
-      <c r="L65" s="135"/>
-      <c r="M65" s="135"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="161"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5455,13 +5455,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="133"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="135"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="161"/>
+      <c r="K66" s="161"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5472,13 +5472,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="161"/>
+      <c r="K67" s="161"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5489,13 +5489,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="133"/>
-      <c r="J68" s="134"/>
-      <c r="K68" s="134"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="161"/>
+      <c r="K68" s="161"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5506,13 +5506,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="133"/>
-      <c r="J69" s="134"/>
-      <c r="K69" s="134"/>
-      <c r="L69" s="135"/>
-      <c r="M69" s="135"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="161"/>
+      <c r="K69" s="161"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5523,13 +5523,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="133"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="134"/>
-      <c r="L70" s="135"/>
-      <c r="M70" s="135"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="152"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="161"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5540,13 +5540,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="133"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="135"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="161"/>
+      <c r="K71" s="161"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5554,195 +5554,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5767,6 +5578,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
@@ -6107,9 +6107,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="CC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CP24" sqref="CP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6123,452 +6123,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="136"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="136"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
-      <c r="BR2" s="136"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="136"/>
-      <c r="BU2" s="136"/>
-      <c r="BV2" s="136"/>
-      <c r="BW2" s="136"/>
-      <c r="BX2" s="136"/>
-      <c r="BY2" s="136"/>
-      <c r="BZ2" s="136"/>
-      <c r="CA2" s="136"/>
-      <c r="CB2" s="136"/>
-      <c r="CC2" s="136"/>
-      <c r="CD2" s="136"/>
-      <c r="CE2" s="136"/>
-      <c r="CF2" s="136"/>
-      <c r="CG2" s="136"/>
-      <c r="CH2" s="136"/>
-      <c r="CI2" s="136"/>
-      <c r="CJ2" s="136"/>
-      <c r="CK2" s="136"/>
-      <c r="CL2" s="136"/>
-      <c r="CM2" s="136"/>
-      <c r="CN2" s="136"/>
-      <c r="CO2" s="136"/>
-      <c r="CP2" s="136"/>
-      <c r="CQ2" s="136"/>
-      <c r="CR2" s="136"/>
-      <c r="CS2" s="136"/>
-      <c r="CT2" s="136"/>
-      <c r="CU2" s="136"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="168"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="168"/>
+      <c r="AU2" s="168"/>
+      <c r="AV2" s="168"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="168"/>
+      <c r="BC2" s="168"/>
+      <c r="BD2" s="168"/>
+      <c r="BE2" s="168"/>
+      <c r="BF2" s="168"/>
+      <c r="BG2" s="168"/>
+      <c r="BH2" s="168"/>
+      <c r="BI2" s="168"/>
+      <c r="BJ2" s="168"/>
+      <c r="BK2" s="168"/>
+      <c r="BL2" s="168"/>
+      <c r="BM2" s="168"/>
+      <c r="BN2" s="168"/>
+      <c r="BO2" s="168"/>
+      <c r="BP2" s="168"/>
+      <c r="BQ2" s="168"/>
+      <c r="BR2" s="168"/>
+      <c r="BS2" s="168"/>
+      <c r="BT2" s="168"/>
+      <c r="BU2" s="168"/>
+      <c r="BV2" s="168"/>
+      <c r="BW2" s="168"/>
+      <c r="BX2" s="168"/>
+      <c r="BY2" s="168"/>
+      <c r="BZ2" s="168"/>
+      <c r="CA2" s="168"/>
+      <c r="CB2" s="168"/>
+      <c r="CC2" s="168"/>
+      <c r="CD2" s="168"/>
+      <c r="CE2" s="168"/>
+      <c r="CF2" s="168"/>
+      <c r="CG2" s="168"/>
+      <c r="CH2" s="168"/>
+      <c r="CI2" s="168"/>
+      <c r="CJ2" s="168"/>
+      <c r="CK2" s="168"/>
+      <c r="CL2" s="168"/>
+      <c r="CM2" s="168"/>
+      <c r="CN2" s="168"/>
+      <c r="CO2" s="168"/>
+      <c r="CP2" s="168"/>
+      <c r="CQ2" s="168"/>
+      <c r="CR2" s="168"/>
+      <c r="CS2" s="168"/>
+      <c r="CT2" s="168"/>
+      <c r="CU2" s="168"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-      <c r="BC3" s="136"/>
-      <c r="BD3" s="136"/>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="136"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="136"/>
-      <c r="BU3" s="136"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="136"/>
-      <c r="BZ3" s="136"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="136"/>
-      <c r="CE3" s="136"/>
-      <c r="CF3" s="136"/>
-      <c r="CG3" s="136"/>
-      <c r="CH3" s="136"/>
-      <c r="CI3" s="136"/>
-      <c r="CJ3" s="136"/>
-      <c r="CK3" s="136"/>
-      <c r="CL3" s="136"/>
-      <c r="CM3" s="136"/>
-      <c r="CN3" s="136"/>
-      <c r="CO3" s="136"/>
-      <c r="CP3" s="136"/>
-      <c r="CQ3" s="136"/>
-      <c r="CR3" s="136"/>
-      <c r="CS3" s="136"/>
-      <c r="CT3" s="136"/>
-      <c r="CU3" s="136"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
+      <c r="AT3" s="168"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="168"/>
+      <c r="AW3" s="168"/>
+      <c r="AX3" s="168"/>
+      <c r="AY3" s="168"/>
+      <c r="AZ3" s="168"/>
+      <c r="BA3" s="168"/>
+      <c r="BB3" s="168"/>
+      <c r="BC3" s="168"/>
+      <c r="BD3" s="168"/>
+      <c r="BE3" s="168"/>
+      <c r="BF3" s="168"/>
+      <c r="BG3" s="168"/>
+      <c r="BH3" s="168"/>
+      <c r="BI3" s="168"/>
+      <c r="BJ3" s="168"/>
+      <c r="BK3" s="168"/>
+      <c r="BL3" s="168"/>
+      <c r="BM3" s="168"/>
+      <c r="BN3" s="168"/>
+      <c r="BO3" s="168"/>
+      <c r="BP3" s="168"/>
+      <c r="BQ3" s="168"/>
+      <c r="BR3" s="168"/>
+      <c r="BS3" s="168"/>
+      <c r="BT3" s="168"/>
+      <c r="BU3" s="168"/>
+      <c r="BV3" s="168"/>
+      <c r="BW3" s="168"/>
+      <c r="BX3" s="168"/>
+      <c r="BY3" s="168"/>
+      <c r="BZ3" s="168"/>
+      <c r="CA3" s="168"/>
+      <c r="CB3" s="168"/>
+      <c r="CC3" s="168"/>
+      <c r="CD3" s="168"/>
+      <c r="CE3" s="168"/>
+      <c r="CF3" s="168"/>
+      <c r="CG3" s="168"/>
+      <c r="CH3" s="168"/>
+      <c r="CI3" s="168"/>
+      <c r="CJ3" s="168"/>
+      <c r="CK3" s="168"/>
+      <c r="CL3" s="168"/>
+      <c r="CM3" s="168"/>
+      <c r="CN3" s="168"/>
+      <c r="CO3" s="168"/>
+      <c r="CP3" s="168"/>
+      <c r="CQ3" s="168"/>
+      <c r="CR3" s="168"/>
+      <c r="CS3" s="168"/>
+      <c r="CT3" s="168"/>
+      <c r="CU3" s="168"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="206"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="206"/>
-      <c r="AF5" s="206"/>
-      <c r="AG5" s="206"/>
-      <c r="AH5" s="206"/>
-      <c r="AI5" s="206"/>
-      <c r="AJ5" s="206"/>
-      <c r="AK5" s="206"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="206"/>
-      <c r="AN5" s="206"/>
-      <c r="AO5" s="206"/>
-      <c r="AP5" s="206"/>
-      <c r="AQ5" s="206"/>
-      <c r="AR5" s="206"/>
-      <c r="AS5" s="206"/>
-      <c r="AT5" s="206"/>
-      <c r="AU5" s="206"/>
-      <c r="AV5" s="206"/>
-      <c r="AW5" s="206"/>
-      <c r="AX5" s="206"/>
-      <c r="AY5" s="206"/>
-      <c r="AZ5" s="206"/>
-      <c r="BA5" s="206"/>
-      <c r="BB5" s="206"/>
-      <c r="BC5" s="206"/>
-      <c r="BD5" s="207"/>
-      <c r="BE5" s="208" t="s">
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="181"/>
+      <c r="AM5" s="181"/>
+      <c r="AN5" s="181"/>
+      <c r="AO5" s="181"/>
+      <c r="AP5" s="181"/>
+      <c r="AQ5" s="181"/>
+      <c r="AR5" s="181"/>
+      <c r="AS5" s="181"/>
+      <c r="AT5" s="181"/>
+      <c r="AU5" s="181"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="181"/>
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="181"/>
+      <c r="BA5" s="181"/>
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="182"/>
+      <c r="BE5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="209"/>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="209"/>
-      <c r="BI5" s="209"/>
-      <c r="BJ5" s="209"/>
-      <c r="BK5" s="209"/>
-      <c r="BL5" s="209"/>
-      <c r="BM5" s="209"/>
-      <c r="BN5" s="209"/>
-      <c r="BO5" s="209"/>
-      <c r="BP5" s="209"/>
-      <c r="BQ5" s="209"/>
-      <c r="BR5" s="209"/>
-      <c r="BS5" s="209"/>
-      <c r="BT5" s="209"/>
-      <c r="BU5" s="209"/>
-      <c r="BV5" s="209"/>
-      <c r="BW5" s="209"/>
-      <c r="BX5" s="209"/>
-      <c r="BY5" s="209"/>
-      <c r="BZ5" s="209"/>
-      <c r="CA5" s="209"/>
-      <c r="CB5" s="209"/>
-      <c r="CC5" s="209"/>
-      <c r="CD5" s="209"/>
-      <c r="CE5" s="209"/>
-      <c r="CF5" s="209"/>
-      <c r="CG5" s="209"/>
-      <c r="CH5" s="209"/>
-      <c r="CI5" s="209"/>
-      <c r="CJ5" s="209"/>
-      <c r="CK5" s="209"/>
-      <c r="CL5" s="209"/>
-      <c r="CM5" s="209"/>
-      <c r="CN5" s="209"/>
-      <c r="CO5" s="209"/>
-      <c r="CP5" s="209"/>
-      <c r="CQ5" s="209"/>
-      <c r="CR5" s="210"/>
-      <c r="CS5" s="197" t="s">
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="184"/>
+      <c r="BH5" s="184"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="184"/>
+      <c r="BO5" s="184"/>
+      <c r="BP5" s="184"/>
+      <c r="BQ5" s="184"/>
+      <c r="BR5" s="184"/>
+      <c r="BS5" s="184"/>
+      <c r="BT5" s="184"/>
+      <c r="BU5" s="184"/>
+      <c r="BV5" s="184"/>
+      <c r="BW5" s="184"/>
+      <c r="BX5" s="184"/>
+      <c r="BY5" s="184"/>
+      <c r="BZ5" s="184"/>
+      <c r="CA5" s="184"/>
+      <c r="CB5" s="184"/>
+      <c r="CC5" s="184"/>
+      <c r="CD5" s="184"/>
+      <c r="CE5" s="184"/>
+      <c r="CF5" s="184"/>
+      <c r="CG5" s="184"/>
+      <c r="CH5" s="184"/>
+      <c r="CI5" s="184"/>
+      <c r="CJ5" s="184"/>
+      <c r="CK5" s="184"/>
+      <c r="CL5" s="184"/>
+      <c r="CM5" s="184"/>
+      <c r="CN5" s="184"/>
+      <c r="CO5" s="184"/>
+      <c r="CP5" s="184"/>
+      <c r="CQ5" s="184"/>
+      <c r="CR5" s="185"/>
+      <c r="CS5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="198"/>
-      <c r="CU5" s="199"/>
+      <c r="CT5" s="191"/>
+      <c r="CU5" s="192"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="202"/>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="180" t="s">
+      <c r="A6" s="177"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="183" t="s">
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="183"/>
-      <c r="R6" s="183"/>
-      <c r="S6" s="183"/>
-      <c r="T6" s="183"/>
-      <c r="U6" s="183"/>
-      <c r="V6" s="183"/>
-      <c r="W6" s="183"/>
-      <c r="X6" s="183"/>
-      <c r="Y6" s="183"/>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="183"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="183"/>
-      <c r="AD6" s="183"/>
-      <c r="AE6" s="183"/>
-      <c r="AF6" s="183"/>
-      <c r="AG6" s="183"/>
-      <c r="AH6" s="183"/>
-      <c r="AI6" s="183"/>
-      <c r="AJ6" s="183"/>
-      <c r="AK6" s="183"/>
-      <c r="AL6" s="183"/>
-      <c r="AM6" s="183"/>
-      <c r="AN6" s="183"/>
-      <c r="AO6" s="183" t="s">
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="196"/>
+      <c r="AG6" s="196"/>
+      <c r="AH6" s="196"/>
+      <c r="AI6" s="196"/>
+      <c r="AJ6" s="196"/>
+      <c r="AK6" s="196"/>
+      <c r="AL6" s="196"/>
+      <c r="AM6" s="196"/>
+      <c r="AN6" s="196"/>
+      <c r="AO6" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="183"/>
-      <c r="AQ6" s="183"/>
-      <c r="AR6" s="183"/>
-      <c r="AS6" s="183" t="s">
+      <c r="AP6" s="196"/>
+      <c r="AQ6" s="196"/>
+      <c r="AR6" s="196"/>
+      <c r="AS6" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="183"/>
-      <c r="AU6" s="183"/>
-      <c r="AV6" s="183" t="s">
+      <c r="AT6" s="196"/>
+      <c r="AU6" s="196"/>
+      <c r="AV6" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="183"/>
-      <c r="AX6" s="183"/>
-      <c r="AY6" s="183"/>
-      <c r="AZ6" s="183"/>
-      <c r="BA6" s="183"/>
-      <c r="BB6" s="183"/>
-      <c r="BC6" s="190" t="s">
+      <c r="AW6" s="196"/>
+      <c r="AX6" s="196"/>
+      <c r="AY6" s="196"/>
+      <c r="AZ6" s="196"/>
+      <c r="BA6" s="196"/>
+      <c r="BB6" s="196"/>
+      <c r="BC6" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="191"/>
-      <c r="BE6" s="192" t="s">
+      <c r="BD6" s="201"/>
+      <c r="BE6" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="193"/>
-      <c r="BG6" s="193"/>
-      <c r="BH6" s="193"/>
-      <c r="BI6" s="193"/>
-      <c r="BJ6" s="193"/>
-      <c r="BK6" s="194"/>
-      <c r="BL6" s="195" t="s">
+      <c r="BF6" s="203"/>
+      <c r="BG6" s="203"/>
+      <c r="BH6" s="203"/>
+      <c r="BI6" s="203"/>
+      <c r="BJ6" s="203"/>
+      <c r="BK6" s="204"/>
+      <c r="BL6" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="193"/>
-      <c r="BN6" s="193"/>
-      <c r="BO6" s="193"/>
-      <c r="BP6" s="193"/>
-      <c r="BQ6" s="193"/>
-      <c r="BR6" s="193"/>
-      <c r="BS6" s="193"/>
-      <c r="BT6" s="193"/>
-      <c r="BU6" s="193"/>
-      <c r="BV6" s="193"/>
-      <c r="BW6" s="193"/>
-      <c r="BX6" s="193"/>
-      <c r="BY6" s="193"/>
-      <c r="BZ6" s="193"/>
-      <c r="CA6" s="193"/>
-      <c r="CB6" s="193"/>
-      <c r="CC6" s="193"/>
-      <c r="CD6" s="193"/>
-      <c r="CE6" s="193"/>
-      <c r="CF6" s="193"/>
-      <c r="CG6" s="193"/>
-      <c r="CH6" s="193"/>
-      <c r="CI6" s="193"/>
-      <c r="CJ6" s="193"/>
-      <c r="CK6" s="193"/>
-      <c r="CL6" s="193"/>
-      <c r="CM6" s="193"/>
-      <c r="CN6" s="193"/>
-      <c r="CO6" s="193"/>
-      <c r="CP6" s="193"/>
-      <c r="CQ6" s="200" t="s">
+      <c r="BM6" s="203"/>
+      <c r="BN6" s="203"/>
+      <c r="BO6" s="203"/>
+      <c r="BP6" s="203"/>
+      <c r="BQ6" s="203"/>
+      <c r="BR6" s="203"/>
+      <c r="BS6" s="203"/>
+      <c r="BT6" s="203"/>
+      <c r="BU6" s="203"/>
+      <c r="BV6" s="203"/>
+      <c r="BW6" s="203"/>
+      <c r="BX6" s="203"/>
+      <c r="BY6" s="203"/>
+      <c r="BZ6" s="203"/>
+      <c r="CA6" s="203"/>
+      <c r="CB6" s="203"/>
+      <c r="CC6" s="203"/>
+      <c r="CD6" s="203"/>
+      <c r="CE6" s="203"/>
+      <c r="CF6" s="203"/>
+      <c r="CG6" s="203"/>
+      <c r="CH6" s="203"/>
+      <c r="CI6" s="203"/>
+      <c r="CJ6" s="203"/>
+      <c r="CK6" s="203"/>
+      <c r="CL6" s="203"/>
+      <c r="CM6" s="203"/>
+      <c r="CN6" s="203"/>
+      <c r="CO6" s="203"/>
+      <c r="CP6" s="203"/>
+      <c r="CQ6" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="200"/>
-      <c r="CS6" s="196" t="s">
+      <c r="CR6" s="193"/>
+      <c r="CS6" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="196" t="s">
+      <c r="CT6" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="187" t="s">
+      <c r="CU6" s="197" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6577,339 +6577,345 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="182">
+      <c r="J7" s="188">
         <v>42980</v>
       </c>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182">
+      <c r="K7" s="188"/>
+      <c r="L7" s="188">
         <v>43035</v>
       </c>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
-      <c r="T7" s="186">
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="189">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>2</v>
       </c>
-      <c r="U7" s="186"/>
-      <c r="V7" s="182"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="182"/>
-      <c r="Z7" s="182"/>
-      <c r="AA7" s="182"/>
-      <c r="AB7" s="182"/>
-      <c r="AC7" s="182"/>
-      <c r="AD7" s="182"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="182"/>
-      <c r="AH7" s="182"/>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="182"/>
-      <c r="AK7" s="182"/>
-      <c r="AL7" s="182"/>
-      <c r="AM7" s="182"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="188"/>
+      <c r="AG7" s="188"/>
+      <c r="AH7" s="188"/>
+      <c r="AI7" s="188"/>
+      <c r="AJ7" s="188"/>
+      <c r="AK7" s="188"/>
+      <c r="AL7" s="188"/>
+      <c r="AM7" s="188"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="182" t="s">
-        <v>254</v>
-      </c>
-      <c r="AP7" s="182"/>
-      <c r="AQ7" s="182"/>
-      <c r="AR7" s="182"/>
-      <c r="AS7" s="186">
+      <c r="AO7" s="188" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP7" s="188"/>
+      <c r="AQ7" s="188"/>
+      <c r="AR7" s="188"/>
+      <c r="AS7" s="189">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="186"/>
+      <c r="AT7" s="189"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="182" t="s">
-        <v>255</v>
-      </c>
-      <c r="AW7" s="182"/>
-      <c r="AX7" s="182"/>
-      <c r="AY7" s="182"/>
-      <c r="AZ7" s="186">
+      <c r="AV7" s="188" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW7" s="188"/>
+      <c r="AX7" s="188"/>
+      <c r="AY7" s="188"/>
+      <c r="AZ7" s="189">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="186"/>
+      <c r="BA7" s="189"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="190"/>
-      <c r="BD7" s="191"/>
-      <c r="BE7" s="182" t="s">
+      <c r="BC7" s="200"/>
+      <c r="BD7" s="201"/>
+      <c r="BE7" s="188" t="s">
+        <v>255</v>
+      </c>
+      <c r="BF7" s="188"/>
+      <c r="BG7" s="188" t="s">
         <v>256</v>
       </c>
-      <c r="BF7" s="182"/>
-      <c r="BG7" s="182" t="s">
-        <v>257</v>
-      </c>
-      <c r="BH7" s="182"/>
-      <c r="BI7" s="186">
+      <c r="BH7" s="188"/>
+      <c r="BI7" s="189">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="186"/>
+      <c r="BJ7" s="189"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="182">
+      <c r="BL7" s="188">
         <v>42980</v>
       </c>
-      <c r="BM7" s="182"/>
-      <c r="BN7" s="182">
+      <c r="BM7" s="188"/>
+      <c r="BN7" s="188">
         <v>42980</v>
       </c>
-      <c r="BO7" s="182"/>
-      <c r="BP7" s="182">
+      <c r="BO7" s="188"/>
+      <c r="BP7" s="188">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="182"/>
-      <c r="BR7" s="182">
+      <c r="BQ7" s="188"/>
+      <c r="BR7" s="188">
         <v>42987</v>
       </c>
-      <c r="BS7" s="182"/>
-      <c r="BT7" s="182"/>
-      <c r="BU7" s="182"/>
-      <c r="BV7" s="182"/>
-      <c r="BW7" s="182"/>
-      <c r="BX7" s="182"/>
-      <c r="BY7" s="182"/>
-      <c r="BZ7" s="182"/>
-      <c r="CA7" s="182"/>
-      <c r="CB7" s="182"/>
-      <c r="CC7" s="182"/>
-      <c r="CD7" s="182"/>
-      <c r="CE7" s="182"/>
-      <c r="CF7" s="182"/>
-      <c r="CG7" s="182"/>
-      <c r="CH7" s="182"/>
-      <c r="CI7" s="182"/>
-      <c r="CJ7" s="182"/>
-      <c r="CK7" s="182"/>
-      <c r="CL7" s="182"/>
-      <c r="CM7" s="182"/>
-      <c r="CN7" s="186">
+      <c r="BS7" s="188"/>
+      <c r="BT7" s="188">
+        <v>43035</v>
+      </c>
+      <c r="BU7" s="188"/>
+      <c r="BV7" s="188">
+        <v>43035</v>
+      </c>
+      <c r="BW7" s="188"/>
+      <c r="BX7" s="188">
+        <v>43036</v>
+      </c>
+      <c r="BY7" s="188"/>
+      <c r="BZ7" s="188"/>
+      <c r="CA7" s="188"/>
+      <c r="CB7" s="188"/>
+      <c r="CC7" s="188"/>
+      <c r="CD7" s="188"/>
+      <c r="CE7" s="188"/>
+      <c r="CF7" s="188"/>
+      <c r="CG7" s="188"/>
+      <c r="CH7" s="188"/>
+      <c r="CI7" s="188"/>
+      <c r="CJ7" s="188"/>
+      <c r="CK7" s="188"/>
+      <c r="CL7" s="188"/>
+      <c r="CM7" s="188"/>
+      <c r="CN7" s="189">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>6</v>
-      </c>
-      <c r="CO7" s="186"/>
+        <v>7</v>
+      </c>
+      <c r="CO7" s="189"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="200"/>
-      <c r="CR7" s="200"/>
-      <c r="CS7" s="196"/>
-      <c r="CT7" s="196"/>
-      <c r="CU7" s="188"/>
+      <c r="CQ7" s="193"/>
+      <c r="CR7" s="193"/>
+      <c r="CS7" s="175"/>
+      <c r="CT7" s="175"/>
+      <c r="CU7" s="198"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="202"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="211" t="s">
+      <c r="A8" s="177"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211" t="s">
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="175" t="s">
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175" t="s">
+      <c r="K8" s="187"/>
+      <c r="L8" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="187"/>
+      <c r="N8" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175" t="s">
+      <c r="O8" s="187"/>
+      <c r="P8" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175" t="s">
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175" t="s">
+      <c r="S8" s="187"/>
+      <c r="T8" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175" t="s">
+      <c r="U8" s="187"/>
+      <c r="V8" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175" t="s">
+      <c r="W8" s="187"/>
+      <c r="X8" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175" t="s">
+      <c r="Y8" s="187"/>
+      <c r="Z8" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175" t="s">
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175" t="s">
+      <c r="AC8" s="187"/>
+      <c r="AD8" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175" t="s">
+      <c r="AE8" s="187"/>
+      <c r="AF8" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175" t="s">
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="175" t="s">
+      <c r="AI8" s="187"/>
+      <c r="AJ8" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175" t="s">
+      <c r="AK8" s="187"/>
+      <c r="AL8" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="175"/>
+      <c r="AM8" s="187"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="175" t="s">
+      <c r="AO8" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175" t="s">
+      <c r="AP8" s="187"/>
+      <c r="AQ8" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175" t="s">
+      <c r="AR8" s="187"/>
+      <c r="AS8" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="175"/>
+      <c r="AT8" s="187"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="175" t="s">
+      <c r="AV8" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175" t="s">
+      <c r="AW8" s="187"/>
+      <c r="AX8" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175" t="s">
+      <c r="AY8" s="187"/>
+      <c r="AZ8" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="175"/>
+      <c r="BA8" s="187"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="190"/>
-      <c r="BD8" s="191"/>
-      <c r="BE8" s="185" t="s">
+      <c r="BC8" s="200"/>
+      <c r="BD8" s="201"/>
+      <c r="BE8" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="184"/>
-      <c r="BG8" s="184" t="s">
+      <c r="BF8" s="206"/>
+      <c r="BG8" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="184"/>
-      <c r="BI8" s="184" t="s">
+      <c r="BH8" s="206"/>
+      <c r="BI8" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="184"/>
+      <c r="BJ8" s="206"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="178" t="s">
+      <c r="BL8" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="179"/>
-      <c r="BN8" s="178" t="s">
+      <c r="BM8" s="208"/>
+      <c r="BN8" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="179"/>
-      <c r="BP8" s="178" t="s">
+      <c r="BO8" s="208"/>
+      <c r="BP8" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="179"/>
-      <c r="BR8" s="178" t="s">
+      <c r="BQ8" s="208"/>
+      <c r="BR8" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="179"/>
-      <c r="BT8" s="178" t="s">
+      <c r="BS8" s="208"/>
+      <c r="BT8" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="179"/>
-      <c r="BV8" s="176" t="s">
+      <c r="BU8" s="208"/>
+      <c r="BV8" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="177"/>
-      <c r="BX8" s="176" t="s">
+      <c r="BW8" s="195"/>
+      <c r="BX8" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="177"/>
-      <c r="BZ8" s="176" t="s">
+      <c r="BY8" s="195"/>
+      <c r="BZ8" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="177"/>
-      <c r="CB8" s="176" t="s">
+      <c r="CA8" s="195"/>
+      <c r="CB8" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="177"/>
-      <c r="CD8" s="176" t="s">
+      <c r="CC8" s="195"/>
+      <c r="CD8" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="177"/>
-      <c r="CF8" s="176" t="s">
+      <c r="CE8" s="195"/>
+      <c r="CF8" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="177"/>
-      <c r="CH8" s="176" t="s">
+      <c r="CG8" s="195"/>
+      <c r="CH8" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="177"/>
-      <c r="CJ8" s="176" t="s">
+      <c r="CI8" s="195"/>
+      <c r="CJ8" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="177"/>
-      <c r="CL8" s="176" t="s">
+      <c r="CK8" s="195"/>
+      <c r="CL8" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="177"/>
-      <c r="CN8" s="176" t="s">
+      <c r="CM8" s="195"/>
+      <c r="CN8" s="194" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="177"/>
+      <c r="CO8" s="195"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="200"/>
-      <c r="CR8" s="200"/>
-      <c r="CS8" s="196"/>
-      <c r="CT8" s="196"/>
-      <c r="CU8" s="188"/>
+      <c r="CQ8" s="193"/>
+      <c r="CR8" s="193"/>
+      <c r="CS8" s="175"/>
+      <c r="CT8" s="175"/>
+      <c r="CU8" s="198"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -7046,7 +7052,9 @@
       <c r="BW9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BX9" s="27"/>
+      <c r="BX9" s="27">
+        <v>100</v>
+      </c>
       <c r="BY9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7091,9 +7099,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="196"/>
-      <c r="CT9" s="196"/>
-      <c r="CU9" s="189"/>
+      <c r="CS9" s="175"/>
+      <c r="CT9" s="175"/>
+      <c r="CU9" s="199"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7137,10 +7145,12 @@
         <f>IFERROR(((J10/$J$9)*100), "")</f>
         <v>65</v>
       </c>
-      <c r="L10" s="107"/>
+      <c r="L10" s="107">
+        <v>16</v>
+      </c>
       <c r="M10" s="92">
         <f>IFERROR(((L10/$L$9)*100),"")</f>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="N10" s="107"/>
       <c r="O10" s="92" t="str">
@@ -7182,7 +7192,7 @@
       <c r="AM10" s="93"/>
       <c r="AN10" s="95">
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
-        <v>6.5</v>
+        <v>11.833333333333336</v>
       </c>
       <c r="AO10" s="107"/>
       <c r="AP10" s="92">
@@ -7226,11 +7236,11 @@
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>39</v>
+        <v>44.333333333333336</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>39</v>
+        <v>44.33</v>
       </c>
       <c r="BE10" s="107"/>
       <c r="BF10" s="92">
@@ -7293,10 +7303,12 @@
         <f>IFERROR(((BV10/$BV$9)*100),"")</f>
         <v>80</v>
       </c>
-      <c r="BX10" s="107"/>
-      <c r="BY10" s="92" t="str">
+      <c r="BX10" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY10" s="92">
         <f>IFERROR(((BX10/$BX$9)*100),"")</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ10" s="107"/>
       <c r="CA10" s="92" t="str">
@@ -7340,19 +7352,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>43.602000000000004</v>
+        <v>45.158000000000001</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7405,10 +7417,12 @@
         <f t="shared" ref="K11:K70" si="3">IFERROR(((J11/$J$9)*100), "")</f>
         <v>55.000000000000007</v>
       </c>
-      <c r="L11" s="108"/>
+      <c r="L11" s="108">
+        <v>11</v>
+      </c>
       <c r="M11" s="92">
         <f t="shared" ref="M11:M70" si="4">IFERROR(((L11/$L$9)*100),"")</f>
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="N11" s="108"/>
       <c r="O11" s="92" t="str">
@@ -7450,7 +7464,7 @@
       <c r="AM11" s="94"/>
       <c r="AN11" s="95">
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
-        <v>5.5000000000000009</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="AO11" s="108"/>
       <c r="AP11" s="92">
@@ -7494,11 +7508,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>36.200000000000003</v>
+        <v>39.866666666666667</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>36.200000000000003</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92">
@@ -7561,10 +7575,12 @@
         <f t="shared" ref="BW11:BW70" si="28">IFERROR(((BV11/$BV$9)*100),"")</f>
         <v>80</v>
       </c>
-      <c r="BX11" s="107"/>
-      <c r="BY11" s="92" t="str">
+      <c r="BX11" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY11" s="92">
         <f t="shared" ref="BY11:BY70" si="29">IFERROR(((BX11/$BX$9)*100),"")</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ11" s="107"/>
       <c r="CA11" s="92" t="str">
@@ -7608,19 +7624,19 @@
       </c>
       <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>42.481999999999999</v>
+        <v>43.373999999999995</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7673,10 +7689,12 @@
         <f t="shared" si="3"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="L12" s="108"/>
+      <c r="L12" s="108">
+        <v>12</v>
+      </c>
       <c r="M12" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N12" s="108"/>
       <c r="O12" s="92" t="str">
@@ -7718,7 +7736,7 @@
       <c r="AM12" s="94"/>
       <c r="AN12" s="95">
         <f t="shared" si="9"/>
-        <v>5.5000000000000009</v>
+        <v>9.5</v>
       </c>
       <c r="AO12" s="108"/>
       <c r="AP12" s="92">
@@ -7762,11 +7780,11 @@
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>24.799999999999997</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>24.8</v>
+        <v>28.8</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92">
@@ -7829,10 +7847,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX12" s="107"/>
-      <c r="BY12" s="92" t="str">
+      <c r="BX12" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY12" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ12" s="107"/>
       <c r="CA12" s="92" t="str">
@@ -7876,19 +7896,19 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>37.921999999999997</v>
+        <v>38.945999999999998</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7941,10 +7961,12 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="L13" s="108"/>
+      <c r="L13" s="108">
+        <v>20</v>
+      </c>
       <c r="M13" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="N13" s="108"/>
       <c r="O13" s="92" t="str">
@@ -7986,7 +8008,7 @@
       <c r="AM13" s="94"/>
       <c r="AN13" s="95">
         <f t="shared" si="9"/>
-        <v>6.5</v>
+        <v>13.166666666666666</v>
       </c>
       <c r="AO13" s="108"/>
       <c r="AP13" s="92">
@@ -8030,11 +8052,11 @@
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>39.4</v>
+        <v>46.066666666666663</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>39.4</v>
+        <v>46.07</v>
       </c>
       <c r="BE13" s="108"/>
       <c r="BF13" s="92">
@@ -8097,10 +8119,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX13" s="107"/>
-      <c r="BY13" s="92" t="str">
+      <c r="BX13" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY13" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ13" s="107"/>
       <c r="CA13" s="92" t="str">
@@ -8144,19 +8168,19 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>43.762</v>
+        <v>45.853999999999999</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8209,10 +8233,12 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L14" s="108"/>
+      <c r="L14" s="108">
+        <v>22</v>
+      </c>
       <c r="M14" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="N14" s="108"/>
       <c r="O14" s="92" t="str">
@@ -8254,7 +8280,7 @@
       <c r="AM14" s="94"/>
       <c r="AN14" s="95">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>14.333333333333332</v>
       </c>
       <c r="AO14" s="108"/>
       <c r="AP14" s="92">
@@ -8298,11 +8324,11 @@
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>37.599999999999994</v>
+        <v>44.93333333333333</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>37.6</v>
+        <v>44.93</v>
       </c>
       <c r="BE14" s="108"/>
       <c r="BF14" s="92">
@@ -8365,10 +8391,12 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX14" s="107"/>
-      <c r="BY14" s="92" t="str">
+      <c r="BX14" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY14" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ14" s="107"/>
       <c r="CA14" s="92" t="str">
@@ -8412,19 +8440,19 @@
       </c>
       <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v>48.333333333333336</v>
+        <v>47.142857142857146</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
-        <v>48.333333333333336</v>
+        <v>47.142857142857146</v>
       </c>
       <c r="CR14" s="99">
         <f t="shared" si="40"/>
-        <v>48.33</v>
+        <v>47.14</v>
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>44.037999999999997</v>
+        <v>46.256</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8477,10 +8505,12 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="L15" s="108"/>
+      <c r="L15" s="108">
+        <v>17</v>
+      </c>
       <c r="M15" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="N15" s="108"/>
       <c r="O15" s="92" t="str">
@@ -8522,7 +8552,7 @@
       <c r="AM15" s="94"/>
       <c r="AN15" s="95">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="AO15" s="108"/>
       <c r="AP15" s="92">
@@ -8566,11 +8596,11 @@
       </c>
       <c r="BC15" s="98">
         <f t="shared" si="18"/>
-        <v>15.5</v>
+        <v>21.166666666666664</v>
       </c>
       <c r="BD15" s="98">
         <f t="shared" si="19"/>
-        <v>15.5</v>
+        <v>21.17</v>
       </c>
       <c r="BE15" s="108"/>
       <c r="BF15" s="92">
@@ -8633,10 +8663,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX15" s="107"/>
-      <c r="BY15" s="92" t="str">
+      <c r="BX15" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY15" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ15" s="107"/>
       <c r="CA15" s="92" t="str">
@@ -8680,19 +8712,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>41.25</v>
+        <v>41.071428571428569</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>41.25</v>
+        <v>41.071428571428569</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>41.25</v>
+        <v>41.07</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>30.95</v>
+        <v>33.11</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8714,7 +8746,7 @@
       </c>
       <c r="C16" s="41" t="str">
         <f>CONCATENATE(REGISTRATION!C17," ",REGISTRATION!D17," ",REGISTRATION!E17)</f>
-        <v>Dela Pieza Larslie Z</v>
+        <v>dela Pieza Larslie Z</v>
       </c>
       <c r="D16" s="126">
         <v>70</v>
@@ -8745,10 +8777,12 @@
         <f t="shared" si="3"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="L16" s="108"/>
+      <c r="L16" s="108">
+        <v>17</v>
+      </c>
       <c r="M16" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="N16" s="108"/>
       <c r="O16" s="92" t="str">
@@ -8790,7 +8824,7 @@
       <c r="AM16" s="94"/>
       <c r="AN16" s="95">
         <f t="shared" si="9"/>
-        <v>5.5000000000000009</v>
+        <v>11.166666666666668</v>
       </c>
       <c r="AO16" s="108"/>
       <c r="AP16" s="92">
@@ -8834,11 +8868,11 @@
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>35.5</v>
+        <v>41.166666666666671</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>35.5</v>
+        <v>41.17</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92">
@@ -8901,10 +8935,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX16" s="107"/>
-      <c r="BY16" s="92" t="str">
+      <c r="BX16" s="107">
+        <v>65</v>
+      </c>
+      <c r="BY16" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>65</v>
       </c>
       <c r="BZ16" s="107"/>
       <c r="CA16" s="92" t="str">
@@ -8948,19 +8984,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>44.642857142857146</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>44.642857142857146</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>44.64</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>42.201999999999998</v>
+        <v>43.251999999999995</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9013,10 +9049,12 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="L17" s="108"/>
+      <c r="L17" s="108">
+        <v>20</v>
+      </c>
       <c r="M17" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="N17" s="108"/>
       <c r="O17" s="92" t="str">
@@ -9058,7 +9096,7 @@
       <c r="AM17" s="94"/>
       <c r="AN17" s="95">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="AO17" s="108"/>
       <c r="AP17" s="92">
@@ -9102,11 +9140,11 @@
       </c>
       <c r="BC17" s="98">
         <f t="shared" si="18"/>
-        <v>34</v>
+        <v>40.666666666666664</v>
       </c>
       <c r="BD17" s="98">
         <f t="shared" si="19"/>
-        <v>34</v>
+        <v>40.67</v>
       </c>
       <c r="BE17" s="108"/>
       <c r="BF17" s="92">
@@ -9169,10 +9207,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX17" s="107"/>
-      <c r="BY17" s="92" t="str">
+      <c r="BX17" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY17" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ17" s="107"/>
       <c r="CA17" s="92" t="str">
@@ -9216,19 +9256,19 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>41.602000000000004</v>
+        <v>43.694000000000003</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9281,10 +9321,12 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L18" s="108"/>
+      <c r="L18" s="108">
+        <v>18</v>
+      </c>
       <c r="M18" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N18" s="108"/>
       <c r="O18" s="92" t="str">
@@ -9326,7 +9368,7 @@
       <c r="AM18" s="94"/>
       <c r="AN18" s="95">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AO18" s="108"/>
       <c r="AP18" s="92">
@@ -9370,11 +9412,11 @@
       </c>
       <c r="BC18" s="98">
         <f t="shared" si="18"/>
-        <v>35.4</v>
+        <v>41.4</v>
       </c>
       <c r="BD18" s="98">
         <f t="shared" si="19"/>
-        <v>35.4</v>
+        <v>41.4</v>
       </c>
       <c r="BE18" s="108"/>
       <c r="BF18" s="92">
@@ -9437,10 +9479,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX18" s="107"/>
-      <c r="BY18" s="92" t="str">
+      <c r="BX18" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY18" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ18" s="107"/>
       <c r="CA18" s="92" t="str">
@@ -9484,19 +9528,19 @@
       </c>
       <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v>47.916666666666664</v>
+        <v>46.785714285714285</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>47.916666666666664</v>
+        <v>46.785714285714285</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>47.92</v>
+        <v>46.79</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>42.911999999999999</v>
+        <v>44.634</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9549,10 +9593,12 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="L19" s="108"/>
+      <c r="L19" s="108">
+        <v>14</v>
+      </c>
       <c r="M19" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="N19" s="108"/>
       <c r="O19" s="92" t="str">
@@ -9594,7 +9640,7 @@
       <c r="AM19" s="94"/>
       <c r="AN19" s="95">
         <f t="shared" si="9"/>
-        <v>6.5</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="AO19" s="108"/>
       <c r="AP19" s="92">
@@ -9638,11 +9684,11 @@
       </c>
       <c r="BC19" s="98">
         <f t="shared" si="18"/>
-        <v>38.4</v>
+        <v>43.066666666666663</v>
       </c>
       <c r="BD19" s="98">
         <f t="shared" si="19"/>
-        <v>38.4</v>
+        <v>43.07</v>
       </c>
       <c r="BE19" s="108"/>
       <c r="BF19" s="92">
@@ -9705,10 +9751,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX19" s="107"/>
-      <c r="BY19" s="92" t="str">
+      <c r="BX19" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY19" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ19" s="107"/>
       <c r="CA19" s="92" t="str">
@@ -9752,19 +9800,19 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>43.361999999999995</v>
+        <v>44.653999999999996</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9817,10 +9865,12 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="L20" s="108"/>
+      <c r="L20" s="108">
+        <v>19</v>
+      </c>
       <c r="M20" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="N20" s="108"/>
       <c r="O20" s="92" t="str">
@@ -9862,7 +9912,7 @@
       <c r="AM20" s="94"/>
       <c r="AN20" s="95">
         <f t="shared" si="9"/>
-        <v>4.5</v>
+        <v>10.833333333333334</v>
       </c>
       <c r="AO20" s="108"/>
       <c r="AP20" s="92">
@@ -9906,11 +9956,11 @@
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>32</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>32</v>
+        <v>38.33</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92">
@@ -9973,10 +10023,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX20" s="107"/>
-      <c r="BY20" s="92" t="str">
+      <c r="BX20" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY20" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ20" s="107"/>
       <c r="CA20" s="92" t="str">
@@ -10020,19 +10072,19 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>40.802</v>
+        <v>42.757999999999996</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10085,10 +10137,12 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L21" s="108"/>
+      <c r="L21" s="108">
+        <v>17</v>
+      </c>
       <c r="M21" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="N21" s="108"/>
       <c r="O21" s="92" t="str">
@@ -10130,7 +10184,7 @@
       <c r="AM21" s="94"/>
       <c r="AN21" s="95">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="AO21" s="108"/>
       <c r="AP21" s="92">
@@ -10174,11 +10228,11 @@
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>36.299999999999997</v>
+        <v>41.966666666666669</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>36.299999999999997</v>
+        <v>41.97</v>
       </c>
       <c r="BE21" s="108"/>
       <c r="BF21" s="92">
@@ -10241,10 +10295,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX21" s="107"/>
-      <c r="BY21" s="92" t="str">
+      <c r="BX21" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY21" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ21" s="107"/>
       <c r="CA21" s="92" t="str">
@@ -10288,19 +10344,19 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>42.521999999999998</v>
+        <v>44.213999999999999</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10353,10 +10409,12 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L22" s="108"/>
+      <c r="L22" s="108">
+        <v>16</v>
+      </c>
       <c r="M22" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="N22" s="108"/>
       <c r="O22" s="92" t="str">
@@ -10398,7 +10456,7 @@
       <c r="AM22" s="94"/>
       <c r="AN22" s="95">
         <f t="shared" si="9"/>
-        <v>7.5</v>
+        <v>12.833333333333336</v>
       </c>
       <c r="AO22" s="108"/>
       <c r="AP22" s="92">
@@ -10442,11 +10500,11 @@
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>33.5</v>
+        <v>38.833333333333336</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>33.5</v>
+        <v>38.83</v>
       </c>
       <c r="BE22" s="108"/>
       <c r="BF22" s="92">
@@ -10509,10 +10567,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX22" s="107"/>
-      <c r="BY22" s="92" t="str">
+      <c r="BX22" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY22" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ22" s="107"/>
       <c r="CA22" s="92" t="str">
@@ -10556,19 +10616,19 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>41.402000000000001</v>
+        <v>42.957999999999998</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10621,10 +10681,12 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L23" s="108"/>
+      <c r="L23" s="108">
+        <v>19</v>
+      </c>
       <c r="M23" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="N23" s="108"/>
       <c r="O23" s="92" t="str">
@@ -10666,7 +10728,7 @@
       <c r="AM23" s="94"/>
       <c r="AN23" s="95">
         <f t="shared" si="9"/>
-        <v>7.5</v>
+        <v>13.833333333333332</v>
       </c>
       <c r="AO23" s="108"/>
       <c r="AP23" s="92">
@@ -10710,11 +10772,11 @@
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>35.4</v>
+        <v>41.733333333333334</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>35.4</v>
+        <v>41.73</v>
       </c>
       <c r="BE23" s="108"/>
       <c r="BF23" s="92">
@@ -10777,10 +10839,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX23" s="107"/>
-      <c r="BY23" s="92" t="str">
+      <c r="BX23" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY23" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ23" s="107"/>
       <c r="CA23" s="92" t="str">
@@ -10824,19 +10888,19 @@
       </c>
       <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR23" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>42.161999999999999</v>
+        <v>44.117999999999995</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10889,10 +10953,12 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L24" s="108"/>
+      <c r="L24" s="108">
+        <v>21</v>
+      </c>
       <c r="M24" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N24" s="108"/>
       <c r="O24" s="92" t="str">
@@ -10934,7 +11000,7 @@
       <c r="AM24" s="94"/>
       <c r="AN24" s="95">
         <f t="shared" si="9"/>
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO24" s="108"/>
       <c r="AP24" s="92">
@@ -10978,11 +11044,11 @@
       </c>
       <c r="BC24" s="98">
         <f t="shared" si="18"/>
-        <v>40.799999999999997</v>
+        <v>47.8</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" si="19"/>
-        <v>40.799999999999997</v>
+        <v>47.8</v>
       </c>
       <c r="BE24" s="108"/>
       <c r="BF24" s="92">
@@ -11045,10 +11111,12 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="BX24" s="107"/>
-      <c r="BY24" s="92" t="str">
+      <c r="BX24" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY24" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ24" s="107"/>
       <c r="CA24" s="92" t="str">
@@ -11092,19 +11160,19 @@
       </c>
       <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v>50</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
-        <v>50</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="CR24" s="99">
         <f t="shared" si="40"/>
-        <v>50</v>
+        <v>48.57</v>
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>46.32</v>
+        <v>48.262</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11157,10 +11225,12 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="L25" s="108"/>
+      <c r="L25" s="108">
+        <v>5</v>
+      </c>
       <c r="M25" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="N25" s="108"/>
       <c r="O25" s="92" t="str">
@@ -11202,7 +11272,7 @@
       <c r="AM25" s="94"/>
       <c r="AN25" s="95">
         <f t="shared" si="9"/>
-        <v>4.5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="AO25" s="108"/>
       <c r="AP25" s="92">
@@ -11246,11 +11316,11 @@
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>31.5</v>
+        <v>33.166666666666671</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>31.5</v>
+        <v>33.17</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92">
@@ -11313,10 +11383,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX25" s="107"/>
-      <c r="BY25" s="92" t="str">
+      <c r="BX25" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY25" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ25" s="107"/>
       <c r="CA25" s="92" t="str">
@@ -11360,19 +11432,19 @@
       </c>
       <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR25" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>40.602000000000004</v>
+        <v>40.694000000000003</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11425,10 +11497,12 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L26" s="108"/>
+      <c r="L26" s="108">
+        <v>14</v>
+      </c>
       <c r="M26" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="N26" s="108"/>
       <c r="O26" s="92" t="str">
@@ -11470,7 +11544,7 @@
       <c r="AM26" s="94"/>
       <c r="AN26" s="95">
         <f t="shared" si="9"/>
-        <v>7.5</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="AO26" s="108"/>
       <c r="AP26" s="92">
@@ -11514,11 +11588,11 @@
       </c>
       <c r="BC26" s="98">
         <f t="shared" si="18"/>
-        <v>38.099999999999994</v>
+        <v>42.766666666666666</v>
       </c>
       <c r="BD26" s="98">
         <f t="shared" si="19"/>
-        <v>38.1</v>
+        <v>42.77</v>
       </c>
       <c r="BE26" s="108"/>
       <c r="BF26" s="92">
@@ -11581,10 +11655,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX26" s="107"/>
-      <c r="BY26" s="92" t="str">
+      <c r="BX26" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY26" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ26" s="107"/>
       <c r="CA26" s="92" t="str">
@@ -11628,19 +11704,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>43.242000000000004</v>
+        <v>44.533999999999999</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11693,10 +11769,12 @@
         <f t="shared" si="3"/>
         <v>55.000000000000007</v>
       </c>
-      <c r="L27" s="108"/>
+      <c r="L27" s="108">
+        <v>13</v>
+      </c>
       <c r="M27" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="N27" s="108"/>
       <c r="O27" s="92" t="str">
@@ -11738,7 +11816,7 @@
       <c r="AM27" s="94"/>
       <c r="AN27" s="95">
         <f t="shared" si="9"/>
-        <v>5.5000000000000009</v>
+        <v>9.8333333333333357</v>
       </c>
       <c r="AO27" s="108"/>
       <c r="AP27" s="92">
@@ -11782,11 +11860,11 @@
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>36.700000000000003</v>
+        <v>41.033333333333331</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>36.700000000000003</v>
+        <v>41.03</v>
       </c>
       <c r="BE27" s="108"/>
       <c r="BF27" s="92">
@@ -11849,10 +11927,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX27" s="107"/>
-      <c r="BY27" s="92" t="str">
+      <c r="BX27" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY27" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ27" s="107"/>
       <c r="CA27" s="92" t="str">
@@ -11896,19 +11976,19 @@
       </c>
       <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR27" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>42.682000000000002</v>
+        <v>43.838000000000001</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11961,10 +12041,12 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L28" s="108"/>
+      <c r="L28" s="108">
+        <v>17</v>
+      </c>
       <c r="M28" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="N28" s="108"/>
       <c r="O28" s="92" t="str">
@@ -12006,7 +12088,7 @@
       <c r="AM28" s="94"/>
       <c r="AN28" s="95">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="AO28" s="108"/>
       <c r="AP28" s="92">
@@ -12050,11 +12132,11 @@
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>29</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>29</v>
+        <v>34.67</v>
       </c>
       <c r="BE28" s="108"/>
       <c r="BF28" s="92">
@@ -12117,10 +12199,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX28" s="107"/>
-      <c r="BY28" s="92" t="str">
+      <c r="BX28" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY28" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ28" s="107"/>
       <c r="CA28" s="92" t="str">
@@ -12164,19 +12248,19 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>39.602000000000004</v>
+        <v>41.293999999999997</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12229,10 +12313,12 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="L29" s="108"/>
+      <c r="L29" s="108">
+        <v>17</v>
+      </c>
       <c r="M29" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="N29" s="108"/>
       <c r="O29" s="92" t="str">
@@ -12274,7 +12360,7 @@
       <c r="AM29" s="94"/>
       <c r="AN29" s="95">
         <f t="shared" si="9"/>
-        <v>6.5</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="AO29" s="108"/>
       <c r="AP29" s="92">
@@ -12318,11 +12404,11 @@
       </c>
       <c r="BC29" s="98">
         <f t="shared" si="18"/>
-        <v>36.599999999999994</v>
+        <v>42.266666666666666</v>
       </c>
       <c r="BD29" s="98">
         <f t="shared" si="19"/>
-        <v>36.6</v>
+        <v>42.27</v>
       </c>
       <c r="BE29" s="108"/>
       <c r="BF29" s="92">
@@ -12385,10 +12471,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX29" s="107"/>
-      <c r="BY29" s="92" t="str">
+      <c r="BX29" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY29" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ29" s="107"/>
       <c r="CA29" s="92" t="str">
@@ -12432,19 +12520,19 @@
       </c>
       <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR29" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>42.641999999999996</v>
+        <v>44.334000000000003</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12497,10 +12585,12 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="L30" s="108"/>
+      <c r="L30" s="108">
+        <v>17</v>
+      </c>
       <c r="M30" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="N30" s="108"/>
       <c r="O30" s="92" t="str">
@@ -12542,7 +12632,7 @@
       <c r="AM30" s="94"/>
       <c r="AN30" s="95">
         <f t="shared" si="9"/>
-        <v>6.5</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="AO30" s="108"/>
       <c r="AP30" s="92">
@@ -12586,11 +12676,11 @@
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>39.200000000000003</v>
+        <v>44.86666666666666</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>39.200000000000003</v>
+        <v>44.87</v>
       </c>
       <c r="BE30" s="108"/>
       <c r="BF30" s="92">
@@ -12653,10 +12743,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX30" s="107"/>
-      <c r="BY30" s="92" t="str">
+      <c r="BX30" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY30" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ30" s="107"/>
       <c r="CA30" s="92" t="str">
@@ -12700,19 +12792,19 @@
       </c>
       <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR30" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>43.682000000000002</v>
+        <v>45.373999999999995</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12765,10 +12857,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="108"/>
+      <c r="L31" s="108">
+        <v>7</v>
+      </c>
       <c r="M31" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="N31" s="108"/>
       <c r="O31" s="92" t="str">
@@ -12810,7 +12904,7 @@
       <c r="AM31" s="94"/>
       <c r="AN31" s="95">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="AO31" s="108"/>
       <c r="AP31" s="92">
@@ -12854,11 +12948,11 @@
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>18.600000000000001</v>
+        <v>20.933333333333334</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>18.600000000000001</v>
+        <v>20.93</v>
       </c>
       <c r="BE31" s="108"/>
       <c r="BF31" s="92">
@@ -12921,10 +13015,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX31" s="107"/>
-      <c r="BY31" s="92" t="str">
+      <c r="BX31" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY31" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ31" s="107"/>
       <c r="CA31" s="92" t="str">
@@ -12968,19 +13064,19 @@
       </c>
       <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR31" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>35.442</v>
+        <v>35.798000000000002</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13033,10 +13129,12 @@
         <f>IFERROR(((J32/$J$9)*100), "")</f>
         <v>60</v>
       </c>
-      <c r="L32" s="108"/>
+      <c r="L32" s="108">
+        <v>22</v>
+      </c>
       <c r="M32" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="N32" s="108"/>
       <c r="O32" s="92" t="str">
@@ -13078,7 +13176,7 @@
       <c r="AM32" s="94"/>
       <c r="AN32" s="95">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="AO32" s="108"/>
       <c r="AP32" s="92">
@@ -13122,11 +13220,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>36.9</v>
+        <v>44.233333333333334</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>36.9</v>
+        <v>44.23</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92">
@@ -13189,10 +13287,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX32" s="107"/>
-      <c r="BY32" s="92" t="str">
+      <c r="BX32" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY32" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ32" s="107"/>
       <c r="CA32" s="92" t="str">
@@ -13236,19 +13336,19 @@
       </c>
       <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR32" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>42.762</v>
+        <v>45.117999999999995</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13301,10 +13401,12 @@
         <f>IFERROR(((J33/$J$9)*100), "")</f>
         <v>85</v>
       </c>
-      <c r="L33" s="108"/>
+      <c r="L33" s="108">
+        <v>16</v>
+      </c>
       <c r="M33" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="N33" s="108"/>
       <c r="O33" s="92" t="str">
@@ -13346,7 +13448,7 @@
       <c r="AM33" s="94"/>
       <c r="AN33" s="95">
         <f t="shared" si="9"/>
-        <v>8.5</v>
+        <v>13.833333333333336</v>
       </c>
       <c r="AO33" s="108"/>
       <c r="AP33" s="92">
@@ -13390,11 +13492,11 @@
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>38.5</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>38.5</v>
+        <v>43.83</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92">
@@ -13457,10 +13559,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX33" s="107"/>
-      <c r="BY33" s="92" t="str">
+      <c r="BX33" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY33" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ33" s="107"/>
       <c r="CA33" s="92" t="str">
@@ -13504,19 +13608,19 @@
       </c>
       <c r="CP33" s="103">
         <f t="shared" si="38"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CQ33" s="99">
         <f t="shared" si="39"/>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="CR33" s="99">
         <f t="shared" si="40"/>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>43.402000000000001</v>
+        <v>44.957999999999998</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13569,10 +13673,12 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L34" s="108"/>
+      <c r="L34" s="108">
+        <v>13</v>
+      </c>
       <c r="M34" s="92">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="N34" s="108"/>
       <c r="O34" s="92" t="str">
@@ -13614,7 +13720,7 @@
       <c r="AM34" s="94"/>
       <c r="AN34" s="95">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>11.333333333333336</v>
       </c>
       <c r="AO34" s="108"/>
       <c r="AP34" s="92">
@@ -13658,11 +13764,11 @@
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>32.200000000000003</v>
+        <v>36.533333333333331</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>32.200000000000003</v>
+        <v>36.53</v>
       </c>
       <c r="BE34" s="108"/>
       <c r="BF34" s="92">
@@ -13725,10 +13831,12 @@
         <f t="shared" si="28"/>
         <v>80</v>
       </c>
-      <c r="BX34" s="107"/>
-      <c r="BY34" s="92" t="str">
+      <c r="BX34" s="107">
+        <v>80</v>
+      </c>
+      <c r="BY34" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="BZ34" s="107"/>
       <c r="CA34" s="92" t="str">
@@ -13772,19 +13880,19 @@
       </c>
       <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v>42.916666666666664</v>
+        <v>42.5</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>42.916666666666664</v>
+        <v>42.5</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>42.92</v>
+        <v>42.5</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>38.632000000000005</v>
+        <v>40.112000000000002</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13974,9 +14082,9 @@
         <v>0</v>
       </c>
       <c r="BX35" s="107"/>
-      <c r="BY35" s="92" t="str">
+      <c r="BY35" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ35" s="107"/>
       <c r="CA35" s="92" t="str">
@@ -14222,9 +14330,9 @@
         <v>0</v>
       </c>
       <c r="BX36" s="107"/>
-      <c r="BY36" s="92" t="str">
+      <c r="BY36" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ36" s="107"/>
       <c r="CA36" s="92" t="str">
@@ -14470,9 +14578,9 @@
         <v>0</v>
       </c>
       <c r="BX37" s="107"/>
-      <c r="BY37" s="92" t="str">
+      <c r="BY37" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ37" s="107"/>
       <c r="CA37" s="92" t="str">
@@ -14718,9 +14826,9 @@
         <v>0</v>
       </c>
       <c r="BX38" s="107"/>
-      <c r="BY38" s="92" t="str">
+      <c r="BY38" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ38" s="107"/>
       <c r="CA38" s="92" t="str">
@@ -14966,9 +15074,9 @@
         <v>0</v>
       </c>
       <c r="BX39" s="107"/>
-      <c r="BY39" s="92" t="str">
+      <c r="BY39" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ39" s="107"/>
       <c r="CA39" s="92" t="str">
@@ -15214,9 +15322,9 @@
         <v>0</v>
       </c>
       <c r="BX40" s="107"/>
-      <c r="BY40" s="92" t="str">
+      <c r="BY40" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ40" s="107"/>
       <c r="CA40" s="92" t="str">
@@ -15462,9 +15570,9 @@
         <v>0</v>
       </c>
       <c r="BX41" s="107"/>
-      <c r="BY41" s="92" t="str">
+      <c r="BY41" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ41" s="107"/>
       <c r="CA41" s="92" t="str">
@@ -15710,9 +15818,9 @@
         <v>0</v>
       </c>
       <c r="BX42" s="107"/>
-      <c r="BY42" s="92" t="str">
+      <c r="BY42" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ42" s="107"/>
       <c r="CA42" s="92" t="str">
@@ -15958,9 +16066,9 @@
         <v>0</v>
       </c>
       <c r="BX43" s="107"/>
-      <c r="BY43" s="92" t="str">
+      <c r="BY43" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ43" s="107"/>
       <c r="CA43" s="92" t="str">
@@ -16206,9 +16314,9 @@
         <v>0</v>
       </c>
       <c r="BX44" s="107"/>
-      <c r="BY44" s="92" t="str">
+      <c r="BY44" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ44" s="107"/>
       <c r="CA44" s="92" t="str">
@@ -16454,9 +16562,9 @@
         <v>0</v>
       </c>
       <c r="BX45" s="107"/>
-      <c r="BY45" s="92" t="str">
+      <c r="BY45" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ45" s="107"/>
       <c r="CA45" s="92" t="str">
@@ -16702,9 +16810,9 @@
         <v>0</v>
       </c>
       <c r="BX46" s="107"/>
-      <c r="BY46" s="92" t="str">
+      <c r="BY46" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ46" s="107"/>
       <c r="CA46" s="92" t="str">
@@ -16950,9 +17058,9 @@
         <v>0</v>
       </c>
       <c r="BX47" s="107"/>
-      <c r="BY47" s="92" t="str">
+      <c r="BY47" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ47" s="107"/>
       <c r="CA47" s="92" t="str">
@@ -17198,9 +17306,9 @@
         <v>0</v>
       </c>
       <c r="BX48" s="107"/>
-      <c r="BY48" s="92" t="str">
+      <c r="BY48" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ48" s="107"/>
       <c r="CA48" s="92" t="str">
@@ -17446,9 +17554,9 @@
         <v>0</v>
       </c>
       <c r="BX49" s="107"/>
-      <c r="BY49" s="92" t="str">
+      <c r="BY49" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ49" s="107"/>
       <c r="CA49" s="92" t="str">
@@ -17694,9 +17802,9 @@
         <v>0</v>
       </c>
       <c r="BX50" s="107"/>
-      <c r="BY50" s="92" t="str">
+      <c r="BY50" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ50" s="107"/>
       <c r="CA50" s="92" t="str">
@@ -17942,9 +18050,9 @@
         <v>0</v>
       </c>
       <c r="BX51" s="107"/>
-      <c r="BY51" s="92" t="str">
+      <c r="BY51" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ51" s="107"/>
       <c r="CA51" s="92" t="str">
@@ -18190,9 +18298,9 @@
         <v>0</v>
       </c>
       <c r="BX52" s="107"/>
-      <c r="BY52" s="92" t="str">
+      <c r="BY52" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ52" s="107"/>
       <c r="CA52" s="92" t="str">
@@ -18438,9 +18546,9 @@
         <v>0</v>
       </c>
       <c r="BX53" s="107"/>
-      <c r="BY53" s="92" t="str">
+      <c r="BY53" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ53" s="107"/>
       <c r="CA53" s="92" t="str">
@@ -18686,9 +18794,9 @@
         <v>0</v>
       </c>
       <c r="BX54" s="107"/>
-      <c r="BY54" s="92" t="str">
+      <c r="BY54" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ54" s="107"/>
       <c r="CA54" s="92" t="str">
@@ -18934,9 +19042,9 @@
         <v>0</v>
       </c>
       <c r="BX55" s="107"/>
-      <c r="BY55" s="92" t="str">
+      <c r="BY55" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ55" s="107"/>
       <c r="CA55" s="92" t="str">
@@ -19182,9 +19290,9 @@
         <v>0</v>
       </c>
       <c r="BX56" s="107"/>
-      <c r="BY56" s="92" t="str">
+      <c r="BY56" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ56" s="107"/>
       <c r="CA56" s="92" t="str">
@@ -19430,9 +19538,9 @@
         <v>0</v>
       </c>
       <c r="BX57" s="107"/>
-      <c r="BY57" s="92" t="str">
+      <c r="BY57" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ57" s="107"/>
       <c r="CA57" s="92" t="str">
@@ -19678,9 +19786,9 @@
         <v>0</v>
       </c>
       <c r="BX58" s="107"/>
-      <c r="BY58" s="92" t="str">
+      <c r="BY58" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ58" s="107"/>
       <c r="CA58" s="92" t="str">
@@ -19926,9 +20034,9 @@
         <v>0</v>
       </c>
       <c r="BX59" s="107"/>
-      <c r="BY59" s="92" t="str">
+      <c r="BY59" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ59" s="107"/>
       <c r="CA59" s="92" t="str">
@@ -20174,9 +20282,9 @@
         <v>0</v>
       </c>
       <c r="BX60" s="107"/>
-      <c r="BY60" s="92" t="str">
+      <c r="BY60" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ60" s="107"/>
       <c r="CA60" s="92" t="str">
@@ -20422,9 +20530,9 @@
         <v>0</v>
       </c>
       <c r="BX61" s="107"/>
-      <c r="BY61" s="92" t="str">
+      <c r="BY61" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ61" s="107"/>
       <c r="CA61" s="92" t="str">
@@ -20670,9 +20778,9 @@
         <v>0</v>
       </c>
       <c r="BX62" s="107"/>
-      <c r="BY62" s="92" t="str">
+      <c r="BY62" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ62" s="107"/>
       <c r="CA62" s="92" t="str">
@@ -20918,9 +21026,9 @@
         <v>0</v>
       </c>
       <c r="BX63" s="107"/>
-      <c r="BY63" s="92" t="str">
+      <c r="BY63" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ63" s="107"/>
       <c r="CA63" s="92" t="str">
@@ -21166,9 +21274,9 @@
         <v>0</v>
       </c>
       <c r="BX64" s="107"/>
-      <c r="BY64" s="92" t="str">
+      <c r="BY64" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ64" s="107"/>
       <c r="CA64" s="92" t="str">
@@ -21414,9 +21522,9 @@
         <v>0</v>
       </c>
       <c r="BX65" s="107"/>
-      <c r="BY65" s="92" t="str">
+      <c r="BY65" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ65" s="107"/>
       <c r="CA65" s="92" t="str">
@@ -21662,9 +21770,9 @@
         <v>0</v>
       </c>
       <c r="BX66" s="107"/>
-      <c r="BY66" s="92" t="str">
+      <c r="BY66" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ66" s="107"/>
       <c r="CA66" s="92" t="str">
@@ -21910,9 +22018,9 @@
         <v>0</v>
       </c>
       <c r="BX67" s="107"/>
-      <c r="BY67" s="92" t="str">
+      <c r="BY67" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ67" s="107"/>
       <c r="CA67" s="92" t="str">
@@ -22158,9 +22266,9 @@
         <v>0</v>
       </c>
       <c r="BX68" s="107"/>
-      <c r="BY68" s="92" t="str">
+      <c r="BY68" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ68" s="107"/>
       <c r="CA68" s="92" t="str">
@@ -22406,9 +22514,9 @@
         <v>0</v>
       </c>
       <c r="BX69" s="107"/>
-      <c r="BY69" s="92" t="str">
+      <c r="BY69" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ69" s="107"/>
       <c r="CA69" s="92" t="str">
@@ -22654,9 +22762,9 @@
         <v>0</v>
       </c>
       <c r="BX70" s="107"/>
-      <c r="BY70" s="92" t="str">
+      <c r="BY70" s="92">
         <f t="shared" si="29"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="BZ70" s="107"/>
       <c r="CA70" s="92" t="str">
@@ -22726,6 +22834,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22742,88 +22932,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23035,7 +23143,7 @@
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
-        <v>6.5</v>
+        <v>11.833333333333336</v>
       </c>
       <c r="F8" s="52">
         <f>'RAW GRADES'!AU10</f>
@@ -23047,11 +23155,11 @@
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>39</v>
+        <v>44.333333333333336</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>39</v>
+        <v>44.33</v>
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
@@ -23059,19 +23167,19 @@
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>43.602000000000004</v>
+        <v>45.158000000000001</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -23100,7 +23208,7 @@
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
-        <v>5.5000000000000009</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="F9" s="52">
         <f>'RAW GRADES'!AU11</f>
@@ -23112,11 +23220,11 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>36.200000000000003</v>
+        <v>39.866666666666667</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>36.200000000000003</v>
+        <v>39.869999999999997</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
@@ -23124,19 +23232,19 @@
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>42.481999999999999</v>
+        <v>43.373999999999995</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -23165,7 +23273,7 @@
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
-        <v>5.5000000000000009</v>
+        <v>9.5</v>
       </c>
       <c r="F10" s="52">
         <f>'RAW GRADES'!AU12</f>
@@ -23177,11 +23285,11 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>24.799999999999997</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>24.8</v>
+        <v>28.8</v>
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
@@ -23189,19 +23297,19 @@
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>37.921999999999997</v>
+        <v>38.945999999999998</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23230,7 +23338,7 @@
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
-        <v>6.5</v>
+        <v>13.166666666666666</v>
       </c>
       <c r="F11" s="52">
         <f>'RAW GRADES'!AU13</f>
@@ -23242,11 +23350,11 @@
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>39.4</v>
+        <v>46.066666666666663</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>39.4</v>
+        <v>46.07</v>
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
@@ -23254,19 +23362,19 @@
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>43.762</v>
+        <v>45.853999999999999</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23295,7 +23403,7 @@
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
-        <v>7</v>
+        <v>14.333333333333332</v>
       </c>
       <c r="F12" s="52">
         <f>'RAW GRADES'!AU14</f>
@@ -23307,11 +23415,11 @@
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>37.599999999999994</v>
+        <v>44.93333333333333</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>37.6</v>
+        <v>44.93</v>
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
@@ -23319,19 +23427,19 @@
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v>48.333333333333336</v>
+        <v>47.142857142857146</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>48.333333333333336</v>
+        <v>47.142857142857146</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>48.33</v>
+        <v>47.14</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>44.037999999999997</v>
+        <v>46.256</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23360,7 +23468,7 @@
       </c>
       <c r="E13" s="52">
         <f>'RAW GRADES'!AN15</f>
-        <v>6</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="F13" s="52">
         <f>'RAW GRADES'!AU15</f>
@@ -23372,11 +23480,11 @@
       </c>
       <c r="H13" s="53">
         <f>'RAW GRADES'!BC15</f>
-        <v>15.5</v>
+        <v>21.166666666666664</v>
       </c>
       <c r="I13" s="53">
         <f>'RAW GRADES'!BD15</f>
-        <v>15.5</v>
+        <v>21.17</v>
       </c>
       <c r="J13" s="52">
         <f>'RAW GRADES'!BK15</f>
@@ -23384,19 +23492,19 @@
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>41.25</v>
+        <v>41.071428571428569</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>41.25</v>
+        <v>41.071428571428569</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>41.25</v>
+        <v>41.07</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>30.95</v>
+        <v>33.11</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23413,7 +23521,7 @@
       </c>
       <c r="B14" s="50" t="str">
         <f>'RAW GRADES'!C16</f>
-        <v>Dela Pieza Larslie Z</v>
+        <v>dela Pieza Larslie Z</v>
       </c>
       <c r="C14" s="57">
         <f>'RAW GRADES'!F16</f>
@@ -23425,7 +23533,7 @@
       </c>
       <c r="E14" s="52">
         <f>'RAW GRADES'!AN16</f>
-        <v>5.5000000000000009</v>
+        <v>11.166666666666668</v>
       </c>
       <c r="F14" s="52">
         <f>'RAW GRADES'!AU16</f>
@@ -23437,11 +23545,11 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>35.5</v>
+        <v>41.166666666666671</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>35.5</v>
+        <v>41.17</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
@@ -23449,19 +23557,19 @@
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>46.666666666666664</v>
+        <v>44.642857142857146</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>46.666666666666664</v>
+        <v>44.642857142857146</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>46.67</v>
+        <v>44.64</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>42.201999999999998</v>
+        <v>43.251999999999995</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23490,7 +23598,7 @@
       </c>
       <c r="E15" s="52">
         <f>'RAW GRADES'!AN17</f>
-        <v>6</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="F15" s="52">
         <f>'RAW GRADES'!AU17</f>
@@ -23502,11 +23610,11 @@
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>34</v>
+        <v>40.666666666666664</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>34</v>
+        <v>40.67</v>
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
@@ -23514,19 +23622,19 @@
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>41.602000000000004</v>
+        <v>43.694000000000003</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23555,7 +23663,7 @@
       </c>
       <c r="E16" s="52">
         <f>'RAW GRADES'!AN18</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F16" s="52">
         <f>'RAW GRADES'!AU18</f>
@@ -23567,11 +23675,11 @@
       </c>
       <c r="H16" s="53">
         <f>'RAW GRADES'!BC18</f>
-        <v>35.4</v>
+        <v>41.4</v>
       </c>
       <c r="I16" s="53">
         <f>'RAW GRADES'!BD18</f>
-        <v>35.4</v>
+        <v>41.4</v>
       </c>
       <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
@@ -23579,19 +23687,19 @@
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v>47.916666666666664</v>
+        <v>46.785714285714285</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>47.916666666666664</v>
+        <v>46.785714285714285</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>47.92</v>
+        <v>46.79</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>42.911999999999999</v>
+        <v>44.634</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23620,7 +23728,7 @@
       </c>
       <c r="E17" s="52">
         <f>'RAW GRADES'!AN19</f>
-        <v>6.5</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="F17" s="52">
         <f>'RAW GRADES'!AU19</f>
@@ -23632,11 +23740,11 @@
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>38.4</v>
+        <v>43.066666666666663</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>38.4</v>
+        <v>43.07</v>
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
@@ -23644,19 +23752,19 @@
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>43.361999999999995</v>
+        <v>44.653999999999996</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23685,7 +23793,7 @@
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
-        <v>4.5</v>
+        <v>10.833333333333334</v>
       </c>
       <c r="F18" s="52">
         <f>'RAW GRADES'!AU20</f>
@@ -23697,11 +23805,11 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>32</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>32</v>
+        <v>38.33</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
@@ -23709,19 +23817,19 @@
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>40.802</v>
+        <v>42.757999999999996</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23750,7 +23858,7 @@
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
-        <v>7</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="F19" s="52">
         <f>'RAW GRADES'!AU21</f>
@@ -23762,11 +23870,11 @@
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>36.299999999999997</v>
+        <v>41.966666666666669</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>36.299999999999997</v>
+        <v>41.97</v>
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
@@ -23774,19 +23882,19 @@
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>42.521999999999998</v>
+        <v>44.213999999999999</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23815,7 +23923,7 @@
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
-        <v>7.5</v>
+        <v>12.833333333333336</v>
       </c>
       <c r="F20" s="52">
         <f>'RAW GRADES'!AU22</f>
@@ -23827,11 +23935,11 @@
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>33.5</v>
+        <v>38.833333333333336</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>33.5</v>
+        <v>38.83</v>
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
@@ -23839,19 +23947,19 @@
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>41.402000000000001</v>
+        <v>42.957999999999998</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23880,7 +23988,7 @@
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
-        <v>7.5</v>
+        <v>13.833333333333332</v>
       </c>
       <c r="F21" s="52">
         <f>'RAW GRADES'!AU23</f>
@@ -23892,11 +24000,11 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>35.4</v>
+        <v>41.733333333333334</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>35.4</v>
+        <v>41.73</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
@@ -23904,19 +24012,19 @@
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>42.161999999999999</v>
+        <v>44.117999999999995</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -23945,7 +24053,7 @@
       </c>
       <c r="E22" s="52">
         <f>'RAW GRADES'!AN24</f>
-        <v>7.5</v>
+        <v>14.5</v>
       </c>
       <c r="F22" s="52">
         <f>'RAW GRADES'!AU24</f>
@@ -23957,11 +24065,11 @@
       </c>
       <c r="H22" s="53">
         <f>'RAW GRADES'!BC24</f>
-        <v>40.799999999999997</v>
+        <v>47.8</v>
       </c>
       <c r="I22" s="53">
         <f>'RAW GRADES'!BD24</f>
-        <v>40.799999999999997</v>
+        <v>47.8</v>
       </c>
       <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
@@ -23969,19 +24077,19 @@
       </c>
       <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v>50</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>50</v>
+        <v>48.571428571428569</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>50</v>
+        <v>48.57</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>46.32</v>
+        <v>48.262</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -24010,7 +24118,7 @@
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
-        <v>4.5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="F23" s="52">
         <f>'RAW GRADES'!AU25</f>
@@ -24022,11 +24130,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>31.5</v>
+        <v>33.166666666666671</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>31.5</v>
+        <v>33.17</v>
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
@@ -24034,19 +24142,19 @@
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>40.602000000000004</v>
+        <v>40.694000000000003</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -24075,7 +24183,7 @@
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
-        <v>7.5</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="F24" s="52">
         <f>'RAW GRADES'!AU26</f>
@@ -24087,11 +24195,11 @@
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>38.099999999999994</v>
+        <v>42.766666666666666</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>38.1</v>
+        <v>42.77</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
@@ -24099,19 +24207,19 @@
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>43.242000000000004</v>
+        <v>44.533999999999999</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24140,7 +24248,7 @@
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
-        <v>5.5000000000000009</v>
+        <v>9.8333333333333357</v>
       </c>
       <c r="F25" s="52">
         <f>'RAW GRADES'!AU27</f>
@@ -24152,11 +24260,11 @@
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>36.700000000000003</v>
+        <v>41.033333333333331</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>36.700000000000003</v>
+        <v>41.03</v>
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
@@ -24164,19 +24272,19 @@
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>42.682000000000002</v>
+        <v>43.838000000000001</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24205,7 +24313,7 @@
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
-        <v>5</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="F26" s="52">
         <f>'RAW GRADES'!AU28</f>
@@ -24217,11 +24325,11 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>29</v>
+        <v>34.666666666666664</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>29</v>
+        <v>34.67</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
@@ -24229,19 +24337,19 @@
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>39.602000000000004</v>
+        <v>41.293999999999997</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24270,7 +24378,7 @@
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
-        <v>6.5</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="F27" s="52">
         <f>'RAW GRADES'!AU29</f>
@@ -24282,11 +24390,11 @@
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>36.599999999999994</v>
+        <v>42.266666666666666</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>36.6</v>
+        <v>42.27</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
@@ -24294,19 +24402,19 @@
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>42.641999999999996</v>
+        <v>44.334000000000003</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24335,7 +24443,7 @@
       </c>
       <c r="E28" s="52">
         <f>'RAW GRADES'!AN30</f>
-        <v>6.5</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="F28" s="52">
         <f>'RAW GRADES'!AU30</f>
@@ -24347,11 +24455,11 @@
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>39.200000000000003</v>
+        <v>44.86666666666666</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>39.200000000000003</v>
+        <v>44.87</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
@@ -24359,19 +24467,19 @@
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>43.682000000000002</v>
+        <v>45.373999999999995</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24400,7 +24508,7 @@
       </c>
       <c r="E29" s="52">
         <f>'RAW GRADES'!AN31</f>
-        <v>0</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="F29" s="52">
         <f>'RAW GRADES'!AU31</f>
@@ -24412,11 +24520,11 @@
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>18.600000000000001</v>
+        <v>20.933333333333334</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>18.600000000000001</v>
+        <v>20.93</v>
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
@@ -24424,19 +24532,19 @@
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>35.442</v>
+        <v>35.798000000000002</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -24465,7 +24573,7 @@
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
-        <v>6</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="F30" s="52">
         <f>'RAW GRADES'!AU32</f>
@@ -24477,11 +24585,11 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>36.9</v>
+        <v>44.233333333333334</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>36.9</v>
+        <v>44.23</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
@@ -24489,19 +24597,19 @@
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>42.762</v>
+        <v>45.117999999999995</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24530,7 +24638,7 @@
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
-        <v>8.5</v>
+        <v>13.833333333333336</v>
       </c>
       <c r="F31" s="52">
         <f>'RAW GRADES'!AU33</f>
@@ -24542,11 +24650,11 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>38.5</v>
+        <v>43.833333333333336</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>38.5</v>
+        <v>43.83</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
@@ -24554,19 +24662,19 @@
       </c>
       <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
-        <v>46.666666666666664</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="M31" s="54">
         <f>'RAW GRADES'!CR33</f>
-        <v>46.67</v>
+        <v>45.71</v>
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>43.402000000000001</v>
+        <v>44.957999999999998</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24595,7 +24703,7 @@
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
-        <v>7</v>
+        <v>11.333333333333336</v>
       </c>
       <c r="F32" s="52">
         <f>'RAW GRADES'!AU34</f>
@@ -24607,11 +24715,11 @@
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>32.200000000000003</v>
+        <v>36.533333333333331</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>32.200000000000003</v>
+        <v>36.53</v>
       </c>
       <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
@@ -24619,19 +24727,19 @@
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v>42.916666666666664</v>
+        <v>42.5</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>42.916666666666664</v>
+        <v>42.5</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>42.92</v>
+        <v>42.5</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>38.632000000000005</v>
+        <v>40.112000000000002</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -27038,106 +27146,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="259"/>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="229" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="262"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="265"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="259"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="266"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="A10" s="233"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="267" t="s">
+      <c r="A11" s="234" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="265"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="265"/>
-      <c r="E12" s="265"/>
-      <c r="F12" s="265"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="232"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="268" t="str">
+      <c r="C13" s="235" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27145,12 +27253,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="261" t="str">
+      <c r="C14" s="227" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="227"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27158,12 +27266,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="247" t="str">
+      <c r="C15" s="238" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27171,12 +27279,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="247" t="str">
+      <c r="C16" s="238" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="247"/>
-      <c r="E16" s="247"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27184,12 +27292,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="247" t="str">
+      <c r="C17" s="238" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="247"/>
-      <c r="E17" s="247"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27201,42 +27309,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="251" t="s">
+      <c r="B19" s="242" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="248" t="s">
+      <c r="C19" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="248" t="s">
+      <c r="D19" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="253" t="s">
+      <c r="E19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="248" t="s">
+      <c r="F19" s="239" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="249"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="249"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="256"/>
+      <c r="A20" s="240"/>
+      <c r="B20" s="243"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="247"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="250"/>
+      <c r="A21" s="241"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="257"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="248"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -27394,7 +27502,7 @@
       </c>
       <c r="B28" s="66" t="str">
         <f>'DEPT CHAIR'!B14</f>
-        <v>Dela Pieza Larslie Z</v>
+        <v>dela Pieza Larslie Z</v>
       </c>
       <c r="C28" s="67" t="str">
         <f>REGISTRATION!B17</f>
@@ -28749,14 +28857,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="231" t="s">
+      <c r="A83" s="255" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="232"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="232"/>
-      <c r="E83" s="232"/>
-      <c r="F83" s="233"/>
+      <c r="B83" s="256"/>
+      <c r="C83" s="256"/>
+      <c r="D83" s="256"/>
+      <c r="E83" s="256"/>
+      <c r="F83" s="257"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28789,11 +28897,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="258">
+      <c r="E87" s="249">
         <f ca="1">NOW()</f>
-        <v>43040.816120254633</v>
-      </c>
-      <c r="F87" s="258"/>
+        <v>43041.471787615737</v>
+      </c>
+      <c r="F87" s="249"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28803,10 +28911,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="259" t="s">
+      <c r="E88" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="259"/>
+      <c r="F88" s="228"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28823,8 +28931,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="259"/>
-      <c r="F90" s="259"/>
+      <c r="E90" s="228"/>
+      <c r="F90" s="228"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -28940,14 +29048,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="260" t="s">
+      <c r="A105" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="260"/>
-      <c r="C105" s="260"/>
-      <c r="D105" s="260"/>
-      <c r="E105" s="260"/>
-      <c r="F105" s="260"/>
+      <c r="B105" s="250"/>
+      <c r="C105" s="250"/>
+      <c r="D105" s="250"/>
+      <c r="E105" s="250"/>
+      <c r="F105" s="250"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -28962,124 +29070,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="244" t="s">
+      <c r="C107" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="245"/>
-      <c r="E107" s="246" t="s">
+      <c r="D107" s="237"/>
+      <c r="E107" s="236" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="245"/>
+      <c r="F107" s="237"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="240">
+      <c r="C108" s="264">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="241"/>
-      <c r="E108" s="242">
+      <c r="D108" s="265"/>
+      <c r="E108" s="266">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="243"/>
+      <c r="F108" s="267"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="234">
+      <c r="C109" s="258">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="235"/>
-      <c r="E109" s="236">
+      <c r="D109" s="259"/>
+      <c r="E109" s="260">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="237"/>
+      <c r="F109" s="261"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="234">
+      <c r="C110" s="258">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="235"/>
-      <c r="E110" s="236">
+      <c r="D110" s="259"/>
+      <c r="E110" s="260">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="237"/>
+      <c r="F110" s="261"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="234">
+      <c r="C111" s="258">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="235"/>
-      <c r="E111" s="236">
+      <c r="D111" s="259"/>
+      <c r="E111" s="260">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="237"/>
+      <c r="F111" s="261"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="238">
-        <v>0</v>
-      </c>
-      <c r="D112" s="239"/>
-      <c r="E112" s="236">
+      <c r="C112" s="262">
+        <v>0</v>
+      </c>
+      <c r="D112" s="263"/>
+      <c r="E112" s="260">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="237"/>
+      <c r="F112" s="261"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="238">
-        <v>0</v>
-      </c>
-      <c r="D113" s="239"/>
-      <c r="E113" s="236">
+      <c r="C113" s="262">
+        <v>0</v>
+      </c>
+      <c r="D113" s="263"/>
+      <c r="E113" s="260">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="237"/>
+      <c r="F113" s="261"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="227">
+      <c r="C114" s="251">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="228"/>
-      <c r="E114" s="229">
+      <c r="D114" s="252"/>
+      <c r="E114" s="253">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="230"/>
+      <c r="F114" s="254"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -29247,32 +29355,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -29289,6 +29371,32 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -29600,7 +29708,7 @@
       </c>
       <c r="C10" s="113" t="str">
         <f>'SEMESTRAL GRADE'!B28</f>
-        <v>Dela Pieza Larslie Z</v>
+        <v>dela Pieza Larslie Z</v>
       </c>
       <c r="D10" s="116"/>
       <c r="E10" s="41"/>

--- a/DCIT 65 - CS 3B/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3B/LEC AND LAB.xlsx
@@ -2306,37 +2306,99 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2376,104 +2438,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2514,93 +2601,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2659,102 +2659,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2828,6 +2732,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3911,7 +3911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3944,82 +3944,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129" t="s">
+      <c r="A6" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="130"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4027,28 +4027,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="131" t="s">
+      <c r="J6" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="134"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4056,28 +4056,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="135"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="138"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4085,45 +4085,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="139" t="s">
+      <c r="J8" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146" t="s">
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="146" t="s">
+      <c r="G9" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="149" t="s">
+      <c r="K9" s="146"/>
+      <c r="L9" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="150"/>
+      <c r="M9" s="146"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="142"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4133,14 +4133,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4161,19 +4161,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="158"/>
-      <c r="O11" s="169" t="s">
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="150"/>
+      <c r="O11" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="171"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4194,21 +4194,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="167" t="s">
+      <c r="P12" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="167"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4229,21 +4229,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="167" t="s">
+      <c r="P13" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="167"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="164" t="s">
+      <c r="P14" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4299,21 +4299,21 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="164" t="s">
+      <c r="P15" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="131"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4334,21 +4334,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="172" t="s">
+      <c r="P16" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4369,21 +4369,21 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="164" t="s">
+      <c r="P17" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="166"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="131"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4404,13 +4404,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4431,13 +4431,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4458,13 +4458,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4485,13 +4485,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4515,13 +4515,13 @@
       <c r="F22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4548,13 +4548,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4581,13 +4581,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4614,13 +4614,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4647,13 +4647,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4680,13 +4680,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4713,13 +4713,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4746,13 +4746,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4779,13 +4779,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4812,13 +4812,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4841,13 +4841,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4874,13 +4874,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4901,13 +4901,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4928,13 +4928,13 @@
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4945,13 +4945,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4962,13 +4962,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4979,13 +4979,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="135"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4996,13 +4996,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5013,13 +5013,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5030,13 +5030,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5047,13 +5047,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5064,13 +5064,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5081,13 +5081,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="155"/>
-      <c r="M44" s="155"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5098,13 +5098,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="161"/>
-      <c r="K45" s="161"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5115,13 +5115,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="161"/>
-      <c r="K46" s="161"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5132,13 +5132,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="161"/>
-      <c r="K47" s="161"/>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5149,13 +5149,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="161"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5166,13 +5166,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5183,13 +5183,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5200,13 +5200,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="161"/>
-      <c r="K51" s="161"/>
-      <c r="L51" s="155"/>
-      <c r="M51" s="155"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5217,13 +5217,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5234,13 +5234,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5251,13 +5251,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="161"/>
-      <c r="L54" s="155"/>
-      <c r="M54" s="155"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="135"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5268,13 +5268,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="155"/>
-      <c r="M55" s="155"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5285,13 +5285,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5302,13 +5302,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="161"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="155"/>
-      <c r="M57" s="155"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5319,13 +5319,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="161"/>
-      <c r="K58" s="161"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5336,13 +5336,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="152"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="161"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5353,13 +5353,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5370,13 +5370,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="161"/>
-      <c r="K61" s="161"/>
-      <c r="L61" s="155"/>
-      <c r="M61" s="155"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5387,13 +5387,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="155"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5404,13 +5404,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
-      <c r="I63" s="152"/>
-      <c r="J63" s="161"/>
-      <c r="K63" s="161"/>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="133"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="135"/>
+      <c r="M63" s="135"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5421,13 +5421,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="161"/>
-      <c r="K64" s="161"/>
-      <c r="L64" s="155"/>
-      <c r="M64" s="155"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5438,13 +5438,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="161"/>
-      <c r="K65" s="161"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5455,13 +5455,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="152"/>
-      <c r="I66" s="152"/>
-      <c r="J66" s="161"/>
-      <c r="K66" s="161"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="135"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5472,13 +5472,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="152"/>
-      <c r="I67" s="152"/>
-      <c r="J67" s="161"/>
-      <c r="K67" s="161"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5489,13 +5489,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="152"/>
-      <c r="I68" s="152"/>
-      <c r="J68" s="161"/>
-      <c r="K68" s="161"/>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="135"/>
+      <c r="M68" s="135"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5506,13 +5506,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="152"/>
-      <c r="I69" s="152"/>
-      <c r="J69" s="161"/>
-      <c r="K69" s="161"/>
-      <c r="L69" s="155"/>
-      <c r="M69" s="155"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="134"/>
+      <c r="L69" s="135"/>
+      <c r="M69" s="135"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5523,13 +5523,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="161"/>
-      <c r="K70" s="161"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="135"/>
+      <c r="M70" s="135"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5540,13 +5540,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="152"/>
-      <c r="H71" s="152"/>
-      <c r="I71" s="152"/>
-      <c r="J71" s="161"/>
-      <c r="K71" s="161"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="133"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="135"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5554,6 +5554,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5578,195 +5767,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
@@ -6107,9 +6107,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="CC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CP24" sqref="CP24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BG25" sqref="BG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6123,452 +6123,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="168"/>
-      <c r="AO2" s="168"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="168"/>
-      <c r="AV2" s="168"/>
-      <c r="AW2" s="168"/>
-      <c r="AX2" s="168"/>
-      <c r="AY2" s="168"/>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="168"/>
-      <c r="BB2" s="168"/>
-      <c r="BC2" s="168"/>
-      <c r="BD2" s="168"/>
-      <c r="BE2" s="168"/>
-      <c r="BF2" s="168"/>
-      <c r="BG2" s="168"/>
-      <c r="BH2" s="168"/>
-      <c r="BI2" s="168"/>
-      <c r="BJ2" s="168"/>
-      <c r="BK2" s="168"/>
-      <c r="BL2" s="168"/>
-      <c r="BM2" s="168"/>
-      <c r="BN2" s="168"/>
-      <c r="BO2" s="168"/>
-      <c r="BP2" s="168"/>
-      <c r="BQ2" s="168"/>
-      <c r="BR2" s="168"/>
-      <c r="BS2" s="168"/>
-      <c r="BT2" s="168"/>
-      <c r="BU2" s="168"/>
-      <c r="BV2" s="168"/>
-      <c r="BW2" s="168"/>
-      <c r="BX2" s="168"/>
-      <c r="BY2" s="168"/>
-      <c r="BZ2" s="168"/>
-      <c r="CA2" s="168"/>
-      <c r="CB2" s="168"/>
-      <c r="CC2" s="168"/>
-      <c r="CD2" s="168"/>
-      <c r="CE2" s="168"/>
-      <c r="CF2" s="168"/>
-      <c r="CG2" s="168"/>
-      <c r="CH2" s="168"/>
-      <c r="CI2" s="168"/>
-      <c r="CJ2" s="168"/>
-      <c r="CK2" s="168"/>
-      <c r="CL2" s="168"/>
-      <c r="CM2" s="168"/>
-      <c r="CN2" s="168"/>
-      <c r="CO2" s="168"/>
-      <c r="CP2" s="168"/>
-      <c r="CQ2" s="168"/>
-      <c r="CR2" s="168"/>
-      <c r="CS2" s="168"/>
-      <c r="CT2" s="168"/>
-      <c r="CU2" s="168"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="136"/>
+      <c r="BR2" s="136"/>
+      <c r="BS2" s="136"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="136"/>
+      <c r="BV2" s="136"/>
+      <c r="BW2" s="136"/>
+      <c r="BX2" s="136"/>
+      <c r="BY2" s="136"/>
+      <c r="BZ2" s="136"/>
+      <c r="CA2" s="136"/>
+      <c r="CB2" s="136"/>
+      <c r="CC2" s="136"/>
+      <c r="CD2" s="136"/>
+      <c r="CE2" s="136"/>
+      <c r="CF2" s="136"/>
+      <c r="CG2" s="136"/>
+      <c r="CH2" s="136"/>
+      <c r="CI2" s="136"/>
+      <c r="CJ2" s="136"/>
+      <c r="CK2" s="136"/>
+      <c r="CL2" s="136"/>
+      <c r="CM2" s="136"/>
+      <c r="CN2" s="136"/>
+      <c r="CO2" s="136"/>
+      <c r="CP2" s="136"/>
+      <c r="CQ2" s="136"/>
+      <c r="CR2" s="136"/>
+      <c r="CS2" s="136"/>
+      <c r="CT2" s="136"/>
+      <c r="CU2" s="136"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="168"/>
-      <c r="AM3" s="168"/>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="168"/>
-      <c r="AX3" s="168"/>
-      <c r="AY3" s="168"/>
-      <c r="AZ3" s="168"/>
-      <c r="BA3" s="168"/>
-      <c r="BB3" s="168"/>
-      <c r="BC3" s="168"/>
-      <c r="BD3" s="168"/>
-      <c r="BE3" s="168"/>
-      <c r="BF3" s="168"/>
-      <c r="BG3" s="168"/>
-      <c r="BH3" s="168"/>
-      <c r="BI3" s="168"/>
-      <c r="BJ3" s="168"/>
-      <c r="BK3" s="168"/>
-      <c r="BL3" s="168"/>
-      <c r="BM3" s="168"/>
-      <c r="BN3" s="168"/>
-      <c r="BO3" s="168"/>
-      <c r="BP3" s="168"/>
-      <c r="BQ3" s="168"/>
-      <c r="BR3" s="168"/>
-      <c r="BS3" s="168"/>
-      <c r="BT3" s="168"/>
-      <c r="BU3" s="168"/>
-      <c r="BV3" s="168"/>
-      <c r="BW3" s="168"/>
-      <c r="BX3" s="168"/>
-      <c r="BY3" s="168"/>
-      <c r="BZ3" s="168"/>
-      <c r="CA3" s="168"/>
-      <c r="CB3" s="168"/>
-      <c r="CC3" s="168"/>
-      <c r="CD3" s="168"/>
-      <c r="CE3" s="168"/>
-      <c r="CF3" s="168"/>
-      <c r="CG3" s="168"/>
-      <c r="CH3" s="168"/>
-      <c r="CI3" s="168"/>
-      <c r="CJ3" s="168"/>
-      <c r="CK3" s="168"/>
-      <c r="CL3" s="168"/>
-      <c r="CM3" s="168"/>
-      <c r="CN3" s="168"/>
-      <c r="CO3" s="168"/>
-      <c r="CP3" s="168"/>
-      <c r="CQ3" s="168"/>
-      <c r="CR3" s="168"/>
-      <c r="CS3" s="168"/>
-      <c r="CT3" s="168"/>
-      <c r="CU3" s="168"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="136"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="136"/>
+      <c r="BZ3" s="136"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="136"/>
+      <c r="CE3" s="136"/>
+      <c r="CF3" s="136"/>
+      <c r="CG3" s="136"/>
+      <c r="CH3" s="136"/>
+      <c r="CI3" s="136"/>
+      <c r="CJ3" s="136"/>
+      <c r="CK3" s="136"/>
+      <c r="CL3" s="136"/>
+      <c r="CM3" s="136"/>
+      <c r="CN3" s="136"/>
+      <c r="CO3" s="136"/>
+      <c r="CP3" s="136"/>
+      <c r="CQ3" s="136"/>
+      <c r="CR3" s="136"/>
+      <c r="CS3" s="136"/>
+      <c r="CT3" s="136"/>
+      <c r="CU3" s="136"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="181"/>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="181"/>
-      <c r="AT5" s="181"/>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="181"/>
-      <c r="BA5" s="181"/>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="182"/>
-      <c r="BE5" s="183" t="s">
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+      <c r="AK5" s="206"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="206"/>
+      <c r="AN5" s="206"/>
+      <c r="AO5" s="206"/>
+      <c r="AP5" s="206"/>
+      <c r="AQ5" s="206"/>
+      <c r="AR5" s="206"/>
+      <c r="AS5" s="206"/>
+      <c r="AT5" s="206"/>
+      <c r="AU5" s="206"/>
+      <c r="AV5" s="206"/>
+      <c r="AW5" s="206"/>
+      <c r="AX5" s="206"/>
+      <c r="AY5" s="206"/>
+      <c r="AZ5" s="206"/>
+      <c r="BA5" s="206"/>
+      <c r="BB5" s="206"/>
+      <c r="BC5" s="206"/>
+      <c r="BD5" s="207"/>
+      <c r="BE5" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="184"/>
-      <c r="BG5" s="184"/>
-      <c r="BH5" s="184"/>
-      <c r="BI5" s="184"/>
-      <c r="BJ5" s="184"/>
-      <c r="BK5" s="184"/>
-      <c r="BL5" s="184"/>
-      <c r="BM5" s="184"/>
-      <c r="BN5" s="184"/>
-      <c r="BO5" s="184"/>
-      <c r="BP5" s="184"/>
-      <c r="BQ5" s="184"/>
-      <c r="BR5" s="184"/>
-      <c r="BS5" s="184"/>
-      <c r="BT5" s="184"/>
-      <c r="BU5" s="184"/>
-      <c r="BV5" s="184"/>
-      <c r="BW5" s="184"/>
-      <c r="BX5" s="184"/>
-      <c r="BY5" s="184"/>
-      <c r="BZ5" s="184"/>
-      <c r="CA5" s="184"/>
-      <c r="CB5" s="184"/>
-      <c r="CC5" s="184"/>
-      <c r="CD5" s="184"/>
-      <c r="CE5" s="184"/>
-      <c r="CF5" s="184"/>
-      <c r="CG5" s="184"/>
-      <c r="CH5" s="184"/>
-      <c r="CI5" s="184"/>
-      <c r="CJ5" s="184"/>
-      <c r="CK5" s="184"/>
-      <c r="CL5" s="184"/>
-      <c r="CM5" s="184"/>
-      <c r="CN5" s="184"/>
-      <c r="CO5" s="184"/>
-      <c r="CP5" s="184"/>
-      <c r="CQ5" s="184"/>
-      <c r="CR5" s="185"/>
-      <c r="CS5" s="190" t="s">
+      <c r="BF5" s="209"/>
+      <c r="BG5" s="209"/>
+      <c r="BH5" s="209"/>
+      <c r="BI5" s="209"/>
+      <c r="BJ5" s="209"/>
+      <c r="BK5" s="209"/>
+      <c r="BL5" s="209"/>
+      <c r="BM5" s="209"/>
+      <c r="BN5" s="209"/>
+      <c r="BO5" s="209"/>
+      <c r="BP5" s="209"/>
+      <c r="BQ5" s="209"/>
+      <c r="BR5" s="209"/>
+      <c r="BS5" s="209"/>
+      <c r="BT5" s="209"/>
+      <c r="BU5" s="209"/>
+      <c r="BV5" s="209"/>
+      <c r="BW5" s="209"/>
+      <c r="BX5" s="209"/>
+      <c r="BY5" s="209"/>
+      <c r="BZ5" s="209"/>
+      <c r="CA5" s="209"/>
+      <c r="CB5" s="209"/>
+      <c r="CC5" s="209"/>
+      <c r="CD5" s="209"/>
+      <c r="CE5" s="209"/>
+      <c r="CF5" s="209"/>
+      <c r="CG5" s="209"/>
+      <c r="CH5" s="209"/>
+      <c r="CI5" s="209"/>
+      <c r="CJ5" s="209"/>
+      <c r="CK5" s="209"/>
+      <c r="CL5" s="209"/>
+      <c r="CM5" s="209"/>
+      <c r="CN5" s="209"/>
+      <c r="CO5" s="209"/>
+      <c r="CP5" s="209"/>
+      <c r="CQ5" s="209"/>
+      <c r="CR5" s="210"/>
+      <c r="CS5" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="191"/>
-      <c r="CU5" s="192"/>
+      <c r="CT5" s="198"/>
+      <c r="CU5" s="199"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="177"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="210" t="s">
+      <c r="A6" s="202"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="196" t="s">
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="196"/>
-      <c r="AF6" s="196"/>
-      <c r="AG6" s="196"/>
-      <c r="AH6" s="196"/>
-      <c r="AI6" s="196"/>
-      <c r="AJ6" s="196"/>
-      <c r="AK6" s="196"/>
-      <c r="AL6" s="196"/>
-      <c r="AM6" s="196"/>
-      <c r="AN6" s="196"/>
-      <c r="AO6" s="196" t="s">
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="183"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="183"/>
+      <c r="AH6" s="183"/>
+      <c r="AI6" s="183"/>
+      <c r="AJ6" s="183"/>
+      <c r="AK6" s="183"/>
+      <c r="AL6" s="183"/>
+      <c r="AM6" s="183"/>
+      <c r="AN6" s="183"/>
+      <c r="AO6" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="196"/>
-      <c r="AQ6" s="196"/>
-      <c r="AR6" s="196"/>
-      <c r="AS6" s="196" t="s">
+      <c r="AP6" s="183"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="196"/>
-      <c r="AU6" s="196"/>
-      <c r="AV6" s="196" t="s">
+      <c r="AT6" s="183"/>
+      <c r="AU6" s="183"/>
+      <c r="AV6" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="196"/>
-      <c r="AX6" s="196"/>
-      <c r="AY6" s="196"/>
-      <c r="AZ6" s="196"/>
-      <c r="BA6" s="196"/>
-      <c r="BB6" s="196"/>
-      <c r="BC6" s="200" t="s">
+      <c r="AW6" s="183"/>
+      <c r="AX6" s="183"/>
+      <c r="AY6" s="183"/>
+      <c r="AZ6" s="183"/>
+      <c r="BA6" s="183"/>
+      <c r="BB6" s="183"/>
+      <c r="BC6" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="201"/>
-      <c r="BE6" s="202" t="s">
+      <c r="BD6" s="191"/>
+      <c r="BE6" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="203"/>
-      <c r="BG6" s="203"/>
-      <c r="BH6" s="203"/>
-      <c r="BI6" s="203"/>
-      <c r="BJ6" s="203"/>
-      <c r="BK6" s="204"/>
-      <c r="BL6" s="205" t="s">
+      <c r="BF6" s="193"/>
+      <c r="BG6" s="193"/>
+      <c r="BH6" s="193"/>
+      <c r="BI6" s="193"/>
+      <c r="BJ6" s="193"/>
+      <c r="BK6" s="194"/>
+      <c r="BL6" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="203"/>
-      <c r="BN6" s="203"/>
-      <c r="BO6" s="203"/>
-      <c r="BP6" s="203"/>
-      <c r="BQ6" s="203"/>
-      <c r="BR6" s="203"/>
-      <c r="BS6" s="203"/>
-      <c r="BT6" s="203"/>
-      <c r="BU6" s="203"/>
-      <c r="BV6" s="203"/>
-      <c r="BW6" s="203"/>
-      <c r="BX6" s="203"/>
-      <c r="BY6" s="203"/>
-      <c r="BZ6" s="203"/>
-      <c r="CA6" s="203"/>
-      <c r="CB6" s="203"/>
-      <c r="CC6" s="203"/>
-      <c r="CD6" s="203"/>
-      <c r="CE6" s="203"/>
-      <c r="CF6" s="203"/>
-      <c r="CG6" s="203"/>
-      <c r="CH6" s="203"/>
-      <c r="CI6" s="203"/>
-      <c r="CJ6" s="203"/>
-      <c r="CK6" s="203"/>
-      <c r="CL6" s="203"/>
-      <c r="CM6" s="203"/>
-      <c r="CN6" s="203"/>
-      <c r="CO6" s="203"/>
-      <c r="CP6" s="203"/>
-      <c r="CQ6" s="193" t="s">
+      <c r="BM6" s="193"/>
+      <c r="BN6" s="193"/>
+      <c r="BO6" s="193"/>
+      <c r="BP6" s="193"/>
+      <c r="BQ6" s="193"/>
+      <c r="BR6" s="193"/>
+      <c r="BS6" s="193"/>
+      <c r="BT6" s="193"/>
+      <c r="BU6" s="193"/>
+      <c r="BV6" s="193"/>
+      <c r="BW6" s="193"/>
+      <c r="BX6" s="193"/>
+      <c r="BY6" s="193"/>
+      <c r="BZ6" s="193"/>
+      <c r="CA6" s="193"/>
+      <c r="CB6" s="193"/>
+      <c r="CC6" s="193"/>
+      <c r="CD6" s="193"/>
+      <c r="CE6" s="193"/>
+      <c r="CF6" s="193"/>
+      <c r="CG6" s="193"/>
+      <c r="CH6" s="193"/>
+      <c r="CI6" s="193"/>
+      <c r="CJ6" s="193"/>
+      <c r="CK6" s="193"/>
+      <c r="CL6" s="193"/>
+      <c r="CM6" s="193"/>
+      <c r="CN6" s="193"/>
+      <c r="CO6" s="193"/>
+      <c r="CP6" s="193"/>
+      <c r="CQ6" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="193"/>
-      <c r="CS6" s="175" t="s">
+      <c r="CR6" s="200"/>
+      <c r="CS6" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="175" t="s">
+      <c r="CT6" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="197" t="s">
+      <c r="CU6" s="187" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6577,345 +6577,347 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="188">
+      <c r="J7" s="182">
         <v>42980</v>
       </c>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188">
+      <c r="K7" s="182"/>
+      <c r="L7" s="182">
         <v>43035</v>
       </c>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="189">
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="186">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
-        <v>2</v>
-      </c>
-      <c r="U7" s="189"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="188"/>
-      <c r="AC7" s="188"/>
-      <c r="AD7" s="188"/>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="188"/>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="188"/>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="188"/>
-      <c r="AK7" s="188"/>
-      <c r="AL7" s="188"/>
-      <c r="AM7" s="188"/>
+        <v>3</v>
+      </c>
+      <c r="U7" s="186"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="182"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="182"/>
+      <c r="AJ7" s="182"/>
+      <c r="AK7" s="182"/>
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="188" t="s">
+      <c r="AO7" s="182" t="s">
         <v>253</v>
       </c>
-      <c r="AP7" s="188"/>
-      <c r="AQ7" s="188"/>
-      <c r="AR7" s="188"/>
-      <c r="AS7" s="189">
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="186">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="189"/>
+      <c r="AT7" s="186"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="188" t="s">
+      <c r="AV7" s="182" t="s">
         <v>254</v>
       </c>
-      <c r="AW7" s="188"/>
-      <c r="AX7" s="188"/>
-      <c r="AY7" s="188"/>
-      <c r="AZ7" s="189">
+      <c r="AW7" s="182"/>
+      <c r="AX7" s="182"/>
+      <c r="AY7" s="182"/>
+      <c r="AZ7" s="186">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="189"/>
+      <c r="BA7" s="186"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="200"/>
-      <c r="BD7" s="201"/>
-      <c r="BE7" s="188" t="s">
+      <c r="BC7" s="190"/>
+      <c r="BD7" s="191"/>
+      <c r="BE7" s="182" t="s">
         <v>255</v>
       </c>
-      <c r="BF7" s="188"/>
-      <c r="BG7" s="188" t="s">
+      <c r="BF7" s="182"/>
+      <c r="BG7" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="BH7" s="188"/>
-      <c r="BI7" s="189">
+      <c r="BH7" s="182"/>
+      <c r="BI7" s="186">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="189"/>
+      <c r="BJ7" s="186"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="188">
+      <c r="BL7" s="182">
         <v>42980</v>
       </c>
-      <c r="BM7" s="188"/>
-      <c r="BN7" s="188">
+      <c r="BM7" s="182"/>
+      <c r="BN7" s="182">
         <v>42980</v>
       </c>
-      <c r="BO7" s="188"/>
-      <c r="BP7" s="188">
+      <c r="BO7" s="182"/>
+      <c r="BP7" s="182">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="188"/>
-      <c r="BR7" s="188">
+      <c r="BQ7" s="182"/>
+      <c r="BR7" s="182">
         <v>42987</v>
       </c>
-      <c r="BS7" s="188"/>
-      <c r="BT7" s="188">
+      <c r="BS7" s="182"/>
+      <c r="BT7" s="182">
         <v>43035</v>
       </c>
-      <c r="BU7" s="188"/>
-      <c r="BV7" s="188">
+      <c r="BU7" s="182"/>
+      <c r="BV7" s="182">
         <v>43035</v>
       </c>
-      <c r="BW7" s="188"/>
-      <c r="BX7" s="188">
+      <c r="BW7" s="182"/>
+      <c r="BX7" s="182">
         <v>43036</v>
       </c>
-      <c r="BY7" s="188"/>
-      <c r="BZ7" s="188"/>
-      <c r="CA7" s="188"/>
-      <c r="CB7" s="188"/>
-      <c r="CC7" s="188"/>
-      <c r="CD7" s="188"/>
-      <c r="CE7" s="188"/>
-      <c r="CF7" s="188"/>
-      <c r="CG7" s="188"/>
-      <c r="CH7" s="188"/>
-      <c r="CI7" s="188"/>
-      <c r="CJ7" s="188"/>
-      <c r="CK7" s="188"/>
-      <c r="CL7" s="188"/>
-      <c r="CM7" s="188"/>
-      <c r="CN7" s="189">
+      <c r="BY7" s="182"/>
+      <c r="BZ7" s="182">
+        <v>43050</v>
+      </c>
+      <c r="CA7" s="182"/>
+      <c r="CB7" s="182"/>
+      <c r="CC7" s="182"/>
+      <c r="CD7" s="182"/>
+      <c r="CE7" s="182"/>
+      <c r="CF7" s="182"/>
+      <c r="CG7" s="182"/>
+      <c r="CH7" s="182"/>
+      <c r="CI7" s="182"/>
+      <c r="CJ7" s="182"/>
+      <c r="CK7" s="182"/>
+      <c r="CL7" s="182"/>
+      <c r="CM7" s="182"/>
+      <c r="CN7" s="186">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>7</v>
-      </c>
-      <c r="CO7" s="189"/>
+        <v>8</v>
+      </c>
+      <c r="CO7" s="186"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="193"/>
-      <c r="CR7" s="193"/>
-      <c r="CS7" s="175"/>
-      <c r="CT7" s="175"/>
-      <c r="CU7" s="198"/>
+      <c r="CQ7" s="200"/>
+      <c r="CR7" s="200"/>
+      <c r="CS7" s="196"/>
+      <c r="CT7" s="196"/>
+      <c r="CU7" s="188"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="186" t="s">
+      <c r="A8" s="202"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186" t="s">
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187" t="s">
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187" t="s">
+      <c r="K8" s="175"/>
+      <c r="L8" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187" t="s">
+      <c r="M8" s="175"/>
+      <c r="N8" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="187"/>
-      <c r="P8" s="187" t="s">
+      <c r="O8" s="175"/>
+      <c r="P8" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="187" t="s">
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="187"/>
-      <c r="T8" s="187" t="s">
+      <c r="S8" s="175"/>
+      <c r="T8" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="187"/>
-      <c r="V8" s="187" t="s">
+      <c r="U8" s="175"/>
+      <c r="V8" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="187"/>
-      <c r="X8" s="187" t="s">
+      <c r="W8" s="175"/>
+      <c r="X8" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="187"/>
-      <c r="Z8" s="187" t="s">
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="187"/>
-      <c r="AB8" s="187" t="s">
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="187"/>
-      <c r="AD8" s="187" t="s">
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="187"/>
-      <c r="AF8" s="187" t="s">
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="187"/>
-      <c r="AH8" s="187" t="s">
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="187"/>
-      <c r="AJ8" s="187" t="s">
+      <c r="AI8" s="175"/>
+      <c r="AJ8" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="187"/>
-      <c r="AL8" s="187" t="s">
+      <c r="AK8" s="175"/>
+      <c r="AL8" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="187"/>
+      <c r="AM8" s="175"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="187" t="s">
+      <c r="AO8" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="187"/>
-      <c r="AQ8" s="187" t="s">
+      <c r="AP8" s="175"/>
+      <c r="AQ8" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="187"/>
-      <c r="AS8" s="187" t="s">
+      <c r="AR8" s="175"/>
+      <c r="AS8" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="187"/>
+      <c r="AT8" s="175"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="187" t="s">
+      <c r="AV8" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="187"/>
-      <c r="AX8" s="187" t="s">
+      <c r="AW8" s="175"/>
+      <c r="AX8" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="187"/>
-      <c r="AZ8" s="187" t="s">
+      <c r="AY8" s="175"/>
+      <c r="AZ8" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="187"/>
+      <c r="BA8" s="175"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="200"/>
-      <c r="BD8" s="201"/>
-      <c r="BE8" s="209" t="s">
+      <c r="BC8" s="190"/>
+      <c r="BD8" s="191"/>
+      <c r="BE8" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="206"/>
-      <c r="BG8" s="206" t="s">
+      <c r="BF8" s="184"/>
+      <c r="BG8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="206"/>
-      <c r="BI8" s="206" t="s">
+      <c r="BH8" s="184"/>
+      <c r="BI8" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="206"/>
+      <c r="BJ8" s="184"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="207" t="s">
+      <c r="BL8" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="208"/>
-      <c r="BN8" s="207" t="s">
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="208"/>
-      <c r="BP8" s="207" t="s">
+      <c r="BO8" s="179"/>
+      <c r="BP8" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="208"/>
-      <c r="BR8" s="207" t="s">
+      <c r="BQ8" s="179"/>
+      <c r="BR8" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="208"/>
-      <c r="BT8" s="207" t="s">
+      <c r="BS8" s="179"/>
+      <c r="BT8" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="208"/>
-      <c r="BV8" s="194" t="s">
+      <c r="BU8" s="179"/>
+      <c r="BV8" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="195"/>
-      <c r="BX8" s="194" t="s">
+      <c r="BW8" s="177"/>
+      <c r="BX8" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="195"/>
-      <c r="BZ8" s="194" t="s">
+      <c r="BY8" s="177"/>
+      <c r="BZ8" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="195"/>
-      <c r="CB8" s="194" t="s">
+      <c r="CA8" s="177"/>
+      <c r="CB8" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="195"/>
-      <c r="CD8" s="194" t="s">
+      <c r="CC8" s="177"/>
+      <c r="CD8" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="195"/>
-      <c r="CF8" s="194" t="s">
+      <c r="CE8" s="177"/>
+      <c r="CF8" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="195"/>
-      <c r="CH8" s="194" t="s">
+      <c r="CG8" s="177"/>
+      <c r="CH8" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="195"/>
-      <c r="CJ8" s="194" t="s">
+      <c r="CI8" s="177"/>
+      <c r="CJ8" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="195"/>
-      <c r="CL8" s="194" t="s">
+      <c r="CK8" s="177"/>
+      <c r="CL8" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="195"/>
-      <c r="CN8" s="194" t="s">
+      <c r="CM8" s="177"/>
+      <c r="CN8" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="195"/>
+      <c r="CO8" s="177"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="193"/>
-      <c r="CR8" s="193"/>
-      <c r="CS8" s="175"/>
-      <c r="CT8" s="175"/>
-      <c r="CU8" s="198"/>
+      <c r="CQ8" s="200"/>
+      <c r="CR8" s="200"/>
+      <c r="CS8" s="196"/>
+      <c r="CT8" s="196"/>
+      <c r="CU8" s="188"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="178"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6938,7 +6940,9 @@
         <v>30</v>
       </c>
       <c r="M9" s="29"/>
-      <c r="N9" s="27"/>
+      <c r="N9" s="27">
+        <v>15</v>
+      </c>
       <c r="O9" s="29"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="30"/>
@@ -7058,7 +7062,9 @@
       <c r="BY9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="BZ9" s="27"/>
+      <c r="BZ9" s="27">
+        <v>100</v>
+      </c>
       <c r="CA9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7099,9 +7105,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="175"/>
-      <c r="CT9" s="175"/>
-      <c r="CU9" s="199"/>
+      <c r="CS9" s="196"/>
+      <c r="CT9" s="196"/>
+      <c r="CU9" s="189"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7152,10 +7158,12 @@
         <f>IFERROR(((L10/$L$9)*100),"")</f>
         <v>53.333333333333336</v>
       </c>
-      <c r="N10" s="107"/>
-      <c r="O10" s="92" t="str">
+      <c r="N10" s="107">
+        <v>11</v>
+      </c>
+      <c r="O10" s="92">
         <f>IFERROR(((N10/$N$9)*100),"")</f>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="P10" s="107"/>
       <c r="Q10" s="92" t="str">
@@ -7192,7 +7200,7 @@
       <c r="AM10" s="93"/>
       <c r="AN10" s="95">
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
-        <v>11.833333333333336</v>
+        <v>12.777777777777779</v>
       </c>
       <c r="AO10" s="107"/>
       <c r="AP10" s="92">
@@ -7236,11 +7244,11 @@
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>44.333333333333336</v>
+        <v>45.277777777777779</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>44.33</v>
+        <v>45.28</v>
       </c>
       <c r="BE10" s="107"/>
       <c r="BF10" s="92">
@@ -7311,9 +7319,9 @@
         <v>80</v>
       </c>
       <c r="BZ10" s="107"/>
-      <c r="CA10" s="92" t="str">
+      <c r="CA10" s="92">
         <f>IFERROR(((BZ10/$BZ$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB10" s="107"/>
       <c r="CC10" s="92" t="str">
@@ -7352,19 +7360,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>45.158000000000001</v>
+        <v>42.112000000000002</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7424,10 +7432,12 @@
         <f t="shared" ref="M11:M70" si="4">IFERROR(((L11/$L$9)*100),"")</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="N11" s="108"/>
-      <c r="O11" s="92" t="str">
+      <c r="N11" s="108">
+        <v>12</v>
+      </c>
+      <c r="O11" s="92">
         <f t="shared" ref="O11:O70" si="5">IFERROR(((N11/$N$9)*100),"")</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="P11" s="108"/>
       <c r="Q11" s="92" t="str">
@@ -7464,7 +7474,7 @@
       <c r="AM11" s="94"/>
       <c r="AN11" s="95">
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
-        <v>9.1666666666666679</v>
+        <v>11.444444444444446</v>
       </c>
       <c r="AO11" s="108"/>
       <c r="AP11" s="92">
@@ -7508,11 +7518,11 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>39.866666666666667</v>
+        <v>42.144444444444446</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>39.869999999999997</v>
+        <v>42.14</v>
       </c>
       <c r="BE11" s="108"/>
       <c r="BF11" s="92">
@@ -7582,10 +7592,12 @@
         <f t="shared" ref="BY11:BY70" si="29">IFERROR(((BX11/$BX$9)*100),"")</f>
         <v>80</v>
       </c>
-      <c r="BZ11" s="107"/>
-      <c r="CA11" s="92" t="str">
+      <c r="BZ11" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA11" s="92">
         <f t="shared" ref="CA11:CA70" si="30">IFERROR(((BZ11/$BZ$9)*100),"")</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB11" s="107"/>
       <c r="CC11" s="92" t="str">
@@ -7624,19 +7636,19 @@
       </c>
       <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>43.373999999999995</v>
+        <v>44.606000000000002</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7696,10 +7708,12 @@
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="N12" s="108"/>
-      <c r="O12" s="92" t="str">
+      <c r="N12" s="108">
+        <v>7</v>
+      </c>
+      <c r="O12" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>46.666666666666664</v>
       </c>
       <c r="P12" s="108"/>
       <c r="Q12" s="92" t="str">
@@ -7736,7 +7750,7 @@
       <c r="AM12" s="94"/>
       <c r="AN12" s="95">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>9.4444444444444446</v>
       </c>
       <c r="AO12" s="108"/>
       <c r="AP12" s="92">
@@ -7780,11 +7794,11 @@
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>28.799999999999997</v>
+        <v>28.74444444444444</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92">
@@ -7855,9 +7869,9 @@
         <v>80</v>
       </c>
       <c r="BZ12" s="107"/>
-      <c r="CA12" s="92" t="str">
+      <c r="CA12" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB12" s="107"/>
       <c r="CC12" s="92" t="str">
@@ -7896,19 +7910,19 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>38.945999999999998</v>
+        <v>35.496000000000002</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7968,10 +7982,12 @@
         <f t="shared" si="4"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="N13" s="108"/>
-      <c r="O13" s="92" t="str">
+      <c r="N13" s="108">
+        <v>15</v>
+      </c>
+      <c r="O13" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="P13" s="108"/>
       <c r="Q13" s="92" t="str">
@@ -8008,7 +8024,7 @@
       <c r="AM13" s="94"/>
       <c r="AN13" s="95">
         <f t="shared" si="9"/>
-        <v>13.166666666666666</v>
+        <v>15.444444444444443</v>
       </c>
       <c r="AO13" s="108"/>
       <c r="AP13" s="92">
@@ -8052,11 +8068,11 @@
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>46.066666666666663</v>
+        <v>48.344444444444441</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>46.07</v>
+        <v>48.34</v>
       </c>
       <c r="BE13" s="108"/>
       <c r="BF13" s="92">
@@ -8127,9 +8143,9 @@
         <v>80</v>
       </c>
       <c r="BZ13" s="107"/>
-      <c r="CA13" s="92" t="str">
+      <c r="CA13" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB13" s="107"/>
       <c r="CC13" s="92" t="str">
@@ -8168,19 +8184,19 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>45.853999999999999</v>
+        <v>43.335999999999999</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8240,10 +8256,12 @@
         <f t="shared" si="4"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="N14" s="108"/>
-      <c r="O14" s="92" t="str">
+      <c r="N14" s="108">
+        <v>14</v>
+      </c>
+      <c r="O14" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>93.333333333333329</v>
       </c>
       <c r="P14" s="108"/>
       <c r="Q14" s="92" t="str">
@@ -8280,7 +8298,7 @@
       <c r="AM14" s="94"/>
       <c r="AN14" s="95">
         <f t="shared" si="9"/>
-        <v>14.333333333333332</v>
+        <v>15.777777777777775</v>
       </c>
       <c r="AO14" s="108"/>
       <c r="AP14" s="92">
@@ -8324,11 +8342,11 @@
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>44.93333333333333</v>
+        <v>46.377777777777773</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>44.93</v>
+        <v>46.38</v>
       </c>
       <c r="BE14" s="108"/>
       <c r="BF14" s="92">
@@ -8398,10 +8416,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ14" s="107"/>
-      <c r="CA14" s="92" t="str">
+      <c r="BZ14" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA14" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB14" s="107"/>
       <c r="CC14" s="92" t="str">
@@ -8440,19 +8460,19 @@
       </c>
       <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v>47.142857142857146</v>
+        <v>47.5</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
-        <v>47.142857142857146</v>
+        <v>47.5</v>
       </c>
       <c r="CR14" s="99">
         <f t="shared" si="40"/>
-        <v>47.14</v>
+        <v>47.5</v>
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>46.256</v>
+        <v>47.052000000000007</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8477,15 +8497,15 @@
         <v>Calupad Roland Karl L</v>
       </c>
       <c r="D15" s="126">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E15" s="92">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F15" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="G15" s="107">
         <v>0</v>
@@ -8512,10 +8532,12 @@
         <f t="shared" si="4"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="N15" s="108"/>
-      <c r="O15" s="92" t="str">
+      <c r="N15" s="108">
+        <v>6</v>
+      </c>
+      <c r="O15" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="P15" s="108"/>
       <c r="Q15" s="92" t="str">
@@ -8552,7 +8574,7 @@
       <c r="AM15" s="94"/>
       <c r="AN15" s="95">
         <f t="shared" si="9"/>
-        <v>11.666666666666666</v>
+        <v>10.444444444444445</v>
       </c>
       <c r="AO15" s="108"/>
       <c r="AP15" s="92">
@@ -8596,11 +8618,11 @@
       </c>
       <c r="BC15" s="98">
         <f t="shared" si="18"/>
-        <v>21.166666666666664</v>
+        <v>32.544444444444444</v>
       </c>
       <c r="BD15" s="98">
         <f t="shared" si="19"/>
-        <v>21.17</v>
+        <v>32.54</v>
       </c>
       <c r="BE15" s="108"/>
       <c r="BF15" s="92">
@@ -8671,9 +8693,9 @@
         <v>80</v>
       </c>
       <c r="BZ15" s="107"/>
-      <c r="CA15" s="92" t="str">
+      <c r="CA15" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB15" s="107"/>
       <c r="CC15" s="92" t="str">
@@ -8712,19 +8734,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>41.071428571428569</v>
+        <v>35.9375</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>41.071428571428569</v>
+        <v>35.9375</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>41.07</v>
+        <v>35.94</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>33.11</v>
+        <v>34.58</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8784,10 +8806,12 @@
         <f t="shared" si="4"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="N16" s="108"/>
-      <c r="O16" s="92" t="str">
+      <c r="N16" s="108">
+        <v>14</v>
+      </c>
+      <c r="O16" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>93.333333333333329</v>
       </c>
       <c r="P16" s="108"/>
       <c r="Q16" s="92" t="str">
@@ -8824,7 +8848,7 @@
       <c r="AM16" s="94"/>
       <c r="AN16" s="95">
         <f t="shared" si="9"/>
-        <v>11.166666666666668</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="AO16" s="108"/>
       <c r="AP16" s="92">
@@ -8868,11 +8892,11 @@
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>41.166666666666671</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>41.17</v>
+        <v>43.67</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92">
@@ -8943,9 +8967,9 @@
         <v>65</v>
       </c>
       <c r="BZ16" s="107"/>
-      <c r="CA16" s="92" t="str">
+      <c r="CA16" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB16" s="107"/>
       <c r="CC16" s="92" t="str">
@@ -8984,19 +9008,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>44.642857142857146</v>
+        <v>39.0625</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>44.642857142857146</v>
+        <v>39.0625</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>44.64</v>
+        <v>39.06</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>43.251999999999995</v>
+        <v>40.903999999999996</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9056,10 +9080,12 @@
         <f t="shared" si="4"/>
         <v>66.666666666666657</v>
       </c>
-      <c r="N17" s="108"/>
-      <c r="O17" s="92" t="str">
+      <c r="N17" s="108">
+        <v>10</v>
+      </c>
+      <c r="O17" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
       <c r="P17" s="108"/>
       <c r="Q17" s="92" t="str">
@@ -9096,7 +9122,7 @@
       <c r="AM17" s="94"/>
       <c r="AN17" s="95">
         <f t="shared" si="9"/>
-        <v>12.666666666666666</v>
+        <v>12.888888888888889</v>
       </c>
       <c r="AO17" s="108"/>
       <c r="AP17" s="92">
@@ -9140,11 +9166,11 @@
       </c>
       <c r="BC17" s="98">
         <f t="shared" si="18"/>
-        <v>40.666666666666664</v>
+        <v>40.888888888888886</v>
       </c>
       <c r="BD17" s="98">
         <f t="shared" si="19"/>
-        <v>40.67</v>
+        <v>40.89</v>
       </c>
       <c r="BE17" s="108"/>
       <c r="BF17" s="92">
@@ -9215,9 +9241,9 @@
         <v>80</v>
       </c>
       <c r="BZ17" s="107"/>
-      <c r="CA17" s="92" t="str">
+      <c r="CA17" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB17" s="107"/>
       <c r="CC17" s="92" t="str">
@@ -9256,19 +9282,19 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>43.694000000000003</v>
+        <v>40.356000000000002</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9328,10 +9354,12 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="N18" s="108"/>
-      <c r="O18" s="92" t="str">
+      <c r="N18" s="108">
+        <v>0</v>
+      </c>
+      <c r="O18" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P18" s="108"/>
       <c r="Q18" s="92" t="str">
@@ -9368,7 +9396,7 @@
       <c r="AM18" s="94"/>
       <c r="AN18" s="95">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="AO18" s="108"/>
       <c r="AP18" s="92">
@@ -9412,11 +9440,11 @@
       </c>
       <c r="BC18" s="98">
         <f t="shared" si="18"/>
-        <v>41.4</v>
+        <v>37.066666666666663</v>
       </c>
       <c r="BD18" s="98">
         <f t="shared" si="19"/>
-        <v>41.4</v>
+        <v>37.07</v>
       </c>
       <c r="BE18" s="108"/>
       <c r="BF18" s="92">
@@ -9486,10 +9514,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ18" s="107"/>
-      <c r="CA18" s="92" t="str">
+      <c r="BZ18" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA18" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB18" s="107"/>
       <c r="CC18" s="92" t="str">
@@ -9528,19 +9558,19 @@
       </c>
       <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v>46.785714285714285</v>
+        <v>47.1875</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>46.785714285714285</v>
+        <v>47.1875</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>46.79</v>
+        <v>47.19</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>44.634</v>
+        <v>43.141999999999996</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9600,10 +9630,12 @@
         <f t="shared" si="4"/>
         <v>46.666666666666664</v>
       </c>
-      <c r="N19" s="108"/>
-      <c r="O19" s="92" t="str">
+      <c r="N19" s="108">
+        <v>8</v>
+      </c>
+      <c r="O19" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>53.333333333333336</v>
       </c>
       <c r="P19" s="108"/>
       <c r="Q19" s="92" t="str">
@@ -9640,7 +9672,7 @@
       <c r="AM19" s="94"/>
       <c r="AN19" s="95">
         <f t="shared" si="9"/>
-        <v>11.166666666666666</v>
+        <v>11</v>
       </c>
       <c r="AO19" s="108"/>
       <c r="AP19" s="92">
@@ -9684,11 +9716,11 @@
       </c>
       <c r="BC19" s="98">
         <f t="shared" si="18"/>
-        <v>43.066666666666663</v>
+        <v>42.9</v>
       </c>
       <c r="BD19" s="98">
         <f t="shared" si="19"/>
-        <v>43.07</v>
+        <v>42.9</v>
       </c>
       <c r="BE19" s="108"/>
       <c r="BF19" s="92">
@@ -9759,9 +9791,9 @@
         <v>80</v>
       </c>
       <c r="BZ19" s="107"/>
-      <c r="CA19" s="92" t="str">
+      <c r="CA19" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB19" s="107"/>
       <c r="CC19" s="92" t="str">
@@ -9800,19 +9832,19 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>44.653999999999996</v>
+        <v>41.16</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9872,10 +9904,12 @@
         <f t="shared" si="4"/>
         <v>63.333333333333329</v>
       </c>
-      <c r="N20" s="108"/>
-      <c r="O20" s="92" t="str">
+      <c r="N20" s="108">
+        <v>11</v>
+      </c>
+      <c r="O20" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="P20" s="108"/>
       <c r="Q20" s="92" t="str">
@@ -9912,7 +9946,7 @@
       <c r="AM20" s="94"/>
       <c r="AN20" s="95">
         <f t="shared" si="9"/>
-        <v>10.833333333333334</v>
+        <v>12.111111111111111</v>
       </c>
       <c r="AO20" s="108"/>
       <c r="AP20" s="92">
@@ -9956,11 +9990,11 @@
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>38.333333333333336</v>
+        <v>39.611111111111114</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>38.33</v>
+        <v>39.61</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92">
@@ -10031,9 +10065,9 @@
         <v>80</v>
       </c>
       <c r="BZ20" s="107"/>
-      <c r="CA20" s="92" t="str">
+      <c r="CA20" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB20" s="107"/>
       <c r="CC20" s="92" t="str">
@@ -10072,19 +10106,19 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>42.757999999999996</v>
+        <v>39.844000000000001</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10144,10 +10178,12 @@
         <f t="shared" si="4"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="N21" s="108"/>
-      <c r="O21" s="92" t="str">
+      <c r="N21" s="108">
+        <v>11</v>
+      </c>
+      <c r="O21" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="P21" s="108"/>
       <c r="Q21" s="92" t="str">
@@ -10184,7 +10220,7 @@
       <c r="AM21" s="94"/>
       <c r="AN21" s="95">
         <f t="shared" si="9"/>
-        <v>12.666666666666666</v>
+        <v>13.333333333333336</v>
       </c>
       <c r="AO21" s="108"/>
       <c r="AP21" s="92">
@@ -10228,11 +10264,11 @@
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>41.966666666666669</v>
+        <v>42.63333333333334</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>41.97</v>
+        <v>42.63</v>
       </c>
       <c r="BE21" s="108"/>
       <c r="BF21" s="92">
@@ -10303,9 +10339,9 @@
         <v>80</v>
       </c>
       <c r="BZ21" s="107"/>
-      <c r="CA21" s="92" t="str">
+      <c r="CA21" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB21" s="107"/>
       <c r="CC21" s="92" t="str">
@@ -10344,19 +10380,19 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>44.213999999999999</v>
+        <v>41.052000000000007</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10416,10 +10452,12 @@
         <f t="shared" si="4"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="N22" s="108"/>
-      <c r="O22" s="92" t="str">
+      <c r="N22" s="108">
+        <v>5</v>
+      </c>
+      <c r="O22" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>33.333333333333329</v>
       </c>
       <c r="P22" s="108"/>
       <c r="Q22" s="92" t="str">
@@ -10456,7 +10494,7 @@
       <c r="AM22" s="94"/>
       <c r="AN22" s="95">
         <f t="shared" si="9"/>
-        <v>12.833333333333336</v>
+        <v>10.777777777777779</v>
       </c>
       <c r="AO22" s="108"/>
       <c r="AP22" s="92">
@@ -10500,11 +10538,11 @@
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>38.833333333333336</v>
+        <v>36.777777777777779</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>38.83</v>
+        <v>36.78</v>
       </c>
       <c r="BE22" s="108"/>
       <c r="BF22" s="92">
@@ -10575,9 +10613,9 @@
         <v>80</v>
       </c>
       <c r="BZ22" s="107"/>
-      <c r="CA22" s="92" t="str">
+      <c r="CA22" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB22" s="107"/>
       <c r="CC22" s="92" t="str">
@@ -10616,19 +10654,19 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>42.957999999999998</v>
+        <v>38.712000000000003</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10688,10 +10726,12 @@
         <f t="shared" si="4"/>
         <v>63.333333333333329</v>
       </c>
-      <c r="N23" s="108"/>
-      <c r="O23" s="92" t="str">
+      <c r="N23" s="108">
+        <v>9</v>
+      </c>
+      <c r="O23" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="P23" s="108"/>
       <c r="Q23" s="92" t="str">
@@ -10728,7 +10768,7 @@
       <c r="AM23" s="94"/>
       <c r="AN23" s="95">
         <f t="shared" si="9"/>
-        <v>13.833333333333332</v>
+        <v>13.222222222222221</v>
       </c>
       <c r="AO23" s="108"/>
       <c r="AP23" s="92">
@@ -10772,11 +10812,11 @@
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>41.733333333333334</v>
+        <v>41.12222222222222</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>41.73</v>
+        <v>41.12</v>
       </c>
       <c r="BE23" s="108"/>
       <c r="BF23" s="92">
@@ -10846,10 +10886,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ23" s="107"/>
-      <c r="CA23" s="92" t="str">
+      <c r="BZ23" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA23" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB23" s="107"/>
       <c r="CC23" s="92" t="str">
@@ -10888,19 +10930,19 @@
       </c>
       <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CR23" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>44.117999999999995</v>
+        <v>44.198</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10960,10 +11002,12 @@
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="N24" s="108"/>
-      <c r="O24" s="92" t="str">
+      <c r="N24" s="108">
+        <v>14</v>
+      </c>
+      <c r="O24" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>93.333333333333329</v>
       </c>
       <c r="P24" s="108"/>
       <c r="Q24" s="92" t="str">
@@ -11000,7 +11044,7 @@
       <c r="AM24" s="94"/>
       <c r="AN24" s="95">
         <f t="shared" si="9"/>
-        <v>14.5</v>
+        <v>15.888888888888889</v>
       </c>
       <c r="AO24" s="108"/>
       <c r="AP24" s="92">
@@ -11044,11 +11088,11 @@
       </c>
       <c r="BC24" s="98">
         <f t="shared" si="18"/>
-        <v>47.8</v>
+        <v>49.18888888888889</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" si="19"/>
-        <v>47.8</v>
+        <v>49.19</v>
       </c>
       <c r="BE24" s="108"/>
       <c r="BF24" s="92">
@@ -11119,9 +11163,9 @@
         <v>80</v>
       </c>
       <c r="BZ24" s="107"/>
-      <c r="CA24" s="92" t="str">
+      <c r="CA24" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB24" s="107"/>
       <c r="CC24" s="92" t="str">
@@ -11160,19 +11204,19 @@
       </c>
       <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v>48.571428571428569</v>
+        <v>42.5</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
-        <v>48.571428571428569</v>
+        <v>42.5</v>
       </c>
       <c r="CR24" s="99">
         <f t="shared" si="40"/>
-        <v>48.57</v>
+        <v>42.5</v>
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>48.262</v>
+        <v>45.176000000000002</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11232,10 +11276,12 @@
         <f t="shared" si="4"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="N25" s="108"/>
-      <c r="O25" s="92" t="str">
+      <c r="N25" s="108">
+        <v>11</v>
+      </c>
+      <c r="O25" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="P25" s="108"/>
       <c r="Q25" s="92" t="str">
@@ -11272,7 +11318,7 @@
       <c r="AM25" s="94"/>
       <c r="AN25" s="95">
         <f t="shared" si="9"/>
-        <v>6.166666666666667</v>
+        <v>9</v>
       </c>
       <c r="AO25" s="108"/>
       <c r="AP25" s="92">
@@ -11316,11 +11362,11 @@
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>33.166666666666671</v>
+        <v>36</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>33.17</v>
+        <v>36</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92">
@@ -11390,10 +11436,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ25" s="107"/>
-      <c r="CA25" s="92" t="str">
+      <c r="BZ25" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA25" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB25" s="107"/>
       <c r="CC25" s="92" t="str">
@@ -11432,19 +11480,19 @@
       </c>
       <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CR25" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>40.694000000000003</v>
+        <v>42.15</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11504,10 +11552,12 @@
         <f t="shared" si="4"/>
         <v>46.666666666666664</v>
       </c>
-      <c r="N26" s="108"/>
-      <c r="O26" s="92" t="str">
+      <c r="N26" s="108">
+        <v>12</v>
+      </c>
+      <c r="O26" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="P26" s="108"/>
       <c r="Q26" s="92" t="str">
@@ -11544,7 +11594,7 @@
       <c r="AM26" s="94"/>
       <c r="AN26" s="95">
         <f t="shared" si="9"/>
-        <v>12.166666666666666</v>
+        <v>13.444444444444443</v>
       </c>
       <c r="AO26" s="108"/>
       <c r="AP26" s="92">
@@ -11588,11 +11638,11 @@
       </c>
       <c r="BC26" s="98">
         <f t="shared" si="18"/>
-        <v>42.766666666666666</v>
+        <v>44.044444444444437</v>
       </c>
       <c r="BD26" s="98">
         <f t="shared" si="19"/>
-        <v>42.77</v>
+        <v>44.04</v>
       </c>
       <c r="BE26" s="108"/>
       <c r="BF26" s="92">
@@ -11663,9 +11713,9 @@
         <v>80</v>
       </c>
       <c r="BZ26" s="107"/>
-      <c r="CA26" s="92" t="str">
+      <c r="CA26" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB26" s="107"/>
       <c r="CC26" s="92" t="str">
@@ -11704,19 +11754,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>44.533999999999999</v>
+        <v>41.616</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11776,10 +11826,12 @@
         <f t="shared" si="4"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="N27" s="108"/>
-      <c r="O27" s="92" t="str">
+      <c r="N27" s="108">
+        <v>13</v>
+      </c>
+      <c r="O27" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>86.666666666666671</v>
       </c>
       <c r="P27" s="108"/>
       <c r="Q27" s="92" t="str">
@@ -11816,7 +11868,7 @@
       <c r="AM27" s="94"/>
       <c r="AN27" s="95">
         <f t="shared" si="9"/>
-        <v>9.8333333333333357</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="AO27" s="108"/>
       <c r="AP27" s="92">
@@ -11860,11 +11912,11 @@
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>41.033333333333331</v>
+        <v>43.533333333333331</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>41.03</v>
+        <v>43.53</v>
       </c>
       <c r="BE27" s="108"/>
       <c r="BF27" s="92">
@@ -11935,9 +11987,9 @@
         <v>80</v>
       </c>
       <c r="BZ27" s="107"/>
-      <c r="CA27" s="92" t="str">
+      <c r="CA27" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB27" s="107"/>
       <c r="CC27" s="92" t="str">
@@ -11976,19 +12028,19 @@
       </c>
       <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR27" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>43.838000000000001</v>
+        <v>41.412000000000006</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12049,9 +12101,9 @@
         <v>56.666666666666664</v>
       </c>
       <c r="N28" s="108"/>
-      <c r="O28" s="92" t="str">
+      <c r="O28" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P28" s="108"/>
       <c r="Q28" s="92" t="str">
@@ -12088,7 +12140,7 @@
       <c r="AM28" s="94"/>
       <c r="AN28" s="95">
         <f t="shared" si="9"/>
-        <v>10.666666666666666</v>
+        <v>7.1111111111111107</v>
       </c>
       <c r="AO28" s="108"/>
       <c r="AP28" s="92">
@@ -12132,11 +12184,11 @@
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>34.666666666666664</v>
+        <v>31.111111111111111</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>34.67</v>
+        <v>31.11</v>
       </c>
       <c r="BE28" s="108"/>
       <c r="BF28" s="92">
@@ -12207,9 +12259,9 @@
         <v>80</v>
       </c>
       <c r="BZ28" s="107"/>
-      <c r="CA28" s="92" t="str">
+      <c r="CA28" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB28" s="107"/>
       <c r="CC28" s="92" t="str">
@@ -12248,19 +12300,19 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>41.293999999999997</v>
+        <v>36.444000000000003</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12320,10 +12372,12 @@
         <f t="shared" si="4"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="N29" s="108"/>
-      <c r="O29" s="92" t="str">
+      <c r="N29" s="108">
+        <v>14</v>
+      </c>
+      <c r="O29" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>93.333333333333329</v>
       </c>
       <c r="P29" s="108"/>
       <c r="Q29" s="92" t="str">
@@ -12360,7 +12414,7 @@
       <c r="AM29" s="94"/>
       <c r="AN29" s="95">
         <f t="shared" si="9"/>
-        <v>12.166666666666666</v>
+        <v>14.333333333333336</v>
       </c>
       <c r="AO29" s="108"/>
       <c r="AP29" s="92">
@@ -12404,11 +12458,11 @@
       </c>
       <c r="BC29" s="98">
         <f t="shared" si="18"/>
-        <v>42.266666666666666</v>
+        <v>44.433333333333337</v>
       </c>
       <c r="BD29" s="98">
         <f t="shared" si="19"/>
-        <v>42.27</v>
+        <v>44.43</v>
       </c>
       <c r="BE29" s="108"/>
       <c r="BF29" s="92">
@@ -12479,9 +12533,9 @@
         <v>80</v>
       </c>
       <c r="BZ29" s="107"/>
-      <c r="CA29" s="92" t="str">
+      <c r="CA29" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB29" s="107"/>
       <c r="CC29" s="92" t="str">
@@ -12520,19 +12574,19 @@
       </c>
       <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR29" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>44.334000000000003</v>
+        <v>41.772000000000006</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12592,10 +12646,12 @@
         <f t="shared" si="4"/>
         <v>56.666666666666664</v>
       </c>
-      <c r="N30" s="108"/>
-      <c r="O30" s="92" t="str">
+      <c r="N30" s="108">
+        <v>13</v>
+      </c>
+      <c r="O30" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>86.666666666666671</v>
       </c>
       <c r="P30" s="108"/>
       <c r="Q30" s="92" t="str">
@@ -12632,7 +12688,7 @@
       <c r="AM30" s="94"/>
       <c r="AN30" s="95">
         <f t="shared" si="9"/>
-        <v>12.166666666666666</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="AO30" s="108"/>
       <c r="AP30" s="92">
@@ -12676,11 +12732,11 @@
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>44.86666666666666</v>
+        <v>46.588888888888889</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>44.87</v>
+        <v>46.59</v>
       </c>
       <c r="BE30" s="108"/>
       <c r="BF30" s="92">
@@ -12750,10 +12806,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ30" s="107"/>
-      <c r="CA30" s="92" t="str">
+      <c r="BZ30" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA30" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB30" s="107"/>
       <c r="CC30" s="92" t="str">
@@ -12792,19 +12850,19 @@
       </c>
       <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CR30" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>45.373999999999995</v>
+        <v>46.386000000000003</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12864,10 +12922,12 @@
         <f t="shared" si="4"/>
         <v>23.333333333333332</v>
       </c>
-      <c r="N31" s="108"/>
-      <c r="O31" s="92" t="str">
+      <c r="N31" s="108">
+        <v>12</v>
+      </c>
+      <c r="O31" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>80</v>
       </c>
       <c r="P31" s="108"/>
       <c r="Q31" s="92" t="str">
@@ -12904,7 +12964,7 @@
       <c r="AM31" s="94"/>
       <c r="AN31" s="95">
         <f t="shared" si="9"/>
-        <v>2.3333333333333335</v>
+        <v>6.8888888888888893</v>
       </c>
       <c r="AO31" s="108"/>
       <c r="AP31" s="92">
@@ -12948,11 +13008,11 @@
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>20.933333333333334</v>
+        <v>25.488888888888887</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>20.93</v>
+        <v>25.49</v>
       </c>
       <c r="BE31" s="108"/>
       <c r="BF31" s="92">
@@ -13023,9 +13083,9 @@
         <v>80</v>
       </c>
       <c r="BZ31" s="107"/>
-      <c r="CA31" s="92" t="str">
+      <c r="CA31" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB31" s="107"/>
       <c r="CC31" s="92" t="str">
@@ -13064,19 +13124,19 @@
       </c>
       <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR31" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>35.798000000000002</v>
+        <v>34.195999999999998</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13136,10 +13196,12 @@
         <f t="shared" si="4"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="N32" s="108"/>
-      <c r="O32" s="92" t="str">
+      <c r="N32" s="108">
+        <v>15</v>
+      </c>
+      <c r="O32" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="P32" s="108"/>
       <c r="Q32" s="92" t="str">
@@ -13176,7 +13238,7 @@
       <c r="AM32" s="94"/>
       <c r="AN32" s="95">
         <f t="shared" si="9"/>
-        <v>13.333333333333332</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="AO32" s="108"/>
       <c r="AP32" s="92">
@@ -13220,11 +13282,11 @@
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>44.233333333333334</v>
+        <v>46.455555555555556</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>44.23</v>
+        <v>46.46</v>
       </c>
       <c r="BE32" s="108"/>
       <c r="BF32" s="92">
@@ -13295,9 +13357,9 @@
         <v>80</v>
       </c>
       <c r="BZ32" s="107"/>
-      <c r="CA32" s="92" t="str">
+      <c r="CA32" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB32" s="107"/>
       <c r="CC32" s="92" t="str">
@@ -13336,19 +13398,19 @@
       </c>
       <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="CR32" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>45.117999999999995</v>
+        <v>42.584000000000003</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13408,10 +13470,12 @@
         <f t="shared" si="4"/>
         <v>53.333333333333336</v>
       </c>
-      <c r="N33" s="108"/>
-      <c r="O33" s="92" t="str">
+      <c r="N33" s="108">
+        <v>10</v>
+      </c>
+      <c r="O33" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>66.666666666666657</v>
       </c>
       <c r="P33" s="108"/>
       <c r="Q33" s="92" t="str">
@@ -13448,7 +13512,7 @@
       <c r="AM33" s="94"/>
       <c r="AN33" s="95">
         <f t="shared" si="9"/>
-        <v>13.833333333333336</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="AO33" s="108"/>
       <c r="AP33" s="92">
@@ -13492,11 +13556,11 @@
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>43.833333333333336</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>43.83</v>
+        <v>43.67</v>
       </c>
       <c r="BE33" s="108"/>
       <c r="BF33" s="92">
@@ -13566,10 +13630,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ33" s="107"/>
-      <c r="CA33" s="92" t="str">
+      <c r="BZ33" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA33" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB33" s="107"/>
       <c r="CC33" s="92" t="str">
@@ -13608,19 +13674,19 @@
       </c>
       <c r="CP33" s="103">
         <f t="shared" si="38"/>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CQ33" s="99">
         <f t="shared" si="39"/>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="CR33" s="99">
         <f t="shared" si="40"/>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>44.957999999999998</v>
+        <v>45.218000000000004</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13681,9 +13747,9 @@
         <v>43.333333333333336</v>
       </c>
       <c r="N34" s="108"/>
-      <c r="O34" s="92" t="str">
+      <c r="O34" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P34" s="108"/>
       <c r="Q34" s="92" t="str">
@@ -13720,7 +13786,7 @@
       <c r="AM34" s="94"/>
       <c r="AN34" s="95">
         <f t="shared" si="9"/>
-        <v>11.333333333333336</v>
+        <v>7.5555555555555562</v>
       </c>
       <c r="AO34" s="108"/>
       <c r="AP34" s="92">
@@ -13764,11 +13830,11 @@
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>36.533333333333331</v>
+        <v>32.75555555555556</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>36.53</v>
+        <v>32.76</v>
       </c>
       <c r="BE34" s="108"/>
       <c r="BF34" s="92">
@@ -13838,10 +13904,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ34" s="107"/>
-      <c r="CA34" s="92" t="str">
+      <c r="BZ34" s="107">
+        <v>100</v>
+      </c>
+      <c r="CA34" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CB34" s="107"/>
       <c r="CC34" s="92" t="str">
@@ -13880,19 +13948,19 @@
       </c>
       <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v>42.5</v>
+        <v>43.4375</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>42.5</v>
+        <v>43.4375</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>42.5</v>
+        <v>43.44</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>40.112000000000002</v>
+        <v>39.167999999999992</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13945,9 +14013,9 @@
         <v>0</v>
       </c>
       <c r="N35" s="108"/>
-      <c r="O35" s="92" t="str">
+      <c r="O35" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P35" s="108"/>
       <c r="Q35" s="92" t="str">
@@ -14087,9 +14155,9 @@
         <v>0</v>
       </c>
       <c r="BZ35" s="107"/>
-      <c r="CA35" s="92" t="str">
+      <c r="CA35" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB35" s="107"/>
       <c r="CC35" s="92" t="str">
@@ -14193,9 +14261,9 @@
         <v>0</v>
       </c>
       <c r="N36" s="108"/>
-      <c r="O36" s="92" t="str">
+      <c r="O36" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P36" s="108"/>
       <c r="Q36" s="92" t="str">
@@ -14335,9 +14403,9 @@
         <v>0</v>
       </c>
       <c r="BZ36" s="107"/>
-      <c r="CA36" s="92" t="str">
+      <c r="CA36" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB36" s="107"/>
       <c r="CC36" s="92" t="str">
@@ -14441,9 +14509,9 @@
         <v>0</v>
       </c>
       <c r="N37" s="108"/>
-      <c r="O37" s="92" t="str">
+      <c r="O37" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P37" s="108"/>
       <c r="Q37" s="92" t="str">
@@ -14583,9 +14651,9 @@
         <v>0</v>
       </c>
       <c r="BZ37" s="107"/>
-      <c r="CA37" s="92" t="str">
+      <c r="CA37" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB37" s="107"/>
       <c r="CC37" s="92" t="str">
@@ -14689,9 +14757,9 @@
         <v>0</v>
       </c>
       <c r="N38" s="108"/>
-      <c r="O38" s="92" t="str">
+      <c r="O38" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P38" s="108"/>
       <c r="Q38" s="92" t="str">
@@ -14831,9 +14899,9 @@
         <v>0</v>
       </c>
       <c r="BZ38" s="107"/>
-      <c r="CA38" s="92" t="str">
+      <c r="CA38" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB38" s="107"/>
       <c r="CC38" s="92" t="str">
@@ -14937,9 +15005,9 @@
         <v>0</v>
       </c>
       <c r="N39" s="108"/>
-      <c r="O39" s="92" t="str">
+      <c r="O39" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P39" s="108"/>
       <c r="Q39" s="92" t="str">
@@ -15079,9 +15147,9 @@
         <v>0</v>
       </c>
       <c r="BZ39" s="107"/>
-      <c r="CA39" s="92" t="str">
+      <c r="CA39" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB39" s="107"/>
       <c r="CC39" s="92" t="str">
@@ -15185,9 +15253,9 @@
         <v>0</v>
       </c>
       <c r="N40" s="108"/>
-      <c r="O40" s="92" t="str">
+      <c r="O40" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P40" s="108"/>
       <c r="Q40" s="92" t="str">
@@ -15327,9 +15395,9 @@
         <v>0</v>
       </c>
       <c r="BZ40" s="107"/>
-      <c r="CA40" s="92" t="str">
+      <c r="CA40" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB40" s="107"/>
       <c r="CC40" s="92" t="str">
@@ -15433,9 +15501,9 @@
         <v>0</v>
       </c>
       <c r="N41" s="108"/>
-      <c r="O41" s="92" t="str">
+      <c r="O41" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P41" s="108"/>
       <c r="Q41" s="92" t="str">
@@ -15575,9 +15643,9 @@
         <v>0</v>
       </c>
       <c r="BZ41" s="107"/>
-      <c r="CA41" s="92" t="str">
+      <c r="CA41" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB41" s="107"/>
       <c r="CC41" s="92" t="str">
@@ -15681,9 +15749,9 @@
         <v>0</v>
       </c>
       <c r="N42" s="108"/>
-      <c r="O42" s="92" t="str">
+      <c r="O42" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P42" s="108"/>
       <c r="Q42" s="92" t="str">
@@ -15823,9 +15891,9 @@
         <v>0</v>
       </c>
       <c r="BZ42" s="107"/>
-      <c r="CA42" s="92" t="str">
+      <c r="CA42" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB42" s="107"/>
       <c r="CC42" s="92" t="str">
@@ -15929,9 +15997,9 @@
         <v>0</v>
       </c>
       <c r="N43" s="108"/>
-      <c r="O43" s="92" t="str">
+      <c r="O43" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P43" s="108"/>
       <c r="Q43" s="92" t="str">
@@ -16071,9 +16139,9 @@
         <v>0</v>
       </c>
       <c r="BZ43" s="107"/>
-      <c r="CA43" s="92" t="str">
+      <c r="CA43" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB43" s="107"/>
       <c r="CC43" s="92" t="str">
@@ -16177,9 +16245,9 @@
         <v>0</v>
       </c>
       <c r="N44" s="108"/>
-      <c r="O44" s="92" t="str">
+      <c r="O44" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P44" s="108"/>
       <c r="Q44" s="92" t="str">
@@ -16319,9 +16387,9 @@
         <v>0</v>
       </c>
       <c r="BZ44" s="107"/>
-      <c r="CA44" s="92" t="str">
+      <c r="CA44" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB44" s="107"/>
       <c r="CC44" s="92" t="str">
@@ -16425,9 +16493,9 @@
         <v>0</v>
       </c>
       <c r="N45" s="108"/>
-      <c r="O45" s="92" t="str">
+      <c r="O45" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P45" s="108"/>
       <c r="Q45" s="92" t="str">
@@ -16567,9 +16635,9 @@
         <v>0</v>
       </c>
       <c r="BZ45" s="107"/>
-      <c r="CA45" s="92" t="str">
+      <c r="CA45" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB45" s="107"/>
       <c r="CC45" s="92" t="str">
@@ -16673,9 +16741,9 @@
         <v>0</v>
       </c>
       <c r="N46" s="108"/>
-      <c r="O46" s="92" t="str">
+      <c r="O46" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P46" s="108"/>
       <c r="Q46" s="92" t="str">
@@ -16815,9 +16883,9 @@
         <v>0</v>
       </c>
       <c r="BZ46" s="107"/>
-      <c r="CA46" s="92" t="str">
+      <c r="CA46" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB46" s="107"/>
       <c r="CC46" s="92" t="str">
@@ -16921,9 +16989,9 @@
         <v>0</v>
       </c>
       <c r="N47" s="108"/>
-      <c r="O47" s="92" t="str">
+      <c r="O47" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P47" s="108"/>
       <c r="Q47" s="92" t="str">
@@ -17063,9 +17131,9 @@
         <v>0</v>
       </c>
       <c r="BZ47" s="107"/>
-      <c r="CA47" s="92" t="str">
+      <c r="CA47" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB47" s="107"/>
       <c r="CC47" s="92" t="str">
@@ -17169,9 +17237,9 @@
         <v>0</v>
       </c>
       <c r="N48" s="108"/>
-      <c r="O48" s="92" t="str">
+      <c r="O48" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P48" s="108"/>
       <c r="Q48" s="92" t="str">
@@ -17311,9 +17379,9 @@
         <v>0</v>
       </c>
       <c r="BZ48" s="107"/>
-      <c r="CA48" s="92" t="str">
+      <c r="CA48" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB48" s="107"/>
       <c r="CC48" s="92" t="str">
@@ -17417,9 +17485,9 @@
         <v>0</v>
       </c>
       <c r="N49" s="108"/>
-      <c r="O49" s="92" t="str">
+      <c r="O49" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P49" s="108"/>
       <c r="Q49" s="92" t="str">
@@ -17559,9 +17627,9 @@
         <v>0</v>
       </c>
       <c r="BZ49" s="107"/>
-      <c r="CA49" s="92" t="str">
+      <c r="CA49" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB49" s="107"/>
       <c r="CC49" s="92" t="str">
@@ -17665,9 +17733,9 @@
         <v>0</v>
       </c>
       <c r="N50" s="108"/>
-      <c r="O50" s="92" t="str">
+      <c r="O50" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P50" s="108"/>
       <c r="Q50" s="92" t="str">
@@ -17807,9 +17875,9 @@
         <v>0</v>
       </c>
       <c r="BZ50" s="107"/>
-      <c r="CA50" s="92" t="str">
+      <c r="CA50" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB50" s="107"/>
       <c r="CC50" s="92" t="str">
@@ -17913,9 +17981,9 @@
         <v>0</v>
       </c>
       <c r="N51" s="108"/>
-      <c r="O51" s="92" t="str">
+      <c r="O51" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P51" s="108"/>
       <c r="Q51" s="92" t="str">
@@ -18055,9 +18123,9 @@
         <v>0</v>
       </c>
       <c r="BZ51" s="107"/>
-      <c r="CA51" s="92" t="str">
+      <c r="CA51" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB51" s="107"/>
       <c r="CC51" s="92" t="str">
@@ -18161,9 +18229,9 @@
         <v>0</v>
       </c>
       <c r="N52" s="108"/>
-      <c r="O52" s="92" t="str">
+      <c r="O52" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P52" s="108"/>
       <c r="Q52" s="92" t="str">
@@ -18303,9 +18371,9 @@
         <v>0</v>
       </c>
       <c r="BZ52" s="107"/>
-      <c r="CA52" s="92" t="str">
+      <c r="CA52" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB52" s="107"/>
       <c r="CC52" s="92" t="str">
@@ -18409,9 +18477,9 @@
         <v>0</v>
       </c>
       <c r="N53" s="108"/>
-      <c r="O53" s="92" t="str">
+      <c r="O53" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P53" s="108"/>
       <c r="Q53" s="92" t="str">
@@ -18551,9 +18619,9 @@
         <v>0</v>
       </c>
       <c r="BZ53" s="107"/>
-      <c r="CA53" s="92" t="str">
+      <c r="CA53" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB53" s="107"/>
       <c r="CC53" s="92" t="str">
@@ -18657,9 +18725,9 @@
         <v>0</v>
       </c>
       <c r="N54" s="108"/>
-      <c r="O54" s="92" t="str">
+      <c r="O54" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P54" s="108"/>
       <c r="Q54" s="92" t="str">
@@ -18799,9 +18867,9 @@
         <v>0</v>
       </c>
       <c r="BZ54" s="107"/>
-      <c r="CA54" s="92" t="str">
+      <c r="CA54" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB54" s="107"/>
       <c r="CC54" s="92" t="str">
@@ -18905,9 +18973,9 @@
         <v>0</v>
       </c>
       <c r="N55" s="108"/>
-      <c r="O55" s="92" t="str">
+      <c r="O55" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P55" s="108"/>
       <c r="Q55" s="92" t="str">
@@ -19047,9 +19115,9 @@
         <v>0</v>
       </c>
       <c r="BZ55" s="107"/>
-      <c r="CA55" s="92" t="str">
+      <c r="CA55" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB55" s="107"/>
       <c r="CC55" s="92" t="str">
@@ -19153,9 +19221,9 @@
         <v>0</v>
       </c>
       <c r="N56" s="108"/>
-      <c r="O56" s="92" t="str">
+      <c r="O56" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P56" s="108"/>
       <c r="Q56" s="92" t="str">
@@ -19295,9 +19363,9 @@
         <v>0</v>
       </c>
       <c r="BZ56" s="107"/>
-      <c r="CA56" s="92" t="str">
+      <c r="CA56" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB56" s="107"/>
       <c r="CC56" s="92" t="str">
@@ -19401,9 +19469,9 @@
         <v>0</v>
       </c>
       <c r="N57" s="108"/>
-      <c r="O57" s="92" t="str">
+      <c r="O57" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P57" s="108"/>
       <c r="Q57" s="92" t="str">
@@ -19543,9 +19611,9 @@
         <v>0</v>
       </c>
       <c r="BZ57" s="107"/>
-      <c r="CA57" s="92" t="str">
+      <c r="CA57" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB57" s="107"/>
       <c r="CC57" s="92" t="str">
@@ -19649,9 +19717,9 @@
         <v>0</v>
       </c>
       <c r="N58" s="108"/>
-      <c r="O58" s="92" t="str">
+      <c r="O58" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P58" s="108"/>
       <c r="Q58" s="92" t="str">
@@ -19791,9 +19859,9 @@
         <v>0</v>
       </c>
       <c r="BZ58" s="107"/>
-      <c r="CA58" s="92" t="str">
+      <c r="CA58" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB58" s="107"/>
       <c r="CC58" s="92" t="str">
@@ -19897,9 +19965,9 @@
         <v>0</v>
       </c>
       <c r="N59" s="108"/>
-      <c r="O59" s="92" t="str">
+      <c r="O59" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P59" s="108"/>
       <c r="Q59" s="92" t="str">
@@ -20039,9 +20107,9 @@
         <v>0</v>
       </c>
       <c r="BZ59" s="107"/>
-      <c r="CA59" s="92" t="str">
+      <c r="CA59" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB59" s="107"/>
       <c r="CC59" s="92" t="str">
@@ -20145,9 +20213,9 @@
         <v>0</v>
       </c>
       <c r="N60" s="108"/>
-      <c r="O60" s="92" t="str">
+      <c r="O60" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P60" s="108"/>
       <c r="Q60" s="92" t="str">
@@ -20287,9 +20355,9 @@
         <v>0</v>
       </c>
       <c r="BZ60" s="107"/>
-      <c r="CA60" s="92" t="str">
+      <c r="CA60" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB60" s="107"/>
       <c r="CC60" s="92" t="str">
@@ -20393,9 +20461,9 @@
         <v>0</v>
       </c>
       <c r="N61" s="108"/>
-      <c r="O61" s="92" t="str">
+      <c r="O61" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P61" s="108"/>
       <c r="Q61" s="92" t="str">
@@ -20535,9 +20603,9 @@
         <v>0</v>
       </c>
       <c r="BZ61" s="107"/>
-      <c r="CA61" s="92" t="str">
+      <c r="CA61" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB61" s="107"/>
       <c r="CC61" s="92" t="str">
@@ -20641,9 +20709,9 @@
         <v>0</v>
       </c>
       <c r="N62" s="108"/>
-      <c r="O62" s="92" t="str">
+      <c r="O62" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P62" s="108"/>
       <c r="Q62" s="92" t="str">
@@ -20783,9 +20851,9 @@
         <v>0</v>
       </c>
       <c r="BZ62" s="107"/>
-      <c r="CA62" s="92" t="str">
+      <c r="CA62" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB62" s="107"/>
       <c r="CC62" s="92" t="str">
@@ -20889,9 +20957,9 @@
         <v>0</v>
       </c>
       <c r="N63" s="108"/>
-      <c r="O63" s="92" t="str">
+      <c r="O63" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P63" s="108"/>
       <c r="Q63" s="92" t="str">
@@ -21031,9 +21099,9 @@
         <v>0</v>
       </c>
       <c r="BZ63" s="107"/>
-      <c r="CA63" s="92" t="str">
+      <c r="CA63" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB63" s="107"/>
       <c r="CC63" s="92" t="str">
@@ -21137,9 +21205,9 @@
         <v>0</v>
       </c>
       <c r="N64" s="108"/>
-      <c r="O64" s="92" t="str">
+      <c r="O64" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P64" s="108"/>
       <c r="Q64" s="92" t="str">
@@ -21279,9 +21347,9 @@
         <v>0</v>
       </c>
       <c r="BZ64" s="107"/>
-      <c r="CA64" s="92" t="str">
+      <c r="CA64" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB64" s="107"/>
       <c r="CC64" s="92" t="str">
@@ -21385,9 +21453,9 @@
         <v>0</v>
       </c>
       <c r="N65" s="108"/>
-      <c r="O65" s="92" t="str">
+      <c r="O65" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P65" s="108"/>
       <c r="Q65" s="92" t="str">
@@ -21527,9 +21595,9 @@
         <v>0</v>
       </c>
       <c r="BZ65" s="107"/>
-      <c r="CA65" s="92" t="str">
+      <c r="CA65" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB65" s="107"/>
       <c r="CC65" s="92" t="str">
@@ -21633,9 +21701,9 @@
         <v>0</v>
       </c>
       <c r="N66" s="108"/>
-      <c r="O66" s="92" t="str">
+      <c r="O66" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P66" s="108"/>
       <c r="Q66" s="92" t="str">
@@ -21775,9 +21843,9 @@
         <v>0</v>
       </c>
       <c r="BZ66" s="107"/>
-      <c r="CA66" s="92" t="str">
+      <c r="CA66" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB66" s="107"/>
       <c r="CC66" s="92" t="str">
@@ -21881,9 +21949,9 @@
         <v>0</v>
       </c>
       <c r="N67" s="108"/>
-      <c r="O67" s="92" t="str">
+      <c r="O67" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P67" s="108"/>
       <c r="Q67" s="92" t="str">
@@ -22023,9 +22091,9 @@
         <v>0</v>
       </c>
       <c r="BZ67" s="107"/>
-      <c r="CA67" s="92" t="str">
+      <c r="CA67" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB67" s="107"/>
       <c r="CC67" s="92" t="str">
@@ -22129,9 +22197,9 @@
         <v>0</v>
       </c>
       <c r="N68" s="108"/>
-      <c r="O68" s="92" t="str">
+      <c r="O68" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P68" s="108"/>
       <c r="Q68" s="92" t="str">
@@ -22271,9 +22339,9 @@
         <v>0</v>
       </c>
       <c r="BZ68" s="107"/>
-      <c r="CA68" s="92" t="str">
+      <c r="CA68" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB68" s="107"/>
       <c r="CC68" s="92" t="str">
@@ -22377,9 +22445,9 @@
         <v>0</v>
       </c>
       <c r="N69" s="108"/>
-      <c r="O69" s="92" t="str">
+      <c r="O69" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P69" s="108"/>
       <c r="Q69" s="92" t="str">
@@ -22519,9 +22587,9 @@
         <v>0</v>
       </c>
       <c r="BZ69" s="107"/>
-      <c r="CA69" s="92" t="str">
+      <c r="CA69" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB69" s="107"/>
       <c r="CC69" s="92" t="str">
@@ -22625,9 +22693,9 @@
         <v>0</v>
       </c>
       <c r="N70" s="108"/>
-      <c r="O70" s="92" t="str">
+      <c r="O70" s="92">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="P70" s="108"/>
       <c r="Q70" s="92" t="str">
@@ -22767,9 +22835,9 @@
         <v>0</v>
       </c>
       <c r="BZ70" s="107"/>
-      <c r="CA70" s="92" t="str">
+      <c r="CA70" s="92">
         <f t="shared" si="30"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CB70" s="107"/>
       <c r="CC70" s="92" t="str">
@@ -22834,6 +22902,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22850,88 +23000,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23143,7 +23211,7 @@
       </c>
       <c r="E8" s="52">
         <f>'RAW GRADES'!AN10</f>
-        <v>11.833333333333336</v>
+        <v>12.777777777777779</v>
       </c>
       <c r="F8" s="52">
         <f>'RAW GRADES'!AU10</f>
@@ -23155,11 +23223,11 @@
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>44.333333333333336</v>
+        <v>45.277777777777779</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>44.33</v>
+        <v>45.28</v>
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
@@ -23167,19 +23235,19 @@
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>45.158000000000001</v>
+        <v>42.112000000000002</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -23208,7 +23276,7 @@
       </c>
       <c r="E9" s="52">
         <f>'RAW GRADES'!AN11</f>
-        <v>9.1666666666666679</v>
+        <v>11.444444444444446</v>
       </c>
       <c r="F9" s="52">
         <f>'RAW GRADES'!AU11</f>
@@ -23220,11 +23288,11 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>39.866666666666667</v>
+        <v>42.144444444444446</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>39.869999999999997</v>
+        <v>42.14</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
@@ -23232,19 +23300,19 @@
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>43.373999999999995</v>
+        <v>44.606000000000002</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -23273,7 +23341,7 @@
       </c>
       <c r="E10" s="52">
         <f>'RAW GRADES'!AN12</f>
-        <v>9.5</v>
+        <v>9.4444444444444446</v>
       </c>
       <c r="F10" s="52">
         <f>'RAW GRADES'!AU12</f>
@@ -23285,11 +23353,11 @@
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>28.799999999999997</v>
+        <v>28.74444444444444</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>28.8</v>
+        <v>28.74</v>
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
@@ -23297,19 +23365,19 @@
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>38.945999999999998</v>
+        <v>35.496000000000002</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23338,7 +23406,7 @@
       </c>
       <c r="E11" s="52">
         <f>'RAW GRADES'!AN13</f>
-        <v>13.166666666666666</v>
+        <v>15.444444444444443</v>
       </c>
       <c r="F11" s="52">
         <f>'RAW GRADES'!AU13</f>
@@ -23350,11 +23418,11 @@
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>46.066666666666663</v>
+        <v>48.344444444444441</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>46.07</v>
+        <v>48.34</v>
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
@@ -23362,19 +23430,19 @@
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>45.853999999999999</v>
+        <v>43.335999999999999</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23403,7 +23471,7 @@
       </c>
       <c r="E12" s="52">
         <f>'RAW GRADES'!AN14</f>
-        <v>14.333333333333332</v>
+        <v>15.777777777777775</v>
       </c>
       <c r="F12" s="52">
         <f>'RAW GRADES'!AU14</f>
@@ -23415,11 +23483,11 @@
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>44.93333333333333</v>
+        <v>46.377777777777773</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>44.93</v>
+        <v>46.38</v>
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
@@ -23427,19 +23495,19 @@
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v>47.142857142857146</v>
+        <v>47.5</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>47.142857142857146</v>
+        <v>47.5</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>47.14</v>
+        <v>47.5</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>46.256</v>
+        <v>47.052000000000007</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23460,7 +23528,7 @@
       </c>
       <c r="C13" s="57">
         <f>'RAW GRADES'!F15</f>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="D13" s="89">
         <f>'RAW GRADES'!I15</f>
@@ -23468,7 +23536,7 @@
       </c>
       <c r="E13" s="52">
         <f>'RAW GRADES'!AN15</f>
-        <v>11.666666666666666</v>
+        <v>10.444444444444445</v>
       </c>
       <c r="F13" s="52">
         <f>'RAW GRADES'!AU15</f>
@@ -23480,11 +23548,11 @@
       </c>
       <c r="H13" s="53">
         <f>'RAW GRADES'!BC15</f>
-        <v>21.166666666666664</v>
+        <v>32.544444444444444</v>
       </c>
       <c r="I13" s="53">
         <f>'RAW GRADES'!BD15</f>
-        <v>21.17</v>
+        <v>32.54</v>
       </c>
       <c r="J13" s="52">
         <f>'RAW GRADES'!BK15</f>
@@ -23492,19 +23560,19 @@
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>41.071428571428569</v>
+        <v>35.9375</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>41.071428571428569</v>
+        <v>35.9375</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>41.07</v>
+        <v>35.94</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>33.11</v>
+        <v>34.58</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23533,7 +23601,7 @@
       </c>
       <c r="E14" s="52">
         <f>'RAW GRADES'!AN16</f>
-        <v>11.166666666666668</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="F14" s="52">
         <f>'RAW GRADES'!AU16</f>
@@ -23545,11 +23613,11 @@
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>41.166666666666671</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>41.17</v>
+        <v>43.67</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
@@ -23557,19 +23625,19 @@
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>44.642857142857146</v>
+        <v>39.0625</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>44.642857142857146</v>
+        <v>39.0625</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>44.64</v>
+        <v>39.06</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>43.251999999999995</v>
+        <v>40.903999999999996</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23598,7 +23666,7 @@
       </c>
       <c r="E15" s="52">
         <f>'RAW GRADES'!AN17</f>
-        <v>12.666666666666666</v>
+        <v>12.888888888888889</v>
       </c>
       <c r="F15" s="52">
         <f>'RAW GRADES'!AU17</f>
@@ -23610,11 +23678,11 @@
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>40.666666666666664</v>
+        <v>40.888888888888886</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>40.67</v>
+        <v>40.89</v>
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
@@ -23622,19 +23690,19 @@
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>43.694000000000003</v>
+        <v>40.356000000000002</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23663,7 +23731,7 @@
       </c>
       <c r="E16" s="52">
         <f>'RAW GRADES'!AN18</f>
-        <v>13</v>
+        <v>8.6666666666666679</v>
       </c>
       <c r="F16" s="52">
         <f>'RAW GRADES'!AU18</f>
@@ -23675,11 +23743,11 @@
       </c>
       <c r="H16" s="53">
         <f>'RAW GRADES'!BC18</f>
-        <v>41.4</v>
+        <v>37.066666666666663</v>
       </c>
       <c r="I16" s="53">
         <f>'RAW GRADES'!BD18</f>
-        <v>41.4</v>
+        <v>37.07</v>
       </c>
       <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
@@ -23687,19 +23755,19 @@
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v>46.785714285714285</v>
+        <v>47.1875</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>46.785714285714285</v>
+        <v>47.1875</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>46.79</v>
+        <v>47.19</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>44.634</v>
+        <v>43.141999999999996</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23728,7 +23796,7 @@
       </c>
       <c r="E17" s="52">
         <f>'RAW GRADES'!AN19</f>
-        <v>11.166666666666666</v>
+        <v>11</v>
       </c>
       <c r="F17" s="52">
         <f>'RAW GRADES'!AU19</f>
@@ -23740,11 +23808,11 @@
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>43.066666666666663</v>
+        <v>42.9</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>43.07</v>
+        <v>42.9</v>
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
@@ -23752,19 +23820,19 @@
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>44.653999999999996</v>
+        <v>41.16</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23793,7 +23861,7 @@
       </c>
       <c r="E18" s="52">
         <f>'RAW GRADES'!AN20</f>
-        <v>10.833333333333334</v>
+        <v>12.111111111111111</v>
       </c>
       <c r="F18" s="52">
         <f>'RAW GRADES'!AU20</f>
@@ -23805,11 +23873,11 @@
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>38.333333333333336</v>
+        <v>39.611111111111114</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>38.33</v>
+        <v>39.61</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
@@ -23817,19 +23885,19 @@
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>42.757999999999996</v>
+        <v>39.844000000000001</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23858,7 +23926,7 @@
       </c>
       <c r="E19" s="52">
         <f>'RAW GRADES'!AN21</f>
-        <v>12.666666666666666</v>
+        <v>13.333333333333336</v>
       </c>
       <c r="F19" s="52">
         <f>'RAW GRADES'!AU21</f>
@@ -23870,11 +23938,11 @@
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>41.966666666666669</v>
+        <v>42.63333333333334</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>41.97</v>
+        <v>42.63</v>
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
@@ -23882,19 +23950,19 @@
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>44.213999999999999</v>
+        <v>41.052000000000007</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -23923,7 +23991,7 @@
       </c>
       <c r="E20" s="52">
         <f>'RAW GRADES'!AN22</f>
-        <v>12.833333333333336</v>
+        <v>10.777777777777779</v>
       </c>
       <c r="F20" s="52">
         <f>'RAW GRADES'!AU22</f>
@@ -23935,11 +24003,11 @@
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>38.833333333333336</v>
+        <v>36.777777777777779</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>38.83</v>
+        <v>36.78</v>
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
@@ -23947,19 +24015,19 @@
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>42.957999999999998</v>
+        <v>38.712000000000003</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -23988,7 +24056,7 @@
       </c>
       <c r="E21" s="52">
         <f>'RAW GRADES'!AN23</f>
-        <v>13.833333333333332</v>
+        <v>13.222222222222221</v>
       </c>
       <c r="F21" s="52">
         <f>'RAW GRADES'!AU23</f>
@@ -24000,11 +24068,11 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>41.733333333333334</v>
+        <v>41.12222222222222</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>41.73</v>
+        <v>41.12</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
@@ -24012,19 +24080,19 @@
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>44.117999999999995</v>
+        <v>44.198</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -24053,7 +24121,7 @@
       </c>
       <c r="E22" s="52">
         <f>'RAW GRADES'!AN24</f>
-        <v>14.5</v>
+        <v>15.888888888888889</v>
       </c>
       <c r="F22" s="52">
         <f>'RAW GRADES'!AU24</f>
@@ -24065,11 +24133,11 @@
       </c>
       <c r="H22" s="53">
         <f>'RAW GRADES'!BC24</f>
-        <v>47.8</v>
+        <v>49.18888888888889</v>
       </c>
       <c r="I22" s="53">
         <f>'RAW GRADES'!BD24</f>
-        <v>47.8</v>
+        <v>49.19</v>
       </c>
       <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
@@ -24077,19 +24145,19 @@
       </c>
       <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v>48.571428571428569</v>
+        <v>42.5</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>48.571428571428569</v>
+        <v>42.5</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>48.57</v>
+        <v>42.5</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>48.262</v>
+        <v>45.176000000000002</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -24118,7 +24186,7 @@
       </c>
       <c r="E23" s="52">
         <f>'RAW GRADES'!AN25</f>
-        <v>6.166666666666667</v>
+        <v>9</v>
       </c>
       <c r="F23" s="52">
         <f>'RAW GRADES'!AU25</f>
@@ -24130,11 +24198,11 @@
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>33.166666666666671</v>
+        <v>36</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>33.17</v>
+        <v>36</v>
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
@@ -24142,19 +24210,19 @@
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>40.694000000000003</v>
+        <v>42.15</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -24183,7 +24251,7 @@
       </c>
       <c r="E24" s="52">
         <f>'RAW GRADES'!AN26</f>
-        <v>12.166666666666666</v>
+        <v>13.444444444444443</v>
       </c>
       <c r="F24" s="52">
         <f>'RAW GRADES'!AU26</f>
@@ -24195,11 +24263,11 @@
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>42.766666666666666</v>
+        <v>44.044444444444437</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>42.77</v>
+        <v>44.04</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
@@ -24207,19 +24275,19 @@
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>44.533999999999999</v>
+        <v>41.616</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24248,7 +24316,7 @@
       </c>
       <c r="E25" s="52">
         <f>'RAW GRADES'!AN27</f>
-        <v>9.8333333333333357</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="F25" s="52">
         <f>'RAW GRADES'!AU27</f>
@@ -24260,11 +24328,11 @@
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>41.033333333333331</v>
+        <v>43.533333333333331</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>41.03</v>
+        <v>43.53</v>
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
@@ -24272,19 +24340,19 @@
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>43.838000000000001</v>
+        <v>41.412000000000006</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24313,7 +24381,7 @@
       </c>
       <c r="E26" s="52">
         <f>'RAW GRADES'!AN28</f>
-        <v>10.666666666666666</v>
+        <v>7.1111111111111107</v>
       </c>
       <c r="F26" s="52">
         <f>'RAW GRADES'!AU28</f>
@@ -24325,11 +24393,11 @@
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>34.666666666666664</v>
+        <v>31.111111111111111</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>34.67</v>
+        <v>31.11</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
@@ -24337,19 +24405,19 @@
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>41.293999999999997</v>
+        <v>36.444000000000003</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24378,7 +24446,7 @@
       </c>
       <c r="E27" s="52">
         <f>'RAW GRADES'!AN29</f>
-        <v>12.166666666666666</v>
+        <v>14.333333333333336</v>
       </c>
       <c r="F27" s="52">
         <f>'RAW GRADES'!AU29</f>
@@ -24390,11 +24458,11 @@
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>42.266666666666666</v>
+        <v>44.433333333333337</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>42.27</v>
+        <v>44.43</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
@@ -24402,19 +24470,19 @@
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>44.334000000000003</v>
+        <v>41.772000000000006</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24443,7 +24511,7 @@
       </c>
       <c r="E28" s="52">
         <f>'RAW GRADES'!AN30</f>
-        <v>12.166666666666666</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="F28" s="52">
         <f>'RAW GRADES'!AU30</f>
@@ -24455,11 +24523,11 @@
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>44.86666666666666</v>
+        <v>46.588888888888889</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>44.87</v>
+        <v>46.59</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
@@ -24467,19 +24535,19 @@
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>45.373999999999995</v>
+        <v>46.386000000000003</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24508,7 +24576,7 @@
       </c>
       <c r="E29" s="52">
         <f>'RAW GRADES'!AN31</f>
-        <v>2.3333333333333335</v>
+        <v>6.8888888888888893</v>
       </c>
       <c r="F29" s="52">
         <f>'RAW GRADES'!AU31</f>
@@ -24520,11 +24588,11 @@
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>20.933333333333334</v>
+        <v>25.488888888888887</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>20.93</v>
+        <v>25.49</v>
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
@@ -24532,19 +24600,19 @@
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>35.798000000000002</v>
+        <v>34.195999999999998</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -24573,7 +24641,7 @@
       </c>
       <c r="E30" s="52">
         <f>'RAW GRADES'!AN32</f>
-        <v>13.333333333333332</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="F30" s="52">
         <f>'RAW GRADES'!AU32</f>
@@ -24585,11 +24653,11 @@
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>44.233333333333334</v>
+        <v>46.455555555555556</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>44.23</v>
+        <v>46.46</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
@@ -24597,19 +24665,19 @@
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>45.714285714285715</v>
+        <v>40</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>45.71</v>
+        <v>40</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>45.117999999999995</v>
+        <v>42.584000000000003</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24638,7 +24706,7 @@
       </c>
       <c r="E31" s="52">
         <f>'RAW GRADES'!AN33</f>
-        <v>13.833333333333336</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="F31" s="52">
         <f>'RAW GRADES'!AU33</f>
@@ -24650,11 +24718,11 @@
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>43.833333333333336</v>
+        <v>43.666666666666664</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>43.83</v>
+        <v>43.67</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
@@ -24662,19 +24730,19 @@
       </c>
       <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
-        <v>45.714285714285715</v>
+        <v>46.25</v>
       </c>
       <c r="M31" s="54">
         <f>'RAW GRADES'!CR33</f>
-        <v>45.71</v>
+        <v>46.25</v>
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>44.957999999999998</v>
+        <v>45.218000000000004</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24703,7 +24771,7 @@
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
-        <v>11.333333333333336</v>
+        <v>7.5555555555555562</v>
       </c>
       <c r="F32" s="52">
         <f>'RAW GRADES'!AU34</f>
@@ -24715,11 +24783,11 @@
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>36.533333333333331</v>
+        <v>32.75555555555556</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>36.53</v>
+        <v>32.76</v>
       </c>
       <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
@@ -24727,19 +24795,19 @@
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v>42.5</v>
+        <v>43.4375</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>42.5</v>
+        <v>43.4375</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>42.5</v>
+        <v>43.44</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>40.112000000000002</v>
+        <v>39.167999999999992</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
@@ -27146,106 +27214,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="228"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
+      <c r="A9" s="259"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="233"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="A10" s="266"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="232"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="235" t="str">
+      <c r="C13" s="268" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27253,12 +27321,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="227" t="str">
+      <c r="C14" s="261" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27266,12 +27334,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="238" t="str">
+      <c r="C15" s="247" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27279,12 +27347,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="238" t="str">
+      <c r="C16" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27292,12 +27360,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="238" t="str">
+      <c r="C17" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27309,42 +27377,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="239" t="s">
+      <c r="A19" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="239" t="s">
+      <c r="D19" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="244" t="s">
+      <c r="E19" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="239" t="s">
+      <c r="F19" s="248" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="240"/>
-      <c r="B20" s="243"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="247"/>
+      <c r="A20" s="249"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="256"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="241"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="248"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="257"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28857,14 +28925,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="255" t="s">
+      <c r="A83" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="256"/>
-      <c r="C83" s="256"/>
-      <c r="D83" s="256"/>
-      <c r="E83" s="256"/>
-      <c r="F83" s="257"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="233"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28897,11 +28965,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="249">
+      <c r="E87" s="258">
         <f ca="1">NOW()</f>
-        <v>43041.471787615737</v>
-      </c>
-      <c r="F87" s="249"/>
+        <v>43063.573795717595</v>
+      </c>
+      <c r="F87" s="258"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28911,10 +28979,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="228" t="s">
+      <c r="E88" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="228"/>
+      <c r="F88" s="259"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28931,8 +28999,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="228"/>
-      <c r="F90" s="228"/>
+      <c r="E90" s="259"/>
+      <c r="F90" s="259"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -29048,14 +29116,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="250" t="s">
+      <c r="A105" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="250"/>
-      <c r="C105" s="250"/>
-      <c r="D105" s="250"/>
-      <c r="E105" s="250"/>
-      <c r="F105" s="250"/>
+      <c r="B105" s="260"/>
+      <c r="C105" s="260"/>
+      <c r="D105" s="260"/>
+      <c r="E105" s="260"/>
+      <c r="F105" s="260"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -29070,124 +29138,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="268" t="s">
+      <c r="C107" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="237"/>
-      <c r="E107" s="236" t="s">
+      <c r="D107" s="245"/>
+      <c r="E107" s="246" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="237"/>
+      <c r="F107" s="245"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="264">
+      <c r="C108" s="240">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="265"/>
-      <c r="E108" s="266">
+      <c r="D108" s="241"/>
+      <c r="E108" s="242">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="267"/>
+      <c r="F108" s="243"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="258">
+      <c r="C109" s="234">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="259"/>
-      <c r="E109" s="260">
+      <c r="D109" s="235"/>
+      <c r="E109" s="236">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="261"/>
+      <c r="F109" s="237"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="258">
+      <c r="C110" s="234">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="259"/>
-      <c r="E110" s="260">
+      <c r="D110" s="235"/>
+      <c r="E110" s="236">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="261"/>
+      <c r="F110" s="237"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="258">
+      <c r="C111" s="234">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="259"/>
-      <c r="E111" s="260">
+      <c r="D111" s="235"/>
+      <c r="E111" s="236">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="261"/>
+      <c r="F111" s="237"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="262">
-        <v>0</v>
-      </c>
-      <c r="D112" s="263"/>
-      <c r="E112" s="260">
+      <c r="C112" s="238">
+        <v>0</v>
+      </c>
+      <c r="D112" s="239"/>
+      <c r="E112" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="261"/>
+      <c r="F112" s="237"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="262">
-        <v>0</v>
-      </c>
-      <c r="D113" s="263"/>
-      <c r="E113" s="260">
+      <c r="C113" s="238">
+        <v>0</v>
+      </c>
+      <c r="D113" s="239"/>
+      <c r="E113" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="261"/>
+      <c r="F113" s="237"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="251">
+      <c r="C114" s="227">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="252"/>
-      <c r="E114" s="253">
+      <c r="D114" s="228"/>
+      <c r="E114" s="229">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="254"/>
+      <c r="F114" s="230"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -29355,6 +29423,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -29371,32 +29465,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 65 - CS 3B/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3B/LEC AND LAB.xlsx
@@ -2306,99 +2306,37 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2438,129 +2376,104 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2601,6 +2514,93 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2659,6 +2659,102 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2732,102 +2828,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3911,7 +3911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3944,82 +3944,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="167" t="s">
+      <c r="A6" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168" t="s">
+      <c r="D6" s="129"/>
+      <c r="E6" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="168"/>
+      <c r="F6" s="130"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4027,28 +4027,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="169" t="s">
+      <c r="J6" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="169"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="172"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="173" t="s">
+      <c r="E7" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="173"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4056,28 +4056,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="173" t="s">
+      <c r="J7" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="174"/>
-      <c r="M7" s="174"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="154"/>
+      <c r="B8" s="138"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="155" t="s">
+      <c r="E8" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4085,45 +4085,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="155" t="s">
+      <c r="J8" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="155"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162" t="s">
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="162" t="s">
+      <c r="G9" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="145" t="s">
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="146"/>
-      <c r="L9" s="145" t="s">
+      <c r="K9" s="150"/>
+      <c r="L9" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="146"/>
+      <c r="M9" s="150"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="158"/>
-      <c r="B10" s="160"/>
+      <c r="A10" s="142"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4133,14 +4133,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
+      <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4161,19 +4161,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="148"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="150"/>
-      <c r="O11" s="137" t="s">
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="158"/>
+      <c r="O11" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="171"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4194,21 +4194,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="133"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="133"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="132" t="s">
+      <c r="P12" s="167" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="167"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4229,21 +4229,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="132" t="s">
+      <c r="P13" s="167" t="s">
         <v>243</v>
       </c>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="129" t="s">
+      <c r="P14" s="164" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="130"/>
-      <c r="R14" s="131"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="166"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4299,21 +4299,21 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="154"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="129" t="s">
+      <c r="P15" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="130"/>
-      <c r="R15" s="131"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="166"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
@@ -4334,21 +4334,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="140" t="s">
+      <c r="P16" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="142"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="174"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4369,21 +4369,21 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="133"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="155"/>
+      <c r="M17" s="155"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="129" t="s">
+      <c r="P17" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="131"/>
+      <c r="Q17" s="165"/>
+      <c r="R17" s="166"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4404,13 +4404,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4431,13 +4431,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="133"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="133"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4458,13 +4458,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4485,13 +4485,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="133"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="133"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4515,13 +4515,13 @@
       <c r="F22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4548,13 +4548,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4581,13 +4581,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="133"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="155"/>
+      <c r="M24" s="155"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4614,13 +4614,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="154"/>
+      <c r="L25" s="155"/>
+      <c r="M25" s="155"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4647,13 +4647,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4680,13 +4680,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4713,13 +4713,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="154"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4746,13 +4746,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4779,13 +4779,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="154"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4812,13 +4812,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4841,13 +4841,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4874,13 +4874,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="153"/>
+      <c r="K33" s="154"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4901,13 +4901,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="135"/>
-      <c r="M34" s="135"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="153"/>
+      <c r="K34" s="154"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4928,13 +4928,13 @@
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="135"/>
-      <c r="M35" s="135"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="153"/>
+      <c r="K35" s="154"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4945,13 +4945,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="154"/>
+      <c r="L36" s="155"/>
+      <c r="M36" s="155"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4962,13 +4962,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="133"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="133"/>
-      <c r="J37" s="134"/>
-      <c r="K37" s="134"/>
-      <c r="L37" s="135"/>
-      <c r="M37" s="135"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="161"/>
+      <c r="K37" s="161"/>
+      <c r="L37" s="155"/>
+      <c r="M37" s="155"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4979,13 +4979,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="133"/>
-      <c r="H38" s="133"/>
-      <c r="I38" s="133"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="135"/>
-      <c r="M38" s="135"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="161"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4996,13 +4996,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="135"/>
-      <c r="M39" s="135"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5013,13 +5013,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="133"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="133"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="135"/>
-      <c r="M40" s="135"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5030,13 +5030,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="135"/>
-      <c r="M41" s="135"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5047,13 +5047,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="135"/>
-      <c r="M42" s="135"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5064,13 +5064,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="161"/>
+      <c r="K43" s="161"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5081,13 +5081,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="135"/>
-      <c r="M44" s="135"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="161"/>
+      <c r="K44" s="161"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5098,13 +5098,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="133"/>
-      <c r="I45" s="133"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="135"/>
-      <c r="M45" s="135"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5115,13 +5115,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="135"/>
-      <c r="M46" s="135"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5132,13 +5132,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="133"/>
-      <c r="I47" s="133"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="135"/>
-      <c r="M47" s="135"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="161"/>
+      <c r="K47" s="161"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5149,13 +5149,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="135"/>
-      <c r="M48" s="135"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="161"/>
+      <c r="K48" s="161"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5166,13 +5166,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="135"/>
-      <c r="M49" s="135"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="161"/>
+      <c r="K49" s="161"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5183,13 +5183,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="135"/>
-      <c r="M50" s="135"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="161"/>
+      <c r="K50" s="161"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5200,13 +5200,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="161"/>
+      <c r="K51" s="161"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5217,13 +5217,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="161"/>
+      <c r="K52" s="161"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5234,13 +5234,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="135"/>
-      <c r="M53" s="135"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="161"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5251,13 +5251,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
-      <c r="J54" s="134"/>
-      <c r="K54" s="134"/>
-      <c r="L54" s="135"/>
-      <c r="M54" s="135"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="161"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="155"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5268,13 +5268,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
-      <c r="J55" s="134"/>
-      <c r="K55" s="134"/>
-      <c r="L55" s="135"/>
-      <c r="M55" s="135"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="155"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5285,13 +5285,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
-      <c r="L56" s="135"/>
-      <c r="M56" s="135"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="155"/>
+      <c r="M56" s="155"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5302,13 +5302,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="134"/>
-      <c r="L57" s="135"/>
-      <c r="M57" s="135"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="161"/>
+      <c r="K57" s="161"/>
+      <c r="L57" s="155"/>
+      <c r="M57" s="155"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5319,13 +5319,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="161"/>
+      <c r="K58" s="161"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5336,13 +5336,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="161"/>
+      <c r="L59" s="155"/>
+      <c r="M59" s="155"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5353,13 +5353,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="134"/>
-      <c r="K60" s="134"/>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
+      <c r="I60" s="152"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="161"/>
+      <c r="L60" s="155"/>
+      <c r="M60" s="155"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5370,13 +5370,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="134"/>
-      <c r="K61" s="134"/>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
+      <c r="I61" s="152"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="161"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5387,13 +5387,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
+      <c r="I62" s="152"/>
+      <c r="J62" s="161"/>
+      <c r="K62" s="161"/>
+      <c r="L62" s="155"/>
+      <c r="M62" s="155"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5404,13 +5404,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
+      <c r="G63" s="152"/>
+      <c r="H63" s="152"/>
+      <c r="I63" s="152"/>
+      <c r="J63" s="161"/>
+      <c r="K63" s="161"/>
+      <c r="L63" s="155"/>
+      <c r="M63" s="155"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5421,13 +5421,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="161"/>
+      <c r="K64" s="161"/>
+      <c r="L64" s="155"/>
+      <c r="M64" s="155"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5438,13 +5438,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="134"/>
-      <c r="K65" s="134"/>
-      <c r="L65" s="135"/>
-      <c r="M65" s="135"/>
+      <c r="G65" s="152"/>
+      <c r="H65" s="152"/>
+      <c r="I65" s="152"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="161"/>
+      <c r="L65" s="155"/>
+      <c r="M65" s="155"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5455,13 +5455,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="133"/>
-      <c r="J66" s="134"/>
-      <c r="K66" s="134"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="135"/>
+      <c r="G66" s="152"/>
+      <c r="H66" s="152"/>
+      <c r="I66" s="152"/>
+      <c r="J66" s="161"/>
+      <c r="K66" s="161"/>
+      <c r="L66" s="155"/>
+      <c r="M66" s="155"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5472,13 +5472,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
-      <c r="J67" s="134"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
+      <c r="G67" s="152"/>
+      <c r="H67" s="152"/>
+      <c r="I67" s="152"/>
+      <c r="J67" s="161"/>
+      <c r="K67" s="161"/>
+      <c r="L67" s="155"/>
+      <c r="M67" s="155"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5489,13 +5489,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="133"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="133"/>
-      <c r="J68" s="134"/>
-      <c r="K68" s="134"/>
-      <c r="L68" s="135"/>
-      <c r="M68" s="135"/>
+      <c r="G68" s="152"/>
+      <c r="H68" s="152"/>
+      <c r="I68" s="152"/>
+      <c r="J68" s="161"/>
+      <c r="K68" s="161"/>
+      <c r="L68" s="155"/>
+      <c r="M68" s="155"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5506,13 +5506,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="133"/>
-      <c r="J69" s="134"/>
-      <c r="K69" s="134"/>
-      <c r="L69" s="135"/>
-      <c r="M69" s="135"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
+      <c r="I69" s="152"/>
+      <c r="J69" s="161"/>
+      <c r="K69" s="161"/>
+      <c r="L69" s="155"/>
+      <c r="M69" s="155"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5523,13 +5523,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="133"/>
-      <c r="J70" s="134"/>
-      <c r="K70" s="134"/>
-      <c r="L70" s="135"/>
-      <c r="M70" s="135"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
+      <c r="I70" s="152"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="161"/>
+      <c r="L70" s="155"/>
+      <c r="M70" s="155"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5540,13 +5540,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="133"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="133"/>
-      <c r="J71" s="134"/>
-      <c r="K71" s="134"/>
-      <c r="L71" s="135"/>
-      <c r="M71" s="135"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
+      <c r="I71" s="152"/>
+      <c r="J71" s="161"/>
+      <c r="K71" s="161"/>
+      <c r="L71" s="155"/>
+      <c r="M71" s="155"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5554,195 +5554,6 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5767,6 +5578,195 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
@@ -6107,9 +6107,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BG25" sqref="BG25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="BT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="CB7" sqref="CB7:CC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6123,452 +6123,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="136"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="136"/>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="136"/>
-      <c r="AW2" s="136"/>
-      <c r="AX2" s="136"/>
-      <c r="AY2" s="136"/>
-      <c r="AZ2" s="136"/>
-      <c r="BA2" s="136"/>
-      <c r="BB2" s="136"/>
-      <c r="BC2" s="136"/>
-      <c r="BD2" s="136"/>
-      <c r="BE2" s="136"/>
-      <c r="BF2" s="136"/>
-      <c r="BG2" s="136"/>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="136"/>
-      <c r="BL2" s="136"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="136"/>
-      <c r="BO2" s="136"/>
-      <c r="BP2" s="136"/>
-      <c r="BQ2" s="136"/>
-      <c r="BR2" s="136"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="136"/>
-      <c r="BU2" s="136"/>
-      <c r="BV2" s="136"/>
-      <c r="BW2" s="136"/>
-      <c r="BX2" s="136"/>
-      <c r="BY2" s="136"/>
-      <c r="BZ2" s="136"/>
-      <c r="CA2" s="136"/>
-      <c r="CB2" s="136"/>
-      <c r="CC2" s="136"/>
-      <c r="CD2" s="136"/>
-      <c r="CE2" s="136"/>
-      <c r="CF2" s="136"/>
-      <c r="CG2" s="136"/>
-      <c r="CH2" s="136"/>
-      <c r="CI2" s="136"/>
-      <c r="CJ2" s="136"/>
-      <c r="CK2" s="136"/>
-      <c r="CL2" s="136"/>
-      <c r="CM2" s="136"/>
-      <c r="CN2" s="136"/>
-      <c r="CO2" s="136"/>
-      <c r="CP2" s="136"/>
-      <c r="CQ2" s="136"/>
-      <c r="CR2" s="136"/>
-      <c r="CS2" s="136"/>
-      <c r="CT2" s="136"/>
-      <c r="CU2" s="136"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="168"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="168"/>
+      <c r="U2" s="168"/>
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="168"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="168"/>
+      <c r="AU2" s="168"/>
+      <c r="AV2" s="168"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="168"/>
+      <c r="BC2" s="168"/>
+      <c r="BD2" s="168"/>
+      <c r="BE2" s="168"/>
+      <c r="BF2" s="168"/>
+      <c r="BG2" s="168"/>
+      <c r="BH2" s="168"/>
+      <c r="BI2" s="168"/>
+      <c r="BJ2" s="168"/>
+      <c r="BK2" s="168"/>
+      <c r="BL2" s="168"/>
+      <c r="BM2" s="168"/>
+      <c r="BN2" s="168"/>
+      <c r="BO2" s="168"/>
+      <c r="BP2" s="168"/>
+      <c r="BQ2" s="168"/>
+      <c r="BR2" s="168"/>
+      <c r="BS2" s="168"/>
+      <c r="BT2" s="168"/>
+      <c r="BU2" s="168"/>
+      <c r="BV2" s="168"/>
+      <c r="BW2" s="168"/>
+      <c r="BX2" s="168"/>
+      <c r="BY2" s="168"/>
+      <c r="BZ2" s="168"/>
+      <c r="CA2" s="168"/>
+      <c r="CB2" s="168"/>
+      <c r="CC2" s="168"/>
+      <c r="CD2" s="168"/>
+      <c r="CE2" s="168"/>
+      <c r="CF2" s="168"/>
+      <c r="CG2" s="168"/>
+      <c r="CH2" s="168"/>
+      <c r="CI2" s="168"/>
+      <c r="CJ2" s="168"/>
+      <c r="CK2" s="168"/>
+      <c r="CL2" s="168"/>
+      <c r="CM2" s="168"/>
+      <c r="CN2" s="168"/>
+      <c r="CO2" s="168"/>
+      <c r="CP2" s="168"/>
+      <c r="CQ2" s="168"/>
+      <c r="CR2" s="168"/>
+      <c r="CS2" s="168"/>
+      <c r="CT2" s="168"/>
+      <c r="CU2" s="168"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
-      <c r="AX3" s="136"/>
-      <c r="AY3" s="136"/>
-      <c r="AZ3" s="136"/>
-      <c r="BA3" s="136"/>
-      <c r="BB3" s="136"/>
-      <c r="BC3" s="136"/>
-      <c r="BD3" s="136"/>
-      <c r="BE3" s="136"/>
-      <c r="BF3" s="136"/>
-      <c r="BG3" s="136"/>
-      <c r="BH3" s="136"/>
-      <c r="BI3" s="136"/>
-      <c r="BJ3" s="136"/>
-      <c r="BK3" s="136"/>
-      <c r="BL3" s="136"/>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="136"/>
-      <c r="BO3" s="136"/>
-      <c r="BP3" s="136"/>
-      <c r="BQ3" s="136"/>
-      <c r="BR3" s="136"/>
-      <c r="BS3" s="136"/>
-      <c r="BT3" s="136"/>
-      <c r="BU3" s="136"/>
-      <c r="BV3" s="136"/>
-      <c r="BW3" s="136"/>
-      <c r="BX3" s="136"/>
-      <c r="BY3" s="136"/>
-      <c r="BZ3" s="136"/>
-      <c r="CA3" s="136"/>
-      <c r="CB3" s="136"/>
-      <c r="CC3" s="136"/>
-      <c r="CD3" s="136"/>
-      <c r="CE3" s="136"/>
-      <c r="CF3" s="136"/>
-      <c r="CG3" s="136"/>
-      <c r="CH3" s="136"/>
-      <c r="CI3" s="136"/>
-      <c r="CJ3" s="136"/>
-      <c r="CK3" s="136"/>
-      <c r="CL3" s="136"/>
-      <c r="CM3" s="136"/>
-      <c r="CN3" s="136"/>
-      <c r="CO3" s="136"/>
-      <c r="CP3" s="136"/>
-      <c r="CQ3" s="136"/>
-      <c r="CR3" s="136"/>
-      <c r="CS3" s="136"/>
-      <c r="CT3" s="136"/>
-      <c r="CU3" s="136"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="168"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="168"/>
+      <c r="W3" s="168"/>
+      <c r="X3" s="168"/>
+      <c r="Y3" s="168"/>
+      <c r="Z3" s="168"/>
+      <c r="AA3" s="168"/>
+      <c r="AB3" s="168"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="168"/>
+      <c r="AG3" s="168"/>
+      <c r="AH3" s="168"/>
+      <c r="AI3" s="168"/>
+      <c r="AJ3" s="168"/>
+      <c r="AK3" s="168"/>
+      <c r="AL3" s="168"/>
+      <c r="AM3" s="168"/>
+      <c r="AN3" s="168"/>
+      <c r="AO3" s="168"/>
+      <c r="AP3" s="168"/>
+      <c r="AQ3" s="168"/>
+      <c r="AR3" s="168"/>
+      <c r="AS3" s="168"/>
+      <c r="AT3" s="168"/>
+      <c r="AU3" s="168"/>
+      <c r="AV3" s="168"/>
+      <c r="AW3" s="168"/>
+      <c r="AX3" s="168"/>
+      <c r="AY3" s="168"/>
+      <c r="AZ3" s="168"/>
+      <c r="BA3" s="168"/>
+      <c r="BB3" s="168"/>
+      <c r="BC3" s="168"/>
+      <c r="BD3" s="168"/>
+      <c r="BE3" s="168"/>
+      <c r="BF3" s="168"/>
+      <c r="BG3" s="168"/>
+      <c r="BH3" s="168"/>
+      <c r="BI3" s="168"/>
+      <c r="BJ3" s="168"/>
+      <c r="BK3" s="168"/>
+      <c r="BL3" s="168"/>
+      <c r="BM3" s="168"/>
+      <c r="BN3" s="168"/>
+      <c r="BO3" s="168"/>
+      <c r="BP3" s="168"/>
+      <c r="BQ3" s="168"/>
+      <c r="BR3" s="168"/>
+      <c r="BS3" s="168"/>
+      <c r="BT3" s="168"/>
+      <c r="BU3" s="168"/>
+      <c r="BV3" s="168"/>
+      <c r="BW3" s="168"/>
+      <c r="BX3" s="168"/>
+      <c r="BY3" s="168"/>
+      <c r="BZ3" s="168"/>
+      <c r="CA3" s="168"/>
+      <c r="CB3" s="168"/>
+      <c r="CC3" s="168"/>
+      <c r="CD3" s="168"/>
+      <c r="CE3" s="168"/>
+      <c r="CF3" s="168"/>
+      <c r="CG3" s="168"/>
+      <c r="CH3" s="168"/>
+      <c r="CI3" s="168"/>
+      <c r="CJ3" s="168"/>
+      <c r="CK3" s="168"/>
+      <c r="CL3" s="168"/>
+      <c r="CM3" s="168"/>
+      <c r="CN3" s="168"/>
+      <c r="CO3" s="168"/>
+      <c r="CP3" s="168"/>
+      <c r="CQ3" s="168"/>
+      <c r="CR3" s="168"/>
+      <c r="CS3" s="168"/>
+      <c r="CT3" s="168"/>
+      <c r="CU3" s="168"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="201" t="s">
+      <c r="A5" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="204" t="s">
+      <c r="B5" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="204" t="s">
+      <c r="C5" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="205" t="s">
+      <c r="D5" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="206"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="206"/>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="206"/>
-      <c r="AC5" s="206"/>
-      <c r="AD5" s="206"/>
-      <c r="AE5" s="206"/>
-      <c r="AF5" s="206"/>
-      <c r="AG5" s="206"/>
-      <c r="AH5" s="206"/>
-      <c r="AI5" s="206"/>
-      <c r="AJ5" s="206"/>
-      <c r="AK5" s="206"/>
-      <c r="AL5" s="206"/>
-      <c r="AM5" s="206"/>
-      <c r="AN5" s="206"/>
-      <c r="AO5" s="206"/>
-      <c r="AP5" s="206"/>
-      <c r="AQ5" s="206"/>
-      <c r="AR5" s="206"/>
-      <c r="AS5" s="206"/>
-      <c r="AT5" s="206"/>
-      <c r="AU5" s="206"/>
-      <c r="AV5" s="206"/>
-      <c r="AW5" s="206"/>
-      <c r="AX5" s="206"/>
-      <c r="AY5" s="206"/>
-      <c r="AZ5" s="206"/>
-      <c r="BA5" s="206"/>
-      <c r="BB5" s="206"/>
-      <c r="BC5" s="206"/>
-      <c r="BD5" s="207"/>
-      <c r="BE5" s="208" t="s">
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="181"/>
+      <c r="Q5" s="181"/>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="181"/>
+      <c r="Y5" s="181"/>
+      <c r="Z5" s="181"/>
+      <c r="AA5" s="181"/>
+      <c r="AB5" s="181"/>
+      <c r="AC5" s="181"/>
+      <c r="AD5" s="181"/>
+      <c r="AE5" s="181"/>
+      <c r="AF5" s="181"/>
+      <c r="AG5" s="181"/>
+      <c r="AH5" s="181"/>
+      <c r="AI5" s="181"/>
+      <c r="AJ5" s="181"/>
+      <c r="AK5" s="181"/>
+      <c r="AL5" s="181"/>
+      <c r="AM5" s="181"/>
+      <c r="AN5" s="181"/>
+      <c r="AO5" s="181"/>
+      <c r="AP5" s="181"/>
+      <c r="AQ5" s="181"/>
+      <c r="AR5" s="181"/>
+      <c r="AS5" s="181"/>
+      <c r="AT5" s="181"/>
+      <c r="AU5" s="181"/>
+      <c r="AV5" s="181"/>
+      <c r="AW5" s="181"/>
+      <c r="AX5" s="181"/>
+      <c r="AY5" s="181"/>
+      <c r="AZ5" s="181"/>
+      <c r="BA5" s="181"/>
+      <c r="BB5" s="181"/>
+      <c r="BC5" s="181"/>
+      <c r="BD5" s="182"/>
+      <c r="BE5" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="209"/>
-      <c r="BG5" s="209"/>
-      <c r="BH5" s="209"/>
-      <c r="BI5" s="209"/>
-      <c r="BJ5" s="209"/>
-      <c r="BK5" s="209"/>
-      <c r="BL5" s="209"/>
-      <c r="BM5" s="209"/>
-      <c r="BN5" s="209"/>
-      <c r="BO5" s="209"/>
-      <c r="BP5" s="209"/>
-      <c r="BQ5" s="209"/>
-      <c r="BR5" s="209"/>
-      <c r="BS5" s="209"/>
-      <c r="BT5" s="209"/>
-      <c r="BU5" s="209"/>
-      <c r="BV5" s="209"/>
-      <c r="BW5" s="209"/>
-      <c r="BX5" s="209"/>
-      <c r="BY5" s="209"/>
-      <c r="BZ5" s="209"/>
-      <c r="CA5" s="209"/>
-      <c r="CB5" s="209"/>
-      <c r="CC5" s="209"/>
-      <c r="CD5" s="209"/>
-      <c r="CE5" s="209"/>
-      <c r="CF5" s="209"/>
-      <c r="CG5" s="209"/>
-      <c r="CH5" s="209"/>
-      <c r="CI5" s="209"/>
-      <c r="CJ5" s="209"/>
-      <c r="CK5" s="209"/>
-      <c r="CL5" s="209"/>
-      <c r="CM5" s="209"/>
-      <c r="CN5" s="209"/>
-      <c r="CO5" s="209"/>
-      <c r="CP5" s="209"/>
-      <c r="CQ5" s="209"/>
-      <c r="CR5" s="210"/>
-      <c r="CS5" s="197" t="s">
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="184"/>
+      <c r="BH5" s="184"/>
+      <c r="BI5" s="184"/>
+      <c r="BJ5" s="184"/>
+      <c r="BK5" s="184"/>
+      <c r="BL5" s="184"/>
+      <c r="BM5" s="184"/>
+      <c r="BN5" s="184"/>
+      <c r="BO5" s="184"/>
+      <c r="BP5" s="184"/>
+      <c r="BQ5" s="184"/>
+      <c r="BR5" s="184"/>
+      <c r="BS5" s="184"/>
+      <c r="BT5" s="184"/>
+      <c r="BU5" s="184"/>
+      <c r="BV5" s="184"/>
+      <c r="BW5" s="184"/>
+      <c r="BX5" s="184"/>
+      <c r="BY5" s="184"/>
+      <c r="BZ5" s="184"/>
+      <c r="CA5" s="184"/>
+      <c r="CB5" s="184"/>
+      <c r="CC5" s="184"/>
+      <c r="CD5" s="184"/>
+      <c r="CE5" s="184"/>
+      <c r="CF5" s="184"/>
+      <c r="CG5" s="184"/>
+      <c r="CH5" s="184"/>
+      <c r="CI5" s="184"/>
+      <c r="CJ5" s="184"/>
+      <c r="CK5" s="184"/>
+      <c r="CL5" s="184"/>
+      <c r="CM5" s="184"/>
+      <c r="CN5" s="184"/>
+      <c r="CO5" s="184"/>
+      <c r="CP5" s="184"/>
+      <c r="CQ5" s="184"/>
+      <c r="CR5" s="185"/>
+      <c r="CS5" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="198"/>
-      <c r="CU5" s="199"/>
+      <c r="CT5" s="191"/>
+      <c r="CU5" s="192"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="202"/>
-      <c r="B6" s="204"/>
-      <c r="C6" s="204"/>
-      <c r="D6" s="180" t="s">
+      <c r="A6" s="177"/>
+      <c r="B6" s="179"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="183" t="s">
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="183"/>
-      <c r="L6" s="183"/>
-      <c r="M6" s="183"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
-      <c r="Q6" s="183"/>
-      <c r="R6" s="183"/>
-      <c r="S6" s="183"/>
-      <c r="T6" s="183"/>
-      <c r="U6" s="183"/>
-      <c r="V6" s="183"/>
-      <c r="W6" s="183"/>
-      <c r="X6" s="183"/>
-      <c r="Y6" s="183"/>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="183"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="183"/>
-      <c r="AD6" s="183"/>
-      <c r="AE6" s="183"/>
-      <c r="AF6" s="183"/>
-      <c r="AG6" s="183"/>
-      <c r="AH6" s="183"/>
-      <c r="AI6" s="183"/>
-      <c r="AJ6" s="183"/>
-      <c r="AK6" s="183"/>
-      <c r="AL6" s="183"/>
-      <c r="AM6" s="183"/>
-      <c r="AN6" s="183"/>
-      <c r="AO6" s="183" t="s">
+      <c r="K6" s="196"/>
+      <c r="L6" s="196"/>
+      <c r="M6" s="196"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="196"/>
+      <c r="R6" s="196"/>
+      <c r="S6" s="196"/>
+      <c r="T6" s="196"/>
+      <c r="U6" s="196"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="196"/>
+      <c r="X6" s="196"/>
+      <c r="Y6" s="196"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="196"/>
+      <c r="AD6" s="196"/>
+      <c r="AE6" s="196"/>
+      <c r="AF6" s="196"/>
+      <c r="AG6" s="196"/>
+      <c r="AH6" s="196"/>
+      <c r="AI6" s="196"/>
+      <c r="AJ6" s="196"/>
+      <c r="AK6" s="196"/>
+      <c r="AL6" s="196"/>
+      <c r="AM6" s="196"/>
+      <c r="AN6" s="196"/>
+      <c r="AO6" s="196" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="183"/>
-      <c r="AQ6" s="183"/>
-      <c r="AR6" s="183"/>
-      <c r="AS6" s="183" t="s">
+      <c r="AP6" s="196"/>
+      <c r="AQ6" s="196"/>
+      <c r="AR6" s="196"/>
+      <c r="AS6" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="183"/>
-      <c r="AU6" s="183"/>
-      <c r="AV6" s="183" t="s">
+      <c r="AT6" s="196"/>
+      <c r="AU6" s="196"/>
+      <c r="AV6" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="183"/>
-      <c r="AX6" s="183"/>
-      <c r="AY6" s="183"/>
-      <c r="AZ6" s="183"/>
-      <c r="BA6" s="183"/>
-      <c r="BB6" s="183"/>
-      <c r="BC6" s="190" t="s">
+      <c r="AW6" s="196"/>
+      <c r="AX6" s="196"/>
+      <c r="AY6" s="196"/>
+      <c r="AZ6" s="196"/>
+      <c r="BA6" s="196"/>
+      <c r="BB6" s="196"/>
+      <c r="BC6" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="191"/>
-      <c r="BE6" s="192" t="s">
+      <c r="BD6" s="201"/>
+      <c r="BE6" s="202" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="193"/>
-      <c r="BG6" s="193"/>
-      <c r="BH6" s="193"/>
-      <c r="BI6" s="193"/>
-      <c r="BJ6" s="193"/>
-      <c r="BK6" s="194"/>
-      <c r="BL6" s="195" t="s">
+      <c r="BF6" s="203"/>
+      <c r="BG6" s="203"/>
+      <c r="BH6" s="203"/>
+      <c r="BI6" s="203"/>
+      <c r="BJ6" s="203"/>
+      <c r="BK6" s="204"/>
+      <c r="BL6" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="193"/>
-      <c r="BN6" s="193"/>
-      <c r="BO6" s="193"/>
-      <c r="BP6" s="193"/>
-      <c r="BQ6" s="193"/>
-      <c r="BR6" s="193"/>
-      <c r="BS6" s="193"/>
-      <c r="BT6" s="193"/>
-      <c r="BU6" s="193"/>
-      <c r="BV6" s="193"/>
-      <c r="BW6" s="193"/>
-      <c r="BX6" s="193"/>
-      <c r="BY6" s="193"/>
-      <c r="BZ6" s="193"/>
-      <c r="CA6" s="193"/>
-      <c r="CB6" s="193"/>
-      <c r="CC6" s="193"/>
-      <c r="CD6" s="193"/>
-      <c r="CE6" s="193"/>
-      <c r="CF6" s="193"/>
-      <c r="CG6" s="193"/>
-      <c r="CH6" s="193"/>
-      <c r="CI6" s="193"/>
-      <c r="CJ6" s="193"/>
-      <c r="CK6" s="193"/>
-      <c r="CL6" s="193"/>
-      <c r="CM6" s="193"/>
-      <c r="CN6" s="193"/>
-      <c r="CO6" s="193"/>
-      <c r="CP6" s="193"/>
-      <c r="CQ6" s="200" t="s">
+      <c r="BM6" s="203"/>
+      <c r="BN6" s="203"/>
+      <c r="BO6" s="203"/>
+      <c r="BP6" s="203"/>
+      <c r="BQ6" s="203"/>
+      <c r="BR6" s="203"/>
+      <c r="BS6" s="203"/>
+      <c r="BT6" s="203"/>
+      <c r="BU6" s="203"/>
+      <c r="BV6" s="203"/>
+      <c r="BW6" s="203"/>
+      <c r="BX6" s="203"/>
+      <c r="BY6" s="203"/>
+      <c r="BZ6" s="203"/>
+      <c r="CA6" s="203"/>
+      <c r="CB6" s="203"/>
+      <c r="CC6" s="203"/>
+      <c r="CD6" s="203"/>
+      <c r="CE6" s="203"/>
+      <c r="CF6" s="203"/>
+      <c r="CG6" s="203"/>
+      <c r="CH6" s="203"/>
+      <c r="CI6" s="203"/>
+      <c r="CJ6" s="203"/>
+      <c r="CK6" s="203"/>
+      <c r="CL6" s="203"/>
+      <c r="CM6" s="203"/>
+      <c r="CN6" s="203"/>
+      <c r="CO6" s="203"/>
+      <c r="CP6" s="203"/>
+      <c r="CQ6" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="200"/>
-      <c r="CS6" s="196" t="s">
+      <c r="CR6" s="193"/>
+      <c r="CS6" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="196" t="s">
+      <c r="CT6" s="175" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="187" t="s">
+      <c r="CU6" s="197" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="202"/>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="179"/>
+      <c r="C7" s="179"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6577,347 +6577,347 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="182">
+      <c r="J7" s="188">
         <v>42980</v>
       </c>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182">
+      <c r="K7" s="188"/>
+      <c r="L7" s="188">
         <v>43035</v>
       </c>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
-      <c r="T7" s="186">
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="189">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="186"/>
-      <c r="V7" s="182"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="182"/>
-      <c r="Z7" s="182"/>
-      <c r="AA7" s="182"/>
-      <c r="AB7" s="182"/>
-      <c r="AC7" s="182"/>
-      <c r="AD7" s="182"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="182"/>
-      <c r="AH7" s="182"/>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="182"/>
-      <c r="AK7" s="182"/>
-      <c r="AL7" s="182"/>
-      <c r="AM7" s="182"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="188"/>
+      <c r="X7" s="188"/>
+      <c r="Y7" s="188"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="188"/>
+      <c r="AB7" s="188"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="188"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="188"/>
+      <c r="AG7" s="188"/>
+      <c r="AH7" s="188"/>
+      <c r="AI7" s="188"/>
+      <c r="AJ7" s="188"/>
+      <c r="AK7" s="188"/>
+      <c r="AL7" s="188"/>
+      <c r="AM7" s="188"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="182" t="s">
+      <c r="AO7" s="188" t="s">
         <v>253</v>
       </c>
-      <c r="AP7" s="182"/>
-      <c r="AQ7" s="182"/>
-      <c r="AR7" s="182"/>
-      <c r="AS7" s="186">
+      <c r="AP7" s="188"/>
+      <c r="AQ7" s="188"/>
+      <c r="AR7" s="188"/>
+      <c r="AS7" s="189">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="186"/>
+      <c r="AT7" s="189"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="182" t="s">
+      <c r="AV7" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="AW7" s="182"/>
-      <c r="AX7" s="182"/>
-      <c r="AY7" s="182"/>
-      <c r="AZ7" s="186">
+      <c r="AW7" s="188"/>
+      <c r="AX7" s="188"/>
+      <c r="AY7" s="188"/>
+      <c r="AZ7" s="189">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="186"/>
+      <c r="BA7" s="189"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="190"/>
-      <c r="BD7" s="191"/>
-      <c r="BE7" s="182" t="s">
+      <c r="BC7" s="200"/>
+      <c r="BD7" s="201"/>
+      <c r="BE7" s="188" t="s">
         <v>255</v>
       </c>
-      <c r="BF7" s="182"/>
-      <c r="BG7" s="182" t="s">
+      <c r="BF7" s="188"/>
+      <c r="BG7" s="188" t="s">
         <v>256</v>
       </c>
-      <c r="BH7" s="182"/>
-      <c r="BI7" s="186">
+      <c r="BH7" s="188"/>
+      <c r="BI7" s="189">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="186"/>
+      <c r="BJ7" s="189"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="182">
+      <c r="BL7" s="188">
         <v>42980</v>
       </c>
-      <c r="BM7" s="182"/>
-      <c r="BN7" s="182">
+      <c r="BM7" s="188"/>
+      <c r="BN7" s="188">
         <v>42980</v>
       </c>
-      <c r="BO7" s="182"/>
-      <c r="BP7" s="182">
+      <c r="BO7" s="188"/>
+      <c r="BP7" s="188">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="182"/>
-      <c r="BR7" s="182">
+      <c r="BQ7" s="188"/>
+      <c r="BR7" s="188">
         <v>42987</v>
       </c>
-      <c r="BS7" s="182"/>
-      <c r="BT7" s="182">
+      <c r="BS7" s="188"/>
+      <c r="BT7" s="188">
         <v>43035</v>
       </c>
-      <c r="BU7" s="182"/>
-      <c r="BV7" s="182">
+      <c r="BU7" s="188"/>
+      <c r="BV7" s="188">
         <v>43035</v>
       </c>
-      <c r="BW7" s="182"/>
-      <c r="BX7" s="182">
+      <c r="BW7" s="188"/>
+      <c r="BX7" s="188">
         <v>43036</v>
       </c>
-      <c r="BY7" s="182"/>
-      <c r="BZ7" s="182">
+      <c r="BY7" s="188"/>
+      <c r="BZ7" s="188">
         <v>43050</v>
       </c>
-      <c r="CA7" s="182"/>
-      <c r="CB7" s="182"/>
-      <c r="CC7" s="182"/>
-      <c r="CD7" s="182"/>
-      <c r="CE7" s="182"/>
-      <c r="CF7" s="182"/>
-      <c r="CG7" s="182"/>
-      <c r="CH7" s="182"/>
-      <c r="CI7" s="182"/>
-      <c r="CJ7" s="182"/>
-      <c r="CK7" s="182"/>
-      <c r="CL7" s="182"/>
-      <c r="CM7" s="182"/>
-      <c r="CN7" s="186">
+      <c r="CA7" s="188"/>
+      <c r="CB7" s="188"/>
+      <c r="CC7" s="188"/>
+      <c r="CD7" s="188"/>
+      <c r="CE7" s="188"/>
+      <c r="CF7" s="188"/>
+      <c r="CG7" s="188"/>
+      <c r="CH7" s="188"/>
+      <c r="CI7" s="188"/>
+      <c r="CJ7" s="188"/>
+      <c r="CK7" s="188"/>
+      <c r="CL7" s="188"/>
+      <c r="CM7" s="188"/>
+      <c r="CN7" s="189">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>8</v>
       </c>
-      <c r="CO7" s="186"/>
+      <c r="CO7" s="189"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="200"/>
-      <c r="CR7" s="200"/>
-      <c r="CS7" s="196"/>
-      <c r="CT7" s="196"/>
-      <c r="CU7" s="188"/>
+      <c r="CQ7" s="193"/>
+      <c r="CR7" s="193"/>
+      <c r="CS7" s="175"/>
+      <c r="CT7" s="175"/>
+      <c r="CU7" s="198"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="202"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="211" t="s">
+      <c r="A8" s="177"/>
+      <c r="B8" s="179"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211" t="s">
+      <c r="E8" s="186"/>
+      <c r="F8" s="186"/>
+      <c r="G8" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="175" t="s">
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175" t="s">
+      <c r="K8" s="187"/>
+      <c r="L8" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175" t="s">
+      <c r="M8" s="187"/>
+      <c r="N8" s="187" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175" t="s">
+      <c r="O8" s="187"/>
+      <c r="P8" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175" t="s">
+      <c r="Q8" s="187"/>
+      <c r="R8" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175" t="s">
+      <c r="S8" s="187"/>
+      <c r="T8" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175" t="s">
+      <c r="U8" s="187"/>
+      <c r="V8" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="175"/>
-      <c r="X8" s="175" t="s">
+      <c r="W8" s="187"/>
+      <c r="X8" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175" t="s">
+      <c r="Y8" s="187"/>
+      <c r="Z8" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="175" t="s">
+      <c r="AA8" s="187"/>
+      <c r="AB8" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="175"/>
-      <c r="AD8" s="175" t="s">
+      <c r="AC8" s="187"/>
+      <c r="AD8" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175" t="s">
+      <c r="AE8" s="187"/>
+      <c r="AF8" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175" t="s">
+      <c r="AG8" s="187"/>
+      <c r="AH8" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="175" t="s">
+      <c r="AI8" s="187"/>
+      <c r="AJ8" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175" t="s">
+      <c r="AK8" s="187"/>
+      <c r="AL8" s="187" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="175"/>
+      <c r="AM8" s="187"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="175" t="s">
+      <c r="AO8" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175" t="s">
+      <c r="AP8" s="187"/>
+      <c r="AQ8" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175" t="s">
+      <c r="AR8" s="187"/>
+      <c r="AS8" s="187" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="175"/>
+      <c r="AT8" s="187"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="175" t="s">
+      <c r="AV8" s="187" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175" t="s">
+      <c r="AW8" s="187"/>
+      <c r="AX8" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175" t="s">
+      <c r="AY8" s="187"/>
+      <c r="AZ8" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="175"/>
+      <c r="BA8" s="187"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="190"/>
-      <c r="BD8" s="191"/>
-      <c r="BE8" s="185" t="s">
+      <c r="BC8" s="200"/>
+      <c r="BD8" s="201"/>
+      <c r="BE8" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="184"/>
-      <c r="BG8" s="184" t="s">
+      <c r="BF8" s="206"/>
+      <c r="BG8" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="184"/>
-      <c r="BI8" s="184" t="s">
+      <c r="BH8" s="206"/>
+      <c r="BI8" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="184"/>
+      <c r="BJ8" s="206"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="178" t="s">
+      <c r="BL8" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="179"/>
-      <c r="BN8" s="178" t="s">
+      <c r="BM8" s="208"/>
+      <c r="BN8" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="179"/>
-      <c r="BP8" s="178" t="s">
+      <c r="BO8" s="208"/>
+      <c r="BP8" s="207" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="179"/>
-      <c r="BR8" s="178" t="s">
+      <c r="BQ8" s="208"/>
+      <c r="BR8" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="179"/>
-      <c r="BT8" s="178" t="s">
+      <c r="BS8" s="208"/>
+      <c r="BT8" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="179"/>
-      <c r="BV8" s="176" t="s">
+      <c r="BU8" s="208"/>
+      <c r="BV8" s="194" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="177"/>
-      <c r="BX8" s="176" t="s">
+      <c r="BW8" s="195"/>
+      <c r="BX8" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="177"/>
-      <c r="BZ8" s="176" t="s">
+      <c r="BY8" s="195"/>
+      <c r="BZ8" s="194" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="177"/>
-      <c r="CB8" s="176" t="s">
+      <c r="CA8" s="195"/>
+      <c r="CB8" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="177"/>
-      <c r="CD8" s="176" t="s">
+      <c r="CC8" s="195"/>
+      <c r="CD8" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="177"/>
-      <c r="CF8" s="176" t="s">
+      <c r="CE8" s="195"/>
+      <c r="CF8" s="194" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="177"/>
-      <c r="CH8" s="176" t="s">
+      <c r="CG8" s="195"/>
+      <c r="CH8" s="194" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="177"/>
-      <c r="CJ8" s="176" t="s">
+      <c r="CI8" s="195"/>
+      <c r="CJ8" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="177"/>
-      <c r="CL8" s="176" t="s">
+      <c r="CK8" s="195"/>
+      <c r="CL8" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="177"/>
-      <c r="CN8" s="176" t="s">
+      <c r="CM8" s="195"/>
+      <c r="CN8" s="194" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="177"/>
+      <c r="CO8" s="195"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="200"/>
-      <c r="CR8" s="200"/>
-      <c r="CS8" s="196"/>
-      <c r="CT8" s="196"/>
-      <c r="CU8" s="188"/>
+      <c r="CQ8" s="193"/>
+      <c r="CR8" s="193"/>
+      <c r="CS8" s="175"/>
+      <c r="CT8" s="175"/>
+      <c r="CU8" s="198"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="203"/>
-      <c r="B9" s="204"/>
-      <c r="C9" s="204"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -7105,9 +7105,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="196"/>
-      <c r="CT9" s="196"/>
-      <c r="CU9" s="189"/>
+      <c r="CS9" s="175"/>
+      <c r="CT9" s="175"/>
+      <c r="CU9" s="199"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7318,10 +7318,12 @@
         <f>IFERROR(((BX10/$BX$9)*100),"")</f>
         <v>80</v>
       </c>
-      <c r="BZ10" s="107"/>
+      <c r="BZ10" s="107">
+        <v>70</v>
+      </c>
       <c r="CA10" s="92">
         <f>IFERROR(((BZ10/$BZ$9)*100),"")</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB10" s="107"/>
       <c r="CC10" s="92" t="str">
@@ -7360,19 +7362,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>42.112000000000002</v>
+        <v>44.74</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7868,10 +7870,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ12" s="107"/>
+      <c r="BZ12" s="107">
+        <v>70</v>
+      </c>
       <c r="CA12" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB12" s="107"/>
       <c r="CC12" s="92" t="str">
@@ -7910,19 +7914,19 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>35.496000000000002</v>
+        <v>38.124000000000002</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8142,10 +8146,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ13" s="107"/>
+      <c r="BZ13" s="107">
+        <v>70</v>
+      </c>
       <c r="CA13" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB13" s="107"/>
       <c r="CC13" s="92" t="str">
@@ -8184,19 +8190,19 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>43.335999999999999</v>
+        <v>45.963999999999999</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8692,10 +8698,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ15" s="107"/>
+      <c r="BZ15" s="107">
+        <v>70</v>
+      </c>
       <c r="CA15" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB15" s="107"/>
       <c r="CC15" s="92" t="str">
@@ -8734,19 +8742,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>35.9375</v>
+        <v>40.3125</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>35.9375</v>
+        <v>40.3125</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>35.94</v>
+        <v>40.31</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>34.58</v>
+        <v>37.201999999999998</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8966,10 +8974,12 @@
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="BZ16" s="107"/>
+      <c r="BZ16" s="107">
+        <v>70</v>
+      </c>
       <c r="CA16" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB16" s="107"/>
       <c r="CC16" s="92" t="str">
@@ -9008,19 +9018,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>39.0625</v>
+        <v>43.4375</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>39.0625</v>
+        <v>43.4375</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>39.06</v>
+        <v>43.44</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>40.903999999999996</v>
+        <v>43.531999999999996</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9240,10 +9250,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ17" s="107"/>
+      <c r="BZ17" s="107">
+        <v>70</v>
+      </c>
       <c r="CA17" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB17" s="107"/>
       <c r="CC17" s="92" t="str">
@@ -9282,19 +9294,19 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>40.356000000000002</v>
+        <v>42.984000000000002</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9790,10 +9802,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ19" s="107"/>
+      <c r="BZ19" s="107">
+        <v>70</v>
+      </c>
       <c r="CA19" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB19" s="107"/>
       <c r="CC19" s="92" t="str">
@@ -9832,19 +9846,19 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>41.16</v>
+        <v>43.787999999999997</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10064,10 +10078,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ20" s="107"/>
+      <c r="BZ20" s="107">
+        <v>70</v>
+      </c>
       <c r="CA20" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB20" s="107"/>
       <c r="CC20" s="92" t="str">
@@ -10106,19 +10122,19 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>39.844000000000001</v>
+        <v>42.472000000000001</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10338,10 +10354,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ21" s="107"/>
+      <c r="BZ21" s="107">
+        <v>70</v>
+      </c>
       <c r="CA21" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB21" s="107"/>
       <c r="CC21" s="92" t="str">
@@ -10380,19 +10398,19 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>41.052000000000007</v>
+        <v>43.680000000000007</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10612,10 +10630,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ22" s="107"/>
+      <c r="BZ22" s="107">
+        <v>70</v>
+      </c>
       <c r="CA22" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB22" s="107"/>
       <c r="CC22" s="92" t="str">
@@ -10654,19 +10674,19 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>38.712000000000003</v>
+        <v>41.34</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11162,10 +11182,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ24" s="107"/>
+      <c r="BZ24" s="107">
+        <v>70</v>
+      </c>
       <c r="CA24" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB24" s="107"/>
       <c r="CC24" s="92" t="str">
@@ -11204,19 +11226,19 @@
       </c>
       <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v>42.5</v>
+        <v>46.875</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
-        <v>42.5</v>
+        <v>46.875</v>
       </c>
       <c r="CR24" s="99">
         <f t="shared" si="40"/>
-        <v>42.5</v>
+        <v>46.88</v>
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>45.176000000000002</v>
+        <v>47.804000000000002</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11712,10 +11734,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ26" s="107"/>
+      <c r="BZ26" s="107">
+        <v>70</v>
+      </c>
       <c r="CA26" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB26" s="107"/>
       <c r="CC26" s="92" t="str">
@@ -11754,19 +11778,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>41.616</v>
+        <v>44.244</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11986,10 +12010,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ27" s="107"/>
+      <c r="BZ27" s="107">
+        <v>70</v>
+      </c>
       <c r="CA27" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB27" s="107"/>
       <c r="CC27" s="92" t="str">
@@ -12028,19 +12054,19 @@
       </c>
       <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR27" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>41.412000000000006</v>
+        <v>44.040000000000006</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12258,10 +12284,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ28" s="107"/>
+      <c r="BZ28" s="107">
+        <v>70</v>
+      </c>
       <c r="CA28" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB28" s="107"/>
       <c r="CC28" s="92" t="str">
@@ -12300,19 +12328,19 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>36.444000000000003</v>
+        <v>39.072000000000003</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12532,10 +12560,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ29" s="107"/>
+      <c r="BZ29" s="107">
+        <v>70</v>
+      </c>
       <c r="CA29" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB29" s="107"/>
       <c r="CC29" s="92" t="str">
@@ -12574,19 +12604,19 @@
       </c>
       <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR29" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>41.772000000000006</v>
+        <v>44.400000000000006</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13082,10 +13112,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ31" s="107"/>
+      <c r="BZ31" s="107">
+        <v>70</v>
+      </c>
       <c r="CA31" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB31" s="107"/>
       <c r="CC31" s="92" t="str">
@@ -13124,19 +13156,19 @@
       </c>
       <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR31" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>34.195999999999998</v>
+        <v>36.823999999999998</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13356,10 +13388,12 @@
         <f t="shared" si="29"/>
         <v>80</v>
       </c>
-      <c r="BZ32" s="107"/>
+      <c r="BZ32" s="107">
+        <v>70</v>
+      </c>
       <c r="CA32" s="92">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CB32" s="107"/>
       <c r="CC32" s="92" t="str">
@@ -13398,19 +13432,19 @@
       </c>
       <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="CR32" s="99">
         <f t="shared" si="40"/>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>42.584000000000003</v>
+        <v>45.212000000000003</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -22902,6 +22936,88 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:AY8"/>
+    <mergeCell ref="A2:CU3"/>
+    <mergeCell ref="CB8:CC8"/>
+    <mergeCell ref="CD8:CE8"/>
+    <mergeCell ref="CF8:CG8"/>
+    <mergeCell ref="CH8:CI8"/>
+    <mergeCell ref="CJ8:CK8"/>
+    <mergeCell ref="CL8:CM8"/>
+    <mergeCell ref="BP8:BQ8"/>
+    <mergeCell ref="BR8:BS8"/>
+    <mergeCell ref="BT8:BU8"/>
+    <mergeCell ref="BV8:BW8"/>
+    <mergeCell ref="BX8:BY8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
     <mergeCell ref="CS6:CS9"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="B5:B9"/>
@@ -22918,88 +23034,6 @@
     <mergeCell ref="BG7:BH7"/>
     <mergeCell ref="CF7:CG7"/>
     <mergeCell ref="CH7:CI7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AD8:AE8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:AY8"/>
-    <mergeCell ref="A2:CU3"/>
-    <mergeCell ref="CB8:CC8"/>
-    <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="CF8:CG8"/>
-    <mergeCell ref="CH8:CI8"/>
-    <mergeCell ref="CJ8:CK8"/>
-    <mergeCell ref="CL8:CM8"/>
-    <mergeCell ref="BP8:BQ8"/>
-    <mergeCell ref="BR8:BS8"/>
-    <mergeCell ref="BT8:BU8"/>
-    <mergeCell ref="BV8:BW8"/>
-    <mergeCell ref="BX8:BY8"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23235,19 +23269,19 @@
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>42.112000000000002</v>
+        <v>44.74</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -23365,19 +23399,19 @@
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>35.496000000000002</v>
+        <v>38.124000000000002</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23430,19 +23464,19 @@
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>43.335999999999999</v>
+        <v>45.963999999999999</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23560,19 +23594,19 @@
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>35.9375</v>
+        <v>40.3125</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>35.9375</v>
+        <v>40.3125</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>35.94</v>
+        <v>40.31</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>34.58</v>
+        <v>37.201999999999998</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23625,19 +23659,19 @@
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>39.0625</v>
+        <v>43.4375</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>39.0625</v>
+        <v>43.4375</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>39.06</v>
+        <v>43.44</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>40.903999999999996</v>
+        <v>43.531999999999996</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23690,19 +23724,19 @@
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>40.356000000000002</v>
+        <v>42.984000000000002</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23820,19 +23854,19 @@
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>41.16</v>
+        <v>43.787999999999997</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23885,19 +23919,19 @@
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>39.844000000000001</v>
+        <v>42.472000000000001</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23950,19 +23984,19 @@
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>41.052000000000007</v>
+        <v>43.680000000000007</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -24015,19 +24049,19 @@
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>38.712000000000003</v>
+        <v>41.34</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -24145,19 +24179,19 @@
       </c>
       <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v>42.5</v>
+        <v>46.875</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>42.5</v>
+        <v>46.875</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>42.5</v>
+        <v>46.88</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>45.176000000000002</v>
+        <v>47.804000000000002</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -24275,19 +24309,19 @@
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>41.616</v>
+        <v>44.244</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24340,19 +24374,19 @@
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>41.412000000000006</v>
+        <v>44.040000000000006</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24405,19 +24439,19 @@
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>36.444000000000003</v>
+        <v>39.072000000000003</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24470,19 +24504,19 @@
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>41.772000000000006</v>
+        <v>44.400000000000006</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24600,19 +24634,19 @@
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>34.195999999999998</v>
+        <v>36.823999999999998</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -24665,19 +24699,19 @@
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>40</v>
+        <v>44.375</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>40</v>
+        <v>44.38</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>42.584000000000003</v>
+        <v>45.212000000000003</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -27214,106 +27248,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="259"/>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228"/>
+      <c r="F3" s="228"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="229" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="230" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="229" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="262"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="231"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="265"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="A8" s="232"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="259"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="259"/>
-      <c r="E9" s="259"/>
-      <c r="F9" s="259"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="266"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="A10" s="233"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="233"/>
+      <c r="F10" s="233"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="267" t="s">
+      <c r="A11" s="234" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="265"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="265"/>
-      <c r="E12" s="265"/>
-      <c r="F12" s="265"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="232"/>
+      <c r="F12" s="232"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="268" t="str">
+      <c r="C13" s="235" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27321,12 +27355,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="261" t="str">
+      <c r="C14" s="227" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
+      <c r="D14" s="227"/>
+      <c r="E14" s="227"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27334,12 +27368,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="247" t="str">
+      <c r="C15" s="238" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27347,12 +27381,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="247" t="str">
+      <c r="C16" s="238" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="247"/>
-      <c r="E16" s="247"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27360,12 +27394,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="247" t="str">
+      <c r="C17" s="238" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="247"/>
-      <c r="E17" s="247"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27377,42 +27411,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="251" t="s">
+      <c r="B19" s="242" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="248" t="s">
+      <c r="C19" s="239" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="248" t="s">
+      <c r="D19" s="239" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="253" t="s">
+      <c r="E19" s="244" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="248" t="s">
+      <c r="F19" s="239" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="249"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="249"/>
-      <c r="D20" s="249"/>
-      <c r="E20" s="254"/>
-      <c r="F20" s="256"/>
+      <c r="A20" s="240"/>
+      <c r="B20" s="243"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="240"/>
+      <c r="E20" s="245"/>
+      <c r="F20" s="247"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="250"/>
+      <c r="A21" s="241"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="255"/>
-      <c r="F21" s="257"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="248"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28925,14 +28959,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="231" t="s">
+      <c r="A83" s="255" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="232"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="232"/>
-      <c r="E83" s="232"/>
-      <c r="F83" s="233"/>
+      <c r="B83" s="256"/>
+      <c r="C83" s="256"/>
+      <c r="D83" s="256"/>
+      <c r="E83" s="256"/>
+      <c r="F83" s="257"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28965,11 +28999,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="258">
+      <c r="E87" s="249">
         <f ca="1">NOW()</f>
-        <v>43063.573795717595</v>
-      </c>
-      <c r="F87" s="258"/>
+        <v>43070.321226157408</v>
+      </c>
+      <c r="F87" s="249"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -28979,10 +29013,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="259" t="s">
+      <c r="E88" s="228" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="259"/>
+      <c r="F88" s="228"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -28999,8 +29033,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="259"/>
-      <c r="F90" s="259"/>
+      <c r="E90" s="228"/>
+      <c r="F90" s="228"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -29116,14 +29150,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="260" t="s">
+      <c r="A105" s="250" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="260"/>
-      <c r="C105" s="260"/>
-      <c r="D105" s="260"/>
-      <c r="E105" s="260"/>
-      <c r="F105" s="260"/>
+      <c r="B105" s="250"/>
+      <c r="C105" s="250"/>
+      <c r="D105" s="250"/>
+      <c r="E105" s="250"/>
+      <c r="F105" s="250"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -29138,124 +29172,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="244" t="s">
+      <c r="C107" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="245"/>
-      <c r="E107" s="246" t="s">
+      <c r="D107" s="237"/>
+      <c r="E107" s="236" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="245"/>
+      <c r="F107" s="237"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="240">
+      <c r="C108" s="264">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="241"/>
-      <c r="E108" s="242">
+      <c r="D108" s="265"/>
+      <c r="E108" s="266">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="243"/>
+      <c r="F108" s="267"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="234">
+      <c r="C109" s="258">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="D109" s="235"/>
-      <c r="E109" s="236">
+      <c r="D109" s="259"/>
+      <c r="E109" s="260">
         <f>(C109/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F109" s="237"/>
+      <c r="F109" s="261"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="234">
+      <c r="C110" s="258">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="235"/>
-      <c r="E110" s="236">
+      <c r="D110" s="259"/>
+      <c r="E110" s="260">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="237"/>
+      <c r="F110" s="261"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="234">
+      <c r="C111" s="258">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
         <v>60</v>
       </c>
-      <c r="D111" s="235"/>
-      <c r="E111" s="236">
+      <c r="D111" s="259"/>
+      <c r="E111" s="260">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F111" s="237"/>
+      <c r="F111" s="261"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="238">
-        <v>0</v>
-      </c>
-      <c r="D112" s="239"/>
-      <c r="E112" s="236">
+      <c r="C112" s="262">
+        <v>0</v>
+      </c>
+      <c r="D112" s="263"/>
+      <c r="E112" s="260">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="237"/>
+      <c r="F112" s="261"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="238">
-        <v>0</v>
-      </c>
-      <c r="D113" s="239"/>
-      <c r="E113" s="236">
+      <c r="C113" s="262">
+        <v>0</v>
+      </c>
+      <c r="D113" s="263"/>
+      <c r="E113" s="260">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="237"/>
+      <c r="F113" s="261"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="227">
+      <c r="C114" s="251">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="228"/>
-      <c r="E114" s="229">
+      <c r="D114" s="252"/>
+      <c r="E114" s="253">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="230"/>
+      <c r="F114" s="254"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -29423,32 +29457,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -29465,6 +29473,32 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">

--- a/DCIT 65 - CS 3B/LEC AND LAB.xlsx
+++ b/DCIT 65 - CS 3B/LEC AND LAB.xlsx
@@ -849,15 +849,6 @@
     <t>RECITATION</t>
   </si>
   <si>
-    <t>ASSIGNMENT</t>
-  </si>
-  <si>
-    <t>Javascript</t>
-  </si>
-  <si>
-    <t>PHP</t>
-  </si>
-  <si>
     <t>Calupad</t>
   </si>
   <si>
@@ -868,6 +859,15 @@
   </si>
   <si>
     <t>dela Pieza</t>
+  </si>
+  <si>
+    <t>SEATWORK</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Web Portfolio</t>
   </si>
 </sst>
 </file>
@@ -2306,37 +2306,99 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2376,104 +2438,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2514,93 +2601,6 @@
     </xf>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2659,102 +2659,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -2828,6 +2732,102 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3911,7 +3911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3944,82 +3944,82 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
     </row>
     <row r="4" spans="1:18" ht="16.5" customHeight="1">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-      <c r="K4" s="163"/>
-      <c r="L4" s="163"/>
-      <c r="M4" s="163"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="162"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129" t="s">
+      <c r="A6" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="166"/>
+      <c r="C6" s="167" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="130"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="1">
         <v>2</v>
       </c>
@@ -4027,28 +4027,28 @@
         <v>2</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="131" t="s">
+      <c r="J6" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="131"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="133" t="s">
+      <c r="A7" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="134"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="135" t="s">
+      <c r="E7" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="135"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="5">
         <v>1</v>
       </c>
@@ -4056,28 +4056,28 @@
         <v>7</v>
       </c>
       <c r="I7" s="7"/>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="135"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A8" s="137" t="s">
+      <c r="A8" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="138"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="10">
         <v>3</v>
       </c>
@@ -4085,45 +4085,45 @@
         <v>11</v>
       </c>
       <c r="I8" s="12"/>
-      <c r="J8" s="139" t="s">
+      <c r="J8" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="146" t="s">
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="146" t="s">
+      <c r="G9" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149" t="s">
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="150"/>
-      <c r="L9" s="149" t="s">
+      <c r="K9" s="146"/>
+      <c r="L9" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="150"/>
+      <c r="M9" s="146"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="142"/>
-      <c r="B10" s="144"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4133,14 +4133,14 @@
       <c r="E10" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
-      <c r="M10" s="151"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="14">
@@ -4161,19 +4161,19 @@
       <c r="F11" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="158"/>
-      <c r="O11" s="169" t="s">
+      <c r="G11" s="148"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="148"/>
+      <c r="M11" s="150"/>
+      <c r="O11" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="171"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="14">
@@ -4194,21 +4194,21 @@
       <c r="F12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
       <c r="O12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="167" t="s">
+      <c r="P12" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="167"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="14">
@@ -4229,21 +4229,21 @@
       <c r="F13" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
       <c r="O13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="167" t="s">
+      <c r="P13" s="132" t="s">
         <v>243</v>
       </c>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="167"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="14">
@@ -4264,21 +4264,21 @@
       <c r="F14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="153"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
       <c r="O14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="164" t="s">
+      <c r="P14" s="129" t="s">
         <v>163</v>
       </c>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="166"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="131"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="14">
@@ -4299,34 +4299,34 @@
       <c r="F15" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="153"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
       <c r="O15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="164" t="s">
+      <c r="P15" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="165"/>
-      <c r="R15" s="166"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="131"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="14">
         <v>6</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>179</v>
@@ -4334,21 +4334,21 @@
       <c r="F16" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
       <c r="O16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="P16" s="172" t="s">
+      <c r="P16" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="174"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="142"/>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="14">
@@ -4358,7 +4358,7 @@
         <v>184</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>185</v>
@@ -4369,21 +4369,21 @@
       <c r="F17" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
       <c r="O17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="164" t="s">
+      <c r="P17" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="166"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="131"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="14">
@@ -4404,13 +4404,13 @@
       <c r="F18" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="14">
@@ -4431,13 +4431,13 @@
       <c r="F19" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="153"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="14">
@@ -4458,13 +4458,13 @@
       <c r="F20" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="153"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="14">
@@ -4485,13 +4485,13 @@
       <c r="F21" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
       <c r="P21" s="100" t="s">
         <v>143</v>
       </c>
@@ -4515,13 +4515,13 @@
       <c r="F22" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
       <c r="P22" s="101">
         <v>0</v>
       </c>
@@ -4548,13 +4548,13 @@
       <c r="F23" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="153"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
       <c r="P23" s="102">
         <v>70</v>
       </c>
@@ -4581,13 +4581,13 @@
       <c r="F24" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
       <c r="P24" s="102">
         <v>73.34</v>
       </c>
@@ -4614,13 +4614,13 @@
       <c r="F25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
       <c r="P25" s="102">
         <v>76.680000000000007</v>
       </c>
@@ -4647,13 +4647,13 @@
       <c r="F26" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
       <c r="P26" s="102">
         <v>80.02</v>
       </c>
@@ -4680,13 +4680,13 @@
       <c r="F27" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="133"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
       <c r="P27" s="102">
         <v>83.36</v>
       </c>
@@ -4713,13 +4713,13 @@
       <c r="F28" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="153"/>
-      <c r="K28" s="154"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
       <c r="P28" s="102">
         <v>86.7</v>
       </c>
@@ -4746,13 +4746,13 @@
       <c r="F29" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
       <c r="P29" s="102">
         <v>90.04</v>
       </c>
@@ -4779,13 +4779,13 @@
       <c r="F30" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="154"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="P30" s="102">
         <v>93.38</v>
       </c>
@@ -4812,13 +4812,13 @@
       <c r="F31" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="154"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
       <c r="P31" s="101"/>
       <c r="Q31" s="101"/>
     </row>
@@ -4841,13 +4841,13 @@
       <c r="F32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="154"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
       <c r="P32" s="101">
         <v>96.72</v>
       </c>
@@ -4874,13 +4874,13 @@
       <c r="F33" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="154"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="14">
@@ -4901,13 +4901,13 @@
       <c r="F34" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="154"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="135"/>
+      <c r="M34" s="135"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="14">
@@ -4928,13 +4928,13 @@
       <c r="F35" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="153"/>
-      <c r="K35" s="154"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="14">
@@ -4945,13 +4945,13 @@
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="154"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="135"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="14">
@@ -4962,13 +4962,13 @@
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="16"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="161"/>
-      <c r="K37" s="161"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="134"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="14">
@@ -4979,13 +4979,13 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="16"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="135"/>
+      <c r="M38" s="135"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="14">
@@ -4996,13 +4996,13 @@
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="161"/>
-      <c r="K39" s="161"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="14">
@@ -5013,13 +5013,13 @@
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="134"/>
+      <c r="K40" s="134"/>
+      <c r="L40" s="135"/>
+      <c r="M40" s="135"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="14">
@@ -5030,13 +5030,13 @@
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="16"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="134"/>
+      <c r="K41" s="134"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="14">
@@ -5047,13 +5047,13 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="135"/>
+      <c r="M42" s="135"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="14">
@@ -5064,13 +5064,13 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="16"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="161"/>
-      <c r="K43" s="161"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="14">
@@ -5081,13 +5081,13 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="161"/>
-      <c r="K44" s="161"/>
-      <c r="L44" s="155"/>
-      <c r="M44" s="155"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="134"/>
+      <c r="K44" s="134"/>
+      <c r="L44" s="135"/>
+      <c r="M44" s="135"/>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="14">
@@ -5098,13 +5098,13 @@
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="16"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="161"/>
-      <c r="K45" s="161"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="134"/>
+      <c r="K45" s="134"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="14">
@@ -5115,13 +5115,13 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="161"/>
-      <c r="K46" s="161"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
+      <c r="L46" s="135"/>
+      <c r="M46" s="135"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="14">
@@ -5132,13 +5132,13 @@
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="16"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="161"/>
-      <c r="K47" s="161"/>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="134"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="14">
@@ -5149,13 +5149,13 @@
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="161"/>
-      <c r="K48" s="161"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="134"/>
+      <c r="L48" s="135"/>
+      <c r="M48" s="135"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="14">
@@ -5166,13 +5166,13 @@
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="F49" s="16"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="161"/>
-      <c r="K49" s="161"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="134"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="14">
@@ -5183,13 +5183,13 @@
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="161"/>
-      <c r="K50" s="161"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="135"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="14">
@@ -5200,13 +5200,13 @@
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="161"/>
-      <c r="K51" s="161"/>
-      <c r="L51" s="155"/>
-      <c r="M51" s="155"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="14">
@@ -5217,13 +5217,13 @@
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="161"/>
-      <c r="K52" s="161"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="134"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="14">
@@ -5234,13 +5234,13 @@
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="161"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="134"/>
+      <c r="L53" s="135"/>
+      <c r="M53" s="135"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="14">
@@ -5251,13 +5251,13 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="161"/>
-      <c r="L54" s="155"/>
-      <c r="M54" s="155"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="134"/>
+      <c r="K54" s="134"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="135"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="14">
@@ -5268,13 +5268,13 @@
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
       <c r="F55" s="16"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="155"/>
-      <c r="M55" s="155"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="134"/>
+      <c r="K55" s="134"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="14">
@@ -5285,13 +5285,13 @@
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
+      <c r="L56" s="135"/>
+      <c r="M56" s="135"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="14">
@@ -5302,13 +5302,13 @@
       <c r="D57" s="90"/>
       <c r="E57" s="90"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="161"/>
-      <c r="K57" s="161"/>
-      <c r="L57" s="155"/>
-      <c r="M57" s="155"/>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="134"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="14">
@@ -5319,13 +5319,13 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="161"/>
-      <c r="K58" s="161"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="135"/>
+      <c r="M58" s="135"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="14">
@@ -5336,13 +5336,13 @@
       <c r="D59" s="90"/>
       <c r="E59" s="90"/>
       <c r="F59" s="16"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="152"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="161"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="14">
@@ -5353,13 +5353,13 @@
       <c r="D60" s="90"/>
       <c r="E60" s="90"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="152"/>
-      <c r="H60" s="152"/>
-      <c r="I60" s="152"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="161"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
+      <c r="G60" s="133"/>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+      <c r="J60" s="134"/>
+      <c r="K60" s="134"/>
+      <c r="L60" s="135"/>
+      <c r="M60" s="135"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="14">
@@ -5370,13 +5370,13 @@
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
       <c r="F61" s="16"/>
-      <c r="G61" s="152"/>
-      <c r="H61" s="152"/>
-      <c r="I61" s="152"/>
-      <c r="J61" s="161"/>
-      <c r="K61" s="161"/>
-      <c r="L61" s="155"/>
-      <c r="M61" s="155"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="133"/>
+      <c r="I61" s="133"/>
+      <c r="J61" s="134"/>
+      <c r="K61" s="134"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="14">
@@ -5387,13 +5387,13 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="152"/>
-      <c r="I62" s="152"/>
-      <c r="J62" s="161"/>
-      <c r="K62" s="161"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="155"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="135"/>
+      <c r="M62" s="135"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="14">
@@ -5404,13 +5404,13 @@
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
       <c r="F63" s="16"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="152"/>
-      <c r="I63" s="152"/>
-      <c r="J63" s="161"/>
-      <c r="K63" s="161"/>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="133"/>
+      <c r="I63" s="133"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="135"/>
+      <c r="M63" s="135"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="14">
@@ -5421,13 +5421,13 @@
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="161"/>
-      <c r="K64" s="161"/>
-      <c r="L64" s="155"/>
-      <c r="M64" s="155"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="14">
@@ -5438,13 +5438,13 @@
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="152"/>
-      <c r="I65" s="152"/>
-      <c r="J65" s="161"/>
-      <c r="K65" s="161"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
+      <c r="J65" s="134"/>
+      <c r="K65" s="134"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="14">
@@ -5455,13 +5455,13 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="152"/>
-      <c r="H66" s="152"/>
-      <c r="I66" s="152"/>
-      <c r="J66" s="161"/>
-      <c r="K66" s="161"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
+      <c r="G66" s="133"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="133"/>
+      <c r="J66" s="134"/>
+      <c r="K66" s="134"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="135"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="14">
@@ -5472,13 +5472,13 @@
       <c r="D67" s="15"/>
       <c r="E67" s="90"/>
       <c r="F67" s="16"/>
-      <c r="G67" s="152"/>
-      <c r="H67" s="152"/>
-      <c r="I67" s="152"/>
-      <c r="J67" s="161"/>
-      <c r="K67" s="161"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
+      <c r="J67" s="134"/>
+      <c r="K67" s="134"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="14">
@@ -5489,13 +5489,13 @@
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
       <c r="F68" s="16"/>
-      <c r="G68" s="152"/>
-      <c r="H68" s="152"/>
-      <c r="I68" s="152"/>
-      <c r="J68" s="161"/>
-      <c r="K68" s="161"/>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
+      <c r="J68" s="134"/>
+      <c r="K68" s="134"/>
+      <c r="L68" s="135"/>
+      <c r="M68" s="135"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="14">
@@ -5506,13 +5506,13 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="16"/>
-      <c r="G69" s="152"/>
-      <c r="H69" s="152"/>
-      <c r="I69" s="152"/>
-      <c r="J69" s="161"/>
-      <c r="K69" s="161"/>
-      <c r="L69" s="155"/>
-      <c r="M69" s="155"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="134"/>
+      <c r="K69" s="134"/>
+      <c r="L69" s="135"/>
+      <c r="M69" s="135"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="14">
@@ -5523,13 +5523,13 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="152"/>
-      <c r="H70" s="152"/>
-      <c r="I70" s="152"/>
-      <c r="J70" s="161"/>
-      <c r="K70" s="161"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
+      <c r="J70" s="134"/>
+      <c r="K70" s="134"/>
+      <c r="L70" s="135"/>
+      <c r="M70" s="135"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="14">
@@ -5540,13 +5540,13 @@
       <c r="D71" s="90"/>
       <c r="E71" s="90"/>
       <c r="F71" s="16"/>
-      <c r="G71" s="152"/>
-      <c r="H71" s="152"/>
-      <c r="I71" s="152"/>
-      <c r="J71" s="161"/>
-      <c r="K71" s="161"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
+      <c r="G71" s="133"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="133"/>
+      <c r="J71" s="134"/>
+      <c r="K71" s="134"/>
+      <c r="L71" s="135"/>
+      <c r="M71" s="135"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -5554,6 +5554,195 @@
     <sortCondition ref="C11:C33"/>
   </sortState>
   <mergeCells count="213">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L9:M10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
     <mergeCell ref="A5:M5"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="P15:R15"/>
@@ -5578,195 +5767,6 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L9:M10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <conditionalFormatting sqref="B28:B71">
     <cfRule type="cellIs" dxfId="66" priority="71" stopIfTrue="1" operator="equal">
@@ -6107,9 +6107,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:CU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="BT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CB7" sqref="CB7:CC7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6123,452 +6123,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="168"/>
-      <c r="AI2" s="168"/>
-      <c r="AJ2" s="168"/>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="168"/>
-      <c r="AN2" s="168"/>
-      <c r="AO2" s="168"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="168"/>
-      <c r="AU2" s="168"/>
-      <c r="AV2" s="168"/>
-      <c r="AW2" s="168"/>
-      <c r="AX2" s="168"/>
-      <c r="AY2" s="168"/>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="168"/>
-      <c r="BB2" s="168"/>
-      <c r="BC2" s="168"/>
-      <c r="BD2" s="168"/>
-      <c r="BE2" s="168"/>
-      <c r="BF2" s="168"/>
-      <c r="BG2" s="168"/>
-      <c r="BH2" s="168"/>
-      <c r="BI2" s="168"/>
-      <c r="BJ2" s="168"/>
-      <c r="BK2" s="168"/>
-      <c r="BL2" s="168"/>
-      <c r="BM2" s="168"/>
-      <c r="BN2" s="168"/>
-      <c r="BO2" s="168"/>
-      <c r="BP2" s="168"/>
-      <c r="BQ2" s="168"/>
-      <c r="BR2" s="168"/>
-      <c r="BS2" s="168"/>
-      <c r="BT2" s="168"/>
-      <c r="BU2" s="168"/>
-      <c r="BV2" s="168"/>
-      <c r="BW2" s="168"/>
-      <c r="BX2" s="168"/>
-      <c r="BY2" s="168"/>
-      <c r="BZ2" s="168"/>
-      <c r="CA2" s="168"/>
-      <c r="CB2" s="168"/>
-      <c r="CC2" s="168"/>
-      <c r="CD2" s="168"/>
-      <c r="CE2" s="168"/>
-      <c r="CF2" s="168"/>
-      <c r="CG2" s="168"/>
-      <c r="CH2" s="168"/>
-      <c r="CI2" s="168"/>
-      <c r="CJ2" s="168"/>
-      <c r="CK2" s="168"/>
-      <c r="CL2" s="168"/>
-      <c r="CM2" s="168"/>
-      <c r="CN2" s="168"/>
-      <c r="CO2" s="168"/>
-      <c r="CP2" s="168"/>
-      <c r="CQ2" s="168"/>
-      <c r="CR2" s="168"/>
-      <c r="CS2" s="168"/>
-      <c r="CT2" s="168"/>
-      <c r="CU2" s="168"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="136"/>
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="136"/>
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="136"/>
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="136"/>
+      <c r="AV2" s="136"/>
+      <c r="AW2" s="136"/>
+      <c r="AX2" s="136"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="136"/>
+      <c r="BL2" s="136"/>
+      <c r="BM2" s="136"/>
+      <c r="BN2" s="136"/>
+      <c r="BO2" s="136"/>
+      <c r="BP2" s="136"/>
+      <c r="BQ2" s="136"/>
+      <c r="BR2" s="136"/>
+      <c r="BS2" s="136"/>
+      <c r="BT2" s="136"/>
+      <c r="BU2" s="136"/>
+      <c r="BV2" s="136"/>
+      <c r="BW2" s="136"/>
+      <c r="BX2" s="136"/>
+      <c r="BY2" s="136"/>
+      <c r="BZ2" s="136"/>
+      <c r="CA2" s="136"/>
+      <c r="CB2" s="136"/>
+      <c r="CC2" s="136"/>
+      <c r="CD2" s="136"/>
+      <c r="CE2" s="136"/>
+      <c r="CF2" s="136"/>
+      <c r="CG2" s="136"/>
+      <c r="CH2" s="136"/>
+      <c r="CI2" s="136"/>
+      <c r="CJ2" s="136"/>
+      <c r="CK2" s="136"/>
+      <c r="CL2" s="136"/>
+      <c r="CM2" s="136"/>
+      <c r="CN2" s="136"/>
+      <c r="CO2" s="136"/>
+      <c r="CP2" s="136"/>
+      <c r="CQ2" s="136"/>
+      <c r="CR2" s="136"/>
+      <c r="CS2" s="136"/>
+      <c r="CT2" s="136"/>
+      <c r="CU2" s="136"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
-      <c r="AG3" s="168"/>
-      <c r="AH3" s="168"/>
-      <c r="AI3" s="168"/>
-      <c r="AJ3" s="168"/>
-      <c r="AK3" s="168"/>
-      <c r="AL3" s="168"/>
-      <c r="AM3" s="168"/>
-      <c r="AN3" s="168"/>
-      <c r="AO3" s="168"/>
-      <c r="AP3" s="168"/>
-      <c r="AQ3" s="168"/>
-      <c r="AR3" s="168"/>
-      <c r="AS3" s="168"/>
-      <c r="AT3" s="168"/>
-      <c r="AU3" s="168"/>
-      <c r="AV3" s="168"/>
-      <c r="AW3" s="168"/>
-      <c r="AX3" s="168"/>
-      <c r="AY3" s="168"/>
-      <c r="AZ3" s="168"/>
-      <c r="BA3" s="168"/>
-      <c r="BB3" s="168"/>
-      <c r="BC3" s="168"/>
-      <c r="BD3" s="168"/>
-      <c r="BE3" s="168"/>
-      <c r="BF3" s="168"/>
-      <c r="BG3" s="168"/>
-      <c r="BH3" s="168"/>
-      <c r="BI3" s="168"/>
-      <c r="BJ3" s="168"/>
-      <c r="BK3" s="168"/>
-      <c r="BL3" s="168"/>
-      <c r="BM3" s="168"/>
-      <c r="BN3" s="168"/>
-      <c r="BO3" s="168"/>
-      <c r="BP3" s="168"/>
-      <c r="BQ3" s="168"/>
-      <c r="BR3" s="168"/>
-      <c r="BS3" s="168"/>
-      <c r="BT3" s="168"/>
-      <c r="BU3" s="168"/>
-      <c r="BV3" s="168"/>
-      <c r="BW3" s="168"/>
-      <c r="BX3" s="168"/>
-      <c r="BY3" s="168"/>
-      <c r="BZ3" s="168"/>
-      <c r="CA3" s="168"/>
-      <c r="CB3" s="168"/>
-      <c r="CC3" s="168"/>
-      <c r="CD3" s="168"/>
-      <c r="CE3" s="168"/>
-      <c r="CF3" s="168"/>
-      <c r="CG3" s="168"/>
-      <c r="CH3" s="168"/>
-      <c r="CI3" s="168"/>
-      <c r="CJ3" s="168"/>
-      <c r="CK3" s="168"/>
-      <c r="CL3" s="168"/>
-      <c r="CM3" s="168"/>
-      <c r="CN3" s="168"/>
-      <c r="CO3" s="168"/>
-      <c r="CP3" s="168"/>
-      <c r="CQ3" s="168"/>
-      <c r="CR3" s="168"/>
-      <c r="CS3" s="168"/>
-      <c r="CT3" s="168"/>
-      <c r="CU3" s="168"/>
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="136"/>
+      <c r="AL3" s="136"/>
+      <c r="AM3" s="136"/>
+      <c r="AN3" s="136"/>
+      <c r="AO3" s="136"/>
+      <c r="AP3" s="136"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="136"/>
+      <c r="AU3" s="136"/>
+      <c r="AV3" s="136"/>
+      <c r="AW3" s="136"/>
+      <c r="AX3" s="136"/>
+      <c r="AY3" s="136"/>
+      <c r="AZ3" s="136"/>
+      <c r="BA3" s="136"/>
+      <c r="BB3" s="136"/>
+      <c r="BC3" s="136"/>
+      <c r="BD3" s="136"/>
+      <c r="BE3" s="136"/>
+      <c r="BF3" s="136"/>
+      <c r="BG3" s="136"/>
+      <c r="BH3" s="136"/>
+      <c r="BI3" s="136"/>
+      <c r="BJ3" s="136"/>
+      <c r="BK3" s="136"/>
+      <c r="BL3" s="136"/>
+      <c r="BM3" s="136"/>
+      <c r="BN3" s="136"/>
+      <c r="BO3" s="136"/>
+      <c r="BP3" s="136"/>
+      <c r="BQ3" s="136"/>
+      <c r="BR3" s="136"/>
+      <c r="BS3" s="136"/>
+      <c r="BT3" s="136"/>
+      <c r="BU3" s="136"/>
+      <c r="BV3" s="136"/>
+      <c r="BW3" s="136"/>
+      <c r="BX3" s="136"/>
+      <c r="BY3" s="136"/>
+      <c r="BZ3" s="136"/>
+      <c r="CA3" s="136"/>
+      <c r="CB3" s="136"/>
+      <c r="CC3" s="136"/>
+      <c r="CD3" s="136"/>
+      <c r="CE3" s="136"/>
+      <c r="CF3" s="136"/>
+      <c r="CG3" s="136"/>
+      <c r="CH3" s="136"/>
+      <c r="CI3" s="136"/>
+      <c r="CJ3" s="136"/>
+      <c r="CK3" s="136"/>
+      <c r="CL3" s="136"/>
+      <c r="CM3" s="136"/>
+      <c r="CN3" s="136"/>
+      <c r="CO3" s="136"/>
+      <c r="CP3" s="136"/>
+      <c r="CQ3" s="136"/>
+      <c r="CR3" s="136"/>
+      <c r="CS3" s="136"/>
+      <c r="CT3" s="136"/>
+      <c r="CU3" s="136"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="181"/>
-      <c r="Q5" s="181"/>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="181"/>
-      <c r="Y5" s="181"/>
-      <c r="Z5" s="181"/>
-      <c r="AA5" s="181"/>
-      <c r="AB5" s="181"/>
-      <c r="AC5" s="181"/>
-      <c r="AD5" s="181"/>
-      <c r="AE5" s="181"/>
-      <c r="AF5" s="181"/>
-      <c r="AG5" s="181"/>
-      <c r="AH5" s="181"/>
-      <c r="AI5" s="181"/>
-      <c r="AJ5" s="181"/>
-      <c r="AK5" s="181"/>
-      <c r="AL5" s="181"/>
-      <c r="AM5" s="181"/>
-      <c r="AN5" s="181"/>
-      <c r="AO5" s="181"/>
-      <c r="AP5" s="181"/>
-      <c r="AQ5" s="181"/>
-      <c r="AR5" s="181"/>
-      <c r="AS5" s="181"/>
-      <c r="AT5" s="181"/>
-      <c r="AU5" s="181"/>
-      <c r="AV5" s="181"/>
-      <c r="AW5" s="181"/>
-      <c r="AX5" s="181"/>
-      <c r="AY5" s="181"/>
-      <c r="AZ5" s="181"/>
-      <c r="BA5" s="181"/>
-      <c r="BB5" s="181"/>
-      <c r="BC5" s="181"/>
-      <c r="BD5" s="182"/>
-      <c r="BE5" s="183" t="s">
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="206"/>
+      <c r="R5" s="206"/>
+      <c r="S5" s="206"/>
+      <c r="T5" s="206"/>
+      <c r="U5" s="206"/>
+      <c r="V5" s="206"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
+      <c r="AA5" s="206"/>
+      <c r="AB5" s="206"/>
+      <c r="AC5" s="206"/>
+      <c r="AD5" s="206"/>
+      <c r="AE5" s="206"/>
+      <c r="AF5" s="206"/>
+      <c r="AG5" s="206"/>
+      <c r="AH5" s="206"/>
+      <c r="AI5" s="206"/>
+      <c r="AJ5" s="206"/>
+      <c r="AK5" s="206"/>
+      <c r="AL5" s="206"/>
+      <c r="AM5" s="206"/>
+      <c r="AN5" s="206"/>
+      <c r="AO5" s="206"/>
+      <c r="AP5" s="206"/>
+      <c r="AQ5" s="206"/>
+      <c r="AR5" s="206"/>
+      <c r="AS5" s="206"/>
+      <c r="AT5" s="206"/>
+      <c r="AU5" s="206"/>
+      <c r="AV5" s="206"/>
+      <c r="AW5" s="206"/>
+      <c r="AX5" s="206"/>
+      <c r="AY5" s="206"/>
+      <c r="AZ5" s="206"/>
+      <c r="BA5" s="206"/>
+      <c r="BB5" s="206"/>
+      <c r="BC5" s="206"/>
+      <c r="BD5" s="207"/>
+      <c r="BE5" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="BF5" s="184"/>
-      <c r="BG5" s="184"/>
-      <c r="BH5" s="184"/>
-      <c r="BI5" s="184"/>
-      <c r="BJ5" s="184"/>
-      <c r="BK5" s="184"/>
-      <c r="BL5" s="184"/>
-      <c r="BM5" s="184"/>
-      <c r="BN5" s="184"/>
-      <c r="BO5" s="184"/>
-      <c r="BP5" s="184"/>
-      <c r="BQ5" s="184"/>
-      <c r="BR5" s="184"/>
-      <c r="BS5" s="184"/>
-      <c r="BT5" s="184"/>
-      <c r="BU5" s="184"/>
-      <c r="BV5" s="184"/>
-      <c r="BW5" s="184"/>
-      <c r="BX5" s="184"/>
-      <c r="BY5" s="184"/>
-      <c r="BZ5" s="184"/>
-      <c r="CA5" s="184"/>
-      <c r="CB5" s="184"/>
-      <c r="CC5" s="184"/>
-      <c r="CD5" s="184"/>
-      <c r="CE5" s="184"/>
-      <c r="CF5" s="184"/>
-      <c r="CG5" s="184"/>
-      <c r="CH5" s="184"/>
-      <c r="CI5" s="184"/>
-      <c r="CJ5" s="184"/>
-      <c r="CK5" s="184"/>
-      <c r="CL5" s="184"/>
-      <c r="CM5" s="184"/>
-      <c r="CN5" s="184"/>
-      <c r="CO5" s="184"/>
-      <c r="CP5" s="184"/>
-      <c r="CQ5" s="184"/>
-      <c r="CR5" s="185"/>
-      <c r="CS5" s="190" t="s">
+      <c r="BF5" s="209"/>
+      <c r="BG5" s="209"/>
+      <c r="BH5" s="209"/>
+      <c r="BI5" s="209"/>
+      <c r="BJ5" s="209"/>
+      <c r="BK5" s="209"/>
+      <c r="BL5" s="209"/>
+      <c r="BM5" s="209"/>
+      <c r="BN5" s="209"/>
+      <c r="BO5" s="209"/>
+      <c r="BP5" s="209"/>
+      <c r="BQ5" s="209"/>
+      <c r="BR5" s="209"/>
+      <c r="BS5" s="209"/>
+      <c r="BT5" s="209"/>
+      <c r="BU5" s="209"/>
+      <c r="BV5" s="209"/>
+      <c r="BW5" s="209"/>
+      <c r="BX5" s="209"/>
+      <c r="BY5" s="209"/>
+      <c r="BZ5" s="209"/>
+      <c r="CA5" s="209"/>
+      <c r="CB5" s="209"/>
+      <c r="CC5" s="209"/>
+      <c r="CD5" s="209"/>
+      <c r="CE5" s="209"/>
+      <c r="CF5" s="209"/>
+      <c r="CG5" s="209"/>
+      <c r="CH5" s="209"/>
+      <c r="CI5" s="209"/>
+      <c r="CJ5" s="209"/>
+      <c r="CK5" s="209"/>
+      <c r="CL5" s="209"/>
+      <c r="CM5" s="209"/>
+      <c r="CN5" s="209"/>
+      <c r="CO5" s="209"/>
+      <c r="CP5" s="209"/>
+      <c r="CQ5" s="209"/>
+      <c r="CR5" s="210"/>
+      <c r="CS5" s="197" t="s">
         <v>35</v>
       </c>
-      <c r="CT5" s="191"/>
-      <c r="CU5" s="192"/>
+      <c r="CT5" s="198"/>
+      <c r="CU5" s="199"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="177"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="210" t="s">
+      <c r="A6" s="202"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="196" t="s">
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="183" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="196"/>
-      <c r="L6" s="196"/>
-      <c r="M6" s="196"/>
-      <c r="N6" s="196"/>
-      <c r="O6" s="196"/>
-      <c r="P6" s="196"/>
-      <c r="Q6" s="196"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="196"/>
-      <c r="U6" s="196"/>
-      <c r="V6" s="196"/>
-      <c r="W6" s="196"/>
-      <c r="X6" s="196"/>
-      <c r="Y6" s="196"/>
-      <c r="Z6" s="196"/>
-      <c r="AA6" s="196"/>
-      <c r="AB6" s="196"/>
-      <c r="AC6" s="196"/>
-      <c r="AD6" s="196"/>
-      <c r="AE6" s="196"/>
-      <c r="AF6" s="196"/>
-      <c r="AG6" s="196"/>
-      <c r="AH6" s="196"/>
-      <c r="AI6" s="196"/>
-      <c r="AJ6" s="196"/>
-      <c r="AK6" s="196"/>
-      <c r="AL6" s="196"/>
-      <c r="AM6" s="196"/>
-      <c r="AN6" s="196"/>
-      <c r="AO6" s="196" t="s">
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="183"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="183"/>
+      <c r="AH6" s="183"/>
+      <c r="AI6" s="183"/>
+      <c r="AJ6" s="183"/>
+      <c r="AK6" s="183"/>
+      <c r="AL6" s="183"/>
+      <c r="AM6" s="183"/>
+      <c r="AN6" s="183"/>
+      <c r="AO6" s="183" t="s">
         <v>141</v>
       </c>
-      <c r="AP6" s="196"/>
-      <c r="AQ6" s="196"/>
-      <c r="AR6" s="196"/>
-      <c r="AS6" s="196" t="s">
+      <c r="AP6" s="183"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="AT6" s="196"/>
-      <c r="AU6" s="196"/>
-      <c r="AV6" s="196" t="s">
+      <c r="AT6" s="183"/>
+      <c r="AU6" s="183"/>
+      <c r="AV6" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="AW6" s="196"/>
-      <c r="AX6" s="196"/>
-      <c r="AY6" s="196"/>
-      <c r="AZ6" s="196"/>
-      <c r="BA6" s="196"/>
-      <c r="BB6" s="196"/>
-      <c r="BC6" s="200" t="s">
+      <c r="AW6" s="183"/>
+      <c r="AX6" s="183"/>
+      <c r="AY6" s="183"/>
+      <c r="AZ6" s="183"/>
+      <c r="BA6" s="183"/>
+      <c r="BB6" s="183"/>
+      <c r="BC6" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="BD6" s="201"/>
-      <c r="BE6" s="202" t="s">
+      <c r="BD6" s="191"/>
+      <c r="BE6" s="192" t="s">
         <v>102</v>
       </c>
-      <c r="BF6" s="203"/>
-      <c r="BG6" s="203"/>
-      <c r="BH6" s="203"/>
-      <c r="BI6" s="203"/>
-      <c r="BJ6" s="203"/>
-      <c r="BK6" s="204"/>
-      <c r="BL6" s="205" t="s">
+      <c r="BF6" s="193"/>
+      <c r="BG6" s="193"/>
+      <c r="BH6" s="193"/>
+      <c r="BI6" s="193"/>
+      <c r="BJ6" s="193"/>
+      <c r="BK6" s="194"/>
+      <c r="BL6" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="BM6" s="203"/>
-      <c r="BN6" s="203"/>
-      <c r="BO6" s="203"/>
-      <c r="BP6" s="203"/>
-      <c r="BQ6" s="203"/>
-      <c r="BR6" s="203"/>
-      <c r="BS6" s="203"/>
-      <c r="BT6" s="203"/>
-      <c r="BU6" s="203"/>
-      <c r="BV6" s="203"/>
-      <c r="BW6" s="203"/>
-      <c r="BX6" s="203"/>
-      <c r="BY6" s="203"/>
-      <c r="BZ6" s="203"/>
-      <c r="CA6" s="203"/>
-      <c r="CB6" s="203"/>
-      <c r="CC6" s="203"/>
-      <c r="CD6" s="203"/>
-      <c r="CE6" s="203"/>
-      <c r="CF6" s="203"/>
-      <c r="CG6" s="203"/>
-      <c r="CH6" s="203"/>
-      <c r="CI6" s="203"/>
-      <c r="CJ6" s="203"/>
-      <c r="CK6" s="203"/>
-      <c r="CL6" s="203"/>
-      <c r="CM6" s="203"/>
-      <c r="CN6" s="203"/>
-      <c r="CO6" s="203"/>
-      <c r="CP6" s="203"/>
-      <c r="CQ6" s="193" t="s">
+      <c r="BM6" s="193"/>
+      <c r="BN6" s="193"/>
+      <c r="BO6" s="193"/>
+      <c r="BP6" s="193"/>
+      <c r="BQ6" s="193"/>
+      <c r="BR6" s="193"/>
+      <c r="BS6" s="193"/>
+      <c r="BT6" s="193"/>
+      <c r="BU6" s="193"/>
+      <c r="BV6" s="193"/>
+      <c r="BW6" s="193"/>
+      <c r="BX6" s="193"/>
+      <c r="BY6" s="193"/>
+      <c r="BZ6" s="193"/>
+      <c r="CA6" s="193"/>
+      <c r="CB6" s="193"/>
+      <c r="CC6" s="193"/>
+      <c r="CD6" s="193"/>
+      <c r="CE6" s="193"/>
+      <c r="CF6" s="193"/>
+      <c r="CG6" s="193"/>
+      <c r="CH6" s="193"/>
+      <c r="CI6" s="193"/>
+      <c r="CJ6" s="193"/>
+      <c r="CK6" s="193"/>
+      <c r="CL6" s="193"/>
+      <c r="CM6" s="193"/>
+      <c r="CN6" s="193"/>
+      <c r="CO6" s="193"/>
+      <c r="CP6" s="193"/>
+      <c r="CQ6" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="CR6" s="193"/>
-      <c r="CS6" s="175" t="s">
+      <c r="CR6" s="200"/>
+      <c r="CS6" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="CT6" s="175" t="s">
+      <c r="CT6" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="CU6" s="197" t="s">
+      <c r="CU6" s="187" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="177"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="179"/>
+      <c r="A7" s="202"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
       <c r="E7" s="124"/>
       <c r="F7" s="123">
         <v>0.3</v>
@@ -6577,347 +6577,347 @@
       <c r="I7" s="124">
         <v>0.3</v>
       </c>
-      <c r="J7" s="188">
+      <c r="J7" s="182">
         <v>42980</v>
       </c>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188">
+      <c r="K7" s="182"/>
+      <c r="L7" s="182">
         <v>43035</v>
       </c>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="189">
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="186">
         <f>COUNT(J9,L9,N9,P9,R9,T9)</f>
         <v>3</v>
       </c>
-      <c r="U7" s="189"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="188"/>
-      <c r="AC7" s="188"/>
-      <c r="AD7" s="188"/>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="188"/>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="188"/>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="188"/>
-      <c r="AK7" s="188"/>
-      <c r="AL7" s="188"/>
-      <c r="AM7" s="188"/>
+      <c r="U7" s="186"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="182"/>
+      <c r="Z7" s="182"/>
+      <c r="AA7" s="182"/>
+      <c r="AB7" s="182"/>
+      <c r="AC7" s="182"/>
+      <c r="AD7" s="182"/>
+      <c r="AE7" s="182"/>
+      <c r="AF7" s="182"/>
+      <c r="AG7" s="182"/>
+      <c r="AH7" s="182"/>
+      <c r="AI7" s="182"/>
+      <c r="AJ7" s="182"/>
+      <c r="AK7" s="182"/>
+      <c r="AL7" s="182"/>
+      <c r="AM7" s="182"/>
       <c r="AN7" s="97">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="188" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP7" s="188"/>
-      <c r="AQ7" s="188"/>
-      <c r="AR7" s="188"/>
-      <c r="AS7" s="189">
+      <c r="AO7" s="182" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP7" s="182"/>
+      <c r="AQ7" s="182"/>
+      <c r="AR7" s="182"/>
+      <c r="AS7" s="186">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="189"/>
+      <c r="AT7" s="186"/>
       <c r="AU7" s="21">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="188" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW7" s="188"/>
-      <c r="AX7" s="188"/>
-      <c r="AY7" s="188"/>
-      <c r="AZ7" s="189">
+      <c r="AV7" s="182" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW7" s="182"/>
+      <c r="AX7" s="182"/>
+      <c r="AY7" s="182"/>
+      <c r="AZ7" s="186">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="189"/>
+      <c r="BA7" s="186"/>
       <c r="BB7" s="22">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="200"/>
-      <c r="BD7" s="201"/>
-      <c r="BE7" s="188" t="s">
-        <v>255</v>
-      </c>
-      <c r="BF7" s="188"/>
-      <c r="BG7" s="188" t="s">
-        <v>256</v>
-      </c>
-      <c r="BH7" s="188"/>
-      <c r="BI7" s="189">
+      <c r="BC7" s="190"/>
+      <c r="BD7" s="191"/>
+      <c r="BE7" s="182" t="s">
+        <v>259</v>
+      </c>
+      <c r="BF7" s="182"/>
+      <c r="BG7" s="182" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH7" s="182"/>
+      <c r="BI7" s="186">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>3</v>
       </c>
-      <c r="BJ7" s="189"/>
+      <c r="BJ7" s="186"/>
       <c r="BK7" s="105">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="188">
+      <c r="BL7" s="182">
         <v>42980</v>
       </c>
-      <c r="BM7" s="188"/>
-      <c r="BN7" s="188">
+      <c r="BM7" s="182"/>
+      <c r="BN7" s="182">
         <v>42980</v>
       </c>
-      <c r="BO7" s="188"/>
-      <c r="BP7" s="188">
+      <c r="BO7" s="182"/>
+      <c r="BP7" s="182">
         <v>42980</v>
       </c>
-      <c r="BQ7" s="188"/>
-      <c r="BR7" s="188">
+      <c r="BQ7" s="182"/>
+      <c r="BR7" s="182">
         <v>42987</v>
       </c>
-      <c r="BS7" s="188"/>
-      <c r="BT7" s="188">
+      <c r="BS7" s="182"/>
+      <c r="BT7" s="182">
         <v>43035</v>
       </c>
-      <c r="BU7" s="188"/>
-      <c r="BV7" s="188">
+      <c r="BU7" s="182"/>
+      <c r="BV7" s="182">
         <v>43035</v>
       </c>
-      <c r="BW7" s="188"/>
-      <c r="BX7" s="188">
+      <c r="BW7" s="182"/>
+      <c r="BX7" s="182">
         <v>43036</v>
       </c>
-      <c r="BY7" s="188"/>
-      <c r="BZ7" s="188">
+      <c r="BY7" s="182"/>
+      <c r="BZ7" s="182">
         <v>43050</v>
       </c>
-      <c r="CA7" s="188"/>
-      <c r="CB7" s="188"/>
-      <c r="CC7" s="188"/>
-      <c r="CD7" s="188"/>
-      <c r="CE7" s="188"/>
-      <c r="CF7" s="188"/>
-      <c r="CG7" s="188"/>
-      <c r="CH7" s="188"/>
-      <c r="CI7" s="188"/>
-      <c r="CJ7" s="188"/>
-      <c r="CK7" s="188"/>
-      <c r="CL7" s="188"/>
-      <c r="CM7" s="188"/>
-      <c r="CN7" s="189">
+      <c r="CA7" s="182"/>
+      <c r="CB7" s="182"/>
+      <c r="CC7" s="182"/>
+      <c r="CD7" s="182"/>
+      <c r="CE7" s="182"/>
+      <c r="CF7" s="182"/>
+      <c r="CG7" s="182"/>
+      <c r="CH7" s="182"/>
+      <c r="CI7" s="182"/>
+      <c r="CJ7" s="182"/>
+      <c r="CK7" s="182"/>
+      <c r="CL7" s="182"/>
+      <c r="CM7" s="182"/>
+      <c r="CN7" s="186">
         <f>COUNT(CN9,CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
-        <v>8</v>
-      </c>
-      <c r="CO7" s="189"/>
+        <v>9</v>
+      </c>
+      <c r="CO7" s="186"/>
       <c r="CP7" s="106">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="193"/>
-      <c r="CR7" s="193"/>
-      <c r="CS7" s="175"/>
-      <c r="CT7" s="175"/>
-      <c r="CU7" s="198"/>
+      <c r="CQ7" s="200"/>
+      <c r="CR7" s="200"/>
+      <c r="CS7" s="196"/>
+      <c r="CT7" s="196"/>
+      <c r="CU7" s="188"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="177"/>
-      <c r="B8" s="179"/>
-      <c r="C8" s="179"/>
-      <c r="D8" s="186" t="s">
+      <c r="A8" s="202"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186" t="s">
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="187" t="s">
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187" t="s">
+      <c r="K8" s="175"/>
+      <c r="L8" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187" t="s">
+      <c r="M8" s="175"/>
+      <c r="N8" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="187"/>
-      <c r="P8" s="187" t="s">
+      <c r="O8" s="175"/>
+      <c r="P8" s="175" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="187" t="s">
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="187"/>
-      <c r="T8" s="187" t="s">
+      <c r="S8" s="175"/>
+      <c r="T8" s="175" t="s">
         <v>53</v>
       </c>
-      <c r="U8" s="187"/>
-      <c r="V8" s="187" t="s">
+      <c r="U8" s="175"/>
+      <c r="V8" s="175" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="187"/>
-      <c r="X8" s="187" t="s">
+      <c r="W8" s="175"/>
+      <c r="X8" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="Y8" s="187"/>
-      <c r="Z8" s="187" t="s">
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="187"/>
-      <c r="AB8" s="187" t="s">
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="187"/>
-      <c r="AD8" s="187" t="s">
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="AE8" s="187"/>
-      <c r="AF8" s="187" t="s">
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="AG8" s="187"/>
-      <c r="AH8" s="187" t="s">
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="AI8" s="187"/>
-      <c r="AJ8" s="187" t="s">
+      <c r="AI8" s="175"/>
+      <c r="AJ8" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="AK8" s="187"/>
-      <c r="AL8" s="187" t="s">
+      <c r="AK8" s="175"/>
+      <c r="AL8" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="AM8" s="187"/>
+      <c r="AM8" s="175"/>
       <c r="AN8" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO8" s="187" t="s">
+      <c r="AO8" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="187"/>
-      <c r="AQ8" s="187" t="s">
+      <c r="AP8" s="175"/>
+      <c r="AQ8" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="AR8" s="187"/>
-      <c r="AS8" s="187" t="s">
+      <c r="AR8" s="175"/>
+      <c r="AS8" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="AT8" s="187"/>
+      <c r="AT8" s="175"/>
       <c r="AU8" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="AV8" s="187" t="s">
+      <c r="AV8" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="AW8" s="187"/>
-      <c r="AX8" s="187" t="s">
+      <c r="AW8" s="175"/>
+      <c r="AX8" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="AY8" s="187"/>
-      <c r="AZ8" s="187" t="s">
+      <c r="AY8" s="175"/>
+      <c r="AZ8" s="175" t="s">
         <v>70</v>
       </c>
-      <c r="BA8" s="187"/>
+      <c r="BA8" s="175"/>
       <c r="BB8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="BC8" s="200"/>
-      <c r="BD8" s="201"/>
-      <c r="BE8" s="209" t="s">
+      <c r="BC8" s="190"/>
+      <c r="BD8" s="191"/>
+      <c r="BE8" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="BF8" s="206"/>
-      <c r="BG8" s="206" t="s">
+      <c r="BF8" s="184"/>
+      <c r="BG8" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="BH8" s="206"/>
-      <c r="BI8" s="206" t="s">
+      <c r="BH8" s="184"/>
+      <c r="BI8" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="BJ8" s="206"/>
+      <c r="BJ8" s="184"/>
       <c r="BK8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="BL8" s="207" t="s">
+      <c r="BL8" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="208"/>
-      <c r="BN8" s="207" t="s">
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="BO8" s="208"/>
-      <c r="BP8" s="207" t="s">
+      <c r="BO8" s="179"/>
+      <c r="BP8" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="BQ8" s="208"/>
-      <c r="BR8" s="207" t="s">
+      <c r="BQ8" s="179"/>
+      <c r="BR8" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="BS8" s="208"/>
-      <c r="BT8" s="207" t="s">
+      <c r="BS8" s="179"/>
+      <c r="BT8" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="BU8" s="208"/>
-      <c r="BV8" s="194" t="s">
+      <c r="BU8" s="179"/>
+      <c r="BV8" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="BW8" s="195"/>
-      <c r="BX8" s="194" t="s">
+      <c r="BW8" s="177"/>
+      <c r="BX8" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="BY8" s="195"/>
-      <c r="BZ8" s="194" t="s">
+      <c r="BY8" s="177"/>
+      <c r="BZ8" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="CA8" s="195"/>
-      <c r="CB8" s="194" t="s">
+      <c r="CA8" s="177"/>
+      <c r="CB8" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="CC8" s="195"/>
-      <c r="CD8" s="194" t="s">
+      <c r="CC8" s="177"/>
+      <c r="CD8" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="CE8" s="195"/>
-      <c r="CF8" s="194" t="s">
+      <c r="CE8" s="177"/>
+      <c r="CF8" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="CG8" s="195"/>
-      <c r="CH8" s="194" t="s">
+      <c r="CG8" s="177"/>
+      <c r="CH8" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="195"/>
-      <c r="CJ8" s="194" t="s">
+      <c r="CI8" s="177"/>
+      <c r="CJ8" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="CK8" s="195"/>
-      <c r="CL8" s="194" t="s">
+      <c r="CK8" s="177"/>
+      <c r="CL8" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="CM8" s="195"/>
-      <c r="CN8" s="194" t="s">
+      <c r="CM8" s="177"/>
+      <c r="CN8" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="CO8" s="195"/>
+      <c r="CO8" s="177"/>
       <c r="CP8" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="CQ8" s="193"/>
-      <c r="CR8" s="193"/>
-      <c r="CS8" s="175"/>
-      <c r="CT8" s="175"/>
-      <c r="CU8" s="198"/>
+      <c r="CQ8" s="200"/>
+      <c r="CR8" s="200"/>
+      <c r="CS8" s="196"/>
+      <c r="CT8" s="196"/>
+      <c r="CU8" s="188"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="178"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
+      <c r="A9" s="203"/>
+      <c r="B9" s="204"/>
+      <c r="C9" s="204"/>
       <c r="D9" s="27">
         <v>100</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>87</v>
       </c>
       <c r="G9" s="27">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H9" s="91"/>
       <c r="I9" s="96" t="s">
@@ -7072,7 +7072,9 @@
       <c r="CC9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="CD9" s="27"/>
+      <c r="CD9" s="27">
+        <v>100</v>
+      </c>
       <c r="CE9" s="30" t="s">
         <v>87</v>
       </c>
@@ -7105,9 +7107,9 @@
       <c r="CR9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CS9" s="175"/>
-      <c r="CT9" s="175"/>
-      <c r="CU9" s="199"/>
+      <c r="CS9" s="196"/>
+      <c r="CT9" s="196"/>
+      <c r="CU9" s="189"/>
     </row>
     <row r="10" spans="1:99">
       <c r="A10" s="42">
@@ -7202,10 +7204,12 @@
         <f>IFERROR((((SUM(K10,M10,O10,Q10,S10,U10)/$T$7))*$AN$7),"")</f>
         <v>12.777777777777779</v>
       </c>
-      <c r="AO10" s="107"/>
+      <c r="AO10" s="107">
+        <v>85</v>
+      </c>
       <c r="AP10" s="92">
         <f>IFERROR(((AO10/$AO$9)*100),"")</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AQ10" s="107"/>
       <c r="AR10" s="92" t="str">
@@ -7219,14 +7223,14 @@
       </c>
       <c r="AU10" s="95">
         <f>IFERROR(((SUM(AP10,AR10,AT10)/$AS$7)*$AU$7),"")</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" s="107">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AW10" s="92">
         <f>IFERROR(((AV10/$AV$9)*100),"")</f>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AX10" s="107"/>
       <c r="AY10" s="92" t="str">
@@ -7240,34 +7244,38 @@
       </c>
       <c r="BB10" s="95">
         <f>IFERROR(((SUM(AW10,AY10,BA10)/$AZ$7)*$BB$7),"")</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BC10" s="98">
         <f>IFERROR(SUM(BB10,AU10,AN10,I10,F10),"")</f>
-        <v>45.277777777777779</v>
+        <v>55.277777777777779</v>
       </c>
       <c r="BD10" s="98">
         <f>IFERROR(ROUND(BC10,2),"")</f>
-        <v>45.28</v>
-      </c>
-      <c r="BE10" s="107"/>
+        <v>55.28</v>
+      </c>
+      <c r="BE10" s="107">
+        <v>78</v>
+      </c>
       <c r="BF10" s="92">
         <f>IFERROR(((BE10/$BE$9)*100),"")</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="BG10" s="107"/>
       <c r="BH10" s="92">
         <f>IFERROR(((BG10/$BG$9)*100),"")</f>
         <v>0</v>
       </c>
-      <c r="BI10" s="107"/>
+      <c r="BI10" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ10" s="92">
         <f>IFERROR(((finalExamLab/$BI$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK10" s="103">
         <f>IFERROR(((SUM(BF10,BH10,BJ10)/$BI$7)*$BK$7),"")</f>
-        <v>0</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="BL10" s="107">
         <v>100</v>
@@ -7330,10 +7338,12 @@
         <f>IFERROR(((CB10/$CB$9)*100),"")</f>
         <v/>
       </c>
-      <c r="CD10" s="107"/>
-      <c r="CE10" s="92" t="str">
+      <c r="CD10" s="107">
+        <v>100</v>
+      </c>
+      <c r="CE10" s="92">
         <f>IFERROR(((CD10/$CD$9)*100),"")</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="CF10" s="107"/>
       <c r="CG10" s="92" t="str">
@@ -7362,19 +7372,19 @@
       </c>
       <c r="CP10" s="103">
         <f>IFERROR(((SUM(BM10,BO10,BQ10,BS10,BU10,BW10,BY10,CA10,CC10,CE10,CG10,CI10,CK10,CM10,CO10)/$CN$7)*$CP$7),"")</f>
-        <v>44.375</v>
+        <v>45</v>
       </c>
       <c r="CQ10" s="99">
         <f>IFERROR(SUM(CP10,BK10),"")</f>
-        <v>44.375</v>
+        <v>74.666666666666671</v>
       </c>
       <c r="CR10" s="99">
         <f>IFERROR(ROUND(CQ10,2),"")</f>
-        <v>44.38</v>
+        <v>74.67</v>
       </c>
       <c r="CS10" s="104">
         <f>IFERROR(((CR10*0.6)+(BD10*0.4)),"")</f>
-        <v>44.74</v>
+        <v>66.914000000000001</v>
       </c>
       <c r="CT10" s="104">
         <f>IFERROR(VLOOKUP(CS10,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7478,10 +7488,12 @@
         <f t="shared" ref="AN11:AN70" si="9">IFERROR((((SUM(K11,M11,O11,Q11,S11,U11)/$T$7))*$AN$7),"")</f>
         <v>11.444444444444446</v>
       </c>
-      <c r="AO11" s="108"/>
+      <c r="AO11" s="108">
+        <v>100</v>
+      </c>
       <c r="AP11" s="92">
         <f t="shared" ref="AP11:AP70" si="10">IFERROR(((AO11/$AO$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ11" s="108"/>
       <c r="AR11" s="92" t="str">
@@ -7495,7 +7507,7 @@
       </c>
       <c r="AU11" s="95">
         <f t="shared" ref="AU11:AU70" si="13">IFERROR(((SUM(AP11,AR11,AT11)/$AS$7)*$AU$7),"")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV11" s="108">
         <v>100</v>
@@ -7520,30 +7532,34 @@
       </c>
       <c r="BC11" s="98">
         <f t="shared" ref="BC11:BC70" si="18">IFERROR(SUM(BB11,AU11,AN11,I11,F11),"")</f>
-        <v>42.144444444444446</v>
+        <v>52.144444444444446</v>
       </c>
       <c r="BD11" s="98">
         <f t="shared" ref="BD11:BD70" si="19">IFERROR(ROUND(BC11,2),"")</f>
-        <v>42.14</v>
-      </c>
-      <c r="BE11" s="108"/>
+        <v>52.14</v>
+      </c>
+      <c r="BE11" s="108">
+        <v>80</v>
+      </c>
       <c r="BF11" s="92">
         <f t="shared" ref="BF11:BF70" si="20">IFERROR(((BE11/$BE$9)*100),"")</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BG11" s="108"/>
       <c r="BH11" s="92">
         <f t="shared" ref="BH11:BH70" si="21">IFERROR(((BG11/$BG$9)*100),"")</f>
         <v>0</v>
       </c>
-      <c r="BI11" s="108"/>
+      <c r="BI11" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ11" s="92">
         <f>IFERROR(((BI11/$BI$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK11" s="103">
         <f t="shared" ref="BK11:BK70" si="22">IFERROR(((SUM(BF11,BH11,BJ11)/$BI$7)*$BK$7),"")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BL11" s="108">
         <v>100</v>
@@ -7607,9 +7623,9 @@
         <v/>
       </c>
       <c r="CD11" s="107"/>
-      <c r="CE11" s="92" t="str">
+      <c r="CE11" s="92">
         <f t="shared" ref="CE11:CE70" si="32">IFERROR(((CD11/$CD$9)*100),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF11" s="107"/>
       <c r="CG11" s="92" t="str">
@@ -7638,19 +7654,19 @@
       </c>
       <c r="CP11" s="103">
         <f t="shared" ref="CP11:CP70" si="38">IFERROR(((SUM(BM11,BO11,BQ11,BS11,BU11,BW11,BY11,CA11,CC11,CE11,CG11,CI11,CK11,CM11,CO11)/$CN$7)*$CP$7),"")</f>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="CQ11" s="99">
         <f t="shared" ref="CQ11:CQ70" si="39">IFERROR(SUM(CP11,BK11),"")</f>
-        <v>46.25</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="CR11" s="99">
         <f t="shared" ref="CR11:CR70" si="40">IFERROR(ROUND(CQ11,2),"")</f>
-        <v>46.25</v>
+        <v>71.11</v>
       </c>
       <c r="CS11" s="104">
         <f t="shared" ref="CS11:CS22" si="41">IFERROR(((CR11*0.6)+(BD11*0.4)),"")</f>
-        <v>44.606000000000002</v>
+        <v>63.521999999999998</v>
       </c>
       <c r="CT11" s="104">
         <f>IFERROR(VLOOKUP(CS11,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -7754,10 +7770,12 @@
         <f t="shared" si="9"/>
         <v>9.4444444444444446</v>
       </c>
-      <c r="AO12" s="108"/>
+      <c r="AO12" s="108">
+        <v>85</v>
+      </c>
       <c r="AP12" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AQ12" s="108"/>
       <c r="AR12" s="92" t="str">
@@ -7771,14 +7789,14 @@
       </c>
       <c r="AU12" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" s="108">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AW12" s="92">
         <f t="shared" si="14"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AX12" s="108"/>
       <c r="AY12" s="92" t="str">
@@ -7792,15 +7810,15 @@
       </c>
       <c r="BB12" s="95">
         <f t="shared" si="17"/>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="BC12" s="98">
         <f t="shared" si="18"/>
-        <v>28.74444444444444</v>
+        <v>36.24444444444444</v>
       </c>
       <c r="BD12" s="98">
         <f t="shared" si="19"/>
-        <v>28.74</v>
+        <v>36.24</v>
       </c>
       <c r="BE12" s="108"/>
       <c r="BF12" s="92">
@@ -7812,14 +7830,16 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI12" s="108"/>
+      <c r="BI12" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ12" s="92">
         <f t="shared" ref="BJ12:BJ70" si="44">IFERROR(((BI12/$BI$9)*100),"")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK12" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="BL12" s="108">
         <v>100</v>
@@ -7883,9 +7903,9 @@
         <v/>
       </c>
       <c r="CD12" s="107"/>
-      <c r="CE12" s="92" t="str">
+      <c r="CE12" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF12" s="107"/>
       <c r="CG12" s="92" t="str">
@@ -7914,19 +7934,19 @@
       </c>
       <c r="CP12" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ12" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>56.111111111111114</v>
       </c>
       <c r="CR12" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>56.11</v>
       </c>
       <c r="CS12" s="104">
         <f t="shared" si="41"/>
-        <v>38.124000000000002</v>
+        <v>48.161999999999999</v>
       </c>
       <c r="CT12" s="104">
         <f>IFERROR(VLOOKUP(CS12,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8030,10 +8050,12 @@
         <f t="shared" si="9"/>
         <v>15.444444444444443</v>
       </c>
-      <c r="AO13" s="108"/>
+      <c r="AO13" s="108">
+        <v>95</v>
+      </c>
       <c r="AP13" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AQ13" s="108"/>
       <c r="AR13" s="92" t="str">
@@ -8047,14 +8069,14 @@
       </c>
       <c r="AU13" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" s="108">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AW13" s="92">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AX13" s="108"/>
       <c r="AY13" s="92" t="str">
@@ -8068,34 +8090,38 @@
       </c>
       <c r="BB13" s="95">
         <f t="shared" si="17"/>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BC13" s="98">
         <f t="shared" si="18"/>
-        <v>48.344444444444441</v>
+        <v>58.344444444444441</v>
       </c>
       <c r="BD13" s="98">
         <f t="shared" si="19"/>
-        <v>48.34</v>
-      </c>
-      <c r="BE13" s="108"/>
+        <v>58.34</v>
+      </c>
+      <c r="BE13" s="108">
+        <v>85</v>
+      </c>
       <c r="BF13" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BG13" s="108"/>
       <c r="BH13" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI13" s="108"/>
+      <c r="BI13" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ13" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK13" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="BL13" s="108">
         <v>100</v>
@@ -8159,9 +8185,9 @@
         <v/>
       </c>
       <c r="CD13" s="107"/>
-      <c r="CE13" s="92" t="str">
+      <c r="CE13" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF13" s="107"/>
       <c r="CG13" s="92" t="str">
@@ -8190,19 +8216,19 @@
       </c>
       <c r="CP13" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ13" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>70.277777777777771</v>
       </c>
       <c r="CR13" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>70.28</v>
       </c>
       <c r="CS13" s="104">
         <f t="shared" si="41"/>
-        <v>45.963999999999999</v>
+        <v>65.504000000000005</v>
       </c>
       <c r="CT13" s="104">
         <f>IFERROR(VLOOKUP(CS13,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8306,10 +8332,12 @@
         <f t="shared" si="9"/>
         <v>15.777777777777775</v>
       </c>
-      <c r="AO14" s="108"/>
+      <c r="AO14" s="108">
+        <v>90</v>
+      </c>
       <c r="AP14" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ14" s="108"/>
       <c r="AR14" s="92" t="str">
@@ -8323,14 +8351,14 @@
       </c>
       <c r="AU14" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV14" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW14" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX14" s="108"/>
       <c r="AY14" s="92" t="str">
@@ -8344,34 +8372,38 @@
       </c>
       <c r="BB14" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC14" s="98">
         <f t="shared" si="18"/>
-        <v>46.377777777777773</v>
+        <v>56.377777777777766</v>
       </c>
       <c r="BD14" s="98">
         <f t="shared" si="19"/>
-        <v>46.38</v>
-      </c>
-      <c r="BE14" s="108"/>
+        <v>56.38</v>
+      </c>
+      <c r="BE14" s="108">
+        <v>86</v>
+      </c>
       <c r="BF14" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BG14" s="108"/>
       <c r="BH14" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI14" s="108"/>
+      <c r="BI14" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ14" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK14" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BL14" s="108">
         <v>100</v>
@@ -8402,11 +8434,11 @@
         <v>100</v>
       </c>
       <c r="BT14" s="108">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BU14" s="92">
         <f t="shared" si="27"/>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BV14" s="107">
         <v>100</v>
@@ -8435,9 +8467,9 @@
         <v/>
       </c>
       <c r="CD14" s="107"/>
-      <c r="CE14" s="92" t="str">
+      <c r="CE14" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF14" s="107"/>
       <c r="CG14" s="92" t="str">
@@ -8466,19 +8498,19 @@
       </c>
       <c r="CP14" s="103">
         <f t="shared" si="38"/>
-        <v>47.5</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="CQ14" s="99">
         <f t="shared" si="39"/>
-        <v>47.5</v>
+        <v>74.333333333333343</v>
       </c>
       <c r="CR14" s="99">
         <f t="shared" si="40"/>
-        <v>47.5</v>
+        <v>74.33</v>
       </c>
       <c r="CS14" s="104">
         <f t="shared" si="41"/>
-        <v>47.052000000000007</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="CT14" s="104">
         <f>IFERROR(VLOOKUP(CS14,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8582,10 +8614,12 @@
         <f t="shared" si="9"/>
         <v>10.444444444444445</v>
       </c>
-      <c r="AO15" s="108"/>
+      <c r="AO15" s="108">
+        <v>95</v>
+      </c>
       <c r="AP15" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AQ15" s="108"/>
       <c r="AR15" s="92" t="str">
@@ -8599,14 +8633,14 @@
       </c>
       <c r="AU15" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AV15" s="108">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AW15" s="92">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AX15" s="108"/>
       <c r="AY15" s="92" t="str">
@@ -8620,34 +8654,38 @@
       </c>
       <c r="BB15" s="95">
         <f t="shared" si="17"/>
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="BC15" s="98">
         <f t="shared" si="18"/>
-        <v>32.544444444444444</v>
+        <v>39.544444444444444</v>
       </c>
       <c r="BD15" s="98">
         <f t="shared" si="19"/>
-        <v>32.54</v>
-      </c>
-      <c r="BE15" s="108"/>
+        <v>39.54</v>
+      </c>
+      <c r="BE15" s="108">
+        <v>85</v>
+      </c>
       <c r="BF15" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BG15" s="108"/>
       <c r="BH15" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI15" s="108"/>
+      <c r="BI15" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ15" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK15" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="BL15" s="108">
         <v>85</v>
@@ -8711,9 +8749,9 @@
         <v/>
       </c>
       <c r="CD15" s="107"/>
-      <c r="CE15" s="92" t="str">
+      <c r="CE15" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF15" s="107"/>
       <c r="CG15" s="92" t="str">
@@ -8742,19 +8780,19 @@
       </c>
       <c r="CP15" s="103">
         <f t="shared" si="38"/>
-        <v>40.3125</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="CQ15" s="99">
         <f t="shared" si="39"/>
-        <v>40.3125</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="CR15" s="99">
         <f t="shared" si="40"/>
-        <v>40.31</v>
+        <v>66.67</v>
       </c>
       <c r="CS15" s="104">
         <f t="shared" si="41"/>
-        <v>37.201999999999998</v>
+        <v>55.818000000000005</v>
       </c>
       <c r="CT15" s="104">
         <f>IFERROR(VLOOKUP(CS15,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -8858,10 +8896,12 @@
         <f t="shared" si="9"/>
         <v>13.666666666666666</v>
       </c>
-      <c r="AO16" s="108"/>
+      <c r="AO16" s="108">
+        <v>90</v>
+      </c>
       <c r="AP16" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ16" s="108"/>
       <c r="AR16" s="92" t="str">
@@ -8875,14 +8915,14 @@
       </c>
       <c r="AU16" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV16" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW16" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX16" s="108"/>
       <c r="AY16" s="92" t="str">
@@ -8896,15 +8936,15 @@
       </c>
       <c r="BB16" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC16" s="98">
         <f t="shared" si="18"/>
-        <v>43.666666666666664</v>
+        <v>53.666666666666664</v>
       </c>
       <c r="BD16" s="98">
         <f t="shared" si="19"/>
-        <v>43.67</v>
+        <v>53.67</v>
       </c>
       <c r="BE16" s="108"/>
       <c r="BF16" s="92">
@@ -8916,14 +8956,16 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI16" s="108"/>
+      <c r="BI16" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ16" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK16" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="BL16" s="108">
         <v>100</v>
@@ -8987,9 +9029,9 @@
         <v/>
       </c>
       <c r="CD16" s="107"/>
-      <c r="CE16" s="92" t="str">
+      <c r="CE16" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF16" s="107"/>
       <c r="CG16" s="92" t="str">
@@ -9018,19 +9060,19 @@
       </c>
       <c r="CP16" s="103">
         <f t="shared" si="38"/>
-        <v>43.4375</v>
+        <v>38.611111111111114</v>
       </c>
       <c r="CQ16" s="99">
         <f t="shared" si="39"/>
-        <v>43.4375</v>
+        <v>55.277777777777786</v>
       </c>
       <c r="CR16" s="99">
         <f t="shared" si="40"/>
-        <v>43.44</v>
+        <v>55.28</v>
       </c>
       <c r="CS16" s="104">
         <f t="shared" si="41"/>
-        <v>43.531999999999996</v>
+        <v>54.636000000000003</v>
       </c>
       <c r="CT16" s="104">
         <f>IFERROR(VLOOKUP(CS16,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9134,10 +9176,12 @@
         <f t="shared" si="9"/>
         <v>12.888888888888889</v>
       </c>
-      <c r="AO17" s="108"/>
+      <c r="AO17" s="108">
+        <v>85</v>
+      </c>
       <c r="AP17" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AQ17" s="108"/>
       <c r="AR17" s="92" t="str">
@@ -9151,14 +9195,14 @@
       </c>
       <c r="AU17" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" s="108">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AW17" s="92">
         <f t="shared" si="14"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AX17" s="108"/>
       <c r="AY17" s="92" t="str">
@@ -9172,34 +9216,38 @@
       </c>
       <c r="BB17" s="95">
         <f t="shared" si="17"/>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BC17" s="98">
         <f t="shared" si="18"/>
-        <v>40.888888888888886</v>
+        <v>50.888888888888886</v>
       </c>
       <c r="BD17" s="98">
         <f t="shared" si="19"/>
-        <v>40.89</v>
-      </c>
-      <c r="BE17" s="108"/>
+        <v>50.89</v>
+      </c>
+      <c r="BE17" s="108">
+        <v>86</v>
+      </c>
       <c r="BF17" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BG17" s="108"/>
       <c r="BH17" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI17" s="108"/>
+      <c r="BI17" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ17" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK17" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BL17" s="108">
         <v>100</v>
@@ -9263,9 +9311,9 @@
         <v/>
       </c>
       <c r="CD17" s="107"/>
-      <c r="CE17" s="92" t="str">
+      <c r="CE17" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF17" s="107"/>
       <c r="CG17" s="92" t="str">
@@ -9294,19 +9342,19 @@
       </c>
       <c r="CP17" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ17" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>70.444444444444443</v>
       </c>
       <c r="CR17" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>70.44</v>
       </c>
       <c r="CS17" s="104">
         <f t="shared" si="41"/>
-        <v>42.984000000000002</v>
+        <v>62.62</v>
       </c>
       <c r="CT17" s="104">
         <f>IFERROR(VLOOKUP(CS17,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9410,10 +9458,12 @@
         <f t="shared" si="9"/>
         <v>8.6666666666666679</v>
       </c>
-      <c r="AO18" s="108"/>
+      <c r="AO18" s="108">
+        <v>95</v>
+      </c>
       <c r="AP18" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AQ18" s="108"/>
       <c r="AR18" s="92" t="str">
@@ -9427,14 +9477,14 @@
       </c>
       <c r="AU18" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" s="108">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AW18" s="92">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AX18" s="108"/>
       <c r="AY18" s="92" t="str">
@@ -9448,34 +9498,38 @@
       </c>
       <c r="BB18" s="95">
         <f t="shared" si="17"/>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BC18" s="98">
         <f t="shared" si="18"/>
-        <v>37.066666666666663</v>
+        <v>47.066666666666663</v>
       </c>
       <c r="BD18" s="98">
         <f t="shared" si="19"/>
-        <v>37.07</v>
-      </c>
-      <c r="BE18" s="108"/>
+        <v>47.07</v>
+      </c>
+      <c r="BE18" s="108">
+        <v>76</v>
+      </c>
       <c r="BF18" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="BG18" s="108"/>
       <c r="BH18" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI18" s="108"/>
+      <c r="BI18" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ18" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK18" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="BL18" s="108">
         <v>100</v>
@@ -9539,9 +9593,9 @@
         <v/>
       </c>
       <c r="CD18" s="107"/>
-      <c r="CE18" s="92" t="str">
+      <c r="CE18" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF18" s="107"/>
       <c r="CG18" s="92" t="str">
@@ -9570,19 +9624,19 @@
       </c>
       <c r="CP18" s="103">
         <f t="shared" si="38"/>
-        <v>47.1875</v>
+        <v>41.944444444444443</v>
       </c>
       <c r="CQ18" s="99">
         <f t="shared" si="39"/>
-        <v>47.1875</v>
+        <v>71.277777777777771</v>
       </c>
       <c r="CR18" s="99">
         <f t="shared" si="40"/>
-        <v>47.19</v>
+        <v>71.28</v>
       </c>
       <c r="CS18" s="104">
         <f t="shared" si="41"/>
-        <v>43.141999999999996</v>
+        <v>61.596000000000004</v>
       </c>
       <c r="CT18" s="104">
         <f>IFERROR(VLOOKUP(CS18,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9686,10 +9740,12 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="AO19" s="108"/>
+      <c r="AO19" s="108">
+        <v>100</v>
+      </c>
       <c r="AP19" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ19" s="108"/>
       <c r="AR19" s="92" t="str">
@@ -9703,14 +9759,14 @@
       </c>
       <c r="AU19" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV19" s="108">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW19" s="92">
         <f t="shared" si="14"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AX19" s="108"/>
       <c r="AY19" s="92" t="str">
@@ -9724,34 +9780,38 @@
       </c>
       <c r="BB19" s="95">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC19" s="98">
         <f t="shared" si="18"/>
-        <v>42.9</v>
+        <v>51.9</v>
       </c>
       <c r="BD19" s="98">
         <f t="shared" si="19"/>
-        <v>42.9</v>
-      </c>
-      <c r="BE19" s="108"/>
+        <v>51.9</v>
+      </c>
+      <c r="BE19" s="108">
+        <v>86</v>
+      </c>
       <c r="BF19" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BG19" s="108"/>
       <c r="BH19" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI19" s="108"/>
+      <c r="BI19" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ19" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK19" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BL19" s="108">
         <v>100</v>
@@ -9815,9 +9875,9 @@
         <v/>
       </c>
       <c r="CD19" s="107"/>
-      <c r="CE19" s="92" t="str">
+      <c r="CE19" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF19" s="107"/>
       <c r="CG19" s="92" t="str">
@@ -9846,19 +9906,19 @@
       </c>
       <c r="CP19" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ19" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>70.444444444444443</v>
       </c>
       <c r="CR19" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>70.44</v>
       </c>
       <c r="CS19" s="104">
         <f t="shared" si="41"/>
-        <v>43.787999999999997</v>
+        <v>63.024000000000001</v>
       </c>
       <c r="CT19" s="104">
         <f>IFERROR(VLOOKUP(CS19,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -9962,10 +10022,12 @@
         <f t="shared" si="9"/>
         <v>12.111111111111111</v>
       </c>
-      <c r="AO20" s="108"/>
+      <c r="AO20" s="108">
+        <v>95</v>
+      </c>
       <c r="AP20" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AQ20" s="108"/>
       <c r="AR20" s="92" t="str">
@@ -9979,14 +10041,14 @@
       </c>
       <c r="AU20" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AV20" s="108">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AW20" s="92">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AX20" s="108"/>
       <c r="AY20" s="92" t="str">
@@ -10000,15 +10062,15 @@
       </c>
       <c r="BB20" s="95">
         <f t="shared" si="17"/>
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BC20" s="98">
         <f t="shared" si="18"/>
-        <v>39.611111111111114</v>
+        <v>47.611111111111114</v>
       </c>
       <c r="BD20" s="98">
         <f t="shared" si="19"/>
-        <v>39.61</v>
+        <v>47.61</v>
       </c>
       <c r="BE20" s="108"/>
       <c r="BF20" s="92">
@@ -10020,14 +10082,16 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI20" s="108"/>
+      <c r="BI20" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ20" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK20" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="BL20" s="108">
         <v>100</v>
@@ -10091,9 +10155,9 @@
         <v/>
       </c>
       <c r="CD20" s="107"/>
-      <c r="CE20" s="92" t="str">
+      <c r="CE20" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF20" s="107"/>
       <c r="CG20" s="92" t="str">
@@ -10122,19 +10186,19 @@
       </c>
       <c r="CP20" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ20" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>56.111111111111114</v>
       </c>
       <c r="CR20" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>56.11</v>
       </c>
       <c r="CS20" s="104">
         <f t="shared" si="41"/>
-        <v>42.472000000000001</v>
+        <v>52.709999999999994</v>
       </c>
       <c r="CT20" s="104">
         <f>IFERROR(VLOOKUP(CS20,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10238,10 +10302,12 @@
         <f t="shared" si="9"/>
         <v>13.333333333333336</v>
       </c>
-      <c r="AO21" s="108"/>
+      <c r="AO21" s="108">
+        <v>95</v>
+      </c>
       <c r="AP21" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AQ21" s="108"/>
       <c r="AR21" s="92" t="str">
@@ -10255,14 +10321,14 @@
       </c>
       <c r="AU21" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" s="108">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AW21" s="92">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AX21" s="108"/>
       <c r="AY21" s="92" t="str">
@@ -10276,34 +10342,38 @@
       </c>
       <c r="BB21" s="95">
         <f t="shared" si="17"/>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="BC21" s="98">
         <f t="shared" si="18"/>
-        <v>42.63333333333334</v>
+        <v>51.13333333333334</v>
       </c>
       <c r="BD21" s="98">
         <f t="shared" si="19"/>
-        <v>42.63</v>
-      </c>
-      <c r="BE21" s="108"/>
+        <v>51.13</v>
+      </c>
+      <c r="BE21" s="108">
+        <v>86</v>
+      </c>
       <c r="BF21" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BG21" s="108"/>
       <c r="BH21" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI21" s="108"/>
+      <c r="BI21" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ21" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK21" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BL21" s="108">
         <v>100</v>
@@ -10367,9 +10437,9 @@
         <v/>
       </c>
       <c r="CD21" s="107"/>
-      <c r="CE21" s="92" t="str">
+      <c r="CE21" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF21" s="107"/>
       <c r="CG21" s="92" t="str">
@@ -10398,19 +10468,19 @@
       </c>
       <c r="CP21" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ21" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>70.444444444444443</v>
       </c>
       <c r="CR21" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>70.44</v>
       </c>
       <c r="CS21" s="104">
         <f t="shared" si="41"/>
-        <v>43.680000000000007</v>
+        <v>62.715999999999994</v>
       </c>
       <c r="CT21" s="104">
         <f>IFERROR(VLOOKUP(CS21,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10514,10 +10584,12 @@
         <f t="shared" si="9"/>
         <v>10.777777777777779</v>
       </c>
-      <c r="AO22" s="108"/>
+      <c r="AO22" s="108">
+        <v>95</v>
+      </c>
       <c r="AP22" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AQ22" s="108"/>
       <c r="AR22" s="92" t="str">
@@ -10531,14 +10603,14 @@
       </c>
       <c r="AU22" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AV22" s="108">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AW22" s="92">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AX22" s="108"/>
       <c r="AY22" s="92" t="str">
@@ -10552,34 +10624,38 @@
       </c>
       <c r="BB22" s="95">
         <f t="shared" si="17"/>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BC22" s="98">
         <f t="shared" si="18"/>
-        <v>36.777777777777779</v>
+        <v>45.777777777777779</v>
       </c>
       <c r="BD22" s="98">
         <f t="shared" si="19"/>
-        <v>36.78</v>
-      </c>
-      <c r="BE22" s="108"/>
+        <v>45.78</v>
+      </c>
+      <c r="BE22" s="108">
+        <v>85</v>
+      </c>
       <c r="BF22" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BG22" s="108"/>
       <c r="BH22" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI22" s="108"/>
+      <c r="BI22" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ22" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK22" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="BL22" s="108">
         <v>100</v>
@@ -10643,9 +10719,9 @@
         <v/>
       </c>
       <c r="CD22" s="107"/>
-      <c r="CE22" s="92" t="str">
+      <c r="CE22" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF22" s="107"/>
       <c r="CG22" s="92" t="str">
@@ -10674,19 +10750,19 @@
       </c>
       <c r="CP22" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ22" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>70.277777777777771</v>
       </c>
       <c r="CR22" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>70.28</v>
       </c>
       <c r="CS22" s="104">
         <f t="shared" si="41"/>
-        <v>41.34</v>
+        <v>60.480000000000004</v>
       </c>
       <c r="CT22" s="104">
         <f>IFERROR(VLOOKUP(CS22,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -10790,10 +10866,12 @@
         <f t="shared" si="9"/>
         <v>13.222222222222221</v>
       </c>
-      <c r="AO23" s="108"/>
+      <c r="AO23" s="108">
+        <v>90</v>
+      </c>
       <c r="AP23" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ23" s="108"/>
       <c r="AR23" s="92" t="str">
@@ -10807,7 +10885,7 @@
       </c>
       <c r="AU23" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV23" s="108">
         <v>90</v>
@@ -10832,30 +10910,34 @@
       </c>
       <c r="BC23" s="98">
         <f t="shared" si="18"/>
-        <v>41.12222222222222</v>
+        <v>50.12222222222222</v>
       </c>
       <c r="BD23" s="98">
         <f t="shared" si="19"/>
-        <v>41.12</v>
-      </c>
-      <c r="BE23" s="108"/>
+        <v>50.12</v>
+      </c>
+      <c r="BE23" s="108">
+        <v>76</v>
+      </c>
       <c r="BF23" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="BG23" s="108"/>
       <c r="BH23" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI23" s="108"/>
+      <c r="BI23" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ23" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK23" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="BL23" s="108">
         <v>100</v>
@@ -10919,9 +11001,9 @@
         <v/>
       </c>
       <c r="CD23" s="107"/>
-      <c r="CE23" s="92" t="str">
+      <c r="CE23" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF23" s="107"/>
       <c r="CG23" s="92" t="str">
@@ -10950,19 +11032,19 @@
       </c>
       <c r="CP23" s="103">
         <f t="shared" si="38"/>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="CQ23" s="99">
         <f t="shared" si="39"/>
-        <v>46.25</v>
+        <v>70.444444444444443</v>
       </c>
       <c r="CR23" s="99">
         <f t="shared" si="40"/>
-        <v>46.25</v>
+        <v>70.44</v>
       </c>
       <c r="CS23" s="104">
         <f t="shared" ref="CS23:CS70" si="45">IFERROR(((CR23*0.6)+(BD23*0.4)),"")</f>
-        <v>44.198</v>
+        <v>62.311999999999998</v>
       </c>
       <c r="CT23" s="104">
         <f>IFERROR(VLOOKUP(CS23,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11066,10 +11148,12 @@
         <f t="shared" si="9"/>
         <v>15.888888888888889</v>
       </c>
-      <c r="AO24" s="108"/>
+      <c r="AO24" s="108">
+        <v>90</v>
+      </c>
       <c r="AP24" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ24" s="108"/>
       <c r="AR24" s="92" t="str">
@@ -11083,14 +11167,14 @@
       </c>
       <c r="AU24" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV24" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW24" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX24" s="108"/>
       <c r="AY24" s="92" t="str">
@@ -11104,15 +11188,15 @@
       </c>
       <c r="BB24" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC24" s="98">
         <f t="shared" si="18"/>
-        <v>49.18888888888889</v>
+        <v>59.188888888888883</v>
       </c>
       <c r="BD24" s="98">
         <f t="shared" si="19"/>
-        <v>49.19</v>
+        <v>59.19</v>
       </c>
       <c r="BE24" s="108"/>
       <c r="BF24" s="92">
@@ -11124,14 +11208,16 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI24" s="108"/>
+      <c r="BI24" s="108">
+        <v>100</v>
+      </c>
       <c r="BJ24" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK24" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="BL24" s="108">
         <v>100</v>
@@ -11195,9 +11281,9 @@
         <v/>
       </c>
       <c r="CD24" s="107"/>
-      <c r="CE24" s="92" t="str">
+      <c r="CE24" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF24" s="107"/>
       <c r="CG24" s="92" t="str">
@@ -11226,19 +11312,19 @@
       </c>
       <c r="CP24" s="103">
         <f t="shared" si="38"/>
-        <v>46.875</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="CQ24" s="99">
         <f t="shared" si="39"/>
-        <v>46.875</v>
+        <v>58.333333333333329</v>
       </c>
       <c r="CR24" s="99">
         <f t="shared" si="40"/>
-        <v>46.88</v>
+        <v>58.33</v>
       </c>
       <c r="CS24" s="104">
         <f t="shared" si="45"/>
-        <v>47.804000000000002</v>
+        <v>58.673999999999999</v>
       </c>
       <c r="CT24" s="104">
         <f>IFERROR(VLOOKUP(CS24,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11342,10 +11428,12 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="AO25" s="108"/>
+      <c r="AO25" s="108">
+        <v>90</v>
+      </c>
       <c r="AP25" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ25" s="108"/>
       <c r="AR25" s="92" t="str">
@@ -11359,14 +11447,14 @@
       </c>
       <c r="AU25" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV25" s="108">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW25" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AX25" s="108"/>
       <c r="AY25" s="92" t="str">
@@ -11380,15 +11468,15 @@
       </c>
       <c r="BB25" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC25" s="98">
         <f t="shared" si="18"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="BD25" s="98">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="BE25" s="108"/>
       <c r="BF25" s="92">
@@ -11400,14 +11488,16 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI25" s="108"/>
+      <c r="BI25" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ25" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK25" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="BL25" s="108">
         <v>100</v>
@@ -11471,9 +11561,9 @@
         <v/>
       </c>
       <c r="CD25" s="107"/>
-      <c r="CE25" s="92" t="str">
+      <c r="CE25" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF25" s="107"/>
       <c r="CG25" s="92" t="str">
@@ -11502,19 +11592,19 @@
       </c>
       <c r="CP25" s="103">
         <f t="shared" si="38"/>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="CQ25" s="99">
         <f t="shared" si="39"/>
-        <v>46.25</v>
+        <v>57.777777777777786</v>
       </c>
       <c r="CR25" s="99">
         <f t="shared" si="40"/>
-        <v>46.25</v>
+        <v>57.78</v>
       </c>
       <c r="CS25" s="104">
         <f t="shared" si="45"/>
-        <v>42.15</v>
+        <v>52.268000000000001</v>
       </c>
       <c r="CT25" s="104">
         <f>IFERROR(VLOOKUP(CS25,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11618,10 +11708,12 @@
         <f t="shared" si="9"/>
         <v>13.444444444444443</v>
       </c>
-      <c r="AO26" s="108"/>
+      <c r="AO26" s="108">
+        <v>90</v>
+      </c>
       <c r="AP26" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ26" s="108"/>
       <c r="AR26" s="92" t="str">
@@ -11635,14 +11727,14 @@
       </c>
       <c r="AU26" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV26" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW26" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX26" s="108"/>
       <c r="AY26" s="92" t="str">
@@ -11656,34 +11748,38 @@
       </c>
       <c r="BB26" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC26" s="98">
         <f t="shared" si="18"/>
-        <v>44.044444444444437</v>
+        <v>54.044444444444437</v>
       </c>
       <c r="BD26" s="98">
         <f t="shared" si="19"/>
-        <v>44.04</v>
-      </c>
-      <c r="BE26" s="108"/>
+        <v>54.04</v>
+      </c>
+      <c r="BE26" s="108">
+        <v>77</v>
+      </c>
       <c r="BF26" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="BG26" s="108"/>
       <c r="BH26" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI26" s="108"/>
+      <c r="BI26" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ26" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK26" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="BL26" s="108">
         <v>100</v>
@@ -11747,9 +11843,9 @@
         <v/>
       </c>
       <c r="CD26" s="107"/>
-      <c r="CE26" s="92" t="str">
+      <c r="CE26" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF26" s="107"/>
       <c r="CG26" s="92" t="str">
@@ -11778,19 +11874,19 @@
       </c>
       <c r="CP26" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ26" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>68.944444444444443</v>
       </c>
       <c r="CR26" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>68.94</v>
       </c>
       <c r="CS26" s="104">
         <f t="shared" si="45"/>
-        <v>44.244</v>
+        <v>62.98</v>
       </c>
       <c r="CT26" s="104">
         <f>IFERROR(VLOOKUP(CS26,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -11894,10 +11990,12 @@
         <f t="shared" si="9"/>
         <v>12.333333333333334</v>
       </c>
-      <c r="AO27" s="108"/>
+      <c r="AO27" s="108">
+        <v>90</v>
+      </c>
       <c r="AP27" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ27" s="108"/>
       <c r="AR27" s="92" t="str">
@@ -11911,14 +12009,14 @@
       </c>
       <c r="AU27" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV27" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW27" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX27" s="108"/>
       <c r="AY27" s="92" t="str">
@@ -11932,34 +12030,38 @@
       </c>
       <c r="BB27" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC27" s="98">
         <f t="shared" si="18"/>
-        <v>43.533333333333331</v>
+        <v>53.533333333333331</v>
       </c>
       <c r="BD27" s="98">
         <f t="shared" si="19"/>
-        <v>43.53</v>
-      </c>
-      <c r="BE27" s="108"/>
+        <v>53.53</v>
+      </c>
+      <c r="BE27" s="108">
+        <v>83</v>
+      </c>
       <c r="BF27" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="BG27" s="108"/>
       <c r="BH27" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI27" s="108"/>
+      <c r="BI27" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ27" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK27" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="BL27" s="108">
         <v>100</v>
@@ -12023,9 +12125,9 @@
         <v/>
       </c>
       <c r="CD27" s="107"/>
-      <c r="CE27" s="92" t="str">
+      <c r="CE27" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF27" s="107"/>
       <c r="CG27" s="92" t="str">
@@ -12054,19 +12156,19 @@
       </c>
       <c r="CP27" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ27" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>69.944444444444443</v>
       </c>
       <c r="CR27" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>69.94</v>
       </c>
       <c r="CS27" s="104">
         <f t="shared" si="45"/>
-        <v>44.040000000000006</v>
+        <v>63.376000000000005</v>
       </c>
       <c r="CT27" s="104">
         <f>IFERROR(VLOOKUP(CS27,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12168,10 +12270,12 @@
         <f t="shared" si="9"/>
         <v>7.1111111111111107</v>
       </c>
-      <c r="AO28" s="108"/>
+      <c r="AO28" s="108">
+        <v>90</v>
+      </c>
       <c r="AP28" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ28" s="108"/>
       <c r="AR28" s="92" t="str">
@@ -12185,14 +12289,14 @@
       </c>
       <c r="AU28" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV28" s="108">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AW28" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AX28" s="108"/>
       <c r="AY28" s="92" t="str">
@@ -12206,34 +12310,38 @@
       </c>
       <c r="BB28" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BC28" s="98">
         <f t="shared" si="18"/>
-        <v>31.111111111111111</v>
+        <v>40.611111111111114</v>
       </c>
       <c r="BD28" s="98">
         <f t="shared" si="19"/>
-        <v>31.11</v>
-      </c>
-      <c r="BE28" s="108"/>
+        <v>40.61</v>
+      </c>
+      <c r="BE28" s="108">
+        <v>77</v>
+      </c>
       <c r="BF28" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="BG28" s="108"/>
       <c r="BH28" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI28" s="108"/>
+      <c r="BI28" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ28" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK28" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="BL28" s="108">
         <v>100</v>
@@ -12297,9 +12405,9 @@
         <v/>
       </c>
       <c r="CD28" s="107"/>
-      <c r="CE28" s="92" t="str">
+      <c r="CE28" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF28" s="107"/>
       <c r="CG28" s="92" t="str">
@@ -12328,19 +12436,19 @@
       </c>
       <c r="CP28" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ28" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>68.944444444444443</v>
       </c>
       <c r="CR28" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>68.94</v>
       </c>
       <c r="CS28" s="104">
         <f t="shared" si="45"/>
-        <v>39.072000000000003</v>
+        <v>57.607999999999997</v>
       </c>
       <c r="CT28" s="104">
         <f>IFERROR(VLOOKUP(CS28,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12444,10 +12552,12 @@
         <f t="shared" si="9"/>
         <v>14.333333333333336</v>
       </c>
-      <c r="AO29" s="108"/>
+      <c r="AO29" s="108">
+        <v>85</v>
+      </c>
       <c r="AP29" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AQ29" s="108"/>
       <c r="AR29" s="92" t="str">
@@ -12461,14 +12571,14 @@
       </c>
       <c r="AU29" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AV29" s="108">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AW29" s="92">
         <f t="shared" si="14"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AX29" s="108"/>
       <c r="AY29" s="92" t="str">
@@ -12482,15 +12592,15 @@
       </c>
       <c r="BB29" s="95">
         <f t="shared" si="17"/>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BC29" s="98">
         <f t="shared" si="18"/>
-        <v>44.433333333333337</v>
+        <v>54.433333333333337</v>
       </c>
       <c r="BD29" s="98">
         <f t="shared" si="19"/>
-        <v>44.43</v>
+        <v>54.43</v>
       </c>
       <c r="BE29" s="108"/>
       <c r="BF29" s="92">
@@ -12502,14 +12612,16 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI29" s="108"/>
+      <c r="BI29" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ29" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK29" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="BL29" s="108">
         <v>100</v>
@@ -12573,9 +12685,9 @@
         <v/>
       </c>
       <c r="CD29" s="107"/>
-      <c r="CE29" s="92" t="str">
+      <c r="CE29" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF29" s="107"/>
       <c r="CG29" s="92" t="str">
@@ -12604,19 +12716,19 @@
       </c>
       <c r="CP29" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ29" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>56.111111111111114</v>
       </c>
       <c r="CR29" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>56.11</v>
       </c>
       <c r="CS29" s="104">
         <f t="shared" si="45"/>
-        <v>44.400000000000006</v>
+        <v>55.438000000000002</v>
       </c>
       <c r="CT29" s="104">
         <f>IFERROR(VLOOKUP(CS29,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12720,10 +12832,12 @@
         <f t="shared" si="9"/>
         <v>13.888888888888889</v>
       </c>
-      <c r="AO30" s="108"/>
+      <c r="AO30" s="108">
+        <v>90</v>
+      </c>
       <c r="AP30" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ30" s="108"/>
       <c r="AR30" s="92" t="str">
@@ -12737,14 +12851,14 @@
       </c>
       <c r="AU30" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV30" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW30" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX30" s="108"/>
       <c r="AY30" s="92" t="str">
@@ -12758,34 +12872,38 @@
       </c>
       <c r="BB30" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC30" s="98">
         <f t="shared" si="18"/>
-        <v>46.588888888888889</v>
+        <v>56.588888888888889</v>
       </c>
       <c r="BD30" s="98">
         <f t="shared" si="19"/>
-        <v>46.59</v>
-      </c>
-      <c r="BE30" s="108"/>
+        <v>56.59</v>
+      </c>
+      <c r="BE30" s="108">
+        <v>83</v>
+      </c>
       <c r="BF30" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="BG30" s="108"/>
       <c r="BH30" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI30" s="108"/>
+      <c r="BI30" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ30" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK30" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="BL30" s="108">
         <v>100</v>
@@ -12849,9 +12967,9 @@
         <v/>
       </c>
       <c r="CD30" s="107"/>
-      <c r="CE30" s="92" t="str">
+      <c r="CE30" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF30" s="107"/>
       <c r="CG30" s="92" t="str">
@@ -12880,19 +12998,19 @@
       </c>
       <c r="CP30" s="103">
         <f t="shared" si="38"/>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="CQ30" s="99">
         <f t="shared" si="39"/>
-        <v>46.25</v>
+        <v>71.611111111111114</v>
       </c>
       <c r="CR30" s="99">
         <f t="shared" si="40"/>
-        <v>46.25</v>
+        <v>71.61</v>
       </c>
       <c r="CS30" s="104">
         <f t="shared" si="45"/>
-        <v>46.386000000000003</v>
+        <v>65.602000000000004</v>
       </c>
       <c r="CT30" s="104">
         <f>IFERROR(VLOOKUP(CS30,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -12996,10 +13114,12 @@
         <f t="shared" si="9"/>
         <v>6.8888888888888893</v>
       </c>
-      <c r="AO31" s="108"/>
+      <c r="AO31" s="108">
+        <v>90</v>
+      </c>
       <c r="AP31" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ31" s="108"/>
       <c r="AR31" s="92" t="str">
@@ -13013,14 +13133,14 @@
       </c>
       <c r="AU31" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV31" s="108">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW31" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AX31" s="108"/>
       <c r="AY31" s="92" t="str">
@@ -13034,15 +13154,15 @@
       </c>
       <c r="BB31" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="BC31" s="98">
         <f t="shared" si="18"/>
-        <v>25.488888888888887</v>
+        <v>32.988888888888887</v>
       </c>
       <c r="BD31" s="98">
         <f t="shared" si="19"/>
-        <v>25.49</v>
+        <v>32.99</v>
       </c>
       <c r="BE31" s="108"/>
       <c r="BF31" s="92">
@@ -13054,14 +13174,16 @@
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI31" s="108"/>
+      <c r="BI31" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ31" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK31" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="BL31" s="108">
         <v>100</v>
@@ -13125,9 +13247,9 @@
         <v/>
       </c>
       <c r="CD31" s="107"/>
-      <c r="CE31" s="92" t="str">
+      <c r="CE31" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF31" s="107"/>
       <c r="CG31" s="92" t="str">
@@ -13156,19 +13278,19 @@
       </c>
       <c r="CP31" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ31" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>56.111111111111114</v>
       </c>
       <c r="CR31" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>56.11</v>
       </c>
       <c r="CS31" s="104">
         <f t="shared" si="45"/>
-        <v>36.823999999999998</v>
+        <v>46.861999999999995</v>
       </c>
       <c r="CT31" s="104">
         <f>IFERROR(VLOOKUP(CS31,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13272,10 +13394,12 @@
         <f t="shared" si="9"/>
         <v>15.555555555555555</v>
       </c>
-      <c r="AO32" s="108"/>
+      <c r="AO32" s="108">
+        <v>90</v>
+      </c>
       <c r="AP32" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ32" s="108"/>
       <c r="AR32" s="92" t="str">
@@ -13289,14 +13413,14 @@
       </c>
       <c r="AU32" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV32" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW32" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX32" s="108"/>
       <c r="AY32" s="92" t="str">
@@ -13310,34 +13434,38 @@
       </c>
       <c r="BB32" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC32" s="98">
         <f t="shared" si="18"/>
-        <v>46.455555555555556</v>
+        <v>56.455555555555556</v>
       </c>
       <c r="BD32" s="98">
         <f t="shared" si="19"/>
-        <v>46.46</v>
-      </c>
-      <c r="BE32" s="108"/>
+        <v>56.46</v>
+      </c>
+      <c r="BE32" s="108">
+        <v>85</v>
+      </c>
       <c r="BF32" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="BG32" s="108"/>
       <c r="BH32" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI32" s="108"/>
+      <c r="BI32" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ32" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK32" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="BL32" s="108">
         <v>100</v>
@@ -13401,9 +13529,9 @@
         <v/>
       </c>
       <c r="CD32" s="107"/>
-      <c r="CE32" s="92" t="str">
+      <c r="CE32" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF32" s="107"/>
       <c r="CG32" s="92" t="str">
@@ -13432,19 +13560,19 @@
       </c>
       <c r="CP32" s="103">
         <f t="shared" si="38"/>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="CQ32" s="99">
         <f t="shared" si="39"/>
-        <v>44.375</v>
+        <v>70.277777777777771</v>
       </c>
       <c r="CR32" s="99">
         <f t="shared" si="40"/>
-        <v>44.38</v>
+        <v>70.28</v>
       </c>
       <c r="CS32" s="104">
         <f t="shared" si="45"/>
-        <v>45.212000000000003</v>
+        <v>64.75200000000001</v>
       </c>
       <c r="CT32" s="104">
         <f>IFERROR(VLOOKUP(CS32,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13548,10 +13676,12 @@
         <f t="shared" si="9"/>
         <v>13.666666666666666</v>
       </c>
-      <c r="AO33" s="108"/>
+      <c r="AO33" s="108">
+        <v>90</v>
+      </c>
       <c r="AP33" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ33" s="108"/>
       <c r="AR33" s="92" t="str">
@@ -13565,14 +13695,14 @@
       </c>
       <c r="AU33" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV33" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW33" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX33" s="108"/>
       <c r="AY33" s="92" t="str">
@@ -13586,34 +13716,38 @@
       </c>
       <c r="BB33" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC33" s="98">
         <f t="shared" si="18"/>
-        <v>43.666666666666664</v>
+        <v>53.666666666666664</v>
       </c>
       <c r="BD33" s="98">
         <f t="shared" si="19"/>
-        <v>43.67</v>
-      </c>
-      <c r="BE33" s="108"/>
+        <v>53.67</v>
+      </c>
+      <c r="BE33" s="108">
+        <v>80</v>
+      </c>
       <c r="BF33" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="BG33" s="108"/>
       <c r="BH33" s="92">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="BI33" s="108"/>
+      <c r="BI33" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ33" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK33" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BL33" s="108">
         <v>100</v>
@@ -13677,9 +13811,9 @@
         <v/>
       </c>
       <c r="CD33" s="107"/>
-      <c r="CE33" s="92" t="str">
+      <c r="CE33" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF33" s="107"/>
       <c r="CG33" s="92" t="str">
@@ -13708,19 +13842,19 @@
       </c>
       <c r="CP33" s="103">
         <f t="shared" si="38"/>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="CQ33" s="99">
         <f t="shared" si="39"/>
-        <v>46.25</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="CR33" s="99">
         <f t="shared" si="40"/>
-        <v>46.25</v>
+        <v>71.11</v>
       </c>
       <c r="CS33" s="104">
         <f t="shared" si="45"/>
-        <v>45.218000000000004</v>
+        <v>64.134</v>
       </c>
       <c r="CT33" s="104">
         <f>IFERROR(VLOOKUP(CS33,REGISTRATION!$P$22:$Q$32,2),"")</f>
@@ -13756,15 +13890,15 @@
         <v>16.2</v>
       </c>
       <c r="G34" s="108">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="H34" s="92">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I34" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J34" s="108">
         <v>14</v>
@@ -13822,10 +13956,12 @@
         <f t="shared" si="9"/>
         <v>7.5555555555555562</v>
       </c>
-      <c r="AO34" s="108"/>
+      <c r="AO34" s="108">
+        <v>90</v>
+      </c>
       <c r="AP34" s="92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AQ34" s="108"/>
       <c r="AR34" s="92" t="str">
@@ -13839,14 +13975,14 @@
       </c>
       <c r="AU34" s="95">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV34" s="108">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW34" s="92">
         <f t="shared" si="14"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AX34" s="108"/>
       <c r="AY34" s="92" t="str">
@@ -13860,34 +13996,40 @@
       </c>
       <c r="BB34" s="95">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC34" s="98">
         <f t="shared" si="18"/>
-        <v>32.75555555555556</v>
+        <v>63.75555555555556</v>
       </c>
       <c r="BD34" s="98">
         <f t="shared" si="19"/>
-        <v>32.76</v>
-      </c>
-      <c r="BE34" s="108"/>
+        <v>63.76</v>
+      </c>
+      <c r="BE34" s="108">
+        <v>85</v>
+      </c>
       <c r="BF34" s="92">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="BG34" s="108"/>
+        <v>85</v>
+      </c>
+      <c r="BG34" s="108">
+        <v>100</v>
+      </c>
       <c r="BH34" s="92">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="BI34" s="108"/>
+        <v>100</v>
+      </c>
+      <c r="BI34" s="107">
+        <v>100</v>
+      </c>
       <c r="BJ34" s="92">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BK34" s="103">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="BL34" s="108">
         <v>85</v>
@@ -13951,9 +14093,9 @@
         <v/>
       </c>
       <c r="CD34" s="107"/>
-      <c r="CE34" s="92" t="str">
+      <c r="CE34" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF34" s="107"/>
       <c r="CG34" s="92" t="str">
@@ -13982,27 +14124,27 @@
       </c>
       <c r="CP34" s="103">
         <f t="shared" si="38"/>
-        <v>43.4375</v>
+        <v>38.611111111111114</v>
       </c>
       <c r="CQ34" s="99">
         <f t="shared" si="39"/>
-        <v>43.4375</v>
+        <v>86.111111111111114</v>
       </c>
       <c r="CR34" s="99">
         <f t="shared" si="40"/>
-        <v>43.44</v>
+        <v>86.11</v>
       </c>
       <c r="CS34" s="104">
         <f t="shared" si="45"/>
-        <v>39.167999999999992</v>
+        <v>77.17</v>
       </c>
       <c r="CT34" s="104">
         <f>IFERROR(VLOOKUP(CS34,REGISTRATION!$P$22:$Q$32,2),"")</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="CU34" s="93" t="str">
         <f t="shared" si="42"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="35" spans="1:99">
@@ -14199,9 +14341,9 @@
         <v/>
       </c>
       <c r="CD35" s="107"/>
-      <c r="CE35" s="92" t="str">
+      <c r="CE35" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF35" s="107"/>
       <c r="CG35" s="92" t="str">
@@ -14447,9 +14589,9 @@
         <v/>
       </c>
       <c r="CD36" s="107"/>
-      <c r="CE36" s="92" t="str">
+      <c r="CE36" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF36" s="107"/>
       <c r="CG36" s="92" t="str">
@@ -14695,9 +14837,9 @@
         <v/>
       </c>
       <c r="CD37" s="107"/>
-      <c r="CE37" s="92" t="str">
+      <c r="CE37" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF37" s="107"/>
       <c r="CG37" s="92" t="str">
@@ -14943,9 +15085,9 @@
         <v/>
       </c>
       <c r="CD38" s="107"/>
-      <c r="CE38" s="92" t="str">
+      <c r="CE38" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF38" s="107"/>
       <c r="CG38" s="92" t="str">
@@ -15191,9 +15333,9 @@
         <v/>
       </c>
       <c r="CD39" s="107"/>
-      <c r="CE39" s="92" t="str">
+      <c r="CE39" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF39" s="107"/>
       <c r="CG39" s="92" t="str">
@@ -15439,9 +15581,9 @@
         <v/>
       </c>
       <c r="CD40" s="107"/>
-      <c r="CE40" s="92" t="str">
+      <c r="CE40" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF40" s="107"/>
       <c r="CG40" s="92" t="str">
@@ -15687,9 +15829,9 @@
         <v/>
       </c>
       <c r="CD41" s="107"/>
-      <c r="CE41" s="92" t="str">
+      <c r="CE41" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF41" s="107"/>
       <c r="CG41" s="92" t="str">
@@ -15935,9 +16077,9 @@
         <v/>
       </c>
       <c r="CD42" s="107"/>
-      <c r="CE42" s="92" t="str">
+      <c r="CE42" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF42" s="107"/>
       <c r="CG42" s="92" t="str">
@@ -16183,9 +16325,9 @@
         <v/>
       </c>
       <c r="CD43" s="107"/>
-      <c r="CE43" s="92" t="str">
+      <c r="CE43" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF43" s="107"/>
       <c r="CG43" s="92" t="str">
@@ -16431,9 +16573,9 @@
         <v/>
       </c>
       <c r="CD44" s="107"/>
-      <c r="CE44" s="92" t="str">
+      <c r="CE44" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF44" s="107"/>
       <c r="CG44" s="92" t="str">
@@ -16679,9 +16821,9 @@
         <v/>
       </c>
       <c r="CD45" s="107"/>
-      <c r="CE45" s="92" t="str">
+      <c r="CE45" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF45" s="107"/>
       <c r="CG45" s="92" t="str">
@@ -16927,9 +17069,9 @@
         <v/>
       </c>
       <c r="CD46" s="107"/>
-      <c r="CE46" s="92" t="str">
+      <c r="CE46" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF46" s="107"/>
       <c r="CG46" s="92" t="str">
@@ -17175,9 +17317,9 @@
         <v/>
       </c>
       <c r="CD47" s="107"/>
-      <c r="CE47" s="92" t="str">
+      <c r="CE47" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF47" s="107"/>
       <c r="CG47" s="92" t="str">
@@ -17423,9 +17565,9 @@
         <v/>
       </c>
       <c r="CD48" s="107"/>
-      <c r="CE48" s="92" t="str">
+      <c r="CE48" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF48" s="107"/>
       <c r="CG48" s="92" t="str">
@@ -17671,9 +17813,9 @@
         <v/>
       </c>
       <c r="CD49" s="107"/>
-      <c r="CE49" s="92" t="str">
+      <c r="CE49" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF49" s="107"/>
       <c r="CG49" s="92" t="str">
@@ -17919,9 +18061,9 @@
         <v/>
       </c>
       <c r="CD50" s="107"/>
-      <c r="CE50" s="92" t="str">
+      <c r="CE50" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF50" s="107"/>
       <c r="CG50" s="92" t="str">
@@ -18167,9 +18309,9 @@
         <v/>
       </c>
       <c r="CD51" s="107"/>
-      <c r="CE51" s="92" t="str">
+      <c r="CE51" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF51" s="107"/>
       <c r="CG51" s="92" t="str">
@@ -18415,9 +18557,9 @@
         <v/>
       </c>
       <c r="CD52" s="107"/>
-      <c r="CE52" s="92" t="str">
+      <c r="CE52" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF52" s="107"/>
       <c r="CG52" s="92" t="str">
@@ -18663,9 +18805,9 @@
         <v/>
       </c>
       <c r="CD53" s="107"/>
-      <c r="CE53" s="92" t="str">
+      <c r="CE53" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF53" s="107"/>
       <c r="CG53" s="92" t="str">
@@ -18911,9 +19053,9 @@
         <v/>
       </c>
       <c r="CD54" s="107"/>
-      <c r="CE54" s="92" t="str">
+      <c r="CE54" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF54" s="107"/>
       <c r="CG54" s="92" t="str">
@@ -19159,9 +19301,9 @@
         <v/>
       </c>
       <c r="CD55" s="107"/>
-      <c r="CE55" s="92" t="str">
+      <c r="CE55" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF55" s="107"/>
       <c r="CG55" s="92" t="str">
@@ -19407,9 +19549,9 @@
         <v/>
       </c>
       <c r="CD56" s="107"/>
-      <c r="CE56" s="92" t="str">
+      <c r="CE56" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF56" s="107"/>
       <c r="CG56" s="92" t="str">
@@ -19655,9 +19797,9 @@
         <v/>
       </c>
       <c r="CD57" s="107"/>
-      <c r="CE57" s="92" t="str">
+      <c r="CE57" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF57" s="107"/>
       <c r="CG57" s="92" t="str">
@@ -19903,9 +20045,9 @@
         <v/>
       </c>
       <c r="CD58" s="107"/>
-      <c r="CE58" s="92" t="str">
+      <c r="CE58" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF58" s="107"/>
       <c r="CG58" s="92" t="str">
@@ -20151,9 +20293,9 @@
         <v/>
       </c>
       <c r="CD59" s="107"/>
-      <c r="CE59" s="92" t="str">
+      <c r="CE59" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF59" s="107"/>
       <c r="CG59" s="92" t="str">
@@ -20399,9 +20541,9 @@
         <v/>
       </c>
       <c r="CD60" s="107"/>
-      <c r="CE60" s="92" t="str">
+      <c r="CE60" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF60" s="107"/>
       <c r="CG60" s="92" t="str">
@@ -20647,9 +20789,9 @@
         <v/>
       </c>
       <c r="CD61" s="107"/>
-      <c r="CE61" s="92" t="str">
+      <c r="CE61" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF61" s="107"/>
       <c r="CG61" s="92" t="str">
@@ -20895,9 +21037,9 @@
         <v/>
       </c>
       <c r="CD62" s="107"/>
-      <c r="CE62" s="92" t="str">
+      <c r="CE62" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF62" s="107"/>
       <c r="CG62" s="92" t="str">
@@ -21143,9 +21285,9 @@
         <v/>
       </c>
       <c r="CD63" s="107"/>
-      <c r="CE63" s="92" t="str">
+      <c r="CE63" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF63" s="107"/>
       <c r="CG63" s="92" t="str">
@@ -21391,9 +21533,9 @@
         <v/>
       </c>
       <c r="CD64" s="107"/>
-      <c r="CE64" s="92" t="str">
+      <c r="CE64" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF64" s="107"/>
       <c r="CG64" s="92" t="str">
@@ -21639,9 +21781,9 @@
         <v/>
       </c>
       <c r="CD65" s="107"/>
-      <c r="CE65" s="92" t="str">
+      <c r="CE65" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF65" s="107"/>
       <c r="CG65" s="92" t="str">
@@ -21887,9 +22029,9 @@
         <v/>
       </c>
       <c r="CD66" s="107"/>
-      <c r="CE66" s="92" t="str">
+      <c r="CE66" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF66" s="107"/>
       <c r="CG66" s="92" t="str">
@@ -22135,9 +22277,9 @@
         <v/>
       </c>
       <c r="CD67" s="107"/>
-      <c r="CE67" s="92" t="str">
+      <c r="CE67" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF67" s="107"/>
       <c r="CG67" s="92" t="str">
@@ -22383,9 +22525,9 @@
         <v/>
       </c>
       <c r="CD68" s="107"/>
-      <c r="CE68" s="92" t="str">
+      <c r="CE68" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF68" s="107"/>
       <c r="CG68" s="92" t="str">
@@ -22631,9 +22773,9 @@
         <v/>
       </c>
       <c r="CD69" s="107"/>
-      <c r="CE69" s="92" t="str">
+      <c r="CE69" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF69" s="107"/>
       <c r="CG69" s="92" t="str">
@@ -22879,9 +23021,9 @@
         <v/>
       </c>
       <c r="CD70" s="107"/>
-      <c r="CE70" s="92" t="str">
+      <c r="CE70" s="92">
         <f t="shared" si="32"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="CF70" s="107"/>
       <c r="CG70" s="92" t="str">
@@ -22934,8 +23076,89 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="98">
+    <mergeCell ref="CS6:CS9"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:BD5"/>
+    <mergeCell ref="BE5:CR5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:AY7"/>
+    <mergeCell ref="AZ7:BA7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="CF7:CG7"/>
+    <mergeCell ref="CH7:CI7"/>
+    <mergeCell ref="CS5:CU5"/>
+    <mergeCell ref="BL7:BM7"/>
+    <mergeCell ref="BN7:BO7"/>
+    <mergeCell ref="BP7:BQ7"/>
+    <mergeCell ref="BR7:BS7"/>
+    <mergeCell ref="CL7:CM7"/>
+    <mergeCell ref="CN7:CO7"/>
+    <mergeCell ref="BT7:BU7"/>
+    <mergeCell ref="BV7:BW7"/>
+    <mergeCell ref="BX7:BY7"/>
+    <mergeCell ref="BZ7:CA7"/>
+    <mergeCell ref="CB7:CC7"/>
+    <mergeCell ref="CJ7:CK7"/>
+    <mergeCell ref="CD7:CE7"/>
+    <mergeCell ref="CQ6:CR8"/>
+    <mergeCell ref="CN8:CO8"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BB6"/>
+    <mergeCell ref="CU6:CU9"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="BC6:BD8"/>
+    <mergeCell ref="BE6:BK6"/>
+    <mergeCell ref="BL6:CP6"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="CT6:CT9"/>
+    <mergeCell ref="BE7:BF7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="BL8:BM8"/>
+    <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AL8:AM8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="AQ8:AR8"/>
+    <mergeCell ref="AS8:AT8"/>
+    <mergeCell ref="BE8:BF8"/>
+    <mergeCell ref="AZ8:BA8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="BZ8:CA8"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="J6:AN6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="AF8:AG8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="AJ8:AK8"/>
     <mergeCell ref="AV8:AW8"/>
@@ -22952,88 +23175,6 @@
     <mergeCell ref="BT8:BU8"/>
     <mergeCell ref="BV8:BW8"/>
     <mergeCell ref="BX8:BY8"/>
-    <mergeCell ref="BZ8:CA8"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="J6:AN6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="BL8:BM8"/>
-    <mergeCell ref="BN8:BO8"/>
-    <mergeCell ref="AL8:AM8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="AQ8:AR8"/>
-    <mergeCell ref="AS8:AT8"/>
-    <mergeCell ref="BE8:BF8"/>
-    <mergeCell ref="AZ8:BA8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BB6"/>
-    <mergeCell ref="CU6:CU9"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="BC6:BD8"/>
-    <mergeCell ref="BE6:BK6"/>
-    <mergeCell ref="BL6:CP6"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="CT6:CT9"/>
-    <mergeCell ref="BE7:BF7"/>
-    <mergeCell ref="CS5:CU5"/>
-    <mergeCell ref="BL7:BM7"/>
-    <mergeCell ref="BN7:BO7"/>
-    <mergeCell ref="BP7:BQ7"/>
-    <mergeCell ref="BR7:BS7"/>
-    <mergeCell ref="CL7:CM7"/>
-    <mergeCell ref="CN7:CO7"/>
-    <mergeCell ref="BT7:BU7"/>
-    <mergeCell ref="BV7:BW7"/>
-    <mergeCell ref="BX7:BY7"/>
-    <mergeCell ref="BZ7:CA7"/>
-    <mergeCell ref="CB7:CC7"/>
-    <mergeCell ref="CJ7:CK7"/>
-    <mergeCell ref="CD7:CE7"/>
-    <mergeCell ref="CQ6:CR8"/>
-    <mergeCell ref="CN8:CO8"/>
-    <mergeCell ref="CS6:CS9"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="D5:BD5"/>
-    <mergeCell ref="BE5:CR5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:AY7"/>
-    <mergeCell ref="AZ7:BA7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="CF7:CG7"/>
-    <mergeCell ref="CH7:CI7"/>
   </mergeCells>
   <conditionalFormatting sqref="CU10:CU70">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -23249,39 +23390,39 @@
       </c>
       <c r="F8" s="52">
         <f>'RAW GRADES'!AU10</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="G8" s="52">
         <f>'RAW GRADES'!BB10</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="H8" s="53">
         <f>'RAW GRADES'!BC10</f>
-        <v>45.277777777777779</v>
+        <v>55.277777777777779</v>
       </c>
       <c r="I8" s="53">
         <f>'RAW GRADES'!BD10</f>
-        <v>45.28</v>
+        <v>55.28</v>
       </c>
       <c r="J8" s="52">
         <f>'RAW GRADES'!BK10</f>
-        <v>0</v>
+        <v>29.666666666666668</v>
       </c>
       <c r="K8" s="52">
         <f>'RAW GRADES'!CP10</f>
-        <v>44.375</v>
+        <v>45</v>
       </c>
       <c r="L8" s="52">
         <f>'RAW GRADES'!CQ10</f>
-        <v>44.375</v>
+        <v>74.666666666666671</v>
       </c>
       <c r="M8" s="54">
         <f>'RAW GRADES'!CR10</f>
-        <v>44.38</v>
+        <v>74.67</v>
       </c>
       <c r="N8" s="55">
         <f>'RAW GRADES'!CS10</f>
-        <v>44.74</v>
+        <v>66.914000000000001</v>
       </c>
       <c r="O8" s="56">
         <f>'RAW GRADES'!CT10</f>
@@ -23314,7 +23455,7 @@
       </c>
       <c r="F9" s="52">
         <f>'RAW GRADES'!AU11</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="52">
         <f>'RAW GRADES'!BB11</f>
@@ -23322,31 +23463,31 @@
       </c>
       <c r="H9" s="53">
         <f>'RAW GRADES'!BC11</f>
-        <v>42.144444444444446</v>
+        <v>52.144444444444446</v>
       </c>
       <c r="I9" s="53">
         <f>'RAW GRADES'!BD11</f>
-        <v>42.14</v>
+        <v>52.14</v>
       </c>
       <c r="J9" s="52">
         <f>'RAW GRADES'!BK11</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K9" s="52">
         <f>'RAW GRADES'!CP11</f>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="L9" s="52">
         <f>'RAW GRADES'!CQ11</f>
-        <v>46.25</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="M9" s="54">
         <f>'RAW GRADES'!CR11</f>
-        <v>46.25</v>
+        <v>71.11</v>
       </c>
       <c r="N9" s="58">
         <f>'RAW GRADES'!CS11</f>
-        <v>44.606000000000002</v>
+        <v>63.521999999999998</v>
       </c>
       <c r="O9" s="56">
         <f>'RAW GRADES'!CT11</f>
@@ -23379,39 +23520,39 @@
       </c>
       <c r="F10" s="52">
         <f>'RAW GRADES'!AU12</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="G10" s="52">
         <f>'RAW GRADES'!BB12</f>
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="H10" s="53">
         <f>'RAW GRADES'!BC12</f>
-        <v>28.74444444444444</v>
+        <v>36.24444444444444</v>
       </c>
       <c r="I10" s="53">
         <f>'RAW GRADES'!BD12</f>
-        <v>28.74</v>
+        <v>36.24</v>
       </c>
       <c r="J10" s="52">
         <f>'RAW GRADES'!BK12</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K10" s="52">
         <f>'RAW GRADES'!CP12</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L10" s="52">
         <f>'RAW GRADES'!CQ12</f>
-        <v>44.375</v>
+        <v>56.111111111111114</v>
       </c>
       <c r="M10" s="54">
         <f>'RAW GRADES'!CR12</f>
-        <v>44.38</v>
+        <v>56.11</v>
       </c>
       <c r="N10" s="58">
         <f>'RAW GRADES'!CS12</f>
-        <v>38.124000000000002</v>
+        <v>48.161999999999999</v>
       </c>
       <c r="O10" s="56">
         <f>'RAW GRADES'!CT12</f>
@@ -23444,39 +23585,39 @@
       </c>
       <c r="F11" s="52">
         <f>'RAW GRADES'!AU13</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G11" s="52">
         <f>'RAW GRADES'!BB13</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H11" s="53">
         <f>'RAW GRADES'!BC13</f>
-        <v>48.344444444444441</v>
+        <v>58.344444444444441</v>
       </c>
       <c r="I11" s="53">
         <f>'RAW GRADES'!BD13</f>
-        <v>48.34</v>
+        <v>58.34</v>
       </c>
       <c r="J11" s="52">
         <f>'RAW GRADES'!BK13</f>
-        <v>0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="K11" s="52">
         <f>'RAW GRADES'!CP13</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L11" s="52">
         <f>'RAW GRADES'!CQ13</f>
-        <v>44.375</v>
+        <v>70.277777777777771</v>
       </c>
       <c r="M11" s="54">
         <f>'RAW GRADES'!CR13</f>
-        <v>44.38</v>
+        <v>70.28</v>
       </c>
       <c r="N11" s="58">
         <f>'RAW GRADES'!CS13</f>
-        <v>45.963999999999999</v>
+        <v>65.504000000000005</v>
       </c>
       <c r="O11" s="56">
         <f>'RAW GRADES'!CT13</f>
@@ -23509,39 +23650,39 @@
       </c>
       <c r="F12" s="52">
         <f>'RAW GRADES'!AU14</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G12" s="52">
         <f>'RAW GRADES'!BB14</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="53">
         <f>'RAW GRADES'!BC14</f>
-        <v>46.377777777777773</v>
+        <v>56.377777777777766</v>
       </c>
       <c r="I12" s="53">
         <f>'RAW GRADES'!BD14</f>
-        <v>46.38</v>
+        <v>56.38</v>
       </c>
       <c r="J12" s="52">
         <f>'RAW GRADES'!BK14</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K12" s="52">
         <f>'RAW GRADES'!CP14</f>
-        <v>47.5</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="L12" s="52">
         <f>'RAW GRADES'!CQ14</f>
-        <v>47.5</v>
+        <v>74.333333333333343</v>
       </c>
       <c r="M12" s="54">
         <f>'RAW GRADES'!CR14</f>
-        <v>47.5</v>
+        <v>74.33</v>
       </c>
       <c r="N12" s="58">
         <f>'RAW GRADES'!CS14</f>
-        <v>47.052000000000007</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="O12" s="56">
         <f>'RAW GRADES'!CT14</f>
@@ -23574,39 +23715,39 @@
       </c>
       <c r="F13" s="52">
         <f>'RAW GRADES'!AU15</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G13" s="52">
         <f>'RAW GRADES'!BB15</f>
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="H13" s="53">
         <f>'RAW GRADES'!BC15</f>
-        <v>32.544444444444444</v>
+        <v>39.544444444444444</v>
       </c>
       <c r="I13" s="53">
         <f>'RAW GRADES'!BD15</f>
-        <v>32.54</v>
+        <v>39.54</v>
       </c>
       <c r="J13" s="52">
         <f>'RAW GRADES'!BK15</f>
-        <v>0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="K13" s="52">
         <f>'RAW GRADES'!CP15</f>
-        <v>40.3125</v>
+        <v>35.833333333333336</v>
       </c>
       <c r="L13" s="52">
         <f>'RAW GRADES'!CQ15</f>
-        <v>40.3125</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="M13" s="54">
         <f>'RAW GRADES'!CR15</f>
-        <v>40.31</v>
+        <v>66.67</v>
       </c>
       <c r="N13" s="58">
         <f>'RAW GRADES'!CS15</f>
-        <v>37.201999999999998</v>
+        <v>55.818000000000005</v>
       </c>
       <c r="O13" s="56">
         <f>'RAW GRADES'!CT15</f>
@@ -23639,39 +23780,39 @@
       </c>
       <c r="F14" s="52">
         <f>'RAW GRADES'!AU16</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G14" s="52">
         <f>'RAW GRADES'!BB16</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" s="53">
         <f>'RAW GRADES'!BC16</f>
-        <v>43.666666666666664</v>
+        <v>53.666666666666664</v>
       </c>
       <c r="I14" s="53">
         <f>'RAW GRADES'!BD16</f>
-        <v>43.67</v>
+        <v>53.67</v>
       </c>
       <c r="J14" s="52">
         <f>'RAW GRADES'!BK16</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K14" s="52">
         <f>'RAW GRADES'!CP16</f>
-        <v>43.4375</v>
+        <v>38.611111111111114</v>
       </c>
       <c r="L14" s="52">
         <f>'RAW GRADES'!CQ16</f>
-        <v>43.4375</v>
+        <v>55.277777777777786</v>
       </c>
       <c r="M14" s="54">
         <f>'RAW GRADES'!CR16</f>
-        <v>43.44</v>
+        <v>55.28</v>
       </c>
       <c r="N14" s="58">
         <f>'RAW GRADES'!CS16</f>
-        <v>43.531999999999996</v>
+        <v>54.636000000000003</v>
       </c>
       <c r="O14" s="56">
         <f>'RAW GRADES'!CT16</f>
@@ -23704,39 +23845,39 @@
       </c>
       <c r="F15" s="52">
         <f>'RAW GRADES'!AU17</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="G15" s="52">
         <f>'RAW GRADES'!BB17</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="H15" s="53">
         <f>'RAW GRADES'!BC17</f>
-        <v>40.888888888888886</v>
+        <v>50.888888888888886</v>
       </c>
       <c r="I15" s="53">
         <f>'RAW GRADES'!BD17</f>
-        <v>40.89</v>
+        <v>50.89</v>
       </c>
       <c r="J15" s="52">
         <f>'RAW GRADES'!BK17</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K15" s="52">
         <f>'RAW GRADES'!CP17</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L15" s="52">
         <f>'RAW GRADES'!CQ17</f>
-        <v>44.375</v>
+        <v>70.444444444444443</v>
       </c>
       <c r="M15" s="54">
         <f>'RAW GRADES'!CR17</f>
-        <v>44.38</v>
+        <v>70.44</v>
       </c>
       <c r="N15" s="58">
         <f>'RAW GRADES'!CS17</f>
-        <v>42.984000000000002</v>
+        <v>62.62</v>
       </c>
       <c r="O15" s="56">
         <f>'RAW GRADES'!CT17</f>
@@ -23769,39 +23910,39 @@
       </c>
       <c r="F16" s="52">
         <f>'RAW GRADES'!AU18</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G16" s="52">
         <f>'RAW GRADES'!BB18</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H16" s="53">
         <f>'RAW GRADES'!BC18</f>
-        <v>37.066666666666663</v>
+        <v>47.066666666666663</v>
       </c>
       <c r="I16" s="53">
         <f>'RAW GRADES'!BD18</f>
-        <v>37.07</v>
+        <v>47.07</v>
       </c>
       <c r="J16" s="52">
         <f>'RAW GRADES'!BK18</f>
-        <v>0</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="K16" s="52">
         <f>'RAW GRADES'!CP18</f>
-        <v>47.1875</v>
+        <v>41.944444444444443</v>
       </c>
       <c r="L16" s="52">
         <f>'RAW GRADES'!CQ18</f>
-        <v>47.1875</v>
+        <v>71.277777777777771</v>
       </c>
       <c r="M16" s="54">
         <f>'RAW GRADES'!CR18</f>
-        <v>47.19</v>
+        <v>71.28</v>
       </c>
       <c r="N16" s="58">
         <f>'RAW GRADES'!CS18</f>
-        <v>43.141999999999996</v>
+        <v>61.596000000000004</v>
       </c>
       <c r="O16" s="56">
         <f>'RAW GRADES'!CT18</f>
@@ -23834,39 +23975,39 @@
       </c>
       <c r="F17" s="52">
         <f>'RAW GRADES'!AU19</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="52">
         <f>'RAW GRADES'!BB19</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="53">
         <f>'RAW GRADES'!BC19</f>
-        <v>42.9</v>
+        <v>51.9</v>
       </c>
       <c r="I17" s="53">
         <f>'RAW GRADES'!BD19</f>
-        <v>42.9</v>
+        <v>51.9</v>
       </c>
       <c r="J17" s="52">
         <f>'RAW GRADES'!BK19</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K17" s="52">
         <f>'RAW GRADES'!CP19</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L17" s="52">
         <f>'RAW GRADES'!CQ19</f>
-        <v>44.375</v>
+        <v>70.444444444444443</v>
       </c>
       <c r="M17" s="54">
         <f>'RAW GRADES'!CR19</f>
-        <v>44.38</v>
+        <v>70.44</v>
       </c>
       <c r="N17" s="58">
         <f>'RAW GRADES'!CS19</f>
-        <v>43.787999999999997</v>
+        <v>63.024000000000001</v>
       </c>
       <c r="O17" s="56">
         <f>'RAW GRADES'!CT19</f>
@@ -23899,39 +24040,39 @@
       </c>
       <c r="F18" s="52">
         <f>'RAW GRADES'!AU20</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G18" s="52">
         <f>'RAW GRADES'!BB20</f>
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="H18" s="53">
         <f>'RAW GRADES'!BC20</f>
-        <v>39.611111111111114</v>
+        <v>47.611111111111114</v>
       </c>
       <c r="I18" s="53">
         <f>'RAW GRADES'!BD20</f>
-        <v>39.61</v>
+        <v>47.61</v>
       </c>
       <c r="J18" s="52">
         <f>'RAW GRADES'!BK20</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K18" s="52">
         <f>'RAW GRADES'!CP20</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L18" s="52">
         <f>'RAW GRADES'!CQ20</f>
-        <v>44.375</v>
+        <v>56.111111111111114</v>
       </c>
       <c r="M18" s="54">
         <f>'RAW GRADES'!CR20</f>
-        <v>44.38</v>
+        <v>56.11</v>
       </c>
       <c r="N18" s="58">
         <f>'RAW GRADES'!CS20</f>
-        <v>42.472000000000001</v>
+        <v>52.709999999999994</v>
       </c>
       <c r="O18" s="56">
         <f>'RAW GRADES'!CT20</f>
@@ -23964,39 +24105,39 @@
       </c>
       <c r="F19" s="52">
         <f>'RAW GRADES'!AU21</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G19" s="52">
         <f>'RAW GRADES'!BB21</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="H19" s="53">
         <f>'RAW GRADES'!BC21</f>
-        <v>42.63333333333334</v>
+        <v>51.13333333333334</v>
       </c>
       <c r="I19" s="53">
         <f>'RAW GRADES'!BD21</f>
-        <v>42.63</v>
+        <v>51.13</v>
       </c>
       <c r="J19" s="52">
         <f>'RAW GRADES'!BK21</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K19" s="52">
         <f>'RAW GRADES'!CP21</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L19" s="52">
         <f>'RAW GRADES'!CQ21</f>
-        <v>44.375</v>
+        <v>70.444444444444443</v>
       </c>
       <c r="M19" s="54">
         <f>'RAW GRADES'!CR21</f>
-        <v>44.38</v>
+        <v>70.44</v>
       </c>
       <c r="N19" s="58">
         <f>'RAW GRADES'!CS21</f>
-        <v>43.680000000000007</v>
+        <v>62.715999999999994</v>
       </c>
       <c r="O19" s="56">
         <f>'RAW GRADES'!CT21</f>
@@ -24029,39 +24170,39 @@
       </c>
       <c r="F20" s="52">
         <f>'RAW GRADES'!AU22</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G20" s="52">
         <f>'RAW GRADES'!BB22</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H20" s="53">
         <f>'RAW GRADES'!BC22</f>
-        <v>36.777777777777779</v>
+        <v>45.777777777777779</v>
       </c>
       <c r="I20" s="53">
         <f>'RAW GRADES'!BD22</f>
-        <v>36.78</v>
+        <v>45.78</v>
       </c>
       <c r="J20" s="52">
         <f>'RAW GRADES'!BK22</f>
-        <v>0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="K20" s="52">
         <f>'RAW GRADES'!CP22</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L20" s="52">
         <f>'RAW GRADES'!CQ22</f>
-        <v>44.375</v>
+        <v>70.277777777777771</v>
       </c>
       <c r="M20" s="54">
         <f>'RAW GRADES'!CR22</f>
-        <v>44.38</v>
+        <v>70.28</v>
       </c>
       <c r="N20" s="58">
         <f>'RAW GRADES'!CS22</f>
-        <v>41.34</v>
+        <v>60.480000000000004</v>
       </c>
       <c r="O20" s="56">
         <f>'RAW GRADES'!CT22</f>
@@ -24094,7 +24235,7 @@
       </c>
       <c r="F21" s="52">
         <f>'RAW GRADES'!AU23</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G21" s="52">
         <f>'RAW GRADES'!BB23</f>
@@ -24102,31 +24243,31 @@
       </c>
       <c r="H21" s="53">
         <f>'RAW GRADES'!BC23</f>
-        <v>41.12222222222222</v>
+        <v>50.12222222222222</v>
       </c>
       <c r="I21" s="53">
         <f>'RAW GRADES'!BD23</f>
-        <v>41.12</v>
+        <v>50.12</v>
       </c>
       <c r="J21" s="52">
         <f>'RAW GRADES'!BK23</f>
-        <v>0</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="K21" s="52">
         <f>'RAW GRADES'!CP23</f>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="L21" s="52">
         <f>'RAW GRADES'!CQ23</f>
-        <v>46.25</v>
+        <v>70.444444444444443</v>
       </c>
       <c r="M21" s="54">
         <f>'RAW GRADES'!CR23</f>
-        <v>46.25</v>
+        <v>70.44</v>
       </c>
       <c r="N21" s="58">
         <f>'RAW GRADES'!CS23</f>
-        <v>44.198</v>
+        <v>62.311999999999998</v>
       </c>
       <c r="O21" s="56">
         <f>'RAW GRADES'!CT23</f>
@@ -24159,39 +24300,39 @@
       </c>
       <c r="F22" s="52">
         <f>'RAW GRADES'!AU24</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G22" s="52">
         <f>'RAW GRADES'!BB24</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" s="53">
         <f>'RAW GRADES'!BC24</f>
-        <v>49.18888888888889</v>
+        <v>59.188888888888883</v>
       </c>
       <c r="I22" s="53">
         <f>'RAW GRADES'!BD24</f>
-        <v>49.19</v>
+        <v>59.19</v>
       </c>
       <c r="J22" s="52">
         <f>'RAW GRADES'!BK24</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K22" s="52">
         <f>'RAW GRADES'!CP24</f>
-        <v>46.875</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="L22" s="52">
         <f>'RAW GRADES'!CQ24</f>
-        <v>46.875</v>
+        <v>58.333333333333329</v>
       </c>
       <c r="M22" s="54">
         <f>'RAW GRADES'!CR24</f>
-        <v>46.88</v>
+        <v>58.33</v>
       </c>
       <c r="N22" s="58">
         <f>'RAW GRADES'!CS24</f>
-        <v>47.804000000000002</v>
+        <v>58.673999999999999</v>
       </c>
       <c r="O22" s="56">
         <f>'RAW GRADES'!CT24</f>
@@ -24224,39 +24365,39 @@
       </c>
       <c r="F23" s="52">
         <f>'RAW GRADES'!AU25</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G23" s="52">
         <f>'RAW GRADES'!BB25</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="53">
         <f>'RAW GRADES'!BC25</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I23" s="53">
         <f>'RAW GRADES'!BD25</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J23" s="52">
         <f>'RAW GRADES'!BK25</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K23" s="52">
         <f>'RAW GRADES'!CP25</f>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="L23" s="52">
         <f>'RAW GRADES'!CQ25</f>
-        <v>46.25</v>
+        <v>57.777777777777786</v>
       </c>
       <c r="M23" s="54">
         <f>'RAW GRADES'!CR25</f>
-        <v>46.25</v>
+        <v>57.78</v>
       </c>
       <c r="N23" s="58">
         <f>'RAW GRADES'!CS25</f>
-        <v>42.15</v>
+        <v>52.268000000000001</v>
       </c>
       <c r="O23" s="56">
         <f>'RAW GRADES'!CT25</f>
@@ -24289,39 +24430,39 @@
       </c>
       <c r="F24" s="52">
         <f>'RAW GRADES'!AU26</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G24" s="52">
         <f>'RAW GRADES'!BB26</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" s="53">
         <f>'RAW GRADES'!BC26</f>
-        <v>44.044444444444437</v>
+        <v>54.044444444444437</v>
       </c>
       <c r="I24" s="53">
         <f>'RAW GRADES'!BD26</f>
-        <v>44.04</v>
+        <v>54.04</v>
       </c>
       <c r="J24" s="52">
         <f>'RAW GRADES'!BK26</f>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="K24" s="52">
         <f>'RAW GRADES'!CP26</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L24" s="52">
         <f>'RAW GRADES'!CQ26</f>
-        <v>44.375</v>
+        <v>68.944444444444443</v>
       </c>
       <c r="M24" s="54">
         <f>'RAW GRADES'!CR26</f>
-        <v>44.38</v>
+        <v>68.94</v>
       </c>
       <c r="N24" s="58">
         <f>'RAW GRADES'!CS26</f>
-        <v>44.244</v>
+        <v>62.98</v>
       </c>
       <c r="O24" s="56">
         <f>'RAW GRADES'!CT26</f>
@@ -24354,39 +24495,39 @@
       </c>
       <c r="F25" s="52">
         <f>'RAW GRADES'!AU27</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G25" s="52">
         <f>'RAW GRADES'!BB27</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" s="53">
         <f>'RAW GRADES'!BC27</f>
-        <v>43.533333333333331</v>
+        <v>53.533333333333331</v>
       </c>
       <c r="I25" s="53">
         <f>'RAW GRADES'!BD27</f>
-        <v>43.53</v>
+        <v>53.53</v>
       </c>
       <c r="J25" s="52">
         <f>'RAW GRADES'!BK27</f>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="K25" s="52">
         <f>'RAW GRADES'!CP27</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L25" s="52">
         <f>'RAW GRADES'!CQ27</f>
-        <v>44.375</v>
+        <v>69.944444444444443</v>
       </c>
       <c r="M25" s="54">
         <f>'RAW GRADES'!CR27</f>
-        <v>44.38</v>
+        <v>69.94</v>
       </c>
       <c r="N25" s="58">
         <f>'RAW GRADES'!CS27</f>
-        <v>44.040000000000006</v>
+        <v>63.376000000000005</v>
       </c>
       <c r="O25" s="56">
         <f>'RAW GRADES'!CT27</f>
@@ -24419,39 +24560,39 @@
       </c>
       <c r="F26" s="52">
         <f>'RAW GRADES'!AU28</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G26" s="52">
         <f>'RAW GRADES'!BB28</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H26" s="53">
         <f>'RAW GRADES'!BC28</f>
-        <v>31.111111111111111</v>
+        <v>40.611111111111114</v>
       </c>
       <c r="I26" s="53">
         <f>'RAW GRADES'!BD28</f>
-        <v>31.11</v>
+        <v>40.61</v>
       </c>
       <c r="J26" s="52">
         <f>'RAW GRADES'!BK28</f>
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="K26" s="52">
         <f>'RAW GRADES'!CP28</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L26" s="52">
         <f>'RAW GRADES'!CQ28</f>
-        <v>44.375</v>
+        <v>68.944444444444443</v>
       </c>
       <c r="M26" s="54">
         <f>'RAW GRADES'!CR28</f>
-        <v>44.38</v>
+        <v>68.94</v>
       </c>
       <c r="N26" s="58">
         <f>'RAW GRADES'!CS28</f>
-        <v>39.072000000000003</v>
+        <v>57.607999999999997</v>
       </c>
       <c r="O26" s="56">
         <f>'RAW GRADES'!CT28</f>
@@ -24484,39 +24625,39 @@
       </c>
       <c r="F27" s="52">
         <f>'RAW GRADES'!AU29</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="G27" s="52">
         <f>'RAW GRADES'!BB29</f>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="H27" s="53">
         <f>'RAW GRADES'!BC29</f>
-        <v>44.433333333333337</v>
+        <v>54.433333333333337</v>
       </c>
       <c r="I27" s="53">
         <f>'RAW GRADES'!BD29</f>
-        <v>44.43</v>
+        <v>54.43</v>
       </c>
       <c r="J27" s="52">
         <f>'RAW GRADES'!BK29</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K27" s="52">
         <f>'RAW GRADES'!CP29</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L27" s="52">
         <f>'RAW GRADES'!CQ29</f>
-        <v>44.375</v>
+        <v>56.111111111111114</v>
       </c>
       <c r="M27" s="54">
         <f>'RAW GRADES'!CR29</f>
-        <v>44.38</v>
+        <v>56.11</v>
       </c>
       <c r="N27" s="58">
         <f>'RAW GRADES'!CS29</f>
-        <v>44.400000000000006</v>
+        <v>55.438000000000002</v>
       </c>
       <c r="O27" s="56">
         <f>'RAW GRADES'!CT29</f>
@@ -24549,39 +24690,39 @@
       </c>
       <c r="F28" s="52">
         <f>'RAW GRADES'!AU30</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G28" s="52">
         <f>'RAW GRADES'!BB30</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" s="53">
         <f>'RAW GRADES'!BC30</f>
-        <v>46.588888888888889</v>
+        <v>56.588888888888889</v>
       </c>
       <c r="I28" s="53">
         <f>'RAW GRADES'!BD30</f>
-        <v>46.59</v>
+        <v>56.59</v>
       </c>
       <c r="J28" s="52">
         <f>'RAW GRADES'!BK30</f>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="K28" s="52">
         <f>'RAW GRADES'!CP30</f>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="L28" s="52">
         <f>'RAW GRADES'!CQ30</f>
-        <v>46.25</v>
+        <v>71.611111111111114</v>
       </c>
       <c r="M28" s="54">
         <f>'RAW GRADES'!CR30</f>
-        <v>46.25</v>
+        <v>71.61</v>
       </c>
       <c r="N28" s="58">
         <f>'RAW GRADES'!CS30</f>
-        <v>46.386000000000003</v>
+        <v>65.602000000000004</v>
       </c>
       <c r="O28" s="56">
         <f>'RAW GRADES'!CT30</f>
@@ -24614,39 +24755,39 @@
       </c>
       <c r="F29" s="52">
         <f>'RAW GRADES'!AU31</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G29" s="52">
         <f>'RAW GRADES'!BB31</f>
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="H29" s="53">
         <f>'RAW GRADES'!BC31</f>
-        <v>25.488888888888887</v>
+        <v>32.988888888888887</v>
       </c>
       <c r="I29" s="53">
         <f>'RAW GRADES'!BD31</f>
-        <v>25.49</v>
+        <v>32.99</v>
       </c>
       <c r="J29" s="52">
         <f>'RAW GRADES'!BK31</f>
-        <v>0</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="K29" s="52">
         <f>'RAW GRADES'!CP31</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L29" s="52">
         <f>'RAW GRADES'!CQ31</f>
-        <v>44.375</v>
+        <v>56.111111111111114</v>
       </c>
       <c r="M29" s="54">
         <f>'RAW GRADES'!CR31</f>
-        <v>44.38</v>
+        <v>56.11</v>
       </c>
       <c r="N29" s="58">
         <f>'RAW GRADES'!CS31</f>
-        <v>36.823999999999998</v>
+        <v>46.861999999999995</v>
       </c>
       <c r="O29" s="56">
         <f>'RAW GRADES'!CT31</f>
@@ -24679,39 +24820,39 @@
       </c>
       <c r="F30" s="52">
         <f>'RAW GRADES'!AU32</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G30" s="52">
         <f>'RAW GRADES'!BB32</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" s="53">
         <f>'RAW GRADES'!BC32</f>
-        <v>46.455555555555556</v>
+        <v>56.455555555555556</v>
       </c>
       <c r="I30" s="53">
         <f>'RAW GRADES'!BD32</f>
-        <v>46.46</v>
+        <v>56.46</v>
       </c>
       <c r="J30" s="52">
         <f>'RAW GRADES'!BK32</f>
-        <v>0</v>
+        <v>30.833333333333332</v>
       </c>
       <c r="K30" s="52">
         <f>'RAW GRADES'!CP32</f>
-        <v>44.375</v>
+        <v>39.444444444444443</v>
       </c>
       <c r="L30" s="52">
         <f>'RAW GRADES'!CQ32</f>
-        <v>44.375</v>
+        <v>70.277777777777771</v>
       </c>
       <c r="M30" s="54">
         <f>'RAW GRADES'!CR32</f>
-        <v>44.38</v>
+        <v>70.28</v>
       </c>
       <c r="N30" s="58">
         <f>'RAW GRADES'!CS32</f>
-        <v>45.212000000000003</v>
+        <v>64.75200000000001</v>
       </c>
       <c r="O30" s="56">
         <f>'RAW GRADES'!CT32</f>
@@ -24744,39 +24885,39 @@
       </c>
       <c r="F31" s="52">
         <f>'RAW GRADES'!AU33</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G31" s="52">
         <f>'RAW GRADES'!BB33</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31" s="53">
         <f>'RAW GRADES'!BC33</f>
-        <v>43.666666666666664</v>
+        <v>53.666666666666664</v>
       </c>
       <c r="I31" s="53">
         <f>'RAW GRADES'!BD33</f>
-        <v>43.67</v>
+        <v>53.67</v>
       </c>
       <c r="J31" s="52">
         <f>'RAW GRADES'!BK33</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K31" s="52">
         <f>'RAW GRADES'!CP33</f>
-        <v>46.25</v>
+        <v>41.111111111111114</v>
       </c>
       <c r="L31" s="52">
         <f>'RAW GRADES'!CQ33</f>
-        <v>46.25</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="M31" s="54">
         <f>'RAW GRADES'!CR33</f>
-        <v>46.25</v>
+        <v>71.11</v>
       </c>
       <c r="N31" s="58">
         <f>'RAW GRADES'!CS33</f>
-        <v>45.218000000000004</v>
+        <v>64.134</v>
       </c>
       <c r="O31" s="56">
         <f>'RAW GRADES'!CT33</f>
@@ -24801,7 +24942,7 @@
       </c>
       <c r="D32" s="89">
         <f>'RAW GRADES'!I34</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E32" s="52">
         <f>'RAW GRADES'!AN34</f>
@@ -24809,47 +24950,47 @@
       </c>
       <c r="F32" s="52">
         <f>'RAW GRADES'!AU34</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G32" s="52">
         <f>'RAW GRADES'!BB34</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" s="53">
         <f>'RAW GRADES'!BC34</f>
-        <v>32.75555555555556</v>
+        <v>63.75555555555556</v>
       </c>
       <c r="I32" s="53">
         <f>'RAW GRADES'!BD34</f>
-        <v>32.76</v>
+        <v>63.76</v>
       </c>
       <c r="J32" s="52">
         <f>'RAW GRADES'!BK34</f>
-        <v>0</v>
+        <v>47.5</v>
       </c>
       <c r="K32" s="52">
         <f>'RAW GRADES'!CP34</f>
-        <v>43.4375</v>
+        <v>38.611111111111114</v>
       </c>
       <c r="L32" s="52">
         <f>'RAW GRADES'!CQ34</f>
-        <v>43.4375</v>
+        <v>86.111111111111114</v>
       </c>
       <c r="M32" s="54">
         <f>'RAW GRADES'!CR34</f>
-        <v>43.44</v>
+        <v>86.11</v>
       </c>
       <c r="N32" s="58">
         <f>'RAW GRADES'!CS34</f>
-        <v>39.167999999999992</v>
+        <v>77.17</v>
       </c>
       <c r="O32" s="56">
         <f>'RAW GRADES'!CT34</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="P32" s="59" t="str">
         <f t="shared" si="0"/>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -27248,106 +27389,106 @@
       <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="228"/>
-      <c r="B3" s="228"/>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="229" t="s">
+      <c r="A4" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="229"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
+      <c r="B4" s="262"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="230" t="s">
+      <c r="A5" s="263" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="230"/>
-      <c r="C5" s="230"/>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="229" t="s">
+      <c r="A6" s="262" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="229"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
+      <c r="B6" s="262"/>
+      <c r="C6" s="262"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="231" t="s">
+      <c r="A7" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="231"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
+      <c r="E7" s="264"/>
+      <c r="F7" s="264"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
+      <c r="A8" s="265"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="265"/>
+      <c r="D8" s="265"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="265"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="228"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="228"/>
-      <c r="D9" s="228"/>
-      <c r="E9" s="228"/>
-      <c r="F9" s="228"/>
+      <c r="A9" s="259"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="233"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="233"/>
+      <c r="A10" s="266"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="234"/>
-      <c r="C11" s="234"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
+      <c r="B11" s="267"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="267"/>
+      <c r="E11" s="267"/>
+      <c r="F11" s="267"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="232"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
+      <c r="A12" s="265"/>
+      <c r="B12" s="265"/>
+      <c r="C12" s="265"/>
+      <c r="D12" s="265"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="60"/>
       <c r="B13" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="235" t="str">
+      <c r="C13" s="268" t="str">
         <f>REGISTRATION!C7</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
       <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6">
@@ -27355,12 +27496,12 @@
       <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="227" t="str">
+      <c r="C14" s="261" t="str">
         <f>REGISTRATION!C6</f>
         <v>Web Development</v>
       </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
+      <c r="D14" s="261"/>
+      <c r="E14" s="261"/>
       <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6">
@@ -27368,12 +27509,12 @@
       <c r="B15" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="238" t="str">
+      <c r="C15" s="247" t="str">
         <f>REGISTRATION!A4</f>
         <v>FIRST YEAR</v>
       </c>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
       <c r="F15" s="63"/>
     </row>
     <row r="16" spans="1:6">
@@ -27381,12 +27522,12 @@
       <c r="B16" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="238" t="str">
+      <c r="C16" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!D8))</f>
         <v>CS 3B</v>
       </c>
-      <c r="D16" s="238"/>
-      <c r="E16" s="238"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
       <c r="F16" s="63"/>
     </row>
     <row r="17" spans="1:6">
@@ -27394,12 +27535,12 @@
       <c r="B17" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="238" t="str">
+      <c r="C17" s="247" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!P13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!P12))</f>
         <v>FIRST SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
       <c r="F17" s="63"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27411,42 +27552,42 @@
       <c r="F18" s="60"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="239" t="s">
+      <c r="A19" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="242" t="s">
+      <c r="B19" s="251" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="239" t="s">
+      <c r="C19" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="239" t="s">
+      <c r="D19" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="244" t="s">
+      <c r="E19" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="239" t="s">
+      <c r="F19" s="248" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="240"/>
-      <c r="B20" s="243"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="245"/>
-      <c r="F20" s="247"/>
+      <c r="A20" s="249"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="256"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="241"/>
+      <c r="A21" s="250"/>
       <c r="B21" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="248"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="255"/>
+      <c r="F21" s="257"/>
     </row>
     <row r="22" spans="1:6" ht="18">
       <c r="A22" s="65">
@@ -28062,15 +28203,15 @@
       </c>
       <c r="D46" s="68">
         <f>'DEPT CHAIR'!O32</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E46" s="69" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" s="70" t="str">
         <f>'DEPT CHAIR'!P32</f>
-        <v>FAILED</v>
+        <v>PASSED</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18">
@@ -28959,14 +29100,14 @@
       <c r="F82" s="84"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A83" s="255" t="s">
+      <c r="A83" s="231" t="s">
         <v>119</v>
       </c>
-      <c r="B83" s="256"/>
-      <c r="C83" s="256"/>
-      <c r="D83" s="256"/>
-      <c r="E83" s="256"/>
-      <c r="F83" s="257"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="232"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="232"/>
+      <c r="F83" s="233"/>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="62"/>
@@ -28999,11 +29140,11 @@
       </c>
       <c r="C87" s="60"/>
       <c r="D87" s="60"/>
-      <c r="E87" s="249">
+      <c r="E87" s="258">
         <f ca="1">NOW()</f>
-        <v>43070.321226157408</v>
-      </c>
-      <c r="F87" s="249"/>
+        <v>43077.509353472225</v>
+      </c>
+      <c r="F87" s="258"/>
     </row>
     <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="60"/>
@@ -29013,10 +29154,10 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
-      <c r="E88" s="228" t="s">
+      <c r="E88" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="F88" s="228"/>
+      <c r="F88" s="259"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="60"/>
@@ -29033,8 +29174,8 @@
       <c r="B90" s="74"/>
       <c r="C90" s="74"/>
       <c r="D90" s="74"/>
-      <c r="E90" s="228"/>
-      <c r="F90" s="228"/>
+      <c r="E90" s="259"/>
+      <c r="F90" s="259"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="60"/>
@@ -29150,14 +29291,14 @@
       <c r="F104" s="60"/>
     </row>
     <row r="105" spans="1:7" ht="15.75">
-      <c r="A105" s="250" t="s">
+      <c r="A105" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="250"/>
-      <c r="C105" s="250"/>
-      <c r="D105" s="250"/>
-      <c r="E105" s="250"/>
-      <c r="F105" s="250"/>
+      <c r="B105" s="260"/>
+      <c r="C105" s="260"/>
+      <c r="D105" s="260"/>
+      <c r="E105" s="260"/>
+      <c r="F105" s="260"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" thickBot="1">
       <c r="A106" s="60"/>
@@ -29172,124 +29313,124 @@
       <c r="B107" s="78" t="s">
         <v>137</v>
       </c>
-      <c r="C107" s="268" t="s">
+      <c r="C107" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="D107" s="237"/>
-      <c r="E107" s="236" t="s">
+      <c r="D107" s="245"/>
+      <c r="E107" s="246" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="237"/>
+      <c r="F107" s="245"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="60"/>
       <c r="B108" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="264">
+      <c r="C108" s="240">
         <f>COUNTIF($D$22:$D$82,"=1.0")+COUNTIF($D$22:$D$82,"=1.25")+(COUNTIF($D$22:$D$82,"=1.50")+COUNTIF($D$22:$D$82,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="D108" s="265"/>
-      <c r="E108" s="266">
+      <c r="D108" s="241"/>
+      <c r="E108" s="242">
         <f>(C108/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F108" s="267"/>
+      <c r="F108" s="243"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="60"/>
       <c r="B109" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="258">
+      <c r="C109" s="234">
         <f>COUNTIF($D$22:$D$82,"=2.0")+COUNTIF($D$22:$D$82,"=2.25")+(COUNTIF($D$22:$D$82,"=2.50")+COUNTIF($D$22:$D$82,"=2.75"))</f>
-        <v>0</v>
-      </c>
-      <c r="D109" s="259"/>
-      <c r="E109" s="260">
+        <v>1</v>
+      </c>
+      <c r="D109" s="235"/>
+      <c r="E109" s="236">
         <f>(C109/$C$114)*100</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="261"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F109" s="237"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="60"/>
       <c r="B110" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="258">
+      <c r="C110" s="234">
         <f>COUNTIF($D$22:$D$82,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="D110" s="259"/>
-      <c r="E110" s="260">
+      <c r="D110" s="235"/>
+      <c r="E110" s="236">
         <f t="shared" ref="E110:E113" si="1">(C110/$C$114)*100</f>
         <v>0</v>
       </c>
-      <c r="F110" s="261"/>
+      <c r="F110" s="237"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="60"/>
       <c r="B111" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="258">
+      <c r="C111" s="234">
         <f>COUNTIF($D$22:$D$82,"=5.0")</f>
-        <v>60</v>
-      </c>
-      <c r="D111" s="259"/>
-      <c r="E111" s="260">
+        <v>59</v>
+      </c>
+      <c r="D111" s="235"/>
+      <c r="E111" s="236">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F111" s="261"/>
+        <v>98.333333333333329</v>
+      </c>
+      <c r="F111" s="237"/>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="60"/>
       <c r="B112" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="262">
-        <v>0</v>
-      </c>
-      <c r="D112" s="263"/>
-      <c r="E112" s="260">
+      <c r="C112" s="238">
+        <v>0</v>
+      </c>
+      <c r="D112" s="239"/>
+      <c r="E112" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F112" s="261"/>
+      <c r="F112" s="237"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="60"/>
       <c r="B113" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="262">
-        <v>0</v>
-      </c>
-      <c r="D113" s="263"/>
-      <c r="E113" s="260">
+      <c r="C113" s="238">
+        <v>0</v>
+      </c>
+      <c r="D113" s="239"/>
+      <c r="E113" s="236">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F113" s="261"/>
+      <c r="F113" s="237"/>
     </row>
     <row r="114" spans="1:6" ht="16.5" thickBot="1">
       <c r="A114" s="60"/>
       <c r="B114" s="88" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="251">
+      <c r="C114" s="227">
         <f>SUM(C108:D113)</f>
         <v>60</v>
       </c>
-      <c r="D114" s="252"/>
-      <c r="E114" s="253">
+      <c r="D114" s="228"/>
+      <c r="E114" s="229">
         <f>SUM(E108:F113)</f>
         <v>100</v>
       </c>
-      <c r="F114" s="254"/>
+      <c r="F114" s="230"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="60"/>
@@ -29457,6 +29598,32 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="42">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="E114:F114"/>
     <mergeCell ref="A83:F83"/>
@@ -29473,32 +29640,6 @@
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="E110:F110"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="F22:F81">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
